--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T604"/>
+  <dimension ref="A1:T606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>270</v>
+        <v>1760</v>
       </c>
       <c r="N373" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O373" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P373" t="n">
-        <v>8500</v>
+        <v>11591</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>425</v>
+        <v>580</v>
       </c>
       <c r="T373" t="n">
         <v>20</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30280,21 +30280,21 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>1430</v>
+        <v>1930</v>
       </c>
       <c r="N374" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O374" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P374" t="n">
         <v>13000</v>
       </c>
-      <c r="P374" t="n">
-        <v>11629</v>
-      </c>
       <c r="Q374" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="T374" t="n">
         <v>20</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>1630</v>
+        <v>270</v>
       </c>
       <c r="N375" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O375" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P375" t="n">
-        <v>14172</v>
+        <v>8500</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>709</v>
+        <v>425</v>
       </c>
       <c r="T375" t="n">
         <v>20</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30435,25 +30435,25 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>216</v>
+        <v>1430</v>
       </c>
       <c r="N376" t="n">
-        <v>19500</v>
+        <v>11000</v>
       </c>
       <c r="O376" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P376" t="n">
-        <v>19750</v>
+        <v>11629</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>988</v>
+        <v>581</v>
       </c>
       <c r="T376" t="n">
         <v>20</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>360</v>
+        <v>1630</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O377" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P377" t="n">
-        <v>10000</v>
+        <v>14172</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>500</v>
+        <v>709</v>
       </c>
       <c r="T377" t="n">
         <v>20</v>
@@ -30595,25 +30595,25 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>1680</v>
+        <v>216</v>
       </c>
       <c r="N378" t="n">
-        <v>11000</v>
+        <v>19500</v>
       </c>
       <c r="O378" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P378" t="n">
-        <v>11500</v>
+        <v>19750</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>575</v>
+        <v>988</v>
       </c>
       <c r="T378" t="n">
         <v>20</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="N379" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O379" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P379" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>725</v>
+        <v>500</v>
       </c>
       <c r="T379" t="n">
         <v>20</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30755,25 +30755,25 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>200</v>
+        <v>1680</v>
       </c>
       <c r="N380" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O380" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P380" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T380" t="n">
         <v>20</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="N381" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O381" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P381" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>500</v>
+        <v>725</v>
       </c>
       <c r="T381" t="n">
         <v>20</v>
@@ -30915,25 +30915,25 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>1690</v>
+        <v>200</v>
       </c>
       <c r="N382" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O382" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P382" t="n">
-        <v>10746</v>
+        <v>15000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>537</v>
+        <v>750</v>
       </c>
       <c r="T382" t="n">
         <v>20</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="N383" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O383" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P383" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T383" t="n">
         <v>20</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>2310</v>
+        <v>1690</v>
       </c>
       <c r="N384" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O384" t="n">
         <v>12000</v>
       </c>
-      <c r="O384" t="n">
-        <v>13000</v>
-      </c>
       <c r="P384" t="n">
-        <v>12498</v>
+        <v>10746</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>625</v>
+        <v>537</v>
       </c>
       <c r="T384" t="n">
         <v>20</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T385" t="n">
         <v>20</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>200</v>
+        <v>2310</v>
       </c>
       <c r="N386" t="n">
         <v>12000</v>
       </c>
       <c r="O386" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P386" t="n">
-        <v>12000</v>
+        <v>12498</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="T386" t="n">
         <v>20</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>2740</v>
+        <v>200</v>
       </c>
       <c r="N387" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O387" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P387" t="n">
-        <v>15234</v>
+        <v>10000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>762</v>
+        <v>500</v>
       </c>
       <c r="T387" t="n">
         <v>20</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31395,25 +31395,25 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="N388" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O388" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P388" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="T388" t="n">
         <v>20</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>1920</v>
+        <v>2740</v>
       </c>
       <c r="N389" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O389" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P389" t="n">
-        <v>12083</v>
+        <v>15234</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>604</v>
+        <v>762</v>
       </c>
       <c r="T389" t="n">
         <v>20</v>
@@ -31555,25 +31555,25 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>1200</v>
+        <v>324</v>
       </c>
       <c r="N390" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O390" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P390" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T390" t="n">
         <v>20</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>660</v>
+        <v>1920</v>
       </c>
       <c r="N391" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O391" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P391" t="n">
-        <v>9545</v>
+        <v>12083</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>477</v>
+        <v>604</v>
       </c>
       <c r="T391" t="n">
         <v>20</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="N392" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O392" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P392" t="n">
-        <v>11043</v>
+        <v>13500</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>552</v>
+        <v>675</v>
       </c>
       <c r="T392" t="n">
         <v>20</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>1420</v>
+        <v>660</v>
       </c>
       <c r="N393" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O393" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P393" t="n">
-        <v>13394</v>
+        <v>9545</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>670</v>
+        <v>477</v>
       </c>
       <c r="T393" t="n">
         <v>20</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>680</v>
+        <v>1150</v>
       </c>
       <c r="N394" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O394" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P394" t="n">
-        <v>8824</v>
+        <v>11043</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>441</v>
+        <v>552</v>
       </c>
       <c r="T394" t="n">
         <v>20</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>2040</v>
+        <v>1420</v>
       </c>
       <c r="N395" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O395" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P395" t="n">
-        <v>9843</v>
+        <v>13394</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>492</v>
+        <v>670</v>
       </c>
       <c r="T395" t="n">
         <v>20</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>560</v>
+        <v>680</v>
       </c>
       <c r="N396" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O396" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P396" t="n">
-        <v>11000</v>
+        <v>8824</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>550</v>
+        <v>441</v>
       </c>
       <c r="T396" t="n">
         <v>20</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>4220</v>
+        <v>2040</v>
       </c>
       <c r="N397" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O397" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P397" t="n">
-        <v>11265</v>
+        <v>9843</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>563</v>
+        <v>492</v>
       </c>
       <c r="T397" t="n">
         <v>20</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="N398" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O398" t="n">
         <v>11000</v>
       </c>
       <c r="P398" t="n">
-        <v>10789</v>
+        <v>11000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="T398" t="n">
         <v>20</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,11 +32280,11 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>3960</v>
+        <v>4220</v>
       </c>
       <c r="N399" t="n">
         <v>10000</v>
@@ -32293,7 +32293,7 @@
         <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>10909</v>
+        <v>11265</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="T399" t="n">
         <v>20</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>480</v>
+        <v>760</v>
       </c>
       <c r="N400" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O400" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P400" t="n">
-        <v>13000</v>
+        <v>10789</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>650</v>
+        <v>539</v>
       </c>
       <c r="T400" t="n">
         <v>20</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>4340</v>
+        <v>3960</v>
       </c>
       <c r="N401" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O401" t="n">
         <v>12000</v>
       </c>
-      <c r="O401" t="n">
-        <v>14000</v>
-      </c>
       <c r="P401" t="n">
-        <v>12866</v>
+        <v>10909</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>643</v>
+        <v>545</v>
       </c>
       <c r="T401" t="n">
         <v>20</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N402" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O402" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P402" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T402" t="n">
         <v>20</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>800</v>
+        <v>4340</v>
       </c>
       <c r="N403" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P403" t="n">
-        <v>9500</v>
+        <v>12866</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>475</v>
+        <v>643</v>
       </c>
       <c r="T403" t="n">
         <v>20</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N404" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P404" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="T404" t="n">
         <v>20</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>1270</v>
+        <v>800</v>
       </c>
       <c r="N405" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O405" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>11441</v>
+        <v>9500</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>572</v>
+        <v>475</v>
       </c>
       <c r="T405" t="n">
         <v>20</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32835,25 +32835,25 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="N406" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O406" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P406" t="n">
-        <v>20561</v>
+        <v>10000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1028</v>
+        <v>500</v>
       </c>
       <c r="T406" t="n">
         <v>20</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>960</v>
+        <v>1270</v>
       </c>
       <c r="N407" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O407" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>9500</v>
+        <v>11441</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>475</v>
+        <v>572</v>
       </c>
       <c r="T407" t="n">
         <v>20</v>
@@ -32995,25 +32995,25 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>800</v>
+        <v>246</v>
       </c>
       <c r="N408" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P408" t="n">
-        <v>11500</v>
+        <v>20561</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>575</v>
+        <v>1028</v>
       </c>
       <c r="T408" t="n">
         <v>20</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>2080</v>
+        <v>960</v>
       </c>
       <c r="N409" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O409" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>13394</v>
+        <v>9500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>670</v>
+        <v>475</v>
       </c>
       <c r="T409" t="n">
         <v>20</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>1880</v>
+        <v>800</v>
       </c>
       <c r="N410" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O410" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P410" t="n">
-        <v>14340</v>
+        <v>11500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>717</v>
+        <v>575</v>
       </c>
       <c r="T410" t="n">
         <v>20</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>250</v>
+        <v>2080</v>
       </c>
       <c r="N411" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O411" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P411" t="n">
-        <v>9000</v>
+        <v>13394</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>450</v>
+        <v>670</v>
       </c>
       <c r="T411" t="n">
         <v>20</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="N412" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O412" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P412" t="n">
-        <v>11947</v>
+        <v>14340</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>597</v>
+        <v>717</v>
       </c>
       <c r="T412" t="n">
         <v>20</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>1980</v>
+        <v>250</v>
       </c>
       <c r="N413" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O413" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P413" t="n">
-        <v>13424</v>
+        <v>9000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>671</v>
+        <v>450</v>
       </c>
       <c r="T413" t="n">
         <v>20</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>1680</v>
+        <v>1900</v>
       </c>
       <c r="N414" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O414" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P414" t="n">
-        <v>11167</v>
+        <v>11947</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="T414" t="n">
         <v>20</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33564,7 +33564,7 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>1200</v>
+        <v>1980</v>
       </c>
       <c r="N415" t="n">
         <v>13000</v>
@@ -33573,7 +33573,7 @@
         <v>14000</v>
       </c>
       <c r="P415" t="n">
-        <v>13500</v>
+        <v>13424</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="T415" t="n">
         <v>20</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>156</v>
+        <v>1680</v>
       </c>
       <c r="N416" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="O416" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P416" t="n">
-        <v>21500</v>
+        <v>11167</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1075</v>
+        <v>558</v>
       </c>
       <c r="T416" t="n">
         <v>20</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>560</v>
+        <v>1200</v>
       </c>
       <c r="N417" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P417" t="n">
-        <v>8929</v>
+        <v>13500</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>446</v>
+        <v>675</v>
       </c>
       <c r="T417" t="n">
         <v>20</v>
@@ -33795,25 +33795,25 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>1180</v>
+        <v>156</v>
       </c>
       <c r="N418" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O418" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P418" t="n">
-        <v>10898</v>
+        <v>21500</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>545</v>
+        <v>1075</v>
       </c>
       <c r="T418" t="n">
         <v>20</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="N419" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P419" t="n">
-        <v>11368</v>
+        <v>8929</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="T419" t="n">
         <v>20</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>324</v>
+        <v>1180</v>
       </c>
       <c r="N420" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O420" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>19667</v>
+        <v>10898</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>983</v>
+        <v>545</v>
       </c>
       <c r="T420" t="n">
         <v>20</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>2160</v>
+        <v>760</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>9167</v>
+        <v>11368</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>458</v>
+        <v>568</v>
       </c>
       <c r="T421" t="n">
         <v>20</v>
@@ -34115,25 +34115,25 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>2520</v>
+        <v>324</v>
       </c>
       <c r="N422" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O422" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P422" t="n">
-        <v>11500</v>
+        <v>19667</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>575</v>
+        <v>983</v>
       </c>
       <c r="T422" t="n">
         <v>20</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>216</v>
+        <v>2160</v>
       </c>
       <c r="N423" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O423" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P423" t="n">
-        <v>21500</v>
+        <v>9167</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1075</v>
+        <v>458</v>
       </c>
       <c r="T423" t="n">
         <v>20</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>150</v>
+        <v>2520</v>
       </c>
       <c r="N424" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O424" t="n">
         <v>12000</v>
       </c>
       <c r="P424" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="T424" t="n">
         <v>20</v>
@@ -34355,25 +34355,25 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>1510</v>
+        <v>216</v>
       </c>
       <c r="N425" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O425" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P425" t="n">
-        <v>14914</v>
+        <v>21500</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>746</v>
+        <v>1075</v>
       </c>
       <c r="T425" t="n">
         <v>20</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>1950</v>
+        <v>150</v>
       </c>
       <c r="N426" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>17159</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>858</v>
+        <v>600</v>
       </c>
       <c r="T426" t="n">
         <v>20</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>670</v>
+        <v>1510</v>
       </c>
       <c r="N427" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O427" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P427" t="n">
-        <v>6896</v>
+        <v>14914</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>345</v>
+        <v>746</v>
       </c>
       <c r="T427" t="n">
         <v>20</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>1070</v>
+        <v>1950</v>
       </c>
       <c r="N428" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O428" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P428" t="n">
-        <v>8374</v>
+        <v>17159</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>419</v>
+        <v>858</v>
       </c>
       <c r="T428" t="n">
         <v>20</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>1230</v>
+        <v>670</v>
       </c>
       <c r="N429" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O429" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P429" t="n">
-        <v>9610</v>
+        <v>6896</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="T429" t="n">
         <v>20</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34755,25 +34755,25 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>350</v>
+        <v>1070</v>
       </c>
       <c r="N430" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O430" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P430" t="n">
-        <v>13500</v>
+        <v>8374</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>675</v>
+        <v>419</v>
       </c>
       <c r="T430" t="n">
         <v>20</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>300</v>
+        <v>1230</v>
       </c>
       <c r="N431" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O431" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>6000</v>
+        <v>9610</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="T431" t="n">
         <v>20</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>1660</v>
+        <v>350</v>
       </c>
       <c r="N432" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O432" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P432" t="n">
-        <v>7904</v>
+        <v>13500</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>395</v>
+        <v>675</v>
       </c>
       <c r="T432" t="n">
         <v>20</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N433" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="O433" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P433" t="n">
-        <v>9818</v>
+        <v>6000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>491</v>
+        <v>300</v>
       </c>
       <c r="T433" t="n">
         <v>20</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>1520</v>
+        <v>1660</v>
       </c>
       <c r="N434" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O434" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P434" t="n">
-        <v>11434</v>
+        <v>7904</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>572</v>
+        <v>395</v>
       </c>
       <c r="T434" t="n">
         <v>20</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="N435" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O435" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>14000</v>
+        <v>9818</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>700</v>
+        <v>491</v>
       </c>
       <c r="T435" t="n">
         <v>20</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>1800</v>
+        <v>1520</v>
       </c>
       <c r="N436" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O436" t="n">
         <v>12000</v>
       </c>
-      <c r="O436" t="n">
-        <v>14000</v>
-      </c>
       <c r="P436" t="n">
-        <v>13222</v>
+        <v>11434</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>661</v>
+        <v>572</v>
       </c>
       <c r="T436" t="n">
         <v>20</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="N437" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O437" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P437" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T437" t="n">
         <v>20</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="N438" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O438" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P438" t="n">
-        <v>9000</v>
+        <v>13222</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>450</v>
+        <v>661</v>
       </c>
       <c r="T438" t="n">
         <v>20</v>
@@ -35475,25 +35475,25 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>1050</v>
+        <v>108</v>
       </c>
       <c r="N439" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="O439" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P439" t="n">
-        <v>10048</v>
+        <v>16000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>502</v>
+        <v>800</v>
       </c>
       <c r="T439" t="n">
         <v>20</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>1370</v>
+        <v>250</v>
       </c>
       <c r="N440" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O440" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P440" t="n">
-        <v>11774</v>
+        <v>9000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>589</v>
+        <v>450</v>
       </c>
       <c r="T440" t="n">
         <v>20</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35635,25 +35635,25 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>216</v>
+        <v>1050</v>
       </c>
       <c r="N441" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="O441" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P441" t="n">
-        <v>18500</v>
+        <v>10048</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>925</v>
+        <v>502</v>
       </c>
       <c r="T441" t="n">
         <v>20</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>1200</v>
+        <v>1370</v>
       </c>
       <c r="N442" t="n">
         <v>11000</v>
       </c>
       <c r="O442" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P442" t="n">
-        <v>11500</v>
+        <v>11774</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="T442" t="n">
         <v>20</v>
@@ -35795,25 +35795,25 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>1680</v>
+        <v>216</v>
       </c>
       <c r="N443" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O443" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P443" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T443" t="n">
         <v>20</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>216</v>
+        <v>1200</v>
       </c>
       <c r="N444" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O444" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1025</v>
+        <v>575</v>
       </c>
       <c r="T444" t="n">
         <v>20</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>2160</v>
+        <v>1680</v>
       </c>
       <c r="N445" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O445" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P445" t="n">
-        <v>10241</v>
+        <v>12500</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>512</v>
+        <v>625</v>
       </c>
       <c r="T445" t="n">
         <v>20</v>
@@ -36035,25 +36035,25 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>2000</v>
+        <v>216</v>
       </c>
       <c r="N446" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O446" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P446" t="n">
-        <v>12840</v>
+        <v>20500</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>642</v>
+        <v>1025</v>
       </c>
       <c r="T446" t="n">
         <v>20</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>320</v>
+        <v>2160</v>
       </c>
       <c r="N447" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O447" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P447" t="n">
-        <v>10500</v>
+        <v>10241</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="T447" t="n">
         <v>20</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N448" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O448" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P448" t="n">
-        <v>10500</v>
+        <v>12840</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>525</v>
+        <v>642</v>
       </c>
       <c r="T448" t="n">
         <v>20</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>1920</v>
+        <v>320</v>
       </c>
       <c r="N449" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O449" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P449" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="T449" t="n">
         <v>20</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>640</v>
+        <v>1600</v>
       </c>
       <c r="N450" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O450" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P450" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="T450" t="n">
         <v>20</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>216</v>
+        <v>1920</v>
       </c>
       <c r="N451" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O451" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P451" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1025</v>
+        <v>625</v>
       </c>
       <c r="T451" t="n">
         <v>20</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>2160</v>
+        <v>640</v>
       </c>
       <c r="N452" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O452" t="n">
         <v>10000</v>
       </c>
-      <c r="O452" t="n">
-        <v>11000</v>
-      </c>
       <c r="P452" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="T452" t="n">
         <v>20</v>
@@ -36595,25 +36595,25 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>1840</v>
+        <v>216</v>
       </c>
       <c r="N453" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O453" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P453" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>625</v>
+        <v>1025</v>
       </c>
       <c r="T453" t="n">
         <v>20</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>400</v>
+        <v>2160</v>
       </c>
       <c r="N454" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O454" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P454" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="T454" t="n">
         <v>20</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>810</v>
+        <v>1840</v>
       </c>
       <c r="N455" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O455" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P455" t="n">
-        <v>8444</v>
+        <v>12500</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>422</v>
+        <v>625</v>
       </c>
       <c r="T455" t="n">
         <v>20</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>1730</v>
+        <v>400</v>
       </c>
       <c r="N456" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="O456" t="n">
         <v>10000</v>
       </c>
       <c r="P456" t="n">
-        <v>9653</v>
+        <v>9750</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="T456" t="n">
         <v>20</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="N457" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O457" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="P457" t="n">
-        <v>11214</v>
+        <v>8444</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>561</v>
+        <v>422</v>
       </c>
       <c r="T457" t="n">
         <v>20</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>2730</v>
+        <v>1730</v>
       </c>
       <c r="N458" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O458" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P458" t="n">
-        <v>11473</v>
+        <v>9653</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="T458" t="n">
         <v>20</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>216</v>
+        <v>840</v>
       </c>
       <c r="N459" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O459" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="P459" t="n">
-        <v>14500</v>
+        <v>11214</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>725</v>
+        <v>561</v>
       </c>
       <c r="T459" t="n">
         <v>20</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>1830</v>
+        <v>2730</v>
       </c>
       <c r="N460" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O460" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P460" t="n">
-        <v>13235</v>
+        <v>11473</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>662</v>
+        <v>574</v>
       </c>
       <c r="T460" t="n">
         <v>20</v>
@@ -37235,25 +37235,25 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="N461" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O461" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P461" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T461" t="n">
         <v>20</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>1510</v>
+        <v>1830</v>
       </c>
       <c r="N462" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O462" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P462" t="n">
-        <v>14179</v>
+        <v>13235</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>709</v>
+        <v>662</v>
       </c>
       <c r="T462" t="n">
         <v>20</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>1690</v>
+        <v>150</v>
       </c>
       <c r="N463" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O463" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P463" t="n">
-        <v>10172</v>
+        <v>13000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>509</v>
+        <v>650</v>
       </c>
       <c r="T463" t="n">
         <v>20</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>780</v>
+        <v>1510</v>
       </c>
       <c r="N464" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O464" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P464" t="n">
-        <v>10615</v>
+        <v>14179</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>531</v>
+        <v>709</v>
       </c>
       <c r="T464" t="n">
         <v>20</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>2420</v>
+        <v>1690</v>
       </c>
       <c r="N465" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O465" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P465" t="n">
-        <v>11446</v>
+        <v>10172</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>572</v>
+        <v>509</v>
       </c>
       <c r="T465" t="n">
         <v>20</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37635,25 +37635,25 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>216</v>
+        <v>780</v>
       </c>
       <c r="N466" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O466" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P466" t="n">
-        <v>20500</v>
+        <v>10615</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1025</v>
+        <v>531</v>
       </c>
       <c r="T466" t="n">
         <v>20</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>150</v>
+        <v>2420</v>
       </c>
       <c r="N467" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="O467" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P467" t="n">
-        <v>8000</v>
+        <v>11446</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>400</v>
+        <v>572</v>
       </c>
       <c r="T467" t="n">
         <v>20</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>950</v>
+        <v>216</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P468" t="n">
-        <v>9579</v>
+        <v>20500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>479</v>
+        <v>1025</v>
       </c>
       <c r="T468" t="n">
         <v>20</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>2390</v>
+        <v>150</v>
       </c>
       <c r="N469" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O469" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P469" t="n">
-        <v>11950</v>
+        <v>8000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>598</v>
+        <v>400</v>
       </c>
       <c r="T469" t="n">
         <v>20</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37955,25 +37955,25 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>216</v>
+        <v>950</v>
       </c>
       <c r="N470" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O470" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>15500</v>
+        <v>9579</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>775</v>
+        <v>479</v>
       </c>
       <c r="T470" t="n">
         <v>20</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>300</v>
+        <v>2390</v>
       </c>
       <c r="N471" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O471" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P471" t="n">
-        <v>8000</v>
+        <v>11950</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>400</v>
+        <v>598</v>
       </c>
       <c r="T471" t="n">
         <v>20</v>
@@ -38115,25 +38115,25 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>1500</v>
+        <v>216</v>
       </c>
       <c r="N472" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O472" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P472" t="n">
-        <v>10400</v>
+        <v>15500</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>520</v>
+        <v>775</v>
       </c>
       <c r="T472" t="n">
         <v>20</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>1980</v>
+        <v>300</v>
       </c>
       <c r="N473" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O473" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P473" t="n">
-        <v>12424</v>
+        <v>8000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>621</v>
+        <v>400</v>
       </c>
       <c r="T473" t="n">
         <v>20</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>1840</v>
+        <v>1500</v>
       </c>
       <c r="N474" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P474" t="n">
-        <v>14500</v>
+        <v>10400</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>725</v>
+        <v>520</v>
       </c>
       <c r="T474" t="n">
         <v>20</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>720</v>
+        <v>1980</v>
       </c>
       <c r="N475" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O475" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P475" t="n">
-        <v>16278</v>
+        <v>12424</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>814</v>
+        <v>621</v>
       </c>
       <c r="T475" t="n">
         <v>20</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>2480</v>
+        <v>1840</v>
       </c>
       <c r="N476" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O476" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P476" t="n">
-        <v>12435</v>
+        <v>14500</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>622</v>
+        <v>725</v>
       </c>
       <c r="T476" t="n">
         <v>20</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="N477" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O477" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P477" t="n">
-        <v>11571</v>
+        <v>16278</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>579</v>
+        <v>814</v>
       </c>
       <c r="T477" t="n">
         <v>20</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>3280</v>
+        <v>2480</v>
       </c>
       <c r="N478" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O478" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P478" t="n">
-        <v>13591</v>
+        <v>12435</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>680</v>
+        <v>622</v>
       </c>
       <c r="T478" t="n">
         <v>20</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="N479" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O479" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P479" t="n">
-        <v>13500</v>
+        <v>11571</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>675</v>
+        <v>579</v>
       </c>
       <c r="T479" t="n">
         <v>20</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>400</v>
+        <v>3280</v>
       </c>
       <c r="N480" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="O480" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P480" t="n">
-        <v>13000</v>
+        <v>13591</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="T480" t="n">
         <v>20</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>1120</v>
+        <v>560</v>
       </c>
       <c r="N481" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O481" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P481" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T481" t="n">
         <v>20</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N482" t="n">
         <v>13000</v>
       </c>
       <c r="O482" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P482" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="T482" t="n">
         <v>20</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>240</v>
+        <v>1120</v>
       </c>
       <c r="N483" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O483" t="n">
         <v>12000</v>
       </c>
-      <c r="O483" t="n">
-        <v>12500</v>
-      </c>
       <c r="P483" t="n">
-        <v>12250</v>
+        <v>11500</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>612</v>
+        <v>575</v>
       </c>
       <c r="T483" t="n">
         <v>20</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,11 +39080,11 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>1950</v>
+        <v>1200</v>
       </c>
       <c r="N484" t="n">
         <v>13000</v>
@@ -39093,7 +39093,7 @@
         <v>14000</v>
       </c>
       <c r="P484" t="n">
-        <v>13487</v>
+        <v>13500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="T484" t="n">
         <v>20</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>2030</v>
+        <v>240</v>
       </c>
       <c r="N485" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O485" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P485" t="n">
-        <v>14759</v>
+        <v>12250</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>738</v>
+        <v>612</v>
       </c>
       <c r="T485" t="n">
         <v>20</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>200</v>
+        <v>1950</v>
       </c>
       <c r="N486" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P486" t="n">
-        <v>10000</v>
+        <v>13487</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>500</v>
+        <v>674</v>
       </c>
       <c r="T486" t="n">
         <v>20</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>800</v>
+        <v>2030</v>
       </c>
       <c r="N487" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O487" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P487" t="n">
-        <v>9750</v>
+        <v>14759</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>488</v>
+        <v>738</v>
       </c>
       <c r="T487" t="n">
         <v>20</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="N488" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="O488" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P488" t="n">
-        <v>11750</v>
+        <v>10000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>588</v>
+        <v>500</v>
       </c>
       <c r="T488" t="n">
         <v>20</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>1370</v>
+        <v>800</v>
       </c>
       <c r="N489" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O489" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>12591</v>
+        <v>9750</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>630</v>
+        <v>488</v>
       </c>
       <c r="T489" t="n">
         <v>20</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>2280</v>
+        <v>640</v>
       </c>
       <c r="N490" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O490" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P490" t="n">
-        <v>13439</v>
+        <v>11750</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>672</v>
+        <v>588</v>
       </c>
       <c r="T490" t="n">
         <v>20</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>640</v>
+        <v>1370</v>
       </c>
       <c r="N491" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O491" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P491" t="n">
-        <v>14219</v>
+        <v>12591</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>711</v>
+        <v>630</v>
       </c>
       <c r="T491" t="n">
         <v>20</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>2960</v>
+        <v>2280</v>
       </c>
       <c r="N492" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O492" t="n">
         <v>14000</v>
       </c>
-      <c r="O492" t="n">
-        <v>16000</v>
-      </c>
       <c r="P492" t="n">
-        <v>15196</v>
+        <v>13439</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>760</v>
+        <v>672</v>
       </c>
       <c r="T492" t="n">
         <v>20</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="N493" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O493" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="P493" t="n">
-        <v>18500</v>
+        <v>14219</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>925</v>
+        <v>711</v>
       </c>
       <c r="T493" t="n">
         <v>20</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>640</v>
+        <v>2960</v>
       </c>
       <c r="N494" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O494" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P494" t="n">
-        <v>12500</v>
+        <v>15196</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>625</v>
+        <v>760</v>
       </c>
       <c r="T494" t="n">
         <v>20</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>1200</v>
+        <v>216</v>
       </c>
       <c r="N495" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O495" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P495" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>675</v>
+        <v>925</v>
       </c>
       <c r="T495" t="n">
         <v>20</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40035,25 +40035,25 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>150</v>
+        <v>640</v>
       </c>
       <c r="N496" t="n">
         <v>12000</v>
       </c>
       <c r="O496" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P496" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="T496" t="n">
         <v>20</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>296</v>
+        <v>1200</v>
       </c>
       <c r="N497" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O497" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P497" t="n">
-        <v>20365</v>
+        <v>13500</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1018</v>
+        <v>675</v>
       </c>
       <c r="T497" t="n">
         <v>20</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M498" t="n">
         <v>150</v>
       </c>
       <c r="N498" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O498" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P498" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T498" t="n">
         <v>20</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="N499" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O499" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P499" t="n">
-        <v>13000</v>
+        <v>20365</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>650</v>
+        <v>1018</v>
       </c>
       <c r="T499" t="n">
         <v>20</v>
@@ -40355,25 +40355,25 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N500" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O500" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P500" t="n">
-        <v>13750</v>
+        <v>15000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T500" t="n">
         <v>20</v>
@@ -40440,11 +40440,11 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>680</v>
+        <v>360</v>
       </c>
       <c r="N501" t="n">
         <v>13000</v>
@@ -40462,7 +40462,7 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S501" t="n">
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>1330</v>
+        <v>400</v>
       </c>
       <c r="N502" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O502" t="n">
         <v>14000</v>
       </c>
       <c r="P502" t="n">
-        <v>13421</v>
+        <v>13750</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="T502" t="n">
         <v>20</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="N503" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O503" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P503" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="T503" t="n">
         <v>20</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>324</v>
+        <v>1330</v>
       </c>
       <c r="N504" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O504" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P504" t="n">
-        <v>15333</v>
+        <v>13421</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>767</v>
+        <v>671</v>
       </c>
       <c r="T504" t="n">
         <v>20</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>250</v>
+        <v>960</v>
       </c>
       <c r="N505" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O505" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P505" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>400</v>
+        <v>775</v>
       </c>
       <c r="T505" t="n">
         <v>20</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>1370</v>
+        <v>324</v>
       </c>
       <c r="N506" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O506" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P506" t="n">
-        <v>9591</v>
+        <v>15333</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>480</v>
+        <v>767</v>
       </c>
       <c r="T506" t="n">
         <v>20</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>1370</v>
+        <v>250</v>
       </c>
       <c r="N507" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O507" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P507" t="n">
-        <v>11591</v>
+        <v>8000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="T507" t="n">
         <v>20</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,7 +41004,7 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>2010</v>
+        <v>1370</v>
       </c>
       <c r="N508" t="n">
         <v>9000</v>
@@ -41013,7 +41013,7 @@
         <v>10000</v>
       </c>
       <c r="P508" t="n">
-        <v>9562</v>
+        <v>9591</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T508" t="n">
         <v>20</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,7 +41084,7 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>2020</v>
+        <v>1370</v>
       </c>
       <c r="N509" t="n">
         <v>11000</v>
@@ -41093,7 +41093,7 @@
         <v>12000</v>
       </c>
       <c r="P509" t="n">
-        <v>11574</v>
+        <v>11591</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="T509" t="n">
         <v>20</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,7 +41164,7 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>1120</v>
+        <v>2010</v>
       </c>
       <c r="N510" t="n">
         <v>9000</v>
@@ -41173,7 +41173,7 @@
         <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>9500</v>
+        <v>9562</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="T510" t="n">
         <v>20</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>1500</v>
+        <v>2020</v>
       </c>
       <c r="N511" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O511" t="n">
         <v>12000</v>
       </c>
       <c r="P511" t="n">
-        <v>11033</v>
+        <v>11574</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="T511" t="n">
         <v>20</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>2280</v>
+        <v>1120</v>
       </c>
       <c r="N512" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="O512" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P512" t="n">
-        <v>12325</v>
+        <v>9500</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>616</v>
+        <v>475</v>
       </c>
       <c r="T512" t="n">
         <v>20</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N513" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O513" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P513" t="n">
-        <v>14429</v>
+        <v>11033</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>721</v>
+        <v>552</v>
       </c>
       <c r="T513" t="n">
         <v>20</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>216</v>
+        <v>2280</v>
       </c>
       <c r="N514" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="O514" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P514" t="n">
-        <v>14500</v>
+        <v>12325</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>725</v>
+        <v>616</v>
       </c>
       <c r="T514" t="n">
         <v>20</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="N515" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O515" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P515" t="n">
-        <v>9000</v>
+        <v>14429</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>450</v>
+        <v>721</v>
       </c>
       <c r="T515" t="n">
         <v>20</v>
@@ -41635,25 +41635,25 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>1930</v>
+        <v>216</v>
       </c>
       <c r="N516" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O516" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P516" t="n">
-        <v>11435</v>
+        <v>14500</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>572</v>
+        <v>725</v>
       </c>
       <c r="T516" t="n">
         <v>20</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="N517" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O517" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P517" t="n">
-        <v>13429</v>
+        <v>9000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>671</v>
+        <v>450</v>
       </c>
       <c r="T517" t="n">
         <v>20</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>250</v>
+        <v>1930</v>
       </c>
       <c r="N518" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O518" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P518" t="n">
-        <v>7000</v>
+        <v>11435</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>350</v>
+        <v>572</v>
       </c>
       <c r="T518" t="n">
         <v>20</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>1370</v>
+        <v>1400</v>
       </c>
       <c r="N519" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O519" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P519" t="n">
-        <v>8409</v>
+        <v>13429</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>420</v>
+        <v>671</v>
       </c>
       <c r="T519" t="n">
         <v>20</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>1450</v>
+        <v>250</v>
       </c>
       <c r="N520" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O520" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P520" t="n">
-        <v>10414</v>
+        <v>7000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>521</v>
+        <v>350</v>
       </c>
       <c r="T520" t="n">
         <v>20</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>1680</v>
+        <v>1370</v>
       </c>
       <c r="N521" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O521" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P521" t="n">
-        <v>11000</v>
+        <v>8409</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>550</v>
+        <v>420</v>
       </c>
       <c r="T521" t="n">
         <v>20</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="N522" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O522" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P522" t="n">
-        <v>13500</v>
+        <v>10414</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>675</v>
+        <v>521</v>
       </c>
       <c r="T522" t="n">
         <v>20</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>1920</v>
+        <v>1680</v>
       </c>
       <c r="N523" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O523" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P523" t="n">
-        <v>13729</v>
+        <v>11000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>686</v>
+        <v>550</v>
       </c>
       <c r="T523" t="n">
         <v>20</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>2720</v>
+        <v>1200</v>
       </c>
       <c r="N524" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O524" t="n">
         <v>14000</v>
       </c>
-      <c r="O524" t="n">
-        <v>16000</v>
-      </c>
       <c r="P524" t="n">
-        <v>14882</v>
+        <v>13500</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>744</v>
+        <v>675</v>
       </c>
       <c r="T524" t="n">
         <v>20</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>500</v>
+        <v>1920</v>
       </c>
       <c r="N525" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O525" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P525" t="n">
-        <v>8900</v>
+        <v>13729</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>445</v>
+        <v>686</v>
       </c>
       <c r="T525" t="n">
         <v>20</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>800</v>
+        <v>2720</v>
       </c>
       <c r="N526" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O526" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P526" t="n">
-        <v>9500</v>
+        <v>14882</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>475</v>
+        <v>744</v>
       </c>
       <c r="T526" t="n">
         <v>20</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>2628</v>
+        <v>500</v>
       </c>
       <c r="N527" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="O527" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P527" t="n">
-        <v>11156</v>
+        <v>8900</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>558</v>
+        <v>445</v>
       </c>
       <c r="T527" t="n">
         <v>20</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N528" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O528" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P528" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="T528" t="n">
         <v>20</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>350</v>
+        <v>2628</v>
       </c>
       <c r="N529" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O529" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P529" t="n">
-        <v>13000</v>
+        <v>11156</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>650</v>
+        <v>558</v>
       </c>
       <c r="T529" t="n">
         <v>20</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="N530" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O530" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P530" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>775</v>
+        <v>350</v>
       </c>
       <c r="N531" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O531" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P531" t="n">
-        <v>11226</v>
+        <v>13000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>561</v>
+        <v>650</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>275</v>
+        <v>475</v>
       </c>
       <c r="N532" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P532" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -42995,25 +42995,25 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>216</v>
+        <v>775</v>
       </c>
       <c r="N533" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O533" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P533" t="n">
-        <v>18500</v>
+        <v>11226</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>925</v>
+        <v>561</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>640</v>
+        <v>275</v>
       </c>
       <c r="N534" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O534" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P534" t="n">
-        <v>10406</v>
+        <v>13000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>1440</v>
+        <v>216</v>
       </c>
       <c r="N535" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O535" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P535" t="n">
-        <v>12056</v>
+        <v>18500</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>603</v>
+        <v>925</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="N536" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O536" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P536" t="n">
-        <v>20500</v>
+        <v>10406</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1025</v>
+        <v>520</v>
       </c>
       <c r="T536" t="n">
         <v>20</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>150</v>
+        <v>1440</v>
       </c>
       <c r="N537" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O537" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P537" t="n">
-        <v>8000</v>
+        <v>12056</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>400</v>
+        <v>603</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>1190</v>
+        <v>216</v>
       </c>
       <c r="N538" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="O538" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P538" t="n">
-        <v>9361</v>
+        <v>20500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>468</v>
+        <v>1025</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>880</v>
+        <v>150</v>
       </c>
       <c r="N539" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O539" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P539" t="n">
-        <v>10545</v>
+        <v>8000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>527</v>
+        <v>400</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>2710</v>
+        <v>1190</v>
       </c>
       <c r="N540" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O540" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P540" t="n">
-        <v>11513</v>
+        <v>9361</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>576</v>
+        <v>468</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43635,25 +43635,25 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>1120</v>
+        <v>880</v>
       </c>
       <c r="N541" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O541" t="n">
         <v>11000</v>
       </c>
-      <c r="O541" t="n">
-        <v>12000</v>
-      </c>
       <c r="P541" t="n">
-        <v>11500</v>
+        <v>10545</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>575</v>
+        <v>527</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43715,25 +43715,25 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>216</v>
+        <v>2710</v>
       </c>
       <c r="N542" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O542" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P542" t="n">
-        <v>14500</v>
+        <v>11513</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>725</v>
+        <v>576</v>
       </c>
       <c r="T542" t="n">
         <v>20</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>960</v>
+        <v>1120</v>
       </c>
       <c r="N543" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O543" t="n">
         <v>12000</v>
       </c>
-      <c r="O543" t="n">
-        <v>13000</v>
-      </c>
       <c r="P543" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43875,25 +43875,25 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>1920</v>
+        <v>216</v>
       </c>
       <c r="N544" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O544" t="n">
         <v>15000</v>
       </c>
       <c r="P544" t="n">
-        <v>13833</v>
+        <v>14500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="T544" t="n">
         <v>20</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43955,25 +43955,25 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>100</v>
+        <v>960</v>
       </c>
       <c r="N545" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O545" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P545" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>250</v>
+        <v>1920</v>
       </c>
       <c r="N546" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O546" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P546" t="n">
-        <v>10000</v>
+        <v>13833</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>500</v>
+        <v>692</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44115,25 +44115,25 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>1440</v>
+        <v>100</v>
       </c>
       <c r="N547" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O547" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P547" t="n">
-        <v>11556</v>
+        <v>14000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>578</v>
+        <v>700</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="N548" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O548" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P548" t="n">
-        <v>12273</v>
+        <v>10000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>614</v>
+        <v>500</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>2270</v>
+        <v>1440</v>
       </c>
       <c r="N549" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O549" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P549" t="n">
-        <v>13480</v>
+        <v>11556</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>674</v>
+        <v>578</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>1040</v>
+        <v>440</v>
       </c>
       <c r="N550" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O550" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="P550" t="n">
-        <v>9462</v>
+        <v>12273</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>473</v>
+        <v>614</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>1080</v>
+        <v>2270</v>
       </c>
       <c r="N551" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O551" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P551" t="n">
-        <v>9789</v>
+        <v>13480</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>489</v>
+        <v>674</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>3340</v>
+        <v>1040</v>
       </c>
       <c r="N552" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O552" t="n">
         <v>10000</v>
       </c>
-      <c r="O552" t="n">
-        <v>11000</v>
-      </c>
       <c r="P552" t="n">
-        <v>10356</v>
+        <v>9462</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>100</v>
+        <v>1080</v>
       </c>
       <c r="N553" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O553" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P553" t="n">
-        <v>13000</v>
+        <v>9789</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>650</v>
+        <v>489</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>275</v>
+        <v>3340</v>
       </c>
       <c r="N554" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O554" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P554" t="n">
-        <v>12000</v>
+        <v>10356</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>600</v>
+        <v>518</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44755,25 +44755,25 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>2435</v>
+        <v>100</v>
       </c>
       <c r="N555" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O555" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P555" t="n">
-        <v>15265</v>
+        <v>13000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>763</v>
+        <v>650</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,11 +44840,11 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="N556" t="n">
         <v>12000</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>960</v>
+        <v>2435</v>
       </c>
       <c r="N557" t="n">
         <v>14000</v>
       </c>
       <c r="O557" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P557" t="n">
-        <v>14500</v>
+        <v>15265</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>725</v>
+        <v>763</v>
       </c>
       <c r="T557" t="n">
         <v>20</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>1270</v>
+        <v>150</v>
       </c>
       <c r="N558" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O558" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P558" t="n">
-        <v>16441</v>
+        <v>12000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>822</v>
+        <v>600</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45075,25 +45075,25 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>216</v>
+        <v>960</v>
       </c>
       <c r="N559" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O559" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P559" t="n">
-        <v>13750</v>
+        <v>14500</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>688</v>
+        <v>725</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>1360</v>
+        <v>1270</v>
       </c>
       <c r="N560" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O560" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P560" t="n">
-        <v>10647</v>
+        <v>16441</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>532</v>
+        <v>822</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N561" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O561" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P561" t="n">
-        <v>12500</v>
+        <v>13750</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>250</v>
+        <v>1360</v>
       </c>
       <c r="N562" t="n">
         <v>10000</v>
       </c>
       <c r="O562" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P562" t="n">
-        <v>10000</v>
+        <v>10647</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="N563" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O563" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P563" t="n">
-        <v>11773</v>
+        <v>12500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>2630</v>
+        <v>250</v>
       </c>
       <c r="N564" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O564" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P564" t="n">
-        <v>12266</v>
+        <v>10000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>613</v>
+        <v>500</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45555,25 +45555,25 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>108</v>
+        <v>880</v>
       </c>
       <c r="N565" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O565" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P565" t="n">
-        <v>18500</v>
+        <v>11773</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>925</v>
+        <v>589</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>2570</v>
+        <v>2630</v>
       </c>
       <c r="N566" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O566" t="n">
         <v>13000</v>
       </c>
       <c r="P566" t="n">
-        <v>12451</v>
+        <v>12266</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>1450</v>
+        <v>108</v>
       </c>
       <c r="N567" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O567" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P567" t="n">
-        <v>13414</v>
+        <v>18500</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>671</v>
+        <v>925</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>1440</v>
+        <v>2570</v>
       </c>
       <c r="N568" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O568" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P568" t="n">
-        <v>9833</v>
+        <v>12451</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>492</v>
+        <v>623</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>730</v>
+        <v>1450</v>
       </c>
       <c r="N569" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O569" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P569" t="n">
-        <v>11000</v>
+        <v>13414</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>550</v>
+        <v>671</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>4290</v>
+        <v>1440</v>
       </c>
       <c r="N570" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O570" t="n">
         <v>11000</v>
       </c>
-      <c r="O570" t="n">
-        <v>13000</v>
-      </c>
       <c r="P570" t="n">
-        <v>11683</v>
+        <v>9833</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>584</v>
+        <v>492</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>1490</v>
+        <v>730</v>
       </c>
       <c r="N571" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O571" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P571" t="n">
-        <v>9638</v>
+        <v>11000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>760</v>
+        <v>4290</v>
       </c>
       <c r="N572" t="n">
         <v>11000</v>
       </c>
       <c r="O572" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P572" t="n">
-        <v>11526</v>
+        <v>11683</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>2470</v>
+        <v>1490</v>
       </c>
       <c r="N573" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O573" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>12324</v>
+        <v>9638</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>616</v>
+        <v>482</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>1680</v>
+        <v>760</v>
       </c>
       <c r="N574" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O574" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P574" t="n">
-        <v>9250</v>
+        <v>11526</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>462</v>
+        <v>576</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>200</v>
+        <v>2470</v>
       </c>
       <c r="N575" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O575" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P575" t="n">
-        <v>10000</v>
+        <v>12324</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>500</v>
+        <v>616</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>1760</v>
+        <v>1680</v>
       </c>
       <c r="N576" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O576" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P576" t="n">
-        <v>11500</v>
+        <v>9250</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>575</v>
+        <v>462</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,25 +46515,25 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N577" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O577" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P577" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>270</v>
+        <v>1760</v>
       </c>
       <c r="N578" t="n">
         <v>11000</v>
       </c>
       <c r="O578" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P578" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>1070</v>
+        <v>150</v>
       </c>
       <c r="N579" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O579" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P579" t="n">
-        <v>13374</v>
+        <v>15000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>1120</v>
+        <v>270</v>
       </c>
       <c r="N580" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O580" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P580" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>880</v>
+        <v>1070</v>
       </c>
       <c r="N581" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O581" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P581" t="n">
-        <v>5545</v>
+        <v>13374</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>277</v>
+        <v>669</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>2000</v>
+        <v>1120</v>
       </c>
       <c r="N582" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O582" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P582" t="n">
-        <v>7500</v>
+        <v>15500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="N583" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O583" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P583" t="n">
-        <v>8000</v>
+        <v>5545</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>2880</v>
+        <v>2000</v>
       </c>
       <c r="N584" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O584" t="n">
         <v>8000</v>
       </c>
-      <c r="O584" t="n">
-        <v>10000</v>
-      </c>
       <c r="P584" t="n">
-        <v>9083</v>
+        <v>7500</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>454</v>
+        <v>375</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>710</v>
+        <v>400</v>
       </c>
       <c r="N585" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O585" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P585" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>1160</v>
+        <v>2880</v>
       </c>
       <c r="N586" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O586" t="n">
         <v>10000</v>
       </c>
-      <c r="O586" t="n">
-        <v>11000</v>
-      </c>
       <c r="P586" t="n">
-        <v>10414</v>
+        <v>9083</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>521</v>
+        <v>454</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>3620</v>
+        <v>710</v>
       </c>
       <c r="N587" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O587" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P587" t="n">
-        <v>12660</v>
+        <v>10000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>633</v>
+        <v>500</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>360</v>
+        <v>1160</v>
       </c>
       <c r="N588" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O588" t="n">
         <v>11000</v>
       </c>
       <c r="P588" t="n">
-        <v>11000</v>
+        <v>10414</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>1340</v>
+        <v>3620</v>
       </c>
       <c r="N589" t="n">
         <v>12000</v>
       </c>
       <c r="O589" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="P589" t="n">
-        <v>12209</v>
+        <v>12660</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>880</v>
+        <v>360</v>
       </c>
       <c r="N590" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O590" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P590" t="n">
-        <v>12847</v>
+        <v>11000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>642</v>
+        <v>550</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>1970</v>
+        <v>1340</v>
       </c>
       <c r="N591" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O591" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P591" t="n">
-        <v>13533</v>
+        <v>12209</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>1680</v>
+        <v>880</v>
       </c>
       <c r="N592" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O592" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P592" t="n">
-        <v>11500</v>
+        <v>12847</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,7 +47804,7 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>1200</v>
+        <v>1970</v>
       </c>
       <c r="N593" t="n">
         <v>13000</v>
@@ -47813,7 +47813,7 @@
         <v>14000</v>
       </c>
       <c r="P593" t="n">
-        <v>13500</v>
+        <v>13533</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>960</v>
+        <v>1680</v>
       </c>
       <c r="N594" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O594" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P594" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="N595" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O595" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P595" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>1540</v>
+        <v>960</v>
       </c>
       <c r="N596" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O596" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P596" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>2500</v>
+        <v>150</v>
       </c>
       <c r="N597" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O597" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P597" t="n">
-        <v>15640</v>
+        <v>11000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>782</v>
+        <v>550</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48204,16 +48204,16 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>1980</v>
+        <v>1540</v>
       </c>
       <c r="N598" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O598" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P598" t="n">
-        <v>17424</v>
+        <v>12500</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>871</v>
+        <v>625</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48284,16 +48284,16 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>960</v>
+        <v>2500</v>
       </c>
       <c r="N599" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O599" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P599" t="n">
-        <v>10500</v>
+        <v>15640</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>525</v>
+        <v>782</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>680</v>
+        <v>1980</v>
       </c>
       <c r="N600" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O600" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P600" t="n">
-        <v>12000</v>
+        <v>17424</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>600</v>
+        <v>871</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>2580</v>
+        <v>960</v>
       </c>
       <c r="N601" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O601" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P601" t="n">
-        <v>12519</v>
+        <v>10500</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>626</v>
+        <v>525</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="N602" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O602" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P602" t="n">
-        <v>9750</v>
+        <v>12000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>488</v>
+        <v>600</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>1440</v>
+        <v>2580</v>
       </c>
       <c r="N603" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O603" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P603" t="n">
-        <v>11500</v>
+        <v>12519</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>575</v>
+        <v>626</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,68 +48647,228 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E604" t="n">
+        <v>13</v>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G604" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I604" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="M604" t="n">
+        <v>400</v>
+      </c>
+      <c r="N604" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O604" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P604" t="n">
+        <v>9750</v>
+      </c>
+      <c r="Q604" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R604" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S604" t="n">
+        <v>488</v>
+      </c>
+      <c r="T604" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>6</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D605" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E604" t="n">
-        <v>13</v>
-      </c>
-      <c r="F604" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G604" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I604" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J604" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L604" t="inlineStr">
+      <c r="E605" t="n">
+        <v>13</v>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G605" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I605" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M605" t="n">
+        <v>1440</v>
+      </c>
+      <c r="N605" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O605" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P605" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q605" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R605" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S605" t="n">
+        <v>575</v>
+      </c>
+      <c r="T605" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>6</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D606" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E606" t="n">
+        <v>13</v>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G606" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I606" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L606" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M604" t="n">
+      <c r="M606" t="n">
         <v>1680</v>
       </c>
-      <c r="N604" t="n">
+      <c r="N606" t="n">
         <v>12000</v>
       </c>
-      <c r="O604" t="n">
+      <c r="O606" t="n">
         <v>14000</v>
       </c>
-      <c r="P604" t="n">
+      <c r="P606" t="n">
         <v>13095</v>
       </c>
-      <c r="Q604" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R604" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S604" t="n">
+      <c r="Q606" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R606" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S606" t="n">
         <v>655</v>
       </c>
-      <c r="T604" t="n">
+      <c r="T606" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T619"/>
+  <dimension ref="A1:T622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N607" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O607" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P607" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>1680</v>
+        <v>1120</v>
       </c>
       <c r="N608" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O608" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P608" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>875</v>
+        <v>925</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="N609" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O609" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P609" t="n">
-        <v>13000</v>
+        <v>20500</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>650</v>
+        <v>1025</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="N610" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O610" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P610" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>500</v>
+        <v>825</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>1915</v>
+        <v>1680</v>
       </c>
       <c r="N611" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O611" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P611" t="n">
-        <v>11180</v>
+        <v>17500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>559</v>
+        <v>875</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>2195</v>
+        <v>250</v>
       </c>
       <c r="N612" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O612" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P612" t="n">
-        <v>13285</v>
+        <v>13000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>216</v>
+        <v>480</v>
       </c>
       <c r="N613" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O613" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P613" t="n">
-        <v>21500</v>
+        <v>10000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>1075</v>
+        <v>500</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>150</v>
+        <v>1915</v>
       </c>
       <c r="N614" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O614" t="n">
         <v>12000</v>
       </c>
       <c r="P614" t="n">
-        <v>12000</v>
+        <v>11180</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>1510</v>
+        <v>2195</v>
       </c>
       <c r="N615" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O615" t="n">
         <v>14000</v>
       </c>
-      <c r="O615" t="n">
-        <v>16000</v>
-      </c>
       <c r="P615" t="n">
-        <v>14914</v>
+        <v>13285</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>746</v>
+        <v>664</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>1950</v>
+        <v>216</v>
       </c>
       <c r="N616" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O616" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P616" t="n">
-        <v>17159</v>
+        <v>21500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>858</v>
+        <v>1075</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N617" t="n">
         <v>12000</v>
       </c>
       <c r="O617" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P617" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>640</v>
+        <v>1510</v>
       </c>
       <c r="N618" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O618" t="n">
         <v>16000</v>
       </c>
-      <c r="O618" t="n">
-        <v>17000</v>
-      </c>
       <c r="P618" t="n">
-        <v>16500</v>
+        <v>14914</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>825</v>
+        <v>746</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,68 +49847,308 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E619" t="n">
+        <v>13</v>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G619" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I619" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M619" t="n">
+        <v>1950</v>
+      </c>
+      <c r="N619" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O619" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P619" t="n">
+        <v>17159</v>
+      </c>
+      <c r="Q619" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R619" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S619" t="n">
+        <v>858</v>
+      </c>
+      <c r="T619" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>6</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D620" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E619" t="n">
-        <v>13</v>
-      </c>
-      <c r="F619" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G619" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I619" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J619" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L619" t="inlineStr">
+      <c r="E620" t="n">
+        <v>13</v>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G620" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I620" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M620" t="n">
+        <v>170</v>
+      </c>
+      <c r="N620" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O620" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P620" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q620" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R620" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S620" t="n">
+        <v>625</v>
+      </c>
+      <c r="T620" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>6</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D621" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E621" t="n">
+        <v>13</v>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G621" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I621" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M621" t="n">
+        <v>640</v>
+      </c>
+      <c r="N621" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O621" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P621" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q621" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R621" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S621" t="n">
+        <v>825</v>
+      </c>
+      <c r="T621" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>6</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D622" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E622" t="n">
+        <v>13</v>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G622" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I622" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L622" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M619" t="n">
+      <c r="M622" t="n">
         <v>1470</v>
       </c>
-      <c r="N619" t="n">
+      <c r="N622" t="n">
         <v>18000</v>
       </c>
-      <c r="O619" t="n">
+      <c r="O622" t="n">
         <v>20000</v>
       </c>
-      <c r="P619" t="n">
+      <c r="P622" t="n">
         <v>19337</v>
       </c>
-      <c r="Q619" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R619" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S619" t="n">
+      <c r="Q622" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R622" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S622" t="n">
         <v>967</v>
       </c>
-      <c r="T619" t="n">
+      <c r="T622" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T622"/>
+  <dimension ref="A1:T624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>1840</v>
+        <v>1270</v>
       </c>
       <c r="N560" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O560" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P560" t="n">
-        <v>14500</v>
+        <v>17559</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>725</v>
+        <v>878</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>720</v>
+        <v>950</v>
       </c>
       <c r="N561" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O561" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P561" t="n">
-        <v>16278</v>
+        <v>19579</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>814</v>
+        <v>979</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>1760</v>
+        <v>1840</v>
       </c>
       <c r="N562" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O562" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P562" t="n">
-        <v>11591</v>
+        <v>14500</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>580</v>
+        <v>725</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>1930</v>
+        <v>720</v>
       </c>
       <c r="N563" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O563" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P563" t="n">
-        <v>13000</v>
+        <v>16278</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>650</v>
+        <v>814</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>670</v>
+        <v>1760</v>
       </c>
       <c r="N564" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O564" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P564" t="n">
-        <v>6896</v>
+        <v>11591</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>345</v>
+        <v>580</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>1070</v>
+        <v>1930</v>
       </c>
       <c r="N565" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O565" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P565" t="n">
-        <v>8374</v>
+        <v>13000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>419</v>
+        <v>650</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>1230</v>
+        <v>670</v>
       </c>
       <c r="N566" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O566" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P566" t="n">
-        <v>9610</v>
+        <v>6896</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>216</v>
+        <v>1070</v>
       </c>
       <c r="N567" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O567" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P567" t="n">
-        <v>20500</v>
+        <v>8374</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1025</v>
+        <v>419</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>1600</v>
+        <v>1230</v>
       </c>
       <c r="N568" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O568" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P568" t="n">
-        <v>10300</v>
+        <v>9610</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>680</v>
+        <v>216</v>
       </c>
       <c r="N569" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O569" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P569" t="n">
-        <v>13000</v>
+        <v>20500</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>650</v>
+        <v>1025</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>3540</v>
+        <v>1600</v>
       </c>
       <c r="N570" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O570" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P570" t="n">
-        <v>13198</v>
+        <v>10300</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>660</v>
+        <v>515</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46035,25 +46035,25 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>316</v>
+        <v>680</v>
       </c>
       <c r="N571" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O571" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P571" t="n">
-        <v>19658</v>
+        <v>13000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>983</v>
+        <v>650</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>150</v>
+        <v>3540</v>
       </c>
       <c r="N572" t="n">
         <v>12000</v>
       </c>
       <c r="O572" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P572" t="n">
-        <v>12000</v>
+        <v>13198</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46195,25 +46195,25 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>1360</v>
+        <v>316</v>
       </c>
       <c r="N573" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O573" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P573" t="n">
-        <v>15118</v>
+        <v>19658</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>756</v>
+        <v>983</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>2015</v>
+        <v>150</v>
       </c>
       <c r="N574" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O574" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P574" t="n">
-        <v>17079</v>
+        <v>12000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>854</v>
+        <v>600</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46355,25 +46355,25 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>150</v>
+        <v>1360</v>
       </c>
       <c r="N575" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O575" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P575" t="n">
-        <v>12000</v>
+        <v>15118</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>600</v>
+        <v>756</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>944</v>
+        <v>2015</v>
       </c>
       <c r="N576" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O576" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P576" t="n">
-        <v>20229</v>
+        <v>17079</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1011</v>
+        <v>854</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M577" t="n">
         <v>150</v>
       </c>
       <c r="N577" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O577" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P577" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46595,25 +46595,25 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>360</v>
+        <v>944</v>
       </c>
       <c r="N578" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O578" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P578" t="n">
-        <v>13000</v>
+        <v>20229</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>650</v>
+        <v>1011</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>6800</v>
+        <v>150</v>
       </c>
       <c r="N579" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O579" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P579" t="n">
-        <v>13232</v>
+        <v>15000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46760,11 +46760,11 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>680</v>
+        <v>360</v>
       </c>
       <c r="N580" t="n">
         <v>13000</v>
@@ -46782,7 +46782,7 @@
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S580" t="n">
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1330</v>
+        <v>6800</v>
       </c>
       <c r="N581" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O581" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P581" t="n">
-        <v>13421</v>
+        <v>13232</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46862,11 +46862,11 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>9710</v>
+        <v>680</v>
       </c>
       <c r="N582" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O582" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P582" t="n">
-        <v>15121</v>
+        <v>13000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46942,11 +46942,11 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>756</v>
+        <v>650</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>2280</v>
+        <v>1330</v>
       </c>
       <c r="N583" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O583" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P583" t="n">
-        <v>12325</v>
+        <v>13421</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>616</v>
+        <v>671</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>1400</v>
+        <v>9710</v>
       </c>
       <c r="N584" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O584" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P584" t="n">
-        <v>14429</v>
+        <v>15121</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>721</v>
+        <v>756</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>2510</v>
+        <v>2280</v>
       </c>
       <c r="N585" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O585" t="n">
         <v>13000</v>
       </c>
       <c r="P585" t="n">
-        <v>11709</v>
+        <v>12325</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="N586" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O586" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P586" t="n">
-        <v>13000</v>
+        <v>14429</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>650</v>
+        <v>721</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>3390</v>
+        <v>2510</v>
       </c>
       <c r="N587" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O587" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P587" t="n">
-        <v>13298</v>
+        <v>11709</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>665</v>
+        <v>585</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>880</v>
+        <v>350</v>
       </c>
       <c r="N588" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O588" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P588" t="n">
-        <v>5545</v>
+        <v>13000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>277</v>
+        <v>650</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>2000</v>
+        <v>3390</v>
       </c>
       <c r="N589" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O589" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P589" t="n">
-        <v>7500</v>
+        <v>13298</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>375</v>
+        <v>665</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="N590" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O590" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P590" t="n">
-        <v>8000</v>
+        <v>5545</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>2880</v>
+        <v>2000</v>
       </c>
       <c r="N591" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O591" t="n">
         <v>8000</v>
       </c>
-      <c r="O591" t="n">
-        <v>10000</v>
-      </c>
       <c r="P591" t="n">
-        <v>9083</v>
+        <v>7500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>454</v>
+        <v>375</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>1075</v>
+        <v>400</v>
       </c>
       <c r="N592" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O592" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P592" t="n">
-        <v>12116</v>
+        <v>8000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>606</v>
+        <v>400</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>1395</v>
+        <v>2880</v>
       </c>
       <c r="N593" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O593" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P593" t="n">
-        <v>13602</v>
+        <v>9083</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>680</v>
+        <v>454</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>150</v>
+        <v>1075</v>
       </c>
       <c r="N594" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O594" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P594" t="n">
-        <v>21500</v>
+        <v>12116</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>1075</v>
+        <v>606</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>600</v>
+        <v>1395</v>
       </c>
       <c r="N595" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O595" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P595" t="n">
-        <v>10000</v>
+        <v>13602</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N596" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O596" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P596" t="n">
-        <v>11500</v>
+        <v>21500</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>575</v>
+        <v>1075</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N597" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O597" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P597" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>1320</v>
+        <v>800</v>
       </c>
       <c r="N598" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O598" t="n">
         <v>12000</v>
       </c>
-      <c r="O598" t="n">
-        <v>13000</v>
-      </c>
       <c r="P598" t="n">
-        <v>12576</v>
+        <v>11500</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>629</v>
+        <v>575</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N599" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O599" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P599" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>270</v>
+        <v>1320</v>
       </c>
       <c r="N600" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O600" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P600" t="n">
-        <v>11000</v>
+        <v>12576</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>550</v>
+        <v>629</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>1070</v>
+        <v>150</v>
       </c>
       <c r="N601" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O601" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P601" t="n">
-        <v>13374</v>
+        <v>15000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>1120</v>
+        <v>270</v>
       </c>
       <c r="N602" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O602" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P602" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>700</v>
+        <v>1070</v>
       </c>
       <c r="N603" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O603" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P603" t="n">
-        <v>10286</v>
+        <v>13374</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>514</v>
+        <v>669</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>1100</v>
+        <v>1120</v>
       </c>
       <c r="N604" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O604" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P604" t="n">
-        <v>12636</v>
+        <v>15500</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>632</v>
+        <v>775</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="N605" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O605" t="n">
         <v>11000</v>
       </c>
-      <c r="O605" t="n">
-        <v>12000</v>
-      </c>
       <c r="P605" t="n">
-        <v>11500</v>
+        <v>10286</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>1980</v>
+        <v>1100</v>
       </c>
       <c r="N606" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O606" t="n">
         <v>13000</v>
       </c>
-      <c r="O606" t="n">
-        <v>15000</v>
-      </c>
       <c r="P606" t="n">
-        <v>14000</v>
+        <v>12636</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>700</v>
+        <v>632</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N607" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O607" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P607" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>900</v>
+        <v>575</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>1120</v>
+        <v>1980</v>
       </c>
       <c r="N608" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O608" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P608" t="n">
-        <v>18500</v>
+        <v>14000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>925</v>
+        <v>700</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="N609" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O609" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P609" t="n">
-        <v>20500</v>
+        <v>18000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>1025</v>
+        <v>900</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="N610" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O610" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P610" t="n">
-        <v>16500</v>
+        <v>18500</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>825</v>
+        <v>925</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49244,16 +49244,16 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>1680</v>
+        <v>1500</v>
       </c>
       <c r="N611" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O611" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P611" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>875</v>
+        <v>1025</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N612" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O612" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P612" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>650</v>
+        <v>825</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>480</v>
+        <v>1680</v>
       </c>
       <c r="N613" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O613" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P613" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>1915</v>
+        <v>250</v>
       </c>
       <c r="N614" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O614" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P614" t="n">
-        <v>11180</v>
+        <v>13000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>559</v>
+        <v>650</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>2195</v>
+        <v>480</v>
       </c>
       <c r="N615" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O615" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P615" t="n">
-        <v>13285</v>
+        <v>10000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>664</v>
+        <v>500</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>216</v>
+        <v>1915</v>
       </c>
       <c r="N616" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O616" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P616" t="n">
-        <v>21500</v>
+        <v>11180</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>1075</v>
+        <v>559</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>150</v>
+        <v>2195</v>
       </c>
       <c r="N617" t="n">
         <v>12000</v>
       </c>
       <c r="O617" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P617" t="n">
-        <v>12000</v>
+        <v>13285</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>600</v>
+        <v>664</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>1510</v>
+        <v>216</v>
       </c>
       <c r="N618" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O618" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P618" t="n">
-        <v>14914</v>
+        <v>21500</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>746</v>
+        <v>1075</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>1950</v>
+        <v>150</v>
       </c>
       <c r="N619" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O619" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P619" t="n">
-        <v>17159</v>
+        <v>12000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>858</v>
+        <v>600</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>170</v>
+        <v>1510</v>
       </c>
       <c r="N620" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O620" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P620" t="n">
-        <v>12500</v>
+        <v>14914</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>625</v>
+        <v>746</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>640</v>
+        <v>1950</v>
       </c>
       <c r="N621" t="n">
         <v>16000</v>
       </c>
       <c r="O621" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P621" t="n">
-        <v>16500</v>
+        <v>17159</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>825</v>
+        <v>858</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50120,35 +50120,195 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M622" t="n">
+        <v>170</v>
+      </c>
+      <c r="N622" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O622" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P622" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q622" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R622" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S622" t="n">
+        <v>625</v>
+      </c>
+      <c r="T622" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>6</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D623" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E623" t="n">
+        <v>13</v>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G623" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I623" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M623" t="n">
+        <v>640</v>
+      </c>
+      <c r="N623" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O623" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P623" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q623" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R623" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S623" t="n">
+        <v>825</v>
+      </c>
+      <c r="T623" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>6</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D624" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E624" t="n">
+        <v>13</v>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G624" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I624" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M622" t="n">
+      <c r="M624" t="n">
         <v>1470</v>
       </c>
-      <c r="N622" t="n">
+      <c r="N624" t="n">
         <v>18000</v>
       </c>
-      <c r="O622" t="n">
+      <c r="O624" t="n">
         <v>20000</v>
       </c>
-      <c r="P622" t="n">
+      <c r="P624" t="n">
         <v>19337</v>
       </c>
-      <c r="Q622" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R622" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S622" t="n">
+      <c r="Q624" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R624" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S624" t="n">
         <v>967</v>
       </c>
-      <c r="T622" t="n">
+      <c r="T624" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T624"/>
+  <dimension ref="A1:T628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32595,25 +32595,25 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>156</v>
+        <v>1040</v>
       </c>
       <c r="N403" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O403" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P403" t="n">
-        <v>21500</v>
+        <v>15923</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1075</v>
+        <v>796</v>
       </c>
       <c r="T403" t="n">
         <v>20</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="N404" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P404" t="n">
-        <v>8929</v>
+        <v>18000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>446</v>
+        <v>900</v>
       </c>
       <c r="T404" t="n">
         <v>20</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>1180</v>
+        <v>3680</v>
       </c>
       <c r="N405" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O405" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P405" t="n">
-        <v>10898</v>
+        <v>17522</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>545</v>
+        <v>876</v>
       </c>
       <c r="T405" t="n">
         <v>20</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>760</v>
+        <v>1120</v>
       </c>
       <c r="N406" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O406" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P406" t="n">
-        <v>11368</v>
+        <v>16500</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>568</v>
+        <v>825</v>
       </c>
       <c r="T406" t="n">
         <v>20</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32915,25 +32915,25 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>1050</v>
+        <v>156</v>
       </c>
       <c r="N407" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O407" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P407" t="n">
-        <v>10381</v>
+        <v>21500</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>519</v>
+        <v>1075</v>
       </c>
       <c r="T407" t="n">
         <v>20</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="N408" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O408" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="P408" t="n">
-        <v>11210</v>
+        <v>8929</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>560</v>
+        <v>446</v>
       </c>
       <c r="T408" t="n">
         <v>20</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>3290</v>
+        <v>1180</v>
       </c>
       <c r="N409" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="O409" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P409" t="n">
-        <v>12170</v>
+        <v>10898</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="T409" t="n">
         <v>20</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33155,25 +33155,25 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>150</v>
+        <v>760</v>
       </c>
       <c r="N410" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O410" t="n">
         <v>12000</v>
       </c>
       <c r="P410" t="n">
-        <v>12000</v>
+        <v>11368</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="T410" t="n">
         <v>20</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33235,25 +33235,25 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>296</v>
+        <v>1050</v>
       </c>
       <c r="N411" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O411" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P411" t="n">
-        <v>20365</v>
+        <v>10381</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1018</v>
+        <v>519</v>
       </c>
       <c r="T411" t="n">
         <v>20</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33315,25 +33315,25 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="N412" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O412" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="P412" t="n">
-        <v>15000</v>
+        <v>11210</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>750</v>
+        <v>560</v>
       </c>
       <c r="T412" t="n">
         <v>20</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>360</v>
+        <v>3290</v>
       </c>
       <c r="N413" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O413" t="n">
         <v>13000</v>
       </c>
       <c r="P413" t="n">
-        <v>13000</v>
+        <v>12170</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>650</v>
+        <v>608</v>
       </c>
       <c r="T413" t="n">
         <v>20</v>
@@ -33475,25 +33475,25 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N414" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O414" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P414" t="n">
-        <v>13750</v>
+        <v>12000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="T414" t="n">
         <v>20</v>
@@ -33555,25 +33555,25 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>680</v>
+        <v>296</v>
       </c>
       <c r="N415" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O415" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P415" t="n">
-        <v>13000</v>
+        <v>20365</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33582,11 +33582,11 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>650</v>
+        <v>1018</v>
       </c>
       <c r="T415" t="n">
         <v>20</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>1330</v>
+        <v>150</v>
       </c>
       <c r="N416" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O416" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P416" t="n">
-        <v>13421</v>
+        <v>15000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33662,11 +33662,11 @@
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="T416" t="n">
         <v>20</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>960</v>
+        <v>360</v>
       </c>
       <c r="N417" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O417" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P417" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="T417" t="n">
         <v>20</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33795,25 +33795,25 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>218</v>
+        <v>400</v>
       </c>
       <c r="N418" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="O418" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P418" t="n">
-        <v>20491</v>
+        <v>13750</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1025</v>
+        <v>688</v>
       </c>
       <c r="T418" t="n">
         <v>20</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="N419" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P419" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33902,11 +33902,11 @@
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T419" t="n">
         <v>20</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,11 +33960,11 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>1360</v>
+        <v>1330</v>
       </c>
       <c r="N420" t="n">
         <v>13000</v>
@@ -33973,7 +33973,7 @@
         <v>14000</v>
       </c>
       <c r="P420" t="n">
-        <v>13500</v>
+        <v>13421</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33982,11 +33982,11 @@
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S420" t="n">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="T420" t="n">
         <v>20</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>1370</v>
+        <v>960</v>
       </c>
       <c r="N421" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O421" t="n">
         <v>16000</v>
       </c>
       <c r="P421" t="n">
-        <v>14861</v>
+        <v>15500</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>743</v>
+        <v>775</v>
       </c>
       <c r="T421" t="n">
         <v>20</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N422" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O422" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P422" t="n">
-        <v>18500</v>
+        <v>20491</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>925</v>
+        <v>1025</v>
       </c>
       <c r="T422" t="n">
         <v>20</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>1210</v>
+        <v>400</v>
       </c>
       <c r="N423" t="n">
         <v>12000</v>
       </c>
       <c r="O423" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P423" t="n">
-        <v>12397</v>
+        <v>12000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="T423" t="n">
         <v>20</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,11 +34280,11 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>1450</v>
+        <v>1360</v>
       </c>
       <c r="N424" t="n">
         <v>13000</v>
@@ -34293,7 +34293,7 @@
         <v>14000</v>
       </c>
       <c r="P424" t="n">
-        <v>13586</v>
+        <v>13500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="T424" t="n">
         <v>20</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>5320</v>
+        <v>1370</v>
       </c>
       <c r="N425" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O425" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P425" t="n">
-        <v>14380</v>
+        <v>14861</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="T425" t="n">
         <v>20</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44291</v>
+        <v>44274</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44291</v>
+        <v>44274</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>2640</v>
+        <v>1210</v>
       </c>
       <c r="N427" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O427" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P427" t="n">
-        <v>12773</v>
+        <v>12397</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="T427" t="n">
         <v>20</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44291</v>
+        <v>44274</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>2320</v>
+        <v>1450</v>
       </c>
       <c r="N428" t="n">
         <v>13000</v>
       </c>
       <c r="O428" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P428" t="n">
-        <v>14017</v>
+        <v>13586</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="T428" t="n">
         <v>20</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>366</v>
+        <v>5320</v>
       </c>
       <c r="N429" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O429" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P429" t="n">
-        <v>17500</v>
+        <v>14380</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>875</v>
+        <v>719</v>
       </c>
       <c r="T429" t="n">
         <v>20</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34755,25 +34755,25 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="N430" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P430" t="n">
-        <v>10000</v>
+        <v>18500</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>500</v>
+        <v>925</v>
       </c>
       <c r="T430" t="n">
         <v>20</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>960</v>
+        <v>2640</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O431" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P431" t="n">
-        <v>10500</v>
+        <v>12773</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="T431" t="n">
         <v>20</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>1450</v>
+        <v>2320</v>
       </c>
       <c r="N432" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O432" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P432" t="n">
-        <v>12414</v>
+        <v>14017</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="T432" t="n">
         <v>20</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="N433" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O433" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P433" t="n">
-        <v>20500</v>
+        <v>17500</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1025</v>
+        <v>875</v>
       </c>
       <c r="T433" t="n">
         <v>20</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N434" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O434" t="n">
         <v>10000</v>
       </c>
       <c r="P434" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="T434" t="n">
         <v>20</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35164,7 +35164,7 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>1600</v>
+        <v>960</v>
       </c>
       <c r="N435" t="n">
         <v>10000</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>560</v>
+        <v>1450</v>
       </c>
       <c r="N436" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O436" t="n">
         <v>13000</v>
       </c>
       <c r="P436" t="n">
-        <v>13000</v>
+        <v>12414</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>650</v>
+        <v>621</v>
       </c>
       <c r="T436" t="n">
         <v>20</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>3340</v>
+        <v>216</v>
       </c>
       <c r="N437" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O437" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P437" t="n">
-        <v>12946</v>
+        <v>20500</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>647</v>
+        <v>1025</v>
       </c>
       <c r="T437" t="n">
         <v>20</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35395,25 +35395,25 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>216</v>
+        <v>400</v>
       </c>
       <c r="N438" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O438" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P438" t="n">
-        <v>20500</v>
+        <v>9500</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>1025</v>
+        <v>475</v>
       </c>
       <c r="T438" t="n">
         <v>20</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,7 +35484,7 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>1280</v>
+        <v>1600</v>
       </c>
       <c r="N439" t="n">
         <v>10000</v>
@@ -35493,7 +35493,7 @@
         <v>11000</v>
       </c>
       <c r="P439" t="n">
-        <v>10688</v>
+        <v>10500</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="T439" t="n">
         <v>20</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>1840</v>
+        <v>560</v>
       </c>
       <c r="N440" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O440" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P440" t="n">
-        <v>12891</v>
+        <v>13000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="T440" t="n">
         <v>20</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35635,25 +35635,25 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>216</v>
+        <v>3340</v>
       </c>
       <c r="N441" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O441" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P441" t="n">
-        <v>20500</v>
+        <v>12946</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1025</v>
+        <v>647</v>
       </c>
       <c r="T441" t="n">
         <v>20</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35715,25 +35715,25 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>1280</v>
+        <v>216</v>
       </c>
       <c r="N442" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O442" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P442" t="n">
-        <v>15500</v>
+        <v>20500</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>775</v>
+        <v>1025</v>
       </c>
       <c r="T442" t="n">
         <v>20</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>2400</v>
+        <v>1280</v>
       </c>
       <c r="N443" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O443" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P443" t="n">
-        <v>17533</v>
+        <v>10688</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>877</v>
+        <v>534</v>
       </c>
       <c r="T443" t="n">
         <v>20</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44215</v>
+        <v>44421</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>1370</v>
+        <v>1840</v>
       </c>
       <c r="N444" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O444" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P444" t="n">
-        <v>9796</v>
+        <v>12891</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>490</v>
+        <v>645</v>
       </c>
       <c r="T444" t="n">
         <v>20</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35955,25 +35955,25 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>1500</v>
+        <v>216</v>
       </c>
       <c r="N445" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O445" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P445" t="n">
-        <v>11400</v>
+        <v>20500</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>570</v>
+        <v>1025</v>
       </c>
       <c r="T445" t="n">
         <v>20</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44194</v>
+        <v>44434</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>2080</v>
+        <v>1280</v>
       </c>
       <c r="N446" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P446" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="T446" t="n">
         <v>20</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44194</v>
+        <v>44434</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>960</v>
+        <v>2400</v>
       </c>
       <c r="N447" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O447" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P447" t="n">
-        <v>12417</v>
+        <v>17533</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>621</v>
+        <v>877</v>
       </c>
       <c r="T447" t="n">
         <v>20</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>3340</v>
+        <v>1370</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O448" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>13165</v>
+        <v>9796</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>658</v>
+        <v>490</v>
       </c>
       <c r="T448" t="n">
         <v>20</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44222</v>
+        <v>44215</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36275,25 +36275,25 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>270</v>
+        <v>1500</v>
       </c>
       <c r="N449" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
         <v>13000</v>
       </c>
       <c r="P449" t="n">
-        <v>13000</v>
+        <v>11400</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="T449" t="n">
         <v>20</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36355,25 +36355,25 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>158</v>
+        <v>2080</v>
       </c>
       <c r="N450" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O450" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>14658</v>
+        <v>11500</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>733</v>
+        <v>575</v>
       </c>
       <c r="T450" t="n">
         <v>20</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>270</v>
+        <v>960</v>
       </c>
       <c r="N451" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O451" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P451" t="n">
-        <v>15000</v>
+        <v>12417</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>750</v>
+        <v>621</v>
       </c>
       <c r="T451" t="n">
         <v>20</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>1200</v>
+        <v>3340</v>
       </c>
       <c r="N452" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O452" t="n">
         <v>14000</v>
       </c>
       <c r="P452" t="n">
-        <v>13500</v>
+        <v>13165</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="T452" t="n">
         <v>20</v>
@@ -36595,25 +36595,25 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>3440</v>
+        <v>270</v>
       </c>
       <c r="N453" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O453" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="P453" t="n">
-        <v>13680</v>
+        <v>13000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>684</v>
+        <v>650</v>
       </c>
       <c r="T453" t="n">
         <v>20</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36675,25 +36675,25 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="N454" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O454" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P454" t="n">
-        <v>12000</v>
+        <v>14658</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T454" t="n">
         <v>20</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36755,25 +36755,25 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>960</v>
+        <v>270</v>
       </c>
       <c r="N455" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O455" t="n">
         <v>15000</v>
       </c>
       <c r="P455" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="T455" t="n">
         <v>20</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>1270</v>
+        <v>1200</v>
       </c>
       <c r="N456" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O456" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P456" t="n">
-        <v>16441</v>
+        <v>13500</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>822</v>
+        <v>675</v>
       </c>
       <c r="T456" t="n">
         <v>20</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36915,25 +36915,25 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>216</v>
+        <v>3440</v>
       </c>
       <c r="N457" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O457" t="n">
-        <v>21000</v>
+        <v>15500</v>
       </c>
       <c r="P457" t="n">
-        <v>20500</v>
+        <v>13680</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1025</v>
+        <v>684</v>
       </c>
       <c r="T457" t="n">
         <v>20</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>2160</v>
+        <v>150</v>
       </c>
       <c r="N458" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O458" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P458" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="T458" t="n">
         <v>20</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>1840</v>
+        <v>960</v>
       </c>
       <c r="N459" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O459" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P459" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T459" t="n">
         <v>20</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>400</v>
+        <v>1270</v>
       </c>
       <c r="N460" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="O460" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P460" t="n">
-        <v>9750</v>
+        <v>16441</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>488</v>
+        <v>822</v>
       </c>
       <c r="T460" t="n">
         <v>20</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37247,13 +37247,13 @@
         <v>216</v>
       </c>
       <c r="N461" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O461" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P461" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T461" t="n">
         <v>20</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>320</v>
+        <v>2160</v>
       </c>
       <c r="N462" t="n">
         <v>10000</v>
       </c>
       <c r="O462" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P462" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="T462" t="n">
         <v>20</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>1200</v>
+        <v>1840</v>
       </c>
       <c r="N463" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O463" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P463" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T463" t="n">
         <v>20</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="N464" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O464" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P464" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>675</v>
+        <v>488</v>
       </c>
       <c r="T464" t="n">
         <v>20</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37567,13 +37567,13 @@
         <v>216</v>
       </c>
       <c r="N465" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O465" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P465" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T465" t="n">
         <v>20</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>1120</v>
+        <v>320</v>
       </c>
       <c r="N466" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O466" t="n">
         <v>10000</v>
       </c>
       <c r="P466" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="T466" t="n">
         <v>20</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,11 +37720,11 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>1450</v>
+        <v>1200</v>
       </c>
       <c r="N467" t="n">
         <v>11000</v>
@@ -37733,7 +37733,7 @@
         <v>12000</v>
       </c>
       <c r="P467" t="n">
-        <v>11586</v>
+        <v>11500</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="T467" t="n">
         <v>20</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>275</v>
+        <v>720</v>
       </c>
       <c r="N468" t="n">
         <v>13000</v>
       </c>
       <c r="O468" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P468" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="T468" t="n">
         <v>20</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>720</v>
+        <v>216</v>
       </c>
       <c r="N469" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="O469" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P469" t="n">
-        <v>13833</v>
+        <v>20500</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>692</v>
+        <v>1025</v>
       </c>
       <c r="T469" t="n">
         <v>20</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>2455</v>
+        <v>1120</v>
       </c>
       <c r="N470" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O470" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>14609</v>
+        <v>9500</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>730</v>
+        <v>475</v>
       </c>
       <c r="T470" t="n">
         <v>20</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>216</v>
+        <v>1450</v>
       </c>
       <c r="N471" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O471" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P471" t="n">
-        <v>14500</v>
+        <v>11586</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>725</v>
+        <v>579</v>
       </c>
       <c r="T471" t="n">
         <v>20</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="N472" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O472" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P472" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T472" t="n">
         <v>20</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>1930</v>
+        <v>720</v>
       </c>
       <c r="N473" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O473" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P473" t="n">
-        <v>11435</v>
+        <v>13833</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>572</v>
+        <v>692</v>
       </c>
       <c r="T473" t="n">
         <v>20</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>1400</v>
+        <v>2455</v>
       </c>
       <c r="N474" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O474" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P474" t="n">
-        <v>13429</v>
+        <v>14609</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>671</v>
+        <v>730</v>
       </c>
       <c r="T474" t="n">
         <v>20</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>400</v>
+        <v>216</v>
       </c>
       <c r="N475" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O475" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P475" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>500</v>
+        <v>725</v>
       </c>
       <c r="T475" t="n">
         <v>20</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>1240</v>
+        <v>200</v>
       </c>
       <c r="N476" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O476" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P476" t="n">
-        <v>10548</v>
+        <v>9000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>527</v>
+        <v>450</v>
       </c>
       <c r="T476" t="n">
         <v>20</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,11 +38520,11 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>1170</v>
+        <v>1930</v>
       </c>
       <c r="N477" t="n">
         <v>11000</v>
@@ -38533,7 +38533,7 @@
         <v>12000</v>
       </c>
       <c r="P477" t="n">
-        <v>11342</v>
+        <v>11435</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="T477" t="n">
         <v>20</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>2410</v>
+        <v>1400</v>
       </c>
       <c r="N478" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O478" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P478" t="n">
-        <v>12701</v>
+        <v>13429</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="T478" t="n">
         <v>20</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N479" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O479" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P479" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="T479" t="n">
         <v>20</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>1370</v>
+        <v>1240</v>
       </c>
       <c r="N480" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O480" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P480" t="n">
-        <v>8409</v>
+        <v>10548</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>420</v>
+        <v>527</v>
       </c>
       <c r="T480" t="n">
         <v>20</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>1450</v>
+        <v>1170</v>
       </c>
       <c r="N481" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O481" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P481" t="n">
-        <v>10414</v>
+        <v>11342</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>521</v>
+        <v>567</v>
       </c>
       <c r="T481" t="n">
         <v>20</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>1760</v>
+        <v>2410</v>
       </c>
       <c r="N482" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O482" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P482" t="n">
-        <v>10500</v>
+        <v>12701</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>525</v>
+        <v>635</v>
       </c>
       <c r="T482" t="n">
         <v>20</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>3120</v>
+        <v>250</v>
       </c>
       <c r="N483" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="O483" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P483" t="n">
-        <v>12795</v>
+        <v>7000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>640</v>
+        <v>350</v>
       </c>
       <c r="T483" t="n">
         <v>20</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>440</v>
+        <v>1370</v>
       </c>
       <c r="N484" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O484" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P484" t="n">
-        <v>13000</v>
+        <v>8409</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>650</v>
+        <v>420</v>
       </c>
       <c r="T484" t="n">
         <v>20</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44341</v>
+        <v>44253</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>250</v>
+        <v>1450</v>
       </c>
       <c r="N485" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O485" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P485" t="n">
-        <v>9000</v>
+        <v>10414</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="T485" t="n">
         <v>20</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>1050</v>
+        <v>1760</v>
       </c>
       <c r="N486" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P486" t="n">
-        <v>9619</v>
+        <v>10500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="T486" t="n">
         <v>20</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>1370</v>
+        <v>3120</v>
       </c>
       <c r="N487" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O487" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P487" t="n">
-        <v>11591</v>
+        <v>12795</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="T487" t="n">
         <v>20</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39395,25 +39395,25 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>216</v>
+        <v>440</v>
       </c>
       <c r="N488" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O488" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P488" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1025</v>
+        <v>650</v>
       </c>
       <c r="T488" t="n">
         <v>20</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>1120</v>
+        <v>250</v>
       </c>
       <c r="N489" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O489" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P489" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>575</v>
+        <v>450</v>
       </c>
       <c r="T489" t="n">
         <v>20</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="N490" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O490" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P490" t="n">
-        <v>13500</v>
+        <v>9619</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>675</v>
+        <v>481</v>
       </c>
       <c r="T490" t="n">
         <v>20</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>800</v>
+        <v>1370</v>
       </c>
       <c r="N491" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O491" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P491" t="n">
-        <v>10500</v>
+        <v>11591</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="T491" t="n">
         <v>20</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39715,25 +39715,25 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>475</v>
+        <v>216</v>
       </c>
       <c r="N492" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O492" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P492" t="n">
-        <v>9000</v>
+        <v>20500</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>450</v>
+        <v>1025</v>
       </c>
       <c r="T492" t="n">
         <v>20</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>775</v>
+        <v>1120</v>
       </c>
       <c r="N493" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O493" t="n">
         <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>11226</v>
+        <v>11500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="T493" t="n">
         <v>20</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>275</v>
+        <v>800</v>
       </c>
       <c r="N494" t="n">
         <v>13000</v>
       </c>
       <c r="O494" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P494" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="T494" t="n">
         <v>20</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>1490</v>
+        <v>800</v>
       </c>
       <c r="N495" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O495" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P495" t="n">
-        <v>9638</v>
+        <v>10500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="T495" t="n">
         <v>20</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>760</v>
+        <v>475</v>
       </c>
       <c r="N496" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O496" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P496" t="n">
-        <v>11526</v>
+        <v>9000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>576</v>
+        <v>450</v>
       </c>
       <c r="T496" t="n">
         <v>20</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>2470</v>
+        <v>775</v>
       </c>
       <c r="N497" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O497" t="n">
         <v>12000</v>
       </c>
-      <c r="O497" t="n">
-        <v>13000</v>
-      </c>
       <c r="P497" t="n">
-        <v>12324</v>
+        <v>11226</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>616</v>
+        <v>561</v>
       </c>
       <c r="T497" t="n">
         <v>20</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44176</v>
+        <v>44301</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>1795</v>
+        <v>275</v>
       </c>
       <c r="N498" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O498" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P498" t="n">
-        <v>11354</v>
+        <v>13000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="T498" t="n">
         <v>20</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>475</v>
+        <v>1490</v>
       </c>
       <c r="N499" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O499" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P499" t="n">
-        <v>12158</v>
+        <v>9638</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>608</v>
+        <v>482</v>
       </c>
       <c r="T499" t="n">
         <v>20</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>1475</v>
+        <v>760</v>
       </c>
       <c r="N500" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O500" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P500" t="n">
-        <v>13322</v>
+        <v>11526</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>666</v>
+        <v>576</v>
       </c>
       <c r="T500" t="n">
         <v>20</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>216</v>
+        <v>2470</v>
       </c>
       <c r="N501" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O501" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P501" t="n">
-        <v>20500</v>
+        <v>12324</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1025</v>
+        <v>616</v>
       </c>
       <c r="T501" t="n">
         <v>20</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>2160</v>
+        <v>1795</v>
       </c>
       <c r="N502" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="O502" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P502" t="n">
-        <v>10241</v>
+        <v>11354</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="T502" t="n">
         <v>20</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>2000</v>
+        <v>475</v>
       </c>
       <c r="N503" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O503" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P503" t="n">
-        <v>12840</v>
+        <v>12158</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="T503" t="n">
         <v>20</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>320</v>
+        <v>1475</v>
       </c>
       <c r="N504" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O504" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P504" t="n">
-        <v>10500</v>
+        <v>13322</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>525</v>
+        <v>666</v>
       </c>
       <c r="T504" t="n">
         <v>20</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>1160</v>
+        <v>216</v>
       </c>
       <c r="N505" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O505" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P505" t="n">
-        <v>14414</v>
+        <v>20500</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>721</v>
+        <v>1025</v>
       </c>
       <c r="T505" t="n">
         <v>20</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>1320</v>
+        <v>2160</v>
       </c>
       <c r="N506" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="O506" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P506" t="n">
-        <v>16424</v>
+        <v>10241</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>821</v>
+        <v>512</v>
       </c>
       <c r="T506" t="n">
         <v>20</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44237</v>
+        <v>44417</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>1730</v>
+        <v>2000</v>
       </c>
       <c r="N507" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O507" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P507" t="n">
-        <v>11607</v>
+        <v>12840</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>580</v>
+        <v>642</v>
       </c>
       <c r="T507" t="n">
         <v>20</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44237</v>
+        <v>44417</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="N508" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O508" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P508" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="T508" t="n">
         <v>20</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>2910</v>
+        <v>1160</v>
       </c>
       <c r="N509" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O509" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P509" t="n">
-        <v>12684</v>
+        <v>14414</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>634</v>
+        <v>721</v>
       </c>
       <c r="T509" t="n">
         <v>20</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>1440</v>
+        <v>1320</v>
       </c>
       <c r="N510" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O510" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P510" t="n">
-        <v>11500</v>
+        <v>16424</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>575</v>
+        <v>821</v>
       </c>
       <c r="T510" t="n">
         <v>20</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>1680</v>
+        <v>1730</v>
       </c>
       <c r="N511" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O511" t="n">
         <v>12000</v>
       </c>
-      <c r="O511" t="n">
-        <v>14000</v>
-      </c>
       <c r="P511" t="n">
-        <v>13095</v>
+        <v>11607</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>655</v>
+        <v>580</v>
       </c>
       <c r="T511" t="n">
         <v>20</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44351</v>
+        <v>44237</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="N512" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O512" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P512" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T512" t="n">
         <v>20</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44351</v>
+        <v>44237</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>800</v>
+        <v>2910</v>
       </c>
       <c r="N513" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O513" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P513" t="n">
-        <v>9500</v>
+        <v>12684</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>475</v>
+        <v>634</v>
       </c>
       <c r="T513" t="n">
         <v>20</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>200</v>
+        <v>1440</v>
       </c>
       <c r="N514" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O514" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P514" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="T514" t="n">
         <v>20</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>1270</v>
+        <v>1680</v>
       </c>
       <c r="N515" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O515" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P515" t="n">
-        <v>11441</v>
+        <v>13095</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>572</v>
+        <v>655</v>
       </c>
       <c r="T515" t="n">
         <v>20</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41635,25 +41635,25 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="N516" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O516" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P516" t="n">
-        <v>20500</v>
+        <v>9000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1025</v>
+        <v>450</v>
       </c>
       <c r="T516" t="n">
         <v>20</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N517" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O517" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P517" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="T517" t="n">
         <v>20</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="N518" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O518" t="n">
         <v>10000</v>
       </c>
       <c r="P518" t="n">
-        <v>9579</v>
+        <v>10000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="T518" t="n">
         <v>20</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>2390</v>
+        <v>1270</v>
       </c>
       <c r="N519" t="n">
         <v>11000</v>
       </c>
       <c r="O519" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P519" t="n">
-        <v>11950</v>
+        <v>11441</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="T519" t="n">
         <v>20</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41967,13 +41967,13 @@
         <v>216</v>
       </c>
       <c r="N520" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O520" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P520" t="n">
-        <v>13500</v>
+        <v>20500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>675</v>
+        <v>1025</v>
       </c>
       <c r="T520" t="n">
         <v>20</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="N521" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O521" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P521" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T521" t="n">
         <v>20</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>1230</v>
+        <v>950</v>
       </c>
       <c r="N522" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O522" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P522" t="n">
-        <v>11610</v>
+        <v>9579</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>580</v>
+        <v>479</v>
       </c>
       <c r="T522" t="n">
         <v>20</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>1390</v>
+        <v>2390</v>
       </c>
       <c r="N523" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O523" t="n">
         <v>13000</v>
       </c>
-      <c r="O523" t="n">
-        <v>14000</v>
-      </c>
       <c r="P523" t="n">
-        <v>13597</v>
+        <v>11950</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>680</v>
+        <v>598</v>
       </c>
       <c r="T523" t="n">
         <v>20</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>900</v>
+        <v>216</v>
       </c>
       <c r="N524" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O524" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P524" t="n">
-        <v>10667</v>
+        <v>13500</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>533</v>
+        <v>675</v>
       </c>
       <c r="T524" t="n">
         <v>20</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>2060</v>
+        <v>270</v>
       </c>
       <c r="N525" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O525" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P525" t="n">
-        <v>12573</v>
+        <v>10000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>629</v>
+        <v>500</v>
       </c>
       <c r="T525" t="n">
         <v>20</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>108</v>
+        <v>1230</v>
       </c>
       <c r="N526" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O526" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P526" t="n">
-        <v>21000</v>
+        <v>11610</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1050</v>
+        <v>580</v>
       </c>
       <c r="T526" t="n">
         <v>20</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>200</v>
+        <v>1390</v>
       </c>
       <c r="N527" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O527" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P527" t="n">
-        <v>9000</v>
+        <v>13597</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>450</v>
+        <v>680</v>
       </c>
       <c r="T527" t="n">
         <v>20</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,7 +42604,7 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>1760</v>
+        <v>900</v>
       </c>
       <c r="N528" t="n">
         <v>10000</v>
@@ -42613,7 +42613,7 @@
         <v>11000</v>
       </c>
       <c r="P528" t="n">
-        <v>10500</v>
+        <v>10667</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="T528" t="n">
         <v>20</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>1200</v>
+        <v>2060</v>
       </c>
       <c r="N529" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O529" t="n">
         <v>13000</v>
       </c>
       <c r="P529" t="n">
-        <v>12250</v>
+        <v>12573</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="T529" t="n">
         <v>20</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N530" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O530" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P530" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>925</v>
+        <v>1050</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="N531" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O531" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P531" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>575</v>
+        <v>450</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>1680</v>
+        <v>1760</v>
       </c>
       <c r="N532" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O532" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P532" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>560</v>
+        <v>1200</v>
       </c>
       <c r="N533" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="O533" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P533" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>400</v>
+        <v>612</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>1460</v>
+        <v>216</v>
       </c>
       <c r="N534" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O534" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P534" t="n">
-        <v>8767</v>
+        <v>18500</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>438</v>
+        <v>925</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>880</v>
+        <v>1200</v>
       </c>
       <c r="N535" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O535" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P535" t="n">
-        <v>8773</v>
+        <v>11500</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>439</v>
+        <v>575</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>1540</v>
+        <v>1680</v>
       </c>
       <c r="N536" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O536" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P536" t="n">
-        <v>9416</v>
+        <v>12500</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>471</v>
+        <v>625</v>
       </c>
       <c r="T536" t="n">
         <v>20</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="N537" t="n">
         <v>8000</v>
       </c>
       <c r="O537" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P537" t="n">
-        <v>8825</v>
+        <v>8000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>670</v>
+        <v>1460</v>
       </c>
       <c r="N538" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O538" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P538" t="n">
-        <v>10403</v>
+        <v>8767</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>520</v>
+        <v>438</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>270</v>
+        <v>880</v>
       </c>
       <c r="N539" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O539" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P539" t="n">
-        <v>12000</v>
+        <v>8773</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>600</v>
+        <v>439</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>250</v>
+        <v>1540</v>
       </c>
       <c r="N540" t="n">
         <v>9000</v>
       </c>
       <c r="O540" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P540" t="n">
-        <v>9000</v>
+        <v>9416</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>1900</v>
+        <v>570</v>
       </c>
       <c r="N541" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O541" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P541" t="n">
-        <v>11947</v>
+        <v>8825</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>597</v>
+        <v>441</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>1980</v>
+        <v>670</v>
       </c>
       <c r="N542" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O542" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P542" t="n">
-        <v>13424</v>
+        <v>10403</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>671</v>
+        <v>520</v>
       </c>
       <c r="T542" t="n">
         <v>20</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44391</v>
+        <v>44302</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>680</v>
+        <v>270</v>
       </c>
       <c r="N543" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O543" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P543" t="n">
-        <v>8824</v>
+        <v>12000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>441</v>
+        <v>600</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>2040</v>
+        <v>250</v>
       </c>
       <c r="N544" t="n">
         <v>9000</v>
       </c>
       <c r="O544" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P544" t="n">
-        <v>9843</v>
+        <v>9000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="T544" t="n">
         <v>20</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>560</v>
+        <v>1900</v>
       </c>
       <c r="N545" t="n">
         <v>11000</v>
       </c>
       <c r="O545" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P545" t="n">
-        <v>11000</v>
+        <v>11947</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>4220</v>
+        <v>1980</v>
       </c>
       <c r="N546" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O546" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P546" t="n">
-        <v>11265</v>
+        <v>13424</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>563</v>
+        <v>671</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>1050</v>
+        <v>680</v>
       </c>
       <c r="N547" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O547" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P547" t="n">
-        <v>16381</v>
+        <v>8824</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>819</v>
+        <v>441</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>1370</v>
+        <v>2040</v>
       </c>
       <c r="N548" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O548" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P548" t="n">
-        <v>17591</v>
+        <v>9843</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>880</v>
+        <v>492</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44411</v>
+        <v>44391</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>216</v>
+        <v>560</v>
       </c>
       <c r="N549" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O549" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P549" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1050</v>
+        <v>550</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44411</v>
+        <v>44391</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>150</v>
+        <v>4220</v>
       </c>
       <c r="N550" t="n">
         <v>10000</v>
       </c>
       <c r="O550" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P550" t="n">
-        <v>10000</v>
+        <v>11265</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="N551" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O551" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P551" t="n">
-        <v>12500</v>
+        <v>16381</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>625</v>
+        <v>819</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>1320</v>
+        <v>1370</v>
       </c>
       <c r="N552" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O552" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P552" t="n">
-        <v>14424</v>
+        <v>17591</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>721</v>
+        <v>880</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N553" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O553" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P553" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>525</v>
+        <v>1050</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="N554" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O554" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P554" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>725</v>
+        <v>500</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>1920</v>
+        <v>800</v>
       </c>
       <c r="N555" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O555" t="n">
         <v>13000</v>
       </c>
       <c r="P555" t="n">
-        <v>12083</v>
+        <v>12500</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="N556" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O556" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P556" t="n">
-        <v>13500</v>
+        <v>14424</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="T556" t="n">
         <v>20</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,7 +44920,7 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M557" t="n">
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="N558" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O558" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P558" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>1420</v>
+        <v>1920</v>
       </c>
       <c r="N559" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O559" t="n">
         <v>13000</v>
       </c>
       <c r="P559" t="n">
-        <v>12500</v>
+        <v>12083</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44449</v>
+        <v>44313</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>1270</v>
+        <v>1200</v>
       </c>
       <c r="N560" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O560" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P560" t="n">
-        <v>17559</v>
+        <v>13500</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>878</v>
+        <v>675</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N561" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O561" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P561" t="n">
-        <v>19579</v>
+        <v>10500</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>979</v>
+        <v>525</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>1840</v>
+        <v>300</v>
       </c>
       <c r="N562" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O562" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P562" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>720</v>
+        <v>1420</v>
       </c>
       <c r="N563" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O563" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P563" t="n">
-        <v>16278</v>
+        <v>12500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>814</v>
+        <v>625</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>1760</v>
+        <v>1270</v>
       </c>
       <c r="N564" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O564" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P564" t="n">
-        <v>11591</v>
+        <v>17559</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>580</v>
+        <v>878</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>1930</v>
+        <v>950</v>
       </c>
       <c r="N565" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O565" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P565" t="n">
-        <v>13000</v>
+        <v>19579</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>650</v>
+        <v>979</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>670</v>
+        <v>1840</v>
       </c>
       <c r="N566" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O566" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P566" t="n">
-        <v>6896</v>
+        <v>14500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>345</v>
+        <v>725</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>1070</v>
+        <v>720</v>
       </c>
       <c r="N567" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O567" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P567" t="n">
-        <v>8374</v>
+        <v>16278</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>419</v>
+        <v>814</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>1230</v>
+        <v>1760</v>
       </c>
       <c r="N568" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O568" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P568" t="n">
-        <v>9610</v>
+        <v>11591</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>216</v>
+        <v>1930</v>
       </c>
       <c r="N569" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O569" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P569" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1025</v>
+        <v>650</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>1600</v>
+        <v>670</v>
       </c>
       <c r="N570" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="O570" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P570" t="n">
-        <v>10300</v>
+        <v>6896</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>515</v>
+        <v>345</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>680</v>
+        <v>1070</v>
       </c>
       <c r="N571" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O571" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P571" t="n">
-        <v>13000</v>
+        <v>8374</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>650</v>
+        <v>419</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>3540</v>
+        <v>1230</v>
       </c>
       <c r="N572" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O572" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P572" t="n">
-        <v>13198</v>
+        <v>9610</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="N573" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O573" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P573" t="n">
-        <v>19658</v>
+        <v>20500</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>983</v>
+        <v>1025</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>150</v>
+        <v>1600</v>
       </c>
       <c r="N574" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O574" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P574" t="n">
-        <v>12000</v>
+        <v>10300</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>600</v>
+        <v>515</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="N575" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O575" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P575" t="n">
-        <v>15118</v>
+        <v>13000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>756</v>
+        <v>650</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>2015</v>
+        <v>3540</v>
       </c>
       <c r="N576" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O576" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P576" t="n">
-        <v>17079</v>
+        <v>13198</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>854</v>
+        <v>660</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="N577" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O577" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P577" t="n">
-        <v>12000</v>
+        <v>19658</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>600</v>
+        <v>983</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46595,25 +46595,25 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>944</v>
+        <v>150</v>
       </c>
       <c r="N578" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O578" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P578" t="n">
-        <v>20229</v>
+        <v>12000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1011</v>
+        <v>600</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>150</v>
+        <v>1360</v>
       </c>
       <c r="N579" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O579" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P579" t="n">
-        <v>15000</v>
+        <v>15118</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>360</v>
+        <v>2015</v>
       </c>
       <c r="N580" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O580" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P580" t="n">
-        <v>13000</v>
+        <v>17079</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>650</v>
+        <v>854</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>6800</v>
+        <v>150</v>
       </c>
       <c r="N581" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O581" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P581" t="n">
-        <v>13232</v>
+        <v>12000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>680</v>
+        <v>944</v>
       </c>
       <c r="N582" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O582" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P582" t="n">
-        <v>13000</v>
+        <v>20229</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46942,11 +46942,11 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>650</v>
+        <v>1011</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>1330</v>
+        <v>150</v>
       </c>
       <c r="N583" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O583" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P583" t="n">
-        <v>13421</v>
+        <v>15000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>9710</v>
+        <v>360</v>
       </c>
       <c r="N584" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O584" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P584" t="n">
-        <v>15121</v>
+        <v>13000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>756</v>
+        <v>650</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>2280</v>
+        <v>6800</v>
       </c>
       <c r="N585" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="O585" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P585" t="n">
-        <v>12325</v>
+        <v>13232</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>616</v>
+        <v>662</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>1400</v>
+        <v>680</v>
       </c>
       <c r="N586" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O586" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P586" t="n">
-        <v>14429</v>
+        <v>13000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>721</v>
+        <v>650</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>2510</v>
+        <v>1330</v>
       </c>
       <c r="N587" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O587" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P587" t="n">
-        <v>11709</v>
+        <v>13421</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47342,11 +47342,11 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>585</v>
+        <v>671</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>350</v>
+        <v>9710</v>
       </c>
       <c r="N588" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O588" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P588" t="n">
-        <v>13000</v>
+        <v>15121</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>650</v>
+        <v>756</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>3390</v>
+        <v>2280</v>
       </c>
       <c r="N589" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O589" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P589" t="n">
-        <v>13298</v>
+        <v>12325</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>665</v>
+        <v>616</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>880</v>
+        <v>1400</v>
       </c>
       <c r="N590" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O590" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P590" t="n">
-        <v>5545</v>
+        <v>14429</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>277</v>
+        <v>721</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47644,16 +47644,16 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>2000</v>
+        <v>2510</v>
       </c>
       <c r="N591" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O591" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P591" t="n">
-        <v>7500</v>
+        <v>11709</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>375</v>
+        <v>585</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47724,16 +47724,16 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N592" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O592" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P592" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>2880</v>
+        <v>3390</v>
       </c>
       <c r="N593" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O593" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P593" t="n">
-        <v>9083</v>
+        <v>13298</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>454</v>
+        <v>665</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>1075</v>
+        <v>880</v>
       </c>
       <c r="N594" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O594" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P594" t="n">
-        <v>12116</v>
+        <v>5545</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>606</v>
+        <v>277</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>1395</v>
+        <v>2000</v>
       </c>
       <c r="N595" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O595" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P595" t="n">
-        <v>13602</v>
+        <v>7500</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>680</v>
+        <v>375</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N596" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O596" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P596" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>1075</v>
+        <v>400</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>600</v>
+        <v>2880</v>
       </c>
       <c r="N597" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O597" t="n">
         <v>10000</v>
       </c>
       <c r="P597" t="n">
-        <v>10000</v>
+        <v>9083</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48204,16 +48204,16 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>800</v>
+        <v>1075</v>
       </c>
       <c r="N598" t="n">
         <v>11000</v>
       </c>
       <c r="O598" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P598" t="n">
-        <v>11500</v>
+        <v>12116</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>480</v>
+        <v>1395</v>
       </c>
       <c r="N599" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O599" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P599" t="n">
-        <v>11500</v>
+        <v>13602</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>575</v>
+        <v>680</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>1320</v>
+        <v>150</v>
       </c>
       <c r="N600" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O600" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P600" t="n">
-        <v>12576</v>
+        <v>21500</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>629</v>
+        <v>1075</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N601" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O601" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P601" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="N602" t="n">
         <v>11000</v>
       </c>
       <c r="O602" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P602" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>1070</v>
+        <v>480</v>
       </c>
       <c r="N603" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O603" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P603" t="n">
-        <v>13374</v>
+        <v>11500</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>669</v>
+        <v>575</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>1120</v>
+        <v>1320</v>
       </c>
       <c r="N604" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O604" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P604" t="n">
-        <v>15500</v>
+        <v>12576</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>775</v>
+        <v>629</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="N605" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O605" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P605" t="n">
-        <v>10286</v>
+        <v>15000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>1100</v>
+        <v>270</v>
       </c>
       <c r="N606" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O606" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P606" t="n">
-        <v>12636</v>
+        <v>11000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>632</v>
+        <v>550</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>480</v>
+        <v>1070</v>
       </c>
       <c r="N607" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O607" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P607" t="n">
-        <v>11500</v>
+        <v>13374</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>575</v>
+        <v>669</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>1980</v>
+        <v>1120</v>
       </c>
       <c r="N608" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O608" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P608" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49084,16 +49084,16 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="N609" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O609" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P609" t="n">
-        <v>18000</v>
+        <v>10286</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>900</v>
+        <v>514</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="N610" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O610" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P610" t="n">
-        <v>18500</v>
+        <v>12636</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>925</v>
+        <v>632</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>1500</v>
+        <v>480</v>
       </c>
       <c r="N611" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O611" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P611" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1025</v>
+        <v>575</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>800</v>
+        <v>1980</v>
       </c>
       <c r="N612" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O612" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P612" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>1680</v>
+        <v>250</v>
       </c>
       <c r="N613" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O613" t="n">
         <v>18000</v>
       </c>
       <c r="P613" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>875</v>
+        <v>900</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>250</v>
+        <v>1120</v>
       </c>
       <c r="N614" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O614" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P614" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>650</v>
+        <v>925</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>480</v>
+        <v>1500</v>
       </c>
       <c r="N615" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O615" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P615" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>500</v>
+        <v>1025</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>1915</v>
+        <v>800</v>
       </c>
       <c r="N616" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O616" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P616" t="n">
-        <v>11180</v>
+        <v>16500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>559</v>
+        <v>825</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>2195</v>
+        <v>1680</v>
       </c>
       <c r="N617" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O617" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P617" t="n">
-        <v>13285</v>
+        <v>17500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>664</v>
+        <v>875</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="N618" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O618" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P618" t="n">
-        <v>21500</v>
+        <v>13000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>1075</v>
+        <v>650</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49884,16 +49884,16 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N619" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O619" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P619" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,16 +49964,16 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1510</v>
+        <v>1915</v>
       </c>
       <c r="N620" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O620" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P620" t="n">
-        <v>14914</v>
+        <v>11180</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>746</v>
+        <v>559</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>1950</v>
+        <v>2195</v>
       </c>
       <c r="N621" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O621" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P621" t="n">
-        <v>17159</v>
+        <v>13285</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>858</v>
+        <v>664</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="N622" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O622" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P622" t="n">
-        <v>12500</v>
+        <v>21500</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>625</v>
+        <v>1075</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>640</v>
+        <v>150</v>
       </c>
       <c r="N623" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O623" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P623" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>825</v>
+        <v>600</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,68 +50247,388 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E624" t="n">
+        <v>13</v>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G624" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I624" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M624" t="n">
+        <v>1510</v>
+      </c>
+      <c r="N624" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O624" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P624" t="n">
+        <v>14914</v>
+      </c>
+      <c r="Q624" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R624" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S624" t="n">
+        <v>746</v>
+      </c>
+      <c r="T624" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>6</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D625" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E625" t="n">
+        <v>13</v>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G625" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I625" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M625" t="n">
+        <v>1950</v>
+      </c>
+      <c r="N625" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O625" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P625" t="n">
+        <v>17159</v>
+      </c>
+      <c r="Q625" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R625" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S625" t="n">
+        <v>858</v>
+      </c>
+      <c r="T625" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>6</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D626" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E624" t="n">
-        <v>13</v>
-      </c>
-      <c r="F624" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G624" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I624" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J624" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L624" t="inlineStr">
+      <c r="E626" t="n">
+        <v>13</v>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G626" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I626" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M626" t="n">
+        <v>170</v>
+      </c>
+      <c r="N626" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O626" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P626" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q626" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R626" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S626" t="n">
+        <v>625</v>
+      </c>
+      <c r="T626" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>6</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D627" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E627" t="n">
+        <v>13</v>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G627" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I627" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M627" t="n">
+        <v>640</v>
+      </c>
+      <c r="N627" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O627" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P627" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q627" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R627" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S627" t="n">
+        <v>825</v>
+      </c>
+      <c r="T627" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>6</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D628" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E628" t="n">
+        <v>13</v>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G628" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I628" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L628" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M624" t="n">
+      <c r="M628" t="n">
         <v>1470</v>
       </c>
-      <c r="N624" t="n">
+      <c r="N628" t="n">
         <v>18000</v>
       </c>
-      <c r="O624" t="n">
+      <c r="O628" t="n">
         <v>20000</v>
       </c>
-      <c r="P624" t="n">
+      <c r="P628" t="n">
         <v>19337</v>
       </c>
-      <c r="Q624" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R624" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S624" t="n">
+      <c r="Q628" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R628" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S628" t="n">
         <v>967</v>
       </c>
-      <c r="T624" t="n">
+      <c r="T628" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T632"/>
+  <dimension ref="A1:T634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="N419" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O419" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P419" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T419" t="n">
         <v>20</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>680</v>
+        <v>1120</v>
       </c>
       <c r="N420" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O420" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P420" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="T420" t="n">
         <v>20</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>2580</v>
+        <v>960</v>
       </c>
       <c r="N421" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O421" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P421" t="n">
-        <v>12519</v>
+        <v>10500</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>626</v>
+        <v>525</v>
       </c>
       <c r="T421" t="n">
         <v>20</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="N422" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P422" t="n">
-        <v>9750</v>
+        <v>12000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>488</v>
+        <v>600</v>
       </c>
       <c r="T422" t="n">
         <v>20</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>216</v>
+        <v>2580</v>
       </c>
       <c r="N423" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O423" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P423" t="n">
-        <v>20500</v>
+        <v>12519</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1025</v>
+        <v>626</v>
       </c>
       <c r="T423" t="n">
         <v>20</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>1120</v>
+        <v>400</v>
       </c>
       <c r="N424" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O424" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>575</v>
+        <v>488</v>
       </c>
       <c r="T424" t="n">
         <v>20</v>
@@ -34355,25 +34355,25 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N425" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O425" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P425" t="n">
-        <v>13500</v>
+        <v>20500</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>675</v>
+        <v>1025</v>
       </c>
       <c r="T425" t="n">
         <v>20</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="N426" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O426" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="T426" t="n">
         <v>20</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>175</v>
+        <v>800</v>
       </c>
       <c r="N427" t="n">
         <v>13000</v>
       </c>
       <c r="O427" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P427" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="T427" t="n">
         <v>20</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>175</v>
+        <v>800</v>
       </c>
       <c r="N428" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O428" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P428" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>800</v>
+        <v>525</v>
       </c>
       <c r="T428" t="n">
         <v>20</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M429" t="n">
         <v>175</v>
       </c>
       <c r="N429" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O429" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P429" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="T429" t="n">
         <v>20</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>1760</v>
+        <v>175</v>
       </c>
       <c r="N430" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O430" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P430" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>525</v>
+        <v>800</v>
       </c>
       <c r="T430" t="n">
         <v>20</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>3120</v>
+        <v>175</v>
       </c>
       <c r="N431" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O431" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P431" t="n">
-        <v>12795</v>
+        <v>18000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>640</v>
+        <v>900</v>
       </c>
       <c r="T431" t="n">
         <v>20</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>440</v>
+        <v>1760</v>
       </c>
       <c r="N432" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O432" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P432" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="T432" t="n">
         <v>20</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>1720</v>
+        <v>3120</v>
       </c>
       <c r="N433" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O433" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P433" t="n">
-        <v>14151</v>
+        <v>12795</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>708</v>
+        <v>640</v>
       </c>
       <c r="T433" t="n">
         <v>20</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>1200</v>
+        <v>440</v>
       </c>
       <c r="N434" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O434" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P434" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="T434" t="n">
         <v>20</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35155,25 +35155,25 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>324</v>
+        <v>1720</v>
       </c>
       <c r="N435" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O435" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P435" t="n">
-        <v>19667</v>
+        <v>14151</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>983</v>
+        <v>708</v>
       </c>
       <c r="T435" t="n">
         <v>20</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>2160</v>
+        <v>1200</v>
       </c>
       <c r="N436" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O436" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P436" t="n">
-        <v>9167</v>
+        <v>15500</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>458</v>
+        <v>775</v>
       </c>
       <c r="T436" t="n">
         <v>20</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>2520</v>
+        <v>324</v>
       </c>
       <c r="N437" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O437" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P437" t="n">
-        <v>11500</v>
+        <v>19667</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>575</v>
+        <v>983</v>
       </c>
       <c r="T437" t="n">
         <v>20</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35395,25 +35395,25 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>216</v>
+        <v>2160</v>
       </c>
       <c r="N438" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O438" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P438" t="n">
-        <v>13500</v>
+        <v>9167</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>675</v>
+        <v>458</v>
       </c>
       <c r="T438" t="n">
         <v>20</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>350</v>
+        <v>2520</v>
       </c>
       <c r="N439" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O439" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P439" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>350</v>
+        <v>575</v>
       </c>
       <c r="T439" t="n">
         <v>20</v>
@@ -35555,25 +35555,25 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>2510</v>
+        <v>216</v>
       </c>
       <c r="N440" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O440" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P440" t="n">
-        <v>8821</v>
+        <v>13500</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>441</v>
+        <v>675</v>
       </c>
       <c r="T440" t="n">
         <v>20</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>2270</v>
+        <v>350</v>
       </c>
       <c r="N441" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O441" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P441" t="n">
-        <v>10361</v>
+        <v>7000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>518</v>
+        <v>350</v>
       </c>
       <c r="T441" t="n">
         <v>20</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>1120</v>
+        <v>2510</v>
       </c>
       <c r="N442" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O442" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P442" t="n">
-        <v>11500</v>
+        <v>8821</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>575</v>
+        <v>441</v>
       </c>
       <c r="T442" t="n">
         <v>20</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>1200</v>
+        <v>2270</v>
       </c>
       <c r="N443" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O443" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P443" t="n">
-        <v>13500</v>
+        <v>10361</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>675</v>
+        <v>518</v>
       </c>
       <c r="T443" t="n">
         <v>20</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>1680</v>
+        <v>1120</v>
       </c>
       <c r="N444" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O444" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>9250</v>
+        <v>11500</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>462</v>
+        <v>575</v>
       </c>
       <c r="T444" t="n">
         <v>20</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="N445" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O445" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P445" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>500</v>
+        <v>675</v>
       </c>
       <c r="T445" t="n">
         <v>20</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>1760</v>
+        <v>1680</v>
       </c>
       <c r="N446" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P446" t="n">
-        <v>11500</v>
+        <v>9250</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>575</v>
+        <v>462</v>
       </c>
       <c r="T446" t="n">
         <v>20</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>2280</v>
+        <v>200</v>
       </c>
       <c r="N447" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O447" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P447" t="n">
-        <v>13439</v>
+        <v>10000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>672</v>
+        <v>500</v>
       </c>
       <c r="T447" t="n">
         <v>20</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>640</v>
+        <v>1760</v>
       </c>
       <c r="N448" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O448" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>14219</v>
+        <v>11500</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>711</v>
+        <v>575</v>
       </c>
       <c r="T448" t="n">
         <v>20</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>2960</v>
+        <v>2280</v>
       </c>
       <c r="N449" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O449" t="n">
         <v>14000</v>
       </c>
-      <c r="O449" t="n">
-        <v>16000</v>
-      </c>
       <c r="P449" t="n">
-        <v>15196</v>
+        <v>13439</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>760</v>
+        <v>672</v>
       </c>
       <c r="T449" t="n">
         <v>20</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36355,25 +36355,25 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="N450" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O450" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="P450" t="n">
-        <v>19500</v>
+        <v>14219</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>975</v>
+        <v>711</v>
       </c>
       <c r="T450" t="n">
         <v>20</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>275</v>
+        <v>2960</v>
       </c>
       <c r="N451" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O451" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P451" t="n">
-        <v>9000</v>
+        <v>15196</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>450</v>
+        <v>760</v>
       </c>
       <c r="T451" t="n">
         <v>20</v>
@@ -36515,25 +36515,25 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>1075</v>
+        <v>216</v>
       </c>
       <c r="N452" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O452" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P452" t="n">
-        <v>11558</v>
+        <v>19500</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>578</v>
+        <v>975</v>
       </c>
       <c r="T452" t="n">
         <v>20</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>2195</v>
+        <v>275</v>
       </c>
       <c r="N453" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O453" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P453" t="n">
-        <v>13656</v>
+        <v>9000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>683</v>
+        <v>450</v>
       </c>
       <c r="T453" t="n">
         <v>20</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36675,25 +36675,25 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>216</v>
+        <v>1075</v>
       </c>
       <c r="N454" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O454" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>20500</v>
+        <v>11558</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1025</v>
+        <v>578</v>
       </c>
       <c r="T454" t="n">
         <v>20</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>1110</v>
+        <v>2195</v>
       </c>
       <c r="N455" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O455" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P455" t="n">
-        <v>17297</v>
+        <v>13656</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>865</v>
+        <v>683</v>
       </c>
       <c r="T455" t="n">
         <v>20</v>
@@ -36835,25 +36835,25 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>1270</v>
+        <v>216</v>
       </c>
       <c r="N456" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O456" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P456" t="n">
-        <v>18882</v>
+        <v>20500</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>944</v>
+        <v>1025</v>
       </c>
       <c r="T456" t="n">
         <v>20</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36915,25 +36915,25 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>216</v>
+        <v>1110</v>
       </c>
       <c r="N457" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O457" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P457" t="n">
-        <v>13750</v>
+        <v>17297</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>688</v>
+        <v>865</v>
       </c>
       <c r="T457" t="n">
         <v>20</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>1360</v>
+        <v>1270</v>
       </c>
       <c r="N458" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O458" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P458" t="n">
-        <v>10647</v>
+        <v>18882</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>532</v>
+        <v>944</v>
       </c>
       <c r="T458" t="n">
         <v>20</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N459" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O459" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P459" t="n">
-        <v>12500</v>
+        <v>13750</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T459" t="n">
         <v>20</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>270</v>
+        <v>1360</v>
       </c>
       <c r="N460" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O460" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P460" t="n">
-        <v>8500</v>
+        <v>10647</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>425</v>
+        <v>532</v>
       </c>
       <c r="T460" t="n">
         <v>20</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>1430</v>
+        <v>800</v>
       </c>
       <c r="N461" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O461" t="n">
         <v>13000</v>
       </c>
       <c r="P461" t="n">
-        <v>11629</v>
+        <v>12500</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>581</v>
+        <v>625</v>
       </c>
       <c r="T461" t="n">
         <v>20</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>1630</v>
+        <v>270</v>
       </c>
       <c r="N462" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O462" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P462" t="n">
-        <v>14172</v>
+        <v>8500</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>709</v>
+        <v>425</v>
       </c>
       <c r="T462" t="n">
         <v>20</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>216</v>
+        <v>1430</v>
       </c>
       <c r="N463" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O463" t="n">
         <v>13000</v>
       </c>
-      <c r="O463" t="n">
-        <v>14000</v>
-      </c>
       <c r="P463" t="n">
-        <v>13500</v>
+        <v>11629</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>675</v>
+        <v>581</v>
       </c>
       <c r="T463" t="n">
         <v>20</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>275</v>
+        <v>1630</v>
       </c>
       <c r="N464" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O464" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P464" t="n">
-        <v>10000</v>
+        <v>14172</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>500</v>
+        <v>709</v>
       </c>
       <c r="T464" t="n">
         <v>20</v>
@@ -37555,25 +37555,25 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>1475</v>
+        <v>216</v>
       </c>
       <c r="N465" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O465" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P465" t="n">
-        <v>11593</v>
+        <v>13500</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>580</v>
+        <v>675</v>
       </c>
       <c r="T465" t="n">
         <v>20</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>960</v>
+        <v>275</v>
       </c>
       <c r="N466" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O466" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P466" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="T466" t="n">
         <v>20</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>432</v>
+        <v>1475</v>
       </c>
       <c r="N467" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O467" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P467" t="n">
-        <v>14500</v>
+        <v>11593</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>725</v>
+        <v>580</v>
       </c>
       <c r="T467" t="n">
         <v>20</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>275</v>
+        <v>960</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O468" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P468" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="T468" t="n">
         <v>20</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1075</v>
+        <v>432</v>
       </c>
       <c r="N469" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O469" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P469" t="n">
-        <v>10628</v>
+        <v>14500</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>531</v>
+        <v>725</v>
       </c>
       <c r="T469" t="n">
         <v>20</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>1395</v>
+        <v>275</v>
       </c>
       <c r="N470" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O470" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P470" t="n">
-        <v>12401</v>
+        <v>9000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>620</v>
+        <v>450</v>
       </c>
       <c r="T470" t="n">
         <v>20</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>1520</v>
+        <v>1075</v>
       </c>
       <c r="N471" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O471" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P471" t="n">
-        <v>9500</v>
+        <v>10628</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="T471" t="n">
         <v>20</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>3200</v>
+        <v>1395</v>
       </c>
       <c r="N472" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P472" t="n">
-        <v>10875</v>
+        <v>12401</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="T472" t="n">
         <v>20</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>400</v>
+        <v>1520</v>
       </c>
       <c r="N473" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P473" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="T473" t="n">
         <v>20</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="N474" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P474" t="n">
-        <v>8980</v>
+        <v>10875</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>449</v>
+        <v>544</v>
       </c>
       <c r="T474" t="n">
         <v>20</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>1760</v>
+        <v>400</v>
       </c>
       <c r="N475" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="O475" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P475" t="n">
-        <v>11159</v>
+        <v>7500</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>558</v>
+        <v>375</v>
       </c>
       <c r="T475" t="n">
         <v>20</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38435,25 +38435,25 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>216</v>
+        <v>2000</v>
       </c>
       <c r="N476" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O476" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P476" t="n">
-        <v>19500</v>
+        <v>8980</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>975</v>
+        <v>449</v>
       </c>
       <c r="T476" t="n">
         <v>20</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>640</v>
+        <v>1760</v>
       </c>
       <c r="N477" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O477" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P477" t="n">
-        <v>10500</v>
+        <v>11159</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="T477" t="n">
         <v>20</v>
@@ -38595,25 +38595,25 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>480</v>
+        <v>216</v>
       </c>
       <c r="N478" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O478" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P478" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>600</v>
+        <v>975</v>
       </c>
       <c r="T478" t="n">
         <v>20</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>2130</v>
+        <v>640</v>
       </c>
       <c r="N479" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O479" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P479" t="n">
-        <v>12549</v>
+        <v>10500</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>627</v>
+        <v>525</v>
       </c>
       <c r="T479" t="n">
         <v>20</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>216</v>
+        <v>480</v>
       </c>
       <c r="N480" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O480" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P480" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="T480" t="n">
         <v>20</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>1520</v>
+        <v>2130</v>
       </c>
       <c r="N481" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O481" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P481" t="n">
-        <v>9500</v>
+        <v>12549</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>475</v>
+        <v>627</v>
       </c>
       <c r="T481" t="n">
         <v>20</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>1680</v>
+        <v>216</v>
       </c>
       <c r="N482" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O482" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P482" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="T482" t="n">
         <v>20</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>216</v>
+        <v>1520</v>
       </c>
       <c r="N483" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O483" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P483" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="T483" t="n">
         <v>20</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>320</v>
+        <v>1680</v>
       </c>
       <c r="N484" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O484" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P484" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="T484" t="n">
         <v>20</v>
@@ -39155,25 +39155,25 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>1200</v>
+        <v>216</v>
       </c>
       <c r="N485" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O485" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P485" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="T485" t="n">
         <v>20</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>720</v>
+        <v>320</v>
       </c>
       <c r="N486" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O486" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P486" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="T486" t="n">
         <v>20</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>2080</v>
+        <v>1200</v>
       </c>
       <c r="N487" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O487" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P487" t="n">
-        <v>13394</v>
+        <v>11500</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>670</v>
+        <v>575</v>
       </c>
       <c r="T487" t="n">
         <v>20</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>1880</v>
+        <v>720</v>
       </c>
       <c r="N488" t="n">
         <v>13000</v>
       </c>
       <c r="O488" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P488" t="n">
-        <v>14340</v>
+        <v>13500</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="T488" t="n">
         <v>20</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>475</v>
+        <v>2080</v>
       </c>
       <c r="N489" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O489" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P489" t="n">
-        <v>9000</v>
+        <v>13394</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>450</v>
+        <v>670</v>
       </c>
       <c r="T489" t="n">
         <v>20</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>775</v>
+        <v>1880</v>
       </c>
       <c r="N490" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O490" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P490" t="n">
-        <v>11226</v>
+        <v>14340</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>561</v>
+        <v>717</v>
       </c>
       <c r="T490" t="n">
         <v>20</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>275</v>
+        <v>475</v>
       </c>
       <c r="N491" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O491" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P491" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="T491" t="n">
         <v>20</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>670</v>
+        <v>775</v>
       </c>
       <c r="N492" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O492" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P492" t="n">
-        <v>6896</v>
+        <v>11226</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>345</v>
+        <v>561</v>
       </c>
       <c r="T492" t="n">
         <v>20</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>1070</v>
+        <v>275</v>
       </c>
       <c r="N493" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O493" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P493" t="n">
-        <v>8374</v>
+        <v>13000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>419</v>
+        <v>650</v>
       </c>
       <c r="T493" t="n">
         <v>20</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>1230</v>
+        <v>670</v>
       </c>
       <c r="N494" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P494" t="n">
-        <v>9610</v>
+        <v>6896</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="T494" t="n">
         <v>20</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>275</v>
+        <v>1070</v>
       </c>
       <c r="N495" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O495" t="n">
         <v>9000</v>
       </c>
       <c r="P495" t="n">
-        <v>9000</v>
+        <v>8374</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="T495" t="n">
         <v>20</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>375</v>
+        <v>1230</v>
       </c>
       <c r="N496" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O496" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>12000</v>
+        <v>9610</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="T496" t="n">
         <v>20</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="N497" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O497" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P497" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="T497" t="n">
         <v>20</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>1170</v>
+        <v>375</v>
       </c>
       <c r="N498" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O498" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P498" t="n">
-        <v>8342</v>
+        <v>12000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>417</v>
+        <v>600</v>
       </c>
       <c r="T498" t="n">
         <v>20</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>1490</v>
+        <v>400</v>
       </c>
       <c r="N499" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O499" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P499" t="n">
-        <v>9872</v>
+        <v>7750</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>494</v>
+        <v>388</v>
       </c>
       <c r="T499" t="n">
         <v>20</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>350</v>
+        <v>1170</v>
       </c>
       <c r="N500" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O500" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P500" t="n">
-        <v>17000</v>
+        <v>8342</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>850</v>
+        <v>417</v>
       </c>
       <c r="T500" t="n">
         <v>20</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>440</v>
+        <v>1490</v>
       </c>
       <c r="N501" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O501" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="P501" t="n">
-        <v>15227</v>
+        <v>9872</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>761</v>
+        <v>494</v>
       </c>
       <c r="T501" t="n">
         <v>20</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>2370</v>
+        <v>350</v>
       </c>
       <c r="N502" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O502" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P502" t="n">
-        <v>16738</v>
+        <v>17000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="T502" t="n">
         <v>20</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>2500</v>
+        <v>440</v>
       </c>
       <c r="N503" t="n">
         <v>15000</v>
       </c>
       <c r="O503" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="P503" t="n">
-        <v>15640</v>
+        <v>15227</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="T503" t="n">
         <v>20</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>1980</v>
+        <v>2370</v>
       </c>
       <c r="N504" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O504" t="n">
         <v>18000</v>
       </c>
       <c r="P504" t="n">
-        <v>17424</v>
+        <v>16738</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="T504" t="n">
         <v>20</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>216</v>
+        <v>2500</v>
       </c>
       <c r="N505" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O505" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P505" t="n">
-        <v>20500</v>
+        <v>15640</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1025</v>
+        <v>782</v>
       </c>
       <c r="T505" t="n">
         <v>20</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>150</v>
+        <v>1980</v>
       </c>
       <c r="N506" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O506" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P506" t="n">
-        <v>8000</v>
+        <v>17424</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>400</v>
+        <v>871</v>
       </c>
       <c r="T506" t="n">
         <v>20</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>950</v>
+        <v>216</v>
       </c>
       <c r="N507" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O507" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P507" t="n">
-        <v>9579</v>
+        <v>20500</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>479</v>
+        <v>1025</v>
       </c>
       <c r="T507" t="n">
         <v>20</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>2390</v>
+        <v>150</v>
       </c>
       <c r="N508" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O508" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P508" t="n">
-        <v>11950</v>
+        <v>8000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>598</v>
+        <v>400</v>
       </c>
       <c r="T508" t="n">
         <v>20</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>150</v>
+        <v>950</v>
       </c>
       <c r="N509" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O509" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P509" t="n">
-        <v>12000</v>
+        <v>9579</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>600</v>
+        <v>479</v>
       </c>
       <c r="T509" t="n">
         <v>20</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>296</v>
+        <v>2390</v>
       </c>
       <c r="N510" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O510" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P510" t="n">
-        <v>20365</v>
+        <v>11950</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1018</v>
+        <v>598</v>
       </c>
       <c r="T510" t="n">
         <v>20</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M511" t="n">
         <v>150</v>
       </c>
       <c r="N511" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O511" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P511" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T511" t="n">
         <v>20</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="N512" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O512" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P512" t="n">
-        <v>13000</v>
+        <v>20365</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>650</v>
+        <v>1018</v>
       </c>
       <c r="T512" t="n">
         <v>20</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N513" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O513" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P513" t="n">
-        <v>13750</v>
+        <v>15000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T513" t="n">
         <v>20</v>
@@ -41480,11 +41480,11 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>680</v>
+        <v>360</v>
       </c>
       <c r="N514" t="n">
         <v>13000</v>
@@ -41502,7 +41502,7 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S514" t="n">
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>1330</v>
+        <v>400</v>
       </c>
       <c r="N515" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O515" t="n">
         <v>14000</v>
       </c>
       <c r="P515" t="n">
-        <v>13421</v>
+        <v>13750</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41582,11 +41582,11 @@
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="T515" t="n">
         <v>20</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="N516" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O516" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P516" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41662,11 +41662,11 @@
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="T516" t="n">
         <v>20</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,11 +41720,11 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>1470</v>
+        <v>1330</v>
       </c>
       <c r="N517" t="n">
         <v>13000</v>
@@ -41733,7 +41733,7 @@
         <v>14000</v>
       </c>
       <c r="P517" t="n">
-        <v>13408</v>
+        <v>13421</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41742,11 +41742,11 @@
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S517" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T517" t="n">
         <v>20</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>2180</v>
+        <v>960</v>
       </c>
       <c r="N518" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O518" t="n">
         <v>16000</v>
       </c>
       <c r="P518" t="n">
-        <v>15271</v>
+        <v>15500</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="T518" t="n">
         <v>20</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>216</v>
+        <v>1470</v>
       </c>
       <c r="N519" t="n">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="O519" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P519" t="n">
-        <v>11500</v>
+        <v>13408</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>575</v>
+        <v>670</v>
       </c>
       <c r="T519" t="n">
         <v>20</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>400</v>
+        <v>2180</v>
       </c>
       <c r="N520" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O520" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P520" t="n">
-        <v>8000</v>
+        <v>15271</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>400</v>
+        <v>764</v>
       </c>
       <c r="T520" t="n">
         <v>20</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>1360</v>
+        <v>216</v>
       </c>
       <c r="N521" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="O521" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P521" t="n">
-        <v>9353</v>
+        <v>11500</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>468</v>
+        <v>575</v>
       </c>
       <c r="T521" t="n">
         <v>20</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="N522" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O522" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P522" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="T522" t="n">
         <v>20</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>2760</v>
+        <v>1360</v>
       </c>
       <c r="N523" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O523" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P523" t="n">
-        <v>9681</v>
+        <v>9353</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="T523" t="n">
         <v>20</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>216</v>
+        <v>440</v>
       </c>
       <c r="N524" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O524" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P524" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>725</v>
+        <v>350</v>
       </c>
       <c r="T524" t="n">
         <v>20</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>200</v>
+        <v>2760</v>
       </c>
       <c r="N525" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O525" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P525" t="n">
-        <v>9000</v>
+        <v>9681</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="T525" t="n">
         <v>20</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>1930</v>
+        <v>216</v>
       </c>
       <c r="N526" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O526" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P526" t="n">
-        <v>11435</v>
+        <v>14500</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>572</v>
+        <v>725</v>
       </c>
       <c r="T526" t="n">
         <v>20</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="N527" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O527" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P527" t="n">
-        <v>13429</v>
+        <v>9000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>671</v>
+        <v>450</v>
       </c>
       <c r="T527" t="n">
         <v>20</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>1075</v>
+        <v>1930</v>
       </c>
       <c r="N528" t="n">
         <v>11000</v>
       </c>
       <c r="O528" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P528" t="n">
-        <v>12116</v>
+        <v>11435</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="T528" t="n">
         <v>20</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,7 +42684,7 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="N529" t="n">
         <v>13000</v>
@@ -42693,7 +42693,7 @@
         <v>14000</v>
       </c>
       <c r="P529" t="n">
-        <v>13602</v>
+        <v>13429</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="T529" t="n">
         <v>20</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>218</v>
+        <v>1075</v>
       </c>
       <c r="N530" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O530" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P530" t="n">
-        <v>20491</v>
+        <v>12116</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1025</v>
+        <v>606</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>400</v>
+        <v>1395</v>
       </c>
       <c r="N531" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O531" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P531" t="n">
-        <v>12000</v>
+        <v>13602</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>1360</v>
+        <v>218</v>
       </c>
       <c r="N532" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O532" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P532" t="n">
-        <v>13500</v>
+        <v>20491</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>675</v>
+        <v>1025</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>1370</v>
+        <v>400</v>
       </c>
       <c r="N533" t="n">
         <v>12000</v>
       </c>
       <c r="O533" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P533" t="n">
-        <v>14861</v>
+        <v>12000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>743</v>
+        <v>600</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>200</v>
+        <v>1360</v>
       </c>
       <c r="N534" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O534" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P534" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>1160</v>
+        <v>1370</v>
       </c>
       <c r="N535" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O535" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P535" t="n">
-        <v>17379</v>
+        <v>14861</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>869</v>
+        <v>743</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="N536" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O536" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P536" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>925</v>
+        <v>750</v>
       </c>
       <c r="T536" t="n">
         <v>20</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>640</v>
+        <v>1160</v>
       </c>
       <c r="N537" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O537" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P537" t="n">
-        <v>12500</v>
+        <v>17379</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>625</v>
+        <v>869</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>1200</v>
+        <v>216</v>
       </c>
       <c r="N538" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O538" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P538" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>675</v>
+        <v>925</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43475,25 +43475,25 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="N539" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O539" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P539" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>2640</v>
+        <v>1200</v>
       </c>
       <c r="N540" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O540" t="n">
         <v>14000</v>
       </c>
       <c r="P540" t="n">
-        <v>12773</v>
+        <v>13500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>639</v>
+        <v>675</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43635,25 +43635,25 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>2320</v>
+        <v>216</v>
       </c>
       <c r="N541" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O541" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P541" t="n">
-        <v>14017</v>
+        <v>18500</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>701</v>
+        <v>925</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>900</v>
+        <v>2640</v>
       </c>
       <c r="N542" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O542" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P542" t="n">
-        <v>10667</v>
+        <v>12773</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>533</v>
+        <v>639</v>
       </c>
       <c r="T542" t="n">
         <v>20</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>2060</v>
+        <v>2320</v>
       </c>
       <c r="N543" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O543" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P543" t="n">
-        <v>12573</v>
+        <v>14017</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>1760</v>
+        <v>900</v>
       </c>
       <c r="N544" t="n">
         <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P544" t="n">
-        <v>11591</v>
+        <v>10667</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="T544" t="n">
         <v>20</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>1930</v>
+        <v>2060</v>
       </c>
       <c r="N545" t="n">
         <v>12000</v>
       </c>
       <c r="O545" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P545" t="n">
-        <v>13000</v>
+        <v>12573</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>216</v>
+        <v>1760</v>
       </c>
       <c r="N546" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O546" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P546" t="n">
-        <v>20500</v>
+        <v>11591</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1025</v>
+        <v>580</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>480</v>
+        <v>1930</v>
       </c>
       <c r="N547" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O547" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P547" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>375</v>
+        <v>650</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44195,25 +44195,25 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>1760</v>
+        <v>216</v>
       </c>
       <c r="N548" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O548" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P548" t="n">
-        <v>9500</v>
+        <v>20500</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>475</v>
+        <v>1025</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="N549" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O549" t="n">
         <v>8000</v>
       </c>
       <c r="P549" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>3640</v>
+        <v>1760</v>
       </c>
       <c r="N550" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O550" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P550" t="n">
-        <v>9978</v>
+        <v>9500</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>108</v>
+        <v>560</v>
       </c>
       <c r="N551" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O551" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P551" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>925</v>
+        <v>400</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>2570</v>
+        <v>3640</v>
       </c>
       <c r="N552" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O552" t="n">
         <v>12000</v>
       </c>
-      <c r="O552" t="n">
-        <v>13000</v>
-      </c>
       <c r="P552" t="n">
-        <v>12451</v>
+        <v>9978</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>623</v>
+        <v>499</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>1450</v>
+        <v>108</v>
       </c>
       <c r="N553" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O553" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P553" t="n">
-        <v>13414</v>
+        <v>18500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>671</v>
+        <v>925</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>200</v>
+        <v>2570</v>
       </c>
       <c r="N554" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O554" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P554" t="n">
-        <v>15000</v>
+        <v>12451</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>750</v>
+        <v>623</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>560</v>
+        <v>1450</v>
       </c>
       <c r="N555" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O555" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P555" t="n">
-        <v>10000</v>
+        <v>13414</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>500</v>
+        <v>671</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>1690</v>
+        <v>200</v>
       </c>
       <c r="N556" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O556" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P556" t="n">
-        <v>10746</v>
+        <v>15000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>537</v>
+        <v>750</v>
       </c>
       <c r="T556" t="n">
         <v>20</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="N557" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O557" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P557" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T557" t="n">
         <v>20</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>2310</v>
+        <v>1690</v>
       </c>
       <c r="N558" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O558" t="n">
         <v>12000</v>
       </c>
-      <c r="O558" t="n">
-        <v>13000</v>
-      </c>
       <c r="P558" t="n">
-        <v>12498</v>
+        <v>10746</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>625</v>
+        <v>537</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45075,25 +45075,25 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N559" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O559" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P559" t="n">
-        <v>20500</v>
+        <v>12000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1025</v>
+        <v>600</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>250</v>
+        <v>2310</v>
       </c>
       <c r="N560" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O560" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P560" t="n">
-        <v>10000</v>
+        <v>12498</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>840</v>
+        <v>150</v>
       </c>
       <c r="N561" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O561" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P561" t="n">
-        <v>11571</v>
+        <v>20500</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>579</v>
+        <v>1025</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>1860</v>
+        <v>250</v>
       </c>
       <c r="N562" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O562" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P562" t="n">
-        <v>12344</v>
+        <v>10000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>1920</v>
+        <v>840</v>
       </c>
       <c r="N563" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O563" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P563" t="n">
-        <v>13729</v>
+        <v>11571</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>686</v>
+        <v>579</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>2720</v>
+        <v>1860</v>
       </c>
       <c r="N564" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O564" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P564" t="n">
-        <v>14882</v>
+        <v>12344</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>744</v>
+        <v>617</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>150</v>
+        <v>1920</v>
       </c>
       <c r="N565" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O565" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P565" t="n">
-        <v>9000</v>
+        <v>13729</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>450</v>
+        <v>686</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>800</v>
+        <v>2720</v>
       </c>
       <c r="N566" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O566" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P566" t="n">
-        <v>9500</v>
+        <v>14882</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>475</v>
+        <v>744</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N567" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O567" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P567" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>1270</v>
+        <v>800</v>
       </c>
       <c r="N568" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O568" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P568" t="n">
-        <v>11441</v>
+        <v>9500</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>572</v>
+        <v>475</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N569" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O569" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P569" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>825</v>
+        <v>500</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>200</v>
+        <v>1270</v>
       </c>
       <c r="N570" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O570" t="n">
         <v>12000</v>
       </c>
       <c r="P570" t="n">
-        <v>12000</v>
+        <v>11441</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46035,16 +46035,16 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>2220</v>
+        <v>260</v>
       </c>
       <c r="N571" t="n">
         <v>16000</v>
@@ -46053,7 +46053,7 @@
         <v>17000</v>
       </c>
       <c r="P571" t="n">
-        <v>16428</v>
+        <v>16500</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>1040</v>
+        <v>200</v>
       </c>
       <c r="N572" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O572" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P572" t="n">
-        <v>15731</v>
+        <v>12000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>1200</v>
+        <v>2220</v>
       </c>
       <c r="N573" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O573" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P573" t="n">
-        <v>10500</v>
+        <v>16428</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>525</v>
+        <v>821</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>2160</v>
+        <v>1040</v>
       </c>
       <c r="N574" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O574" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P574" t="n">
-        <v>12389</v>
+        <v>15731</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>619</v>
+        <v>787</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>1370</v>
+        <v>1200</v>
       </c>
       <c r="N575" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O575" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P575" t="n">
-        <v>9796</v>
+        <v>10500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>1500</v>
+        <v>2160</v>
       </c>
       <c r="N576" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O576" t="n">
         <v>13000</v>
       </c>
       <c r="P576" t="n">
-        <v>11400</v>
+        <v>12389</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>570</v>
+        <v>619</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>2510</v>
+        <v>1370</v>
       </c>
       <c r="N577" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O577" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P577" t="n">
-        <v>11709</v>
+        <v>9796</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="N578" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O578" t="n">
         <v>13000</v>
       </c>
       <c r="P578" t="n">
-        <v>13000</v>
+        <v>11400</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>3390</v>
+        <v>2510</v>
       </c>
       <c r="N579" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O579" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P579" t="n">
-        <v>13298</v>
+        <v>11709</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>665</v>
+        <v>585</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,25 +46755,25 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="N580" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O580" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P580" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1025</v>
+        <v>650</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>250</v>
+        <v>3390</v>
       </c>
       <c r="N581" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O581" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P581" t="n">
-        <v>9000</v>
+        <v>13298</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>450</v>
+        <v>665</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N582" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O582" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P582" t="n">
-        <v>11000</v>
+        <v>20500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>550</v>
+        <v>1025</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>640</v>
+        <v>250</v>
       </c>
       <c r="N583" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O583" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P583" t="n">
-        <v>11438</v>
+        <v>9000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>572</v>
+        <v>450</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>2070</v>
+        <v>250</v>
       </c>
       <c r="N584" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O584" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P584" t="n">
-        <v>12512</v>
+        <v>11000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>626</v>
+        <v>550</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>366</v>
+        <v>640</v>
       </c>
       <c r="N585" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O585" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P585" t="n">
-        <v>14500</v>
+        <v>11438</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>1360</v>
+        <v>2070</v>
       </c>
       <c r="N586" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O586" t="n">
         <v>13000</v>
       </c>
-      <c r="O586" t="n">
-        <v>14000</v>
-      </c>
       <c r="P586" t="n">
-        <v>13500</v>
+        <v>12512</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>970</v>
+        <v>366</v>
       </c>
       <c r="N587" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O587" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P587" t="n">
-        <v>13588</v>
+        <v>14500</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>2530</v>
+        <v>1360</v>
       </c>
       <c r="N588" t="n">
         <v>13000</v>
       </c>
       <c r="O588" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P588" t="n">
-        <v>14415</v>
+        <v>13500</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>721</v>
+        <v>675</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>1120</v>
+        <v>970</v>
       </c>
       <c r="N589" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O589" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P589" t="n">
-        <v>16500</v>
+        <v>13588</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>825</v>
+        <v>679</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>800</v>
+        <v>2530</v>
       </c>
       <c r="N590" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O590" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P590" t="n">
-        <v>18500</v>
+        <v>14415</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>925</v>
+        <v>721</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>216</v>
+        <v>1120</v>
       </c>
       <c r="N591" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O591" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P591" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>975</v>
+        <v>800</v>
       </c>
       <c r="N592" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O592" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P592" t="n">
-        <v>12410</v>
+        <v>18500</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>620</v>
+        <v>925</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>1930</v>
+        <v>216</v>
       </c>
       <c r="N593" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O593" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P593" t="n">
-        <v>13544</v>
+        <v>19500</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>677</v>
+        <v>975</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="N594" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O594" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P594" t="n">
-        <v>10500</v>
+        <v>12410</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>525</v>
+        <v>620</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>216</v>
+        <v>1930</v>
       </c>
       <c r="N595" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O595" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P595" t="n">
-        <v>21000</v>
+        <v>13544</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>1050</v>
+        <v>677</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N596" t="n">
         <v>10000</v>
       </c>
       <c r="O596" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P596" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N597" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O597" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P597" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>625</v>
+        <v>1050</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>1320</v>
+        <v>150</v>
       </c>
       <c r="N598" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O598" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P598" t="n">
-        <v>14424</v>
+        <v>10000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>721</v>
+        <v>500</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M599" t="n">
         <v>800</v>
       </c>
       <c r="N599" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O599" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P599" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>216</v>
+        <v>1320</v>
       </c>
       <c r="N600" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O600" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P600" t="n">
-        <v>13500</v>
+        <v>14424</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="N601" t="n">
         <v>10000</v>
       </c>
       <c r="O601" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P601" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>1230</v>
+        <v>216</v>
       </c>
       <c r="N602" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O602" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P602" t="n">
-        <v>11610</v>
+        <v>13500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>580</v>
+        <v>675</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>1390</v>
+        <v>270</v>
       </c>
       <c r="N603" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O603" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P603" t="n">
-        <v>13597</v>
+        <v>10000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>1490</v>
+        <v>1230</v>
       </c>
       <c r="N604" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O604" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P604" t="n">
-        <v>9638</v>
+        <v>11610</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>482</v>
+        <v>580</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>760</v>
+        <v>1390</v>
       </c>
       <c r="N605" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O605" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P605" t="n">
-        <v>11526</v>
+        <v>13597</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>576</v>
+        <v>680</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>2470</v>
+        <v>1490</v>
       </c>
       <c r="N606" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O606" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P606" t="n">
-        <v>12324</v>
+        <v>9638</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>616</v>
+        <v>482</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>1795</v>
+        <v>760</v>
       </c>
       <c r="N607" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O607" t="n">
         <v>12000</v>
       </c>
       <c r="P607" t="n">
-        <v>11354</v>
+        <v>11526</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>475</v>
+        <v>2470</v>
       </c>
       <c r="N608" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O608" t="n">
         <v>13000</v>
       </c>
       <c r="P608" t="n">
-        <v>12158</v>
+        <v>12324</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>1475</v>
+        <v>1795</v>
       </c>
       <c r="N609" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O609" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P609" t="n">
-        <v>13322</v>
+        <v>11354</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>666</v>
+        <v>568</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>680</v>
+        <v>475</v>
       </c>
       <c r="N610" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O610" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P610" t="n">
-        <v>9279</v>
+        <v>12158</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>464</v>
+        <v>608</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>1835</v>
+        <v>1475</v>
       </c>
       <c r="N611" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O611" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P611" t="n">
-        <v>10638</v>
+        <v>13322</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>532</v>
+        <v>666</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="N612" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O612" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="P612" t="n">
-        <v>10214</v>
+        <v>9279</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>2095</v>
+        <v>1835</v>
       </c>
       <c r="N613" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O613" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P613" t="n">
-        <v>11852</v>
+        <v>10638</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="N614" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O614" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="P614" t="n">
-        <v>5545</v>
+        <v>10214</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>277</v>
+        <v>511</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>2000</v>
+        <v>2095</v>
       </c>
       <c r="N615" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O615" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P615" t="n">
-        <v>7500</v>
+        <v>11852</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>375</v>
+        <v>593</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="N616" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O616" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P616" t="n">
-        <v>8000</v>
+        <v>5545</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>2880</v>
+        <v>2000</v>
       </c>
       <c r="N617" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O617" t="n">
         <v>8000</v>
       </c>
-      <c r="O617" t="n">
-        <v>10000</v>
-      </c>
       <c r="P617" t="n">
-        <v>9083</v>
+        <v>7500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>454</v>
+        <v>375</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>1520</v>
+        <v>400</v>
       </c>
       <c r="N618" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="O618" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P618" t="n">
-        <v>11434</v>
+        <v>8000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>572</v>
+        <v>400</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>200</v>
+        <v>2880</v>
       </c>
       <c r="N619" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O619" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P619" t="n">
-        <v>14000</v>
+        <v>9083</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>700</v>
+        <v>454</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1800</v>
+        <v>1520</v>
       </c>
       <c r="N620" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O620" t="n">
         <v>12000</v>
       </c>
-      <c r="O620" t="n">
-        <v>14000</v>
-      </c>
       <c r="P620" t="n">
-        <v>13222</v>
+        <v>11434</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>661</v>
+        <v>572</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="N621" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O621" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P621" t="n">
-        <v>21500</v>
+        <v>14000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>1075</v>
+        <v>700</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>560</v>
+        <v>1800</v>
       </c>
       <c r="N622" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O622" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P622" t="n">
-        <v>8929</v>
+        <v>13222</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>446</v>
+        <v>661</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>1180</v>
+        <v>156</v>
       </c>
       <c r="N623" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O623" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P623" t="n">
-        <v>10898</v>
+        <v>21500</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>545</v>
+        <v>1075</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="N624" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O624" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P624" t="n">
-        <v>11368</v>
+        <v>8929</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>350</v>
+        <v>1180</v>
       </c>
       <c r="N625" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O625" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P625" t="n">
-        <v>8000</v>
+        <v>10898</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>400</v>
+        <v>545</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>350</v>
+        <v>760</v>
       </c>
       <c r="N626" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O626" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P626" t="n">
-        <v>13000</v>
+        <v>11368</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>216</v>
+        <v>350</v>
       </c>
       <c r="N627" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O627" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P627" t="n">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>1025</v>
+        <v>400</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>1360</v>
+        <v>350</v>
       </c>
       <c r="N628" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O628" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P628" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>3040</v>
+        <v>216</v>
       </c>
       <c r="N629" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O629" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P629" t="n">
-        <v>13882</v>
+        <v>20500</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>694</v>
+        <v>1025</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>170</v>
+        <v>1360</v>
       </c>
       <c r="N630" t="n">
         <v>11000</v>
       </c>
       <c r="O630" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P630" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>750</v>
+        <v>3040</v>
       </c>
       <c r="N631" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O631" t="n">
         <v>15000</v>
       </c>
       <c r="P631" t="n">
-        <v>15000</v>
+        <v>13882</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>750</v>
+        <v>694</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50920,35 +50920,195 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M632" t="n">
+        <v>170</v>
+      </c>
+      <c r="N632" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O632" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P632" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q632" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R632" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S632" t="n">
+        <v>550</v>
+      </c>
+      <c r="T632" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>6</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D633" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E633" t="n">
+        <v>13</v>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G633" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I633" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M633" t="n">
+        <v>750</v>
+      </c>
+      <c r="N633" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O633" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P633" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q633" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R633" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S633" t="n">
+        <v>750</v>
+      </c>
+      <c r="T633" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>6</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D634" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E634" t="n">
+        <v>13</v>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G634" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I634" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M632" t="n">
+      <c r="M634" t="n">
         <v>2740</v>
       </c>
-      <c r="N632" t="n">
+      <c r="N634" t="n">
         <v>15000</v>
       </c>
-      <c r="O632" t="n">
+      <c r="O634" t="n">
         <v>16000</v>
       </c>
-      <c r="P632" t="n">
+      <c r="P634" t="n">
         <v>15474</v>
       </c>
-      <c r="Q632" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R632" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S632" t="n">
+      <c r="Q634" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R634" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S634" t="n">
         <v>774</v>
       </c>
-      <c r="T632" t="n">
+      <c r="T634" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T637"/>
+  <dimension ref="A1:T640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34595,25 +34595,25 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="N428" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O428" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P428" t="n">
-        <v>20500</v>
+        <v>12000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1025</v>
+        <v>600</v>
       </c>
       <c r="T428" t="n">
         <v>20</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="N429" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O429" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P429" t="n">
-        <v>11500</v>
+        <v>13765</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>575</v>
+        <v>688</v>
       </c>
       <c r="T429" t="n">
         <v>20</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>800</v>
+        <v>2360</v>
       </c>
       <c r="N430" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O430" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P430" t="n">
-        <v>13500</v>
+        <v>14530</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>675</v>
+        <v>726</v>
       </c>
       <c r="T430" t="n">
         <v>20</v>
@@ -34835,25 +34835,25 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O431" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P431" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>525</v>
+        <v>1025</v>
       </c>
       <c r="T431" t="n">
         <v>20</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>175</v>
+        <v>1120</v>
       </c>
       <c r="N432" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O432" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P432" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="T432" t="n">
         <v>20</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>175</v>
+        <v>800</v>
       </c>
       <c r="N433" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O433" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P433" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="T433" t="n">
         <v>20</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>175</v>
+        <v>800</v>
       </c>
       <c r="N434" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O434" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P434" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>900</v>
+        <v>525</v>
       </c>
       <c r="T434" t="n">
         <v>20</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>1760</v>
+        <v>175</v>
       </c>
       <c r="N435" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O435" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P435" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>525</v>
+        <v>650</v>
       </c>
       <c r="T435" t="n">
         <v>20</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>3120</v>
+        <v>175</v>
       </c>
       <c r="N436" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P436" t="n">
-        <v>12795</v>
+        <v>16000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="T436" t="n">
         <v>20</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>440</v>
+        <v>175</v>
       </c>
       <c r="N437" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O437" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P437" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="T437" t="n">
         <v>20</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>1720</v>
+        <v>1760</v>
       </c>
       <c r="N438" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O438" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P438" t="n">
-        <v>14151</v>
+        <v>10500</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>708</v>
+        <v>525</v>
       </c>
       <c r="T438" t="n">
         <v>20</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>1200</v>
+        <v>3120</v>
       </c>
       <c r="N439" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O439" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P439" t="n">
-        <v>15500</v>
+        <v>12795</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>775</v>
+        <v>640</v>
       </c>
       <c r="T439" t="n">
         <v>20</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35555,25 +35555,25 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="N440" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O440" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P440" t="n">
-        <v>19667</v>
+        <v>13000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>983</v>
+        <v>650</v>
       </c>
       <c r="T440" t="n">
         <v>20</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>2160</v>
+        <v>1720</v>
       </c>
       <c r="N441" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O441" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P441" t="n">
-        <v>9167</v>
+        <v>14151</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>458</v>
+        <v>708</v>
       </c>
       <c r="T441" t="n">
         <v>20</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>2520</v>
+        <v>1200</v>
       </c>
       <c r="N442" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O442" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P442" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="T442" t="n">
         <v>20</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="N443" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O443" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P443" t="n">
-        <v>13500</v>
+        <v>19667</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>675</v>
+        <v>983</v>
       </c>
       <c r="T443" t="n">
         <v>20</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>350</v>
+        <v>2160</v>
       </c>
       <c r="N444" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O444" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P444" t="n">
-        <v>7000</v>
+        <v>9167</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="T444" t="n">
         <v>20</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>2510</v>
+        <v>2520</v>
       </c>
       <c r="N445" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O445" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P445" t="n">
-        <v>8821</v>
+        <v>11500</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>441</v>
+        <v>575</v>
       </c>
       <c r="T445" t="n">
         <v>20</v>
@@ -36035,25 +36035,25 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>2270</v>
+        <v>216</v>
       </c>
       <c r="N446" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P446" t="n">
-        <v>10361</v>
+        <v>13500</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>518</v>
+        <v>675</v>
       </c>
       <c r="T446" t="n">
         <v>20</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>1120</v>
+        <v>350</v>
       </c>
       <c r="N447" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O447" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P447" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>575</v>
+        <v>350</v>
       </c>
       <c r="T447" t="n">
         <v>20</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>1200</v>
+        <v>2510</v>
       </c>
       <c r="N448" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O448" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>13500</v>
+        <v>8821</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>675</v>
+        <v>441</v>
       </c>
       <c r="T448" t="n">
         <v>20</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>1680</v>
+        <v>2270</v>
       </c>
       <c r="N449" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P449" t="n">
-        <v>9250</v>
+        <v>10361</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="T449" t="n">
         <v>20</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>200</v>
+        <v>1120</v>
       </c>
       <c r="N450" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O450" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="T450" t="n">
         <v>20</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>1760</v>
+        <v>1200</v>
       </c>
       <c r="N451" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O451" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P451" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T451" t="n">
         <v>20</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>2280</v>
+        <v>1680</v>
       </c>
       <c r="N452" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O452" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P452" t="n">
-        <v>13439</v>
+        <v>9250</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>672</v>
+        <v>462</v>
       </c>
       <c r="T452" t="n">
         <v>20</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="N453" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O453" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="P453" t="n">
-        <v>14219</v>
+        <v>10000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>711</v>
+        <v>500</v>
       </c>
       <c r="T453" t="n">
         <v>20</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>2960</v>
+        <v>1760</v>
       </c>
       <c r="N454" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O454" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>15196</v>
+        <v>11500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>760</v>
+        <v>575</v>
       </c>
       <c r="T454" t="n">
         <v>20</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36755,25 +36755,25 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>216</v>
+        <v>2280</v>
       </c>
       <c r="N455" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O455" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P455" t="n">
-        <v>19500</v>
+        <v>13439</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>975</v>
+        <v>672</v>
       </c>
       <c r="T455" t="n">
         <v>20</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>275</v>
+        <v>640</v>
       </c>
       <c r="N456" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O456" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="P456" t="n">
-        <v>9000</v>
+        <v>14219</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>450</v>
+        <v>711</v>
       </c>
       <c r="T456" t="n">
         <v>20</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>1075</v>
+        <v>2960</v>
       </c>
       <c r="N457" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O457" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P457" t="n">
-        <v>11558</v>
+        <v>15196</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>578</v>
+        <v>760</v>
       </c>
       <c r="T457" t="n">
         <v>20</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>2195</v>
+        <v>216</v>
       </c>
       <c r="N458" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O458" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P458" t="n">
-        <v>13656</v>
+        <v>19500</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>683</v>
+        <v>975</v>
       </c>
       <c r="T458" t="n">
         <v>20</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="N459" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O459" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P459" t="n">
-        <v>20500</v>
+        <v>9000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1025</v>
+        <v>450</v>
       </c>
       <c r="T459" t="n">
         <v>20</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>1110</v>
+        <v>1075</v>
       </c>
       <c r="N460" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O460" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P460" t="n">
-        <v>17297</v>
+        <v>11558</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>865</v>
+        <v>578</v>
       </c>
       <c r="T460" t="n">
         <v>20</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>1270</v>
+        <v>2195</v>
       </c>
       <c r="N461" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O461" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P461" t="n">
-        <v>18882</v>
+        <v>13656</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>944</v>
+        <v>683</v>
       </c>
       <c r="T461" t="n">
         <v>20</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37327,13 +37327,13 @@
         <v>216</v>
       </c>
       <c r="N462" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="O462" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P462" t="n">
-        <v>13750</v>
+        <v>20500</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>688</v>
+        <v>1025</v>
       </c>
       <c r="T462" t="n">
         <v>20</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>1360</v>
+        <v>1110</v>
       </c>
       <c r="N463" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O463" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P463" t="n">
-        <v>10647</v>
+        <v>17297</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>532</v>
+        <v>865</v>
       </c>
       <c r="T463" t="n">
         <v>20</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>800</v>
+        <v>1270</v>
       </c>
       <c r="N464" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O464" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P464" t="n">
-        <v>12500</v>
+        <v>18882</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>625</v>
+        <v>944</v>
       </c>
       <c r="T464" t="n">
         <v>20</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37555,25 +37555,25 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="N465" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="O465" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P465" t="n">
-        <v>8500</v>
+        <v>13750</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>425</v>
+        <v>688</v>
       </c>
       <c r="T465" t="n">
         <v>20</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>1430</v>
+        <v>1360</v>
       </c>
       <c r="N466" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O466" t="n">
         <v>11000</v>
       </c>
-      <c r="O466" t="n">
-        <v>13000</v>
-      </c>
       <c r="P466" t="n">
-        <v>11629</v>
+        <v>10647</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>581</v>
+        <v>532</v>
       </c>
       <c r="T466" t="n">
         <v>20</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>1630</v>
+        <v>800</v>
       </c>
       <c r="N467" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O467" t="n">
         <v>13000</v>
       </c>
-      <c r="O467" t="n">
-        <v>15000</v>
-      </c>
       <c r="P467" t="n">
-        <v>14172</v>
+        <v>12500</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>709</v>
+        <v>625</v>
       </c>
       <c r="T467" t="n">
         <v>20</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="N468" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O468" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P468" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>675</v>
+        <v>425</v>
       </c>
       <c r="T468" t="n">
         <v>20</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>275</v>
+        <v>1430</v>
       </c>
       <c r="N469" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O469" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P469" t="n">
-        <v>10000</v>
+        <v>11629</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="T469" t="n">
         <v>20</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>1475</v>
+        <v>1630</v>
       </c>
       <c r="N470" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O470" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P470" t="n">
-        <v>11593</v>
+        <v>14172</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>580</v>
+        <v>709</v>
       </c>
       <c r="T470" t="n">
         <v>20</v>
@@ -38035,16 +38035,16 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>960</v>
+        <v>216</v>
       </c>
       <c r="N471" t="n">
         <v>13000</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38115,25 +38115,25 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>432</v>
+        <v>275</v>
       </c>
       <c r="N472" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O472" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P472" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>725</v>
+        <v>500</v>
       </c>
       <c r="T472" t="n">
         <v>20</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>275</v>
+        <v>1475</v>
       </c>
       <c r="N473" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O473" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P473" t="n">
-        <v>9000</v>
+        <v>11593</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="T473" t="n">
         <v>20</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>1075</v>
+        <v>960</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O474" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P474" t="n">
-        <v>10628</v>
+        <v>13500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>531</v>
+        <v>675</v>
       </c>
       <c r="T474" t="n">
         <v>20</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>1395</v>
+        <v>432</v>
       </c>
       <c r="N475" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O475" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P475" t="n">
-        <v>12401</v>
+        <v>14500</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>620</v>
+        <v>725</v>
       </c>
       <c r="T475" t="n">
         <v>20</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>1520</v>
+        <v>275</v>
       </c>
       <c r="N476" t="n">
         <v>9000</v>
       </c>
       <c r="O476" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P476" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="T476" t="n">
         <v>20</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>3200</v>
+        <v>1075</v>
       </c>
       <c r="N477" t="n">
         <v>10000</v>
       </c>
       <c r="O477" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P477" t="n">
-        <v>10875</v>
+        <v>10628</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="T477" t="n">
         <v>20</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>400</v>
+        <v>1395</v>
       </c>
       <c r="N478" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O478" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P478" t="n">
-        <v>7500</v>
+        <v>12401</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>375</v>
+        <v>620</v>
       </c>
       <c r="T478" t="n">
         <v>20</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>2000</v>
+        <v>1520</v>
       </c>
       <c r="N479" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O479" t="n">
         <v>10000</v>
       </c>
       <c r="P479" t="n">
-        <v>8980</v>
+        <v>9500</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="T479" t="n">
         <v>20</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>1760</v>
+        <v>3200</v>
       </c>
       <c r="N480" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O480" t="n">
         <v>12000</v>
       </c>
       <c r="P480" t="n">
-        <v>11159</v>
+        <v>10875</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="T480" t="n">
         <v>20</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>216</v>
+        <v>400</v>
       </c>
       <c r="N481" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O481" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P481" t="n">
-        <v>19500</v>
+        <v>7500</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>975</v>
+        <v>375</v>
       </c>
       <c r="T481" t="n">
         <v>20</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>640</v>
+        <v>2000</v>
       </c>
       <c r="N482" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O482" t="n">
         <v>10000</v>
       </c>
-      <c r="O482" t="n">
-        <v>11000</v>
-      </c>
       <c r="P482" t="n">
-        <v>10500</v>
+        <v>8980</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>525</v>
+        <v>449</v>
       </c>
       <c r="T482" t="n">
         <v>20</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>480</v>
+        <v>1760</v>
       </c>
       <c r="N483" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O483" t="n">
         <v>12000</v>
       </c>
       <c r="P483" t="n">
-        <v>12000</v>
+        <v>11159</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="T483" t="n">
         <v>20</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>2130</v>
+        <v>216</v>
       </c>
       <c r="N484" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O484" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P484" t="n">
-        <v>12549</v>
+        <v>19500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>627</v>
+        <v>975</v>
       </c>
       <c r="T484" t="n">
         <v>20</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39155,25 +39155,25 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="N485" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O485" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P485" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="T485" t="n">
         <v>20</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>1520</v>
+        <v>480</v>
       </c>
       <c r="N486" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P486" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="T486" t="n">
         <v>20</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>1680</v>
+        <v>2130</v>
       </c>
       <c r="N487" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O487" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P487" t="n">
-        <v>11500</v>
+        <v>12549</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>575</v>
+        <v>627</v>
       </c>
       <c r="T487" t="n">
         <v>20</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39407,13 +39407,13 @@
         <v>216</v>
       </c>
       <c r="N488" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O488" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P488" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="T488" t="n">
         <v>20</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>320</v>
+        <v>1520</v>
       </c>
       <c r="N489" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O489" t="n">
         <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="T489" t="n">
         <v>20</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,11 +39560,11 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>1200</v>
+        <v>1680</v>
       </c>
       <c r="N490" t="n">
         <v>11000</v>
@@ -39635,25 +39635,25 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>720</v>
+        <v>216</v>
       </c>
       <c r="N491" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O491" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P491" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T491" t="n">
         <v>20</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>2080</v>
+        <v>320</v>
       </c>
       <c r="N492" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O492" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>13394</v>
+        <v>10000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>670</v>
+        <v>500</v>
       </c>
       <c r="T492" t="n">
         <v>20</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>1880</v>
+        <v>1200</v>
       </c>
       <c r="N493" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O493" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>14340</v>
+        <v>11500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>717</v>
+        <v>575</v>
       </c>
       <c r="T493" t="n">
         <v>20</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>475</v>
+        <v>720</v>
       </c>
       <c r="N494" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O494" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P494" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="T494" t="n">
         <v>20</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>775</v>
+        <v>2080</v>
       </c>
       <c r="N495" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O495" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P495" t="n">
-        <v>11226</v>
+        <v>13394</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>561</v>
+        <v>670</v>
       </c>
       <c r="T495" t="n">
         <v>20</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>275</v>
+        <v>1880</v>
       </c>
       <c r="N496" t="n">
         <v>13000</v>
       </c>
       <c r="O496" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P496" t="n">
-        <v>13000</v>
+        <v>14340</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>650</v>
+        <v>717</v>
       </c>
       <c r="T496" t="n">
         <v>20</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>670</v>
+        <v>475</v>
       </c>
       <c r="N497" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O497" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P497" t="n">
-        <v>6896</v>
+        <v>9000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="T497" t="n">
         <v>20</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>1070</v>
+        <v>775</v>
       </c>
       <c r="N498" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O498" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P498" t="n">
-        <v>8374</v>
+        <v>11226</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>419</v>
+        <v>561</v>
       </c>
       <c r="T498" t="n">
         <v>20</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>1230</v>
+        <v>275</v>
       </c>
       <c r="N499" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O499" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P499" t="n">
-        <v>9610</v>
+        <v>13000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>480</v>
+        <v>650</v>
       </c>
       <c r="T499" t="n">
         <v>20</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>275</v>
+        <v>670</v>
       </c>
       <c r="N500" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O500" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P500" t="n">
-        <v>9000</v>
+        <v>6896</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="T500" t="n">
         <v>20</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>375</v>
+        <v>1070</v>
       </c>
       <c r="N501" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O501" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P501" t="n">
-        <v>12000</v>
+        <v>8374</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>600</v>
+        <v>419</v>
       </c>
       <c r="T501" t="n">
         <v>20</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>400</v>
+        <v>1230</v>
       </c>
       <c r="N502" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O502" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P502" t="n">
-        <v>7750</v>
+        <v>9610</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>388</v>
+        <v>480</v>
       </c>
       <c r="T502" t="n">
         <v>20</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>1170</v>
+        <v>275</v>
       </c>
       <c r="N503" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O503" t="n">
         <v>9000</v>
       </c>
       <c r="P503" t="n">
-        <v>8342</v>
+        <v>9000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="T503" t="n">
         <v>20</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>1490</v>
+        <v>375</v>
       </c>
       <c r="N504" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O504" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P504" t="n">
-        <v>9872</v>
+        <v>12000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>494</v>
+        <v>600</v>
       </c>
       <c r="T504" t="n">
         <v>20</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N505" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="O505" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P505" t="n">
-        <v>17000</v>
+        <v>7750</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>850</v>
+        <v>388</v>
       </c>
       <c r="T505" t="n">
         <v>20</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>440</v>
+        <v>1170</v>
       </c>
       <c r="N506" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O506" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="P506" t="n">
-        <v>15227</v>
+        <v>8342</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>761</v>
+        <v>417</v>
       </c>
       <c r="T506" t="n">
         <v>20</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>2370</v>
+        <v>1490</v>
       </c>
       <c r="N507" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O507" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P507" t="n">
-        <v>16738</v>
+        <v>9872</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>837</v>
+        <v>494</v>
       </c>
       <c r="T507" t="n">
         <v>20</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="N508" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O508" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P508" t="n">
-        <v>15640</v>
+        <v>17000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>782</v>
+        <v>850</v>
       </c>
       <c r="T508" t="n">
         <v>20</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>1980</v>
+        <v>440</v>
       </c>
       <c r="N509" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O509" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="P509" t="n">
-        <v>17424</v>
+        <v>15227</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>871</v>
+        <v>761</v>
       </c>
       <c r="T509" t="n">
         <v>20</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>216</v>
+        <v>2370</v>
       </c>
       <c r="N510" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O510" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P510" t="n">
-        <v>20500</v>
+        <v>16738</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1025</v>
+        <v>837</v>
       </c>
       <c r="T510" t="n">
         <v>20</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>150</v>
+        <v>2500</v>
       </c>
       <c r="N511" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O511" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P511" t="n">
-        <v>8000</v>
+        <v>15640</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>400</v>
+        <v>782</v>
       </c>
       <c r="T511" t="n">
         <v>20</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>950</v>
+        <v>1980</v>
       </c>
       <c r="N512" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O512" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P512" t="n">
-        <v>9579</v>
+        <v>17424</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>479</v>
+        <v>871</v>
       </c>
       <c r="T512" t="n">
         <v>20</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>2390</v>
+        <v>216</v>
       </c>
       <c r="N513" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O513" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P513" t="n">
-        <v>11950</v>
+        <v>20500</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>598</v>
+        <v>1025</v>
       </c>
       <c r="T513" t="n">
         <v>20</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41487,13 +41487,13 @@
         <v>150</v>
       </c>
       <c r="N514" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O514" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P514" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T514" t="n">
         <v>20</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>296</v>
+        <v>950</v>
       </c>
       <c r="N515" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O515" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P515" t="n">
-        <v>20365</v>
+        <v>9579</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1018</v>
+        <v>479</v>
       </c>
       <c r="T515" t="n">
         <v>20</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>150</v>
+        <v>2390</v>
       </c>
       <c r="N516" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O516" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P516" t="n">
-        <v>15000</v>
+        <v>11950</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>750</v>
+        <v>598</v>
       </c>
       <c r="T516" t="n">
         <v>20</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N517" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O517" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P517" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T517" t="n">
         <v>20</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="N518" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="O518" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P518" t="n">
-        <v>13750</v>
+        <v>20365</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>688</v>
+        <v>1018</v>
       </c>
       <c r="T518" t="n">
         <v>20</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="N519" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O519" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P519" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41902,11 +41902,11 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="T519" t="n">
         <v>20</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>1330</v>
+        <v>360</v>
       </c>
       <c r="N520" t="n">
         <v>13000</v>
       </c>
       <c r="O520" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P520" t="n">
-        <v>13421</v>
+        <v>13000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41982,11 +41982,11 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="T520" t="n">
         <v>20</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="N521" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O521" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P521" t="n">
-        <v>15500</v>
+        <v>13750</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>775</v>
+        <v>688</v>
       </c>
       <c r="T521" t="n">
         <v>20</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>1470</v>
+        <v>680</v>
       </c>
       <c r="N522" t="n">
         <v>13000</v>
       </c>
       <c r="O522" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P522" t="n">
-        <v>13408</v>
+        <v>13000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="T522" t="n">
         <v>20</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>2180</v>
+        <v>1330</v>
       </c>
       <c r="N523" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O523" t="n">
         <v>14000</v>
       </c>
-      <c r="O523" t="n">
-        <v>16000</v>
-      </c>
       <c r="P523" t="n">
-        <v>15271</v>
+        <v>13421</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42222,11 +42222,11 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>764</v>
+        <v>671</v>
       </c>
       <c r="T523" t="n">
         <v>20</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>216</v>
+        <v>960</v>
       </c>
       <c r="N524" t="n">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="O524" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P524" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="T524" t="n">
         <v>20</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>400</v>
+        <v>1470</v>
       </c>
       <c r="N525" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O525" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P525" t="n">
-        <v>8000</v>
+        <v>13408</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>400</v>
+        <v>670</v>
       </c>
       <c r="T525" t="n">
         <v>20</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>1360</v>
+        <v>2180</v>
       </c>
       <c r="N526" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O526" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P526" t="n">
-        <v>9353</v>
+        <v>15271</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>468</v>
+        <v>764</v>
       </c>
       <c r="T526" t="n">
         <v>20</v>
@@ -42515,25 +42515,25 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>440</v>
+        <v>216</v>
       </c>
       <c r="N527" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="O527" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="P527" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>350</v>
+        <v>575</v>
       </c>
       <c r="T527" t="n">
         <v>20</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>2760</v>
+        <v>400</v>
       </c>
       <c r="N528" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O528" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P528" t="n">
-        <v>9681</v>
+        <v>8000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="T528" t="n">
         <v>20</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42675,25 +42675,25 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>216</v>
+        <v>1360</v>
       </c>
       <c r="N529" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O529" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P529" t="n">
-        <v>14500</v>
+        <v>9353</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>725</v>
+        <v>468</v>
       </c>
       <c r="T529" t="n">
         <v>20</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N530" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O530" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P530" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>1930</v>
+        <v>2760</v>
       </c>
       <c r="N531" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O531" t="n">
         <v>12000</v>
       </c>
       <c r="P531" t="n">
-        <v>11435</v>
+        <v>9681</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>572</v>
+        <v>484</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>1400</v>
+        <v>216</v>
       </c>
       <c r="N532" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O532" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P532" t="n">
-        <v>13429</v>
+        <v>14500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>671</v>
+        <v>725</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>1075</v>
+        <v>200</v>
       </c>
       <c r="N533" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O533" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P533" t="n">
-        <v>12116</v>
+        <v>9000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>606</v>
+        <v>450</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>1395</v>
+        <v>1930</v>
       </c>
       <c r="N534" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O534" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P534" t="n">
-        <v>13602</v>
+        <v>11435</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>680</v>
+        <v>572</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>218</v>
+        <v>1400</v>
       </c>
       <c r="N535" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O535" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P535" t="n">
-        <v>20491</v>
+        <v>13429</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1025</v>
+        <v>671</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>400</v>
+        <v>1075</v>
       </c>
       <c r="N536" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O536" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P536" t="n">
-        <v>12000</v>
+        <v>12116</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="T536" t="n">
         <v>20</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,11 +43320,11 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>1360</v>
+        <v>1395</v>
       </c>
       <c r="N537" t="n">
         <v>13000</v>
@@ -43333,7 +43333,7 @@
         <v>14000</v>
       </c>
       <c r="P537" t="n">
-        <v>13500</v>
+        <v>13602</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>1370</v>
+        <v>218</v>
       </c>
       <c r="N538" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O538" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P538" t="n">
-        <v>14861</v>
+        <v>20491</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>743</v>
+        <v>1025</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N539" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O539" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P539" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>1160</v>
+        <v>1360</v>
       </c>
       <c r="N540" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O540" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P540" t="n">
-        <v>17379</v>
+        <v>13500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>869</v>
+        <v>675</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43635,25 +43635,25 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>216</v>
+        <v>1370</v>
       </c>
       <c r="N541" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O541" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P541" t="n">
-        <v>18500</v>
+        <v>14861</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>925</v>
+        <v>743</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="N542" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O542" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P542" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T542" t="n">
         <v>20</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="N543" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O543" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P543" t="n">
-        <v>13500</v>
+        <v>17379</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>675</v>
+        <v>869</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>2640</v>
+        <v>640</v>
       </c>
       <c r="N545" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O545" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P545" t="n">
-        <v>12773</v>
+        <v>12500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>2320</v>
+        <v>1200</v>
       </c>
       <c r="N546" t="n">
         <v>13000</v>
       </c>
       <c r="O546" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P546" t="n">
-        <v>14017</v>
+        <v>13500</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44115,25 +44115,25 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>900</v>
+        <v>216</v>
       </c>
       <c r="N547" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O547" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P547" t="n">
-        <v>10667</v>
+        <v>18500</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>533</v>
+        <v>925</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>2060</v>
+        <v>2640</v>
       </c>
       <c r="N548" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O548" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P548" t="n">
-        <v>12573</v>
+        <v>12773</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>1760</v>
+        <v>2320</v>
       </c>
       <c r="N549" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O549" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P549" t="n">
-        <v>11591</v>
+        <v>14017</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>580</v>
+        <v>701</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>1930</v>
+        <v>900</v>
       </c>
       <c r="N550" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O550" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P550" t="n">
-        <v>13000</v>
+        <v>10667</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>216</v>
+        <v>2060</v>
       </c>
       <c r="N551" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O551" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P551" t="n">
-        <v>20500</v>
+        <v>12573</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1025</v>
+        <v>629</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>480</v>
+        <v>1760</v>
       </c>
       <c r="N552" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O552" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P552" t="n">
-        <v>7500</v>
+        <v>11591</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>375</v>
+        <v>580</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>1760</v>
+        <v>1930</v>
       </c>
       <c r="N553" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O553" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P553" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>560</v>
+        <v>216</v>
       </c>
       <c r="N554" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O554" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P554" t="n">
-        <v>8000</v>
+        <v>20500</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>400</v>
+        <v>1025</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>3640</v>
+        <v>480</v>
       </c>
       <c r="N555" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O555" t="n">
         <v>8000</v>
       </c>
-      <c r="O555" t="n">
-        <v>12000</v>
-      </c>
       <c r="P555" t="n">
-        <v>9978</v>
+        <v>7500</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>499</v>
+        <v>375</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>108</v>
+        <v>1760</v>
       </c>
       <c r="N556" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O556" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P556" t="n">
-        <v>18500</v>
+        <v>9500</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>925</v>
+        <v>475</v>
       </c>
       <c r="T556" t="n">
         <v>20</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>2570</v>
+        <v>560</v>
       </c>
       <c r="N557" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O557" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P557" t="n">
-        <v>12451</v>
+        <v>8000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>623</v>
+        <v>400</v>
       </c>
       <c r="T557" t="n">
         <v>20</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>1450</v>
+        <v>3640</v>
       </c>
       <c r="N558" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O558" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P558" t="n">
-        <v>13414</v>
+        <v>9978</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>671</v>
+        <v>499</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="N559" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O559" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P559" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>750</v>
+        <v>925</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>560</v>
+        <v>2570</v>
       </c>
       <c r="N560" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O560" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P560" t="n">
-        <v>10000</v>
+        <v>12451</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>1690</v>
+        <v>1450</v>
       </c>
       <c r="N561" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O561" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P561" t="n">
-        <v>10746</v>
+        <v>13414</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>537</v>
+        <v>671</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45315,25 +45315,25 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N562" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O562" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P562" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>2310</v>
+        <v>560</v>
       </c>
       <c r="N563" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O563" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P563" t="n">
-        <v>12498</v>
+        <v>10000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>150</v>
+        <v>1690</v>
       </c>
       <c r="N564" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O564" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P564" t="n">
-        <v>20500</v>
+        <v>10746</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>1025</v>
+        <v>537</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N565" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O565" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P565" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>840</v>
+        <v>2310</v>
       </c>
       <c r="N566" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O566" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P566" t="n">
-        <v>11571</v>
+        <v>12498</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>1860</v>
+        <v>150</v>
       </c>
       <c r="N567" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O567" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P567" t="n">
-        <v>12344</v>
+        <v>20500</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>617</v>
+        <v>1025</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>1920</v>
+        <v>250</v>
       </c>
       <c r="N568" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O568" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P568" t="n">
-        <v>13729</v>
+        <v>10000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>686</v>
+        <v>500</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>2720</v>
+        <v>840</v>
       </c>
       <c r="N569" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O569" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P569" t="n">
-        <v>14882</v>
+        <v>11571</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>744</v>
+        <v>579</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>150</v>
+        <v>1860</v>
       </c>
       <c r="N570" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O570" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P570" t="n">
-        <v>9000</v>
+        <v>12344</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>450</v>
+        <v>617</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>800</v>
+        <v>1920</v>
       </c>
       <c r="N571" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O571" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P571" t="n">
-        <v>9500</v>
+        <v>13729</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>475</v>
+        <v>686</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>200</v>
+        <v>2720</v>
       </c>
       <c r="N572" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O572" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P572" t="n">
-        <v>10000</v>
+        <v>14882</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>500</v>
+        <v>744</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>1270</v>
+        <v>150</v>
       </c>
       <c r="N573" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O573" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P573" t="n">
-        <v>11441</v>
+        <v>9000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>572</v>
+        <v>450</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46275,25 +46275,25 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>260</v>
+        <v>800</v>
       </c>
       <c r="N574" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O574" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P574" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M575" t="n">
         <v>200</v>
       </c>
       <c r="N575" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O575" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P575" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>2220</v>
+        <v>1270</v>
       </c>
       <c r="N576" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O576" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P576" t="n">
-        <v>16428</v>
+        <v>11441</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>821</v>
+        <v>572</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46515,25 +46515,25 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>1040</v>
+        <v>260</v>
       </c>
       <c r="N577" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="O577" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P577" t="n">
-        <v>15731</v>
+        <v>16500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>787</v>
+        <v>825</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="N578" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O578" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P578" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>2160</v>
+        <v>2220</v>
       </c>
       <c r="N579" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O579" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P579" t="n">
-        <v>12389</v>
+        <v>16428</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>619</v>
+        <v>821</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>1370</v>
+        <v>1040</v>
       </c>
       <c r="N580" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="O580" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P580" t="n">
-        <v>9796</v>
+        <v>15731</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>490</v>
+        <v>787</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="N581" t="n">
         <v>10000</v>
       </c>
       <c r="O581" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P581" t="n">
-        <v>11400</v>
+        <v>10500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>2510</v>
+        <v>2160</v>
       </c>
       <c r="N582" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O582" t="n">
         <v>13000</v>
       </c>
       <c r="P582" t="n">
-        <v>11709</v>
+        <v>12389</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>350</v>
+        <v>1370</v>
       </c>
       <c r="N583" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O583" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P583" t="n">
-        <v>13000</v>
+        <v>9796</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>650</v>
+        <v>490</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>3390</v>
+        <v>1500</v>
       </c>
       <c r="N584" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O584" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P584" t="n">
-        <v>13298</v>
+        <v>11400</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>665</v>
+        <v>570</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>190</v>
+        <v>2510</v>
       </c>
       <c r="N585" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O585" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P585" t="n">
-        <v>20500</v>
+        <v>11709</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>1025</v>
+        <v>585</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N586" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O586" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P586" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>250</v>
+        <v>3390</v>
       </c>
       <c r="N587" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O587" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P587" t="n">
-        <v>11000</v>
+        <v>13298</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>550</v>
+        <v>665</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>640</v>
+        <v>190</v>
       </c>
       <c r="N588" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O588" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P588" t="n">
-        <v>11438</v>
+        <v>20500</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>572</v>
+        <v>1025</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>2070</v>
+        <v>250</v>
       </c>
       <c r="N589" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O589" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P589" t="n">
-        <v>12512</v>
+        <v>9000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>626</v>
+        <v>450</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,25 +47555,25 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="N590" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O590" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P590" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>1360</v>
+        <v>640</v>
       </c>
       <c r="N591" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O591" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P591" t="n">
-        <v>13500</v>
+        <v>11438</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>675</v>
+        <v>572</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>970</v>
+        <v>2070</v>
       </c>
       <c r="N592" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O592" t="n">
         <v>13000</v>
       </c>
-      <c r="O592" t="n">
-        <v>14000</v>
-      </c>
       <c r="P592" t="n">
-        <v>13588</v>
+        <v>12512</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>679</v>
+        <v>626</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>2530</v>
+        <v>366</v>
       </c>
       <c r="N593" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O593" t="n">
         <v>15000</v>
       </c>
       <c r="P593" t="n">
-        <v>14415</v>
+        <v>14500</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>1120</v>
+        <v>1360</v>
       </c>
       <c r="N594" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O594" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P594" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>825</v>
+        <v>675</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>800</v>
+        <v>970</v>
       </c>
       <c r="N595" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O595" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P595" t="n">
-        <v>18500</v>
+        <v>13588</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>925</v>
+        <v>679</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>216</v>
+        <v>2530</v>
       </c>
       <c r="N596" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O596" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P596" t="n">
-        <v>19500</v>
+        <v>14415</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>975</v>
+        <v>721</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>975</v>
+        <v>1120</v>
       </c>
       <c r="N597" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O597" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P597" t="n">
-        <v>12410</v>
+        <v>16500</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>620</v>
+        <v>825</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48204,16 +48204,16 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>1930</v>
+        <v>800</v>
       </c>
       <c r="N598" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O598" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P598" t="n">
-        <v>13544</v>
+        <v>18500</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>677</v>
+        <v>925</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N599" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O599" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P599" t="n">
-        <v>10500</v>
+        <v>19500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>525</v>
+        <v>975</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>216</v>
+        <v>975</v>
       </c>
       <c r="N600" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O600" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P600" t="n">
-        <v>21000</v>
+        <v>12410</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>1050</v>
+        <v>620</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>150</v>
+        <v>1930</v>
       </c>
       <c r="N601" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O601" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P601" t="n">
-        <v>10000</v>
+        <v>13544</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>500</v>
+        <v>677</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M602" t="n">
         <v>800</v>
       </c>
       <c r="N602" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O602" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P602" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>1320</v>
+        <v>216</v>
       </c>
       <c r="N603" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O603" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P603" t="n">
-        <v>14424</v>
+        <v>21000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>721</v>
+        <v>1050</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N604" t="n">
         <v>10000</v>
       </c>
       <c r="O604" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P604" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>216</v>
+        <v>800</v>
       </c>
       <c r="N605" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O605" t="n">
         <v>13000</v>
       </c>
-      <c r="O605" t="n">
-        <v>14000</v>
-      </c>
       <c r="P605" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>270</v>
+        <v>1320</v>
       </c>
       <c r="N606" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O606" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P606" t="n">
-        <v>10000</v>
+        <v>14424</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>500</v>
+        <v>721</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>1230</v>
+        <v>800</v>
       </c>
       <c r="N607" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O607" t="n">
         <v>11000</v>
       </c>
-      <c r="O607" t="n">
-        <v>12000</v>
-      </c>
       <c r="P607" t="n">
-        <v>11610</v>
+        <v>10500</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48995,16 +48995,16 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>1390</v>
+        <v>216</v>
       </c>
       <c r="N608" t="n">
         <v>13000</v>
@@ -49013,7 +49013,7 @@
         <v>14000</v>
       </c>
       <c r="P608" t="n">
-        <v>13597</v>
+        <v>13500</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>1490</v>
+        <v>270</v>
       </c>
       <c r="N609" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O609" t="n">
         <v>10000</v>
       </c>
       <c r="P609" t="n">
-        <v>9638</v>
+        <v>10000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,11 +49160,11 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>760</v>
+        <v>1230</v>
       </c>
       <c r="N610" t="n">
         <v>11000</v>
@@ -49173,7 +49173,7 @@
         <v>12000</v>
       </c>
       <c r="P610" t="n">
-        <v>11526</v>
+        <v>11610</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49244,16 +49244,16 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>2470</v>
+        <v>1390</v>
       </c>
       <c r="N611" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O611" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P611" t="n">
-        <v>12324</v>
+        <v>13597</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>616</v>
+        <v>680</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>1795</v>
+        <v>1490</v>
       </c>
       <c r="N612" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O612" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P612" t="n">
-        <v>11354</v>
+        <v>9638</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>568</v>
+        <v>482</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>475</v>
+        <v>760</v>
       </c>
       <c r="N613" t="n">
         <v>11000</v>
       </c>
       <c r="O613" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P613" t="n">
-        <v>12158</v>
+        <v>11526</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>1475</v>
+        <v>2470</v>
       </c>
       <c r="N614" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O614" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P614" t="n">
-        <v>13322</v>
+        <v>12324</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>666</v>
+        <v>616</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>680</v>
+        <v>1795</v>
       </c>
       <c r="N615" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O615" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P615" t="n">
-        <v>9279</v>
+        <v>11354</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>464</v>
+        <v>568</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>1835</v>
+        <v>475</v>
       </c>
       <c r="N616" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O616" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P616" t="n">
-        <v>10638</v>
+        <v>12158</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>532</v>
+        <v>608</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>700</v>
+        <v>1475</v>
       </c>
       <c r="N617" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O617" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P617" t="n">
-        <v>10214</v>
+        <v>13322</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>511</v>
+        <v>666</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>2095</v>
+        <v>680</v>
       </c>
       <c r="N618" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O618" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="P618" t="n">
-        <v>11852</v>
+        <v>9279</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>593</v>
+        <v>464</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>880</v>
+        <v>1835</v>
       </c>
       <c r="N619" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O619" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P619" t="n">
-        <v>5545</v>
+        <v>10638</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>277</v>
+        <v>532</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="N620" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O620" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P620" t="n">
-        <v>7500</v>
+        <v>10214</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>375</v>
+        <v>511</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>400</v>
+        <v>2095</v>
       </c>
       <c r="N621" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O621" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P621" t="n">
-        <v>8000</v>
+        <v>11852</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>400</v>
+        <v>593</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>2880</v>
+        <v>880</v>
       </c>
       <c r="N622" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O622" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P622" t="n">
-        <v>9083</v>
+        <v>5545</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>454</v>
+        <v>277</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>1520</v>
+        <v>2000</v>
       </c>
       <c r="N623" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="O623" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P623" t="n">
-        <v>11434</v>
+        <v>7500</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>572</v>
+        <v>375</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N624" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O624" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P624" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50364,16 +50364,16 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>1800</v>
+        <v>2880</v>
       </c>
       <c r="N625" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O625" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P625" t="n">
-        <v>13222</v>
+        <v>9083</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>661</v>
+        <v>454</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>156</v>
+        <v>1520</v>
       </c>
       <c r="N626" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="O626" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P626" t="n">
-        <v>21500</v>
+        <v>11434</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>1075</v>
+        <v>572</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N627" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O627" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P627" t="n">
-        <v>8929</v>
+        <v>14000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>446</v>
+        <v>700</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>1180</v>
+        <v>1800</v>
       </c>
       <c r="N628" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O628" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P628" t="n">
-        <v>10898</v>
+        <v>13222</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>545</v>
+        <v>661</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>760</v>
+        <v>156</v>
       </c>
       <c r="N629" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O629" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P629" t="n">
-        <v>11368</v>
+        <v>21500</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>568</v>
+        <v>1075</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>350</v>
+        <v>560</v>
       </c>
       <c r="N630" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O630" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P630" t="n">
-        <v>8000</v>
+        <v>8929</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>350</v>
+        <v>1180</v>
       </c>
       <c r="N631" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O631" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P631" t="n">
-        <v>13000</v>
+        <v>10898</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>650</v>
+        <v>545</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>216</v>
+        <v>760</v>
       </c>
       <c r="N632" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O632" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P632" t="n">
-        <v>20500</v>
+        <v>11368</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>1360</v>
+        <v>350</v>
       </c>
       <c r="N633" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O633" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P633" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>3040</v>
+        <v>350</v>
       </c>
       <c r="N634" t="n">
         <v>13000</v>
       </c>
       <c r="O634" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P634" t="n">
-        <v>13882</v>
+        <v>13000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>694</v>
+        <v>650</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="N635" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O635" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P635" t="n">
-        <v>11000</v>
+        <v>20500</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>550</v>
+        <v>1025</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>750</v>
+        <v>1360</v>
       </c>
       <c r="N636" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O636" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P636" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,68 +51287,308 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E637" t="n">
+        <v>13</v>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G637" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I637" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M637" t="n">
+        <v>3040</v>
+      </c>
+      <c r="N637" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O637" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P637" t="n">
+        <v>13882</v>
+      </c>
+      <c r="Q637" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R637" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S637" t="n">
+        <v>694</v>
+      </c>
+      <c r="T637" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>6</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D638" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E637" t="n">
-        <v>13</v>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G637" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I637" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J637" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L637" t="inlineStr">
+      <c r="E638" t="n">
+        <v>13</v>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G638" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I638" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M638" t="n">
+        <v>170</v>
+      </c>
+      <c r="N638" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O638" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P638" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q638" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R638" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S638" t="n">
+        <v>550</v>
+      </c>
+      <c r="T638" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>6</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D639" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E639" t="n">
+        <v>13</v>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G639" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I639" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M639" t="n">
+        <v>750</v>
+      </c>
+      <c r="N639" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O639" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P639" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q639" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R639" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S639" t="n">
+        <v>750</v>
+      </c>
+      <c r="T639" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>6</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D640" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E640" t="n">
+        <v>13</v>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G640" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I640" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M637" t="n">
+      <c r="M640" t="n">
         <v>2740</v>
       </c>
-      <c r="N637" t="n">
+      <c r="N640" t="n">
         <v>15000</v>
       </c>
-      <c r="O637" t="n">
+      <c r="O640" t="n">
         <v>16000</v>
       </c>
-      <c r="P637" t="n">
+      <c r="P640" t="n">
         <v>15474</v>
       </c>
-      <c r="Q637" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R637" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S637" t="n">
+      <c r="Q640" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S640" t="n">
         <v>774</v>
       </c>
-      <c r="T637" t="n">
+      <c r="T640" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T640"/>
+  <dimension ref="A1:T643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="N588" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O588" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P588" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1025</v>
+        <v>650</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>250</v>
+        <v>760</v>
       </c>
       <c r="N589" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O589" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P589" t="n">
-        <v>9000</v>
+        <v>13421</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>450</v>
+        <v>671</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>250</v>
+        <v>2250</v>
       </c>
       <c r="N590" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O590" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P590" t="n">
-        <v>11000</v>
+        <v>14329</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>550</v>
+        <v>716</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>640</v>
+        <v>190</v>
       </c>
       <c r="N591" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O591" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P591" t="n">
-        <v>11438</v>
+        <v>20500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>572</v>
+        <v>1025</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>2070</v>
+        <v>250</v>
       </c>
       <c r="N592" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O592" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P592" t="n">
-        <v>12512</v>
+        <v>9000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>626</v>
+        <v>450</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="N593" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O593" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P593" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>1360</v>
+        <v>640</v>
       </c>
       <c r="N594" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O594" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P594" t="n">
-        <v>13500</v>
+        <v>11438</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>675</v>
+        <v>572</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>970</v>
+        <v>2070</v>
       </c>
       <c r="N595" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O595" t="n">
         <v>13000</v>
       </c>
-      <c r="O595" t="n">
-        <v>14000</v>
-      </c>
       <c r="P595" t="n">
-        <v>13588</v>
+        <v>12512</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>679</v>
+        <v>626</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>2530</v>
+        <v>366</v>
       </c>
       <c r="N596" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O596" t="n">
         <v>15000</v>
       </c>
       <c r="P596" t="n">
-        <v>14415</v>
+        <v>14500</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>1120</v>
+        <v>1360</v>
       </c>
       <c r="N597" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O597" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P597" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>825</v>
+        <v>675</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>800</v>
+        <v>970</v>
       </c>
       <c r="N598" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O598" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P598" t="n">
-        <v>18500</v>
+        <v>13588</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>925</v>
+        <v>679</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>216</v>
+        <v>2530</v>
       </c>
       <c r="N599" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O599" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P599" t="n">
-        <v>19500</v>
+        <v>14415</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>975</v>
+        <v>721</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>975</v>
+        <v>1120</v>
       </c>
       <c r="N600" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O600" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P600" t="n">
-        <v>12410</v>
+        <v>16500</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>620</v>
+        <v>825</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48444,16 +48444,16 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>1930</v>
+        <v>800</v>
       </c>
       <c r="N601" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O601" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P601" t="n">
-        <v>13544</v>
+        <v>18500</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>677</v>
+        <v>925</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N602" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O602" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P602" t="n">
-        <v>10500</v>
+        <v>19500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>525</v>
+        <v>975</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>216</v>
+        <v>975</v>
       </c>
       <c r="N603" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O603" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P603" t="n">
-        <v>21000</v>
+        <v>12410</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>1050</v>
+        <v>620</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>150</v>
+        <v>1930</v>
       </c>
       <c r="N604" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O604" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P604" t="n">
-        <v>10000</v>
+        <v>13544</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>500</v>
+        <v>677</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M605" t="n">
         <v>800</v>
       </c>
       <c r="N605" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O605" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P605" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>1320</v>
+        <v>216</v>
       </c>
       <c r="N606" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O606" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P606" t="n">
-        <v>14424</v>
+        <v>21000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>721</v>
+        <v>1050</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N607" t="n">
         <v>10000</v>
       </c>
       <c r="O607" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P607" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,25 +48995,25 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>216</v>
+        <v>800</v>
       </c>
       <c r="N608" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O608" t="n">
         <v>13000</v>
       </c>
-      <c r="O608" t="n">
-        <v>14000</v>
-      </c>
       <c r="P608" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>270</v>
+        <v>1320</v>
       </c>
       <c r="N609" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O609" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P609" t="n">
-        <v>10000</v>
+        <v>14424</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>500</v>
+        <v>721</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>1230</v>
+        <v>800</v>
       </c>
       <c r="N610" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O610" t="n">
         <v>11000</v>
       </c>
-      <c r="O610" t="n">
-        <v>12000</v>
-      </c>
       <c r="P610" t="n">
-        <v>11610</v>
+        <v>10500</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49235,16 +49235,16 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>1390</v>
+        <v>216</v>
       </c>
       <c r="N611" t="n">
         <v>13000</v>
@@ -49253,7 +49253,7 @@
         <v>14000</v>
       </c>
       <c r="P611" t="n">
-        <v>13597</v>
+        <v>13500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>1490</v>
+        <v>270</v>
       </c>
       <c r="N612" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O612" t="n">
         <v>10000</v>
       </c>
       <c r="P612" t="n">
-        <v>9638</v>
+        <v>10000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,11 +49400,11 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>760</v>
+        <v>1230</v>
       </c>
       <c r="N613" t="n">
         <v>11000</v>
@@ -49413,7 +49413,7 @@
         <v>12000</v>
       </c>
       <c r="P613" t="n">
-        <v>11526</v>
+        <v>11610</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>2470</v>
+        <v>1390</v>
       </c>
       <c r="N614" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O614" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P614" t="n">
-        <v>12324</v>
+        <v>13597</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>616</v>
+        <v>680</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49564,16 +49564,16 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>1795</v>
+        <v>1490</v>
       </c>
       <c r="N615" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O615" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P615" t="n">
-        <v>11354</v>
+        <v>9638</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>568</v>
+        <v>482</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>475</v>
+        <v>760</v>
       </c>
       <c r="N616" t="n">
         <v>11000</v>
       </c>
       <c r="O616" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P616" t="n">
-        <v>12158</v>
+        <v>11526</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1475</v>
+        <v>2470</v>
       </c>
       <c r="N617" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O617" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P617" t="n">
-        <v>13322</v>
+        <v>12324</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>666</v>
+        <v>616</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>680</v>
+        <v>1795</v>
       </c>
       <c r="N618" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O618" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P618" t="n">
-        <v>9279</v>
+        <v>11354</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>464</v>
+        <v>568</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>1835</v>
+        <v>475</v>
       </c>
       <c r="N619" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O619" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P619" t="n">
-        <v>10638</v>
+        <v>12158</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>532</v>
+        <v>608</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>700</v>
+        <v>1475</v>
       </c>
       <c r="N620" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O620" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P620" t="n">
-        <v>10214</v>
+        <v>13322</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>511</v>
+        <v>666</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>2095</v>
+        <v>680</v>
       </c>
       <c r="N621" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O621" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="P621" t="n">
-        <v>11852</v>
+        <v>9279</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>593</v>
+        <v>464</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>880</v>
+        <v>1835</v>
       </c>
       <c r="N622" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O622" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P622" t="n">
-        <v>5545</v>
+        <v>10638</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>277</v>
+        <v>532</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="N623" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O623" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P623" t="n">
-        <v>7500</v>
+        <v>10214</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>375</v>
+        <v>511</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>400</v>
+        <v>2095</v>
       </c>
       <c r="N624" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O624" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P624" t="n">
-        <v>8000</v>
+        <v>11852</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>400</v>
+        <v>593</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>2880</v>
+        <v>880</v>
       </c>
       <c r="N625" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O625" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P625" t="n">
-        <v>9083</v>
+        <v>5545</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>454</v>
+        <v>277</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>1520</v>
+        <v>2000</v>
       </c>
       <c r="N626" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="O626" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P626" t="n">
-        <v>11434</v>
+        <v>7500</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>572</v>
+        <v>375</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N627" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O627" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P627" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>1800</v>
+        <v>2880</v>
       </c>
       <c r="N628" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O628" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P628" t="n">
-        <v>13222</v>
+        <v>9083</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>661</v>
+        <v>454</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>156</v>
+        <v>1520</v>
       </c>
       <c r="N629" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="O629" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P629" t="n">
-        <v>21500</v>
+        <v>11434</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>1075</v>
+        <v>572</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N630" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O630" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P630" t="n">
-        <v>8929</v>
+        <v>14000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>446</v>
+        <v>700</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1180</v>
+        <v>1800</v>
       </c>
       <c r="N631" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O631" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P631" t="n">
-        <v>10898</v>
+        <v>13222</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>545</v>
+        <v>661</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>760</v>
+        <v>156</v>
       </c>
       <c r="N632" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O632" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P632" t="n">
-        <v>11368</v>
+        <v>21500</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>568</v>
+        <v>1075</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51004,16 +51004,16 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>350</v>
+        <v>560</v>
       </c>
       <c r="N633" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O633" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P633" t="n">
-        <v>8000</v>
+        <v>8929</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>350</v>
+        <v>1180</v>
       </c>
       <c r="N634" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O634" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P634" t="n">
-        <v>13000</v>
+        <v>10898</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>650</v>
+        <v>545</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>216</v>
+        <v>760</v>
       </c>
       <c r="N635" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O635" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P635" t="n">
-        <v>20500</v>
+        <v>11368</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>1360</v>
+        <v>350</v>
       </c>
       <c r="N636" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O636" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P636" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>3040</v>
+        <v>350</v>
       </c>
       <c r="N637" t="n">
         <v>13000</v>
       </c>
       <c r="O637" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P637" t="n">
-        <v>13882</v>
+        <v>13000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>694</v>
+        <v>650</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="N638" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O638" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P638" t="n">
-        <v>11000</v>
+        <v>20500</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>550</v>
+        <v>1025</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>750</v>
+        <v>1360</v>
       </c>
       <c r="N639" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O639" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P639" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,68 +51527,308 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E640" t="n">
+        <v>13</v>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G640" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I640" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M640" t="n">
+        <v>3040</v>
+      </c>
+      <c r="N640" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O640" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P640" t="n">
+        <v>13882</v>
+      </c>
+      <c r="Q640" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S640" t="n">
+        <v>694</v>
+      </c>
+      <c r="T640" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>6</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D641" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E640" t="n">
-        <v>13</v>
-      </c>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G640" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I640" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J640" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L640" t="inlineStr">
+      <c r="E641" t="n">
+        <v>13</v>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G641" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I641" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M641" t="n">
+        <v>170</v>
+      </c>
+      <c r="N641" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O641" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P641" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q641" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R641" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S641" t="n">
+        <v>550</v>
+      </c>
+      <c r="T641" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>6</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E642" t="n">
+        <v>13</v>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G642" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I642" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M642" t="n">
+        <v>750</v>
+      </c>
+      <c r="N642" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O642" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P642" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q642" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R642" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S642" t="n">
+        <v>750</v>
+      </c>
+      <c r="T642" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>6</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D643" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E643" t="n">
+        <v>13</v>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G643" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I643" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M640" t="n">
+      <c r="M643" t="n">
         <v>2740</v>
       </c>
-      <c r="N640" t="n">
+      <c r="N643" t="n">
         <v>15000</v>
       </c>
-      <c r="O640" t="n">
+      <c r="O643" t="n">
         <v>16000</v>
       </c>
-      <c r="P640" t="n">
+      <c r="P643" t="n">
         <v>15474</v>
       </c>
-      <c r="Q640" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R640" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S640" t="n">
+      <c r="Q643" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S643" t="n">
         <v>774</v>
       </c>
-      <c r="T640" t="n">
+      <c r="T643" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T643"/>
+  <dimension ref="A1:T648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>2080</v>
+        <v>150</v>
       </c>
       <c r="N495" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O495" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P495" t="n">
-        <v>13394</v>
+        <v>20500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>670</v>
+        <v>1025</v>
       </c>
       <c r="T495" t="n">
         <v>20</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>1880</v>
+        <v>805</v>
       </c>
       <c r="N496" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O496" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P496" t="n">
-        <v>14340</v>
+        <v>11652</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>717</v>
+        <v>583</v>
       </c>
       <c r="T496" t="n">
         <v>20</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="N497" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O497" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P497" t="n">
-        <v>9000</v>
+        <v>13529</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>450</v>
+        <v>676</v>
       </c>
       <c r="T497" t="n">
         <v>20</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>775</v>
+        <v>3135</v>
       </c>
       <c r="N498" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O498" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P498" t="n">
-        <v>11226</v>
+        <v>13885</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>561</v>
+        <v>694</v>
       </c>
       <c r="T498" t="n">
         <v>20</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="N499" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O499" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P499" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="T499" t="n">
         <v>20</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,33 +40360,33 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M500" t="n">
+        <v>2080</v>
+      </c>
+      <c r="N500" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O500" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P500" t="n">
+        <v>13394</v>
+      </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S500" t="n">
         <v>670</v>
-      </c>
-      <c r="N500" t="n">
-        <v>6000</v>
-      </c>
-      <c r="O500" t="n">
-        <v>8000</v>
-      </c>
-      <c r="P500" t="n">
-        <v>6896</v>
-      </c>
-      <c r="Q500" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R500" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S500" t="n">
-        <v>345</v>
       </c>
       <c r="T500" t="n">
         <v>20</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>1070</v>
+        <v>1880</v>
       </c>
       <c r="N501" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O501" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P501" t="n">
-        <v>8374</v>
+        <v>14340</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>419</v>
+        <v>717</v>
       </c>
       <c r="T501" t="n">
         <v>20</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>1230</v>
+        <v>475</v>
       </c>
       <c r="N502" t="n">
         <v>9000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P502" t="n">
-        <v>9610</v>
+        <v>9000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="T502" t="n">
         <v>20</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>275</v>
+        <v>775</v>
       </c>
       <c r="N503" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P503" t="n">
-        <v>9000</v>
+        <v>11226</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="T503" t="n">
         <v>20</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="N504" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O504" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P504" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T504" t="n">
         <v>20</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>400</v>
+        <v>670</v>
       </c>
       <c r="N505" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O505" t="n">
         <v>8000</v>
       </c>
       <c r="P505" t="n">
-        <v>7750</v>
+        <v>6896</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="T505" t="n">
         <v>20</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,7 +40844,7 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>1170</v>
+        <v>1070</v>
       </c>
       <c r="N506" t="n">
         <v>8000</v>
@@ -40853,7 +40853,7 @@
         <v>9000</v>
       </c>
       <c r="P506" t="n">
-        <v>8342</v>
+        <v>8374</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="T506" t="n">
         <v>20</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>1490</v>
+        <v>1230</v>
       </c>
       <c r="N507" t="n">
         <v>9000</v>
       </c>
       <c r="O507" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P507" t="n">
-        <v>9872</v>
+        <v>9610</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="T507" t="n">
         <v>20</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="N508" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O508" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P508" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="T508" t="n">
         <v>20</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="N509" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O509" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="P509" t="n">
-        <v>15227</v>
+        <v>12000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>761</v>
+        <v>600</v>
       </c>
       <c r="T509" t="n">
         <v>20</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>2370</v>
+        <v>400</v>
       </c>
       <c r="N510" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O510" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P510" t="n">
-        <v>16738</v>
+        <v>7750</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>837</v>
+        <v>388</v>
       </c>
       <c r="T510" t="n">
         <v>20</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>2500</v>
+        <v>1170</v>
       </c>
       <c r="N511" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O511" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P511" t="n">
-        <v>15640</v>
+        <v>8342</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>782</v>
+        <v>417</v>
       </c>
       <c r="T511" t="n">
         <v>20</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>1980</v>
+        <v>1490</v>
       </c>
       <c r="N512" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O512" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P512" t="n">
-        <v>17424</v>
+        <v>9872</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>871</v>
+        <v>494</v>
       </c>
       <c r="T512" t="n">
         <v>20</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>216</v>
+        <v>350</v>
       </c>
       <c r="N513" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O513" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P513" t="n">
-        <v>20500</v>
+        <v>17000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1025</v>
+        <v>850</v>
       </c>
       <c r="T513" t="n">
         <v>20</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="N514" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O514" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="P514" t="n">
-        <v>8000</v>
+        <v>15227</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>400</v>
+        <v>761</v>
       </c>
       <c r="T514" t="n">
         <v>20</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>950</v>
+        <v>2370</v>
       </c>
       <c r="N515" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O515" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P515" t="n">
-        <v>9579</v>
+        <v>16738</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>479</v>
+        <v>837</v>
       </c>
       <c r="T515" t="n">
         <v>20</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>2390</v>
+        <v>2500</v>
       </c>
       <c r="N516" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O516" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P516" t="n">
-        <v>11950</v>
+        <v>15640</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>598</v>
+        <v>782</v>
       </c>
       <c r="T516" t="n">
         <v>20</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>150</v>
+        <v>1980</v>
       </c>
       <c r="N517" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O517" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P517" t="n">
-        <v>12000</v>
+        <v>17424</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>600</v>
+        <v>871</v>
       </c>
       <c r="T517" t="n">
         <v>20</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,7 +41804,7 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="N518" t="n">
         <v>20000</v>
@@ -41813,7 +41813,7 @@
         <v>21000</v>
       </c>
       <c r="P518" t="n">
-        <v>20365</v>
+        <v>20500</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="T518" t="n">
         <v>20</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M519" t="n">
         <v>150</v>
       </c>
       <c r="N519" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O519" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P519" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T519" t="n">
         <v>20</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>360</v>
+        <v>950</v>
       </c>
       <c r="N520" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O520" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P520" t="n">
-        <v>13000</v>
+        <v>9579</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>650</v>
+        <v>479</v>
       </c>
       <c r="T520" t="n">
         <v>20</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>400</v>
+        <v>2390</v>
       </c>
       <c r="N521" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O521" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P521" t="n">
-        <v>13750</v>
+        <v>11950</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>688</v>
+        <v>598</v>
       </c>
       <c r="T521" t="n">
         <v>20</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="N522" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O522" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P522" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T522" t="n">
         <v>20</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>1330</v>
+        <v>296</v>
       </c>
       <c r="N523" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O523" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P523" t="n">
-        <v>13421</v>
+        <v>20365</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42222,11 +42222,11 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>671</v>
+        <v>1018</v>
       </c>
       <c r="T523" t="n">
         <v>20</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>960</v>
+        <v>150</v>
       </c>
       <c r="N524" t="n">
         <v>15000</v>
       </c>
       <c r="O524" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P524" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="T524" t="n">
         <v>20</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>1470</v>
+        <v>360</v>
       </c>
       <c r="N525" t="n">
         <v>13000</v>
       </c>
       <c r="O525" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P525" t="n">
-        <v>13408</v>
+        <v>13000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="T525" t="n">
         <v>20</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>2180</v>
+        <v>400</v>
       </c>
       <c r="N526" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O526" t="n">
         <v>14000</v>
       </c>
-      <c r="O526" t="n">
-        <v>16000</v>
-      </c>
       <c r="P526" t="n">
-        <v>15271</v>
+        <v>13750</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>764</v>
+        <v>688</v>
       </c>
       <c r="T526" t="n">
         <v>20</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42515,25 +42515,25 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>216</v>
+        <v>680</v>
       </c>
       <c r="N527" t="n">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="O527" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P527" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42542,11 +42542,11 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="T527" t="n">
         <v>20</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>400</v>
+        <v>1330</v>
       </c>
       <c r="N528" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O528" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P528" t="n">
-        <v>8000</v>
+        <v>13421</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42622,11 +42622,11 @@
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>400</v>
+        <v>671</v>
       </c>
       <c r="T528" t="n">
         <v>20</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="N529" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O529" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P529" t="n">
-        <v>9353</v>
+        <v>15500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>468</v>
+        <v>775</v>
       </c>
       <c r="T529" t="n">
         <v>20</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>440</v>
+        <v>1470</v>
       </c>
       <c r="N530" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O530" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P530" t="n">
-        <v>7000</v>
+        <v>13408</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>350</v>
+        <v>670</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>2760</v>
+        <v>2180</v>
       </c>
       <c r="N531" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O531" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P531" t="n">
-        <v>9681</v>
+        <v>15271</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>484</v>
+        <v>764</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42927,13 +42927,13 @@
         <v>216</v>
       </c>
       <c r="N532" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O532" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P532" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N533" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O533" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P533" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>1930</v>
+        <v>1360</v>
       </c>
       <c r="N534" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O534" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P534" t="n">
-        <v>11435</v>
+        <v>9353</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>572</v>
+        <v>468</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>1400</v>
+        <v>440</v>
       </c>
       <c r="N535" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O535" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P535" t="n">
-        <v>13429</v>
+        <v>7000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>671</v>
+        <v>350</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>1075</v>
+        <v>2760</v>
       </c>
       <c r="N536" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O536" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P536" t="n">
-        <v>12116</v>
+        <v>9681</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>606</v>
+        <v>484</v>
       </c>
       <c r="T536" t="n">
         <v>20</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>1395</v>
+        <v>216</v>
       </c>
       <c r="N537" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O537" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P537" t="n">
-        <v>13602</v>
+        <v>14500</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>680</v>
+        <v>725</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="N538" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O538" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P538" t="n">
-        <v>20491</v>
+        <v>9000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1025</v>
+        <v>450</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>400</v>
+        <v>1930</v>
       </c>
       <c r="N539" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O539" t="n">
         <v>12000</v>
       </c>
       <c r="P539" t="n">
-        <v>12000</v>
+        <v>11435</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,11 +43560,11 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="N540" t="n">
         <v>13000</v>
@@ -43573,7 +43573,7 @@
         <v>14000</v>
       </c>
       <c r="P540" t="n">
-        <v>13500</v>
+        <v>13429</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>1370</v>
+        <v>1075</v>
       </c>
       <c r="N541" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O541" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P541" t="n">
-        <v>14861</v>
+        <v>12116</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>743</v>
+        <v>606</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>200</v>
+        <v>1395</v>
       </c>
       <c r="N542" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O542" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P542" t="n">
-        <v>15000</v>
+        <v>13602</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>750</v>
+        <v>680</v>
       </c>
       <c r="T542" t="n">
         <v>20</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>1160</v>
+        <v>218</v>
       </c>
       <c r="N543" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O543" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P543" t="n">
-        <v>17379</v>
+        <v>20491</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>869</v>
+        <v>1025</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43875,25 +43875,25 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>216</v>
+        <v>400</v>
       </c>
       <c r="N544" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O544" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P544" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>925</v>
+        <v>600</v>
       </c>
       <c r="T544" t="n">
         <v>20</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>640</v>
+        <v>1360</v>
       </c>
       <c r="N545" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O545" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P545" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>1200</v>
+        <v>1370</v>
       </c>
       <c r="N546" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O546" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P546" t="n">
-        <v>13500</v>
+        <v>14861</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>675</v>
+        <v>743</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44115,25 +44115,25 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="N547" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O547" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P547" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>925</v>
+        <v>750</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>2640</v>
+        <v>1160</v>
       </c>
       <c r="N548" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O548" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P548" t="n">
-        <v>12773</v>
+        <v>17379</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>639</v>
+        <v>869</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>2320</v>
+        <v>216</v>
       </c>
       <c r="N549" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O549" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P549" t="n">
-        <v>14017</v>
+        <v>18500</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>701</v>
+        <v>925</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>900</v>
+        <v>640</v>
       </c>
       <c r="N550" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O550" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P550" t="n">
-        <v>10667</v>
+        <v>12500</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>533</v>
+        <v>625</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>2060</v>
+        <v>1200</v>
       </c>
       <c r="N551" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O551" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P551" t="n">
-        <v>12573</v>
+        <v>13500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>1760</v>
+        <v>216</v>
       </c>
       <c r="N552" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O552" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P552" t="n">
-        <v>11591</v>
+        <v>18500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>580</v>
+        <v>925</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>1930</v>
+        <v>2640</v>
       </c>
       <c r="N553" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O553" t="n">
         <v>14000</v>
       </c>
       <c r="P553" t="n">
-        <v>13000</v>
+        <v>12773</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44372</v>
+        <v>44291</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>216</v>
+        <v>2320</v>
       </c>
       <c r="N554" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O554" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P554" t="n">
-        <v>20500</v>
+        <v>14017</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1025</v>
+        <v>701</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>480</v>
+        <v>900</v>
       </c>
       <c r="N555" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O555" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P555" t="n">
-        <v>7500</v>
+        <v>10667</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>375</v>
+        <v>533</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>1760</v>
+        <v>2060</v>
       </c>
       <c r="N556" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O556" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P556" t="n">
-        <v>9500</v>
+        <v>12573</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>475</v>
+        <v>629</v>
       </c>
       <c r="T556" t="n">
         <v>20</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>560</v>
+        <v>1760</v>
       </c>
       <c r="N557" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O557" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P557" t="n">
-        <v>8000</v>
+        <v>11591</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="T557" t="n">
         <v>20</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>3640</v>
+        <v>1930</v>
       </c>
       <c r="N558" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O558" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P558" t="n">
-        <v>9978</v>
+        <v>13000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>499</v>
+        <v>650</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N559" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O559" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P559" t="n">
-        <v>18500</v>
+        <v>20500</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>925</v>
+        <v>1025</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>2570</v>
+        <v>480</v>
       </c>
       <c r="N560" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O560" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P560" t="n">
-        <v>12451</v>
+        <v>7500</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>623</v>
+        <v>375</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="N561" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O561" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P561" t="n">
-        <v>13414</v>
+        <v>9500</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>671</v>
+        <v>475</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45315,25 +45315,25 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="N562" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O562" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P562" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>560</v>
+        <v>3640</v>
       </c>
       <c r="N563" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O563" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P563" t="n">
-        <v>10000</v>
+        <v>9978</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>1690</v>
+        <v>108</v>
       </c>
       <c r="N564" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O564" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P564" t="n">
-        <v>10746</v>
+        <v>18500</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>537</v>
+        <v>925</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>480</v>
+        <v>2570</v>
       </c>
       <c r="N565" t="n">
         <v>12000</v>
       </c>
       <c r="O565" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P565" t="n">
-        <v>12000</v>
+        <v>12451</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>2310</v>
+        <v>1450</v>
       </c>
       <c r="N566" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O566" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P566" t="n">
-        <v>12498</v>
+        <v>13414</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N567" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O567" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P567" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1025</v>
+        <v>750</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,7 +45804,7 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="N568" t="n">
         <v>10000</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>840</v>
+        <v>1690</v>
       </c>
       <c r="N569" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O569" t="n">
         <v>12000</v>
       </c>
       <c r="P569" t="n">
-        <v>11571</v>
+        <v>10746</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>579</v>
+        <v>537</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>1860</v>
+        <v>480</v>
       </c>
       <c r="N570" t="n">
         <v>12000</v>
       </c>
       <c r="O570" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P570" t="n">
-        <v>12344</v>
+        <v>12000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>1920</v>
+        <v>2310</v>
       </c>
       <c r="N571" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O571" t="n">
         <v>13000</v>
       </c>
-      <c r="O571" t="n">
-        <v>15000</v>
-      </c>
       <c r="P571" t="n">
-        <v>13729</v>
+        <v>12498</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>686</v>
+        <v>625</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46115,25 +46115,25 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>2720</v>
+        <v>150</v>
       </c>
       <c r="N572" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O572" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P572" t="n">
-        <v>14882</v>
+        <v>20500</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>744</v>
+        <v>1025</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N573" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="N574" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O574" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P574" t="n">
-        <v>9500</v>
+        <v>11571</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>475</v>
+        <v>579</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>200</v>
+        <v>1860</v>
       </c>
       <c r="N575" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O575" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P575" t="n">
-        <v>10000</v>
+        <v>12344</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>1270</v>
+        <v>1920</v>
       </c>
       <c r="N576" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O576" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P576" t="n">
-        <v>11441</v>
+        <v>13729</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>572</v>
+        <v>686</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,25 +46515,25 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>260</v>
+        <v>2720</v>
       </c>
       <c r="N577" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O577" t="n">
         <v>16000</v>
       </c>
-      <c r="O577" t="n">
-        <v>17000</v>
-      </c>
       <c r="P577" t="n">
-        <v>16500</v>
+        <v>14882</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>825</v>
+        <v>744</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N578" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O578" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P578" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>2220</v>
+        <v>800</v>
       </c>
       <c r="N579" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O579" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P579" t="n">
-        <v>16428</v>
+        <v>9500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>821</v>
+        <v>475</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>1040</v>
+        <v>200</v>
       </c>
       <c r="N580" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="O580" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P580" t="n">
-        <v>15731</v>
+        <v>10000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>787</v>
+        <v>500</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1200</v>
+        <v>1270</v>
       </c>
       <c r="N581" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O581" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P581" t="n">
-        <v>10500</v>
+        <v>11441</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>2160</v>
+        <v>260</v>
       </c>
       <c r="N582" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O582" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P582" t="n">
-        <v>12389</v>
+        <v>16500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>619</v>
+        <v>825</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>1370</v>
+        <v>200</v>
       </c>
       <c r="N583" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O583" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>9796</v>
+        <v>12000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>490</v>
+        <v>600</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>1500</v>
+        <v>2220</v>
       </c>
       <c r="N584" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O584" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P584" t="n">
-        <v>11400</v>
+        <v>16428</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>570</v>
+        <v>821</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>2510</v>
+        <v>1040</v>
       </c>
       <c r="N585" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="O585" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P585" t="n">
-        <v>11709</v>
+        <v>15731</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>585</v>
+        <v>787</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="N586" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O586" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P586" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>3390</v>
+        <v>2160</v>
       </c>
       <c r="N587" t="n">
         <v>12000</v>
       </c>
       <c r="O587" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P587" t="n">
-        <v>13298</v>
+        <v>12389</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>665</v>
+        <v>619</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>250</v>
+        <v>1370</v>
       </c>
       <c r="N588" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O588" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P588" t="n">
-        <v>13000</v>
+        <v>9796</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>650</v>
+        <v>490</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="N589" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O589" t="n">
         <v>13000</v>
       </c>
-      <c r="O589" t="n">
-        <v>14000</v>
-      </c>
       <c r="P589" t="n">
-        <v>13421</v>
+        <v>11400</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>671</v>
+        <v>570</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>2250</v>
+        <v>2510</v>
       </c>
       <c r="N590" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O590" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P590" t="n">
-        <v>14329</v>
+        <v>11709</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>716</v>
+        <v>585</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="N591" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O591" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P591" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>1025</v>
+        <v>650</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>250</v>
+        <v>3390</v>
       </c>
       <c r="N592" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O592" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P592" t="n">
-        <v>9000</v>
+        <v>13298</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>450</v>
+        <v>665</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47807,13 +47807,13 @@
         <v>250</v>
       </c>
       <c r="N593" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O593" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P593" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="N594" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O594" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P594" t="n">
-        <v>11438</v>
+        <v>13421</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>572</v>
+        <v>671</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47964,16 +47964,16 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>2070</v>
+        <v>2250</v>
       </c>
       <c r="N595" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O595" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P595" t="n">
-        <v>12512</v>
+        <v>14329</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48044,16 +48044,16 @@
         </is>
       </c>
       <c r="M596" t="n">
-        <v>366</v>
+        <v>190</v>
       </c>
       <c r="N596" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O596" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P596" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>1360</v>
+        <v>250</v>
       </c>
       <c r="N597" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O597" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P597" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>675</v>
+        <v>450</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>970</v>
+        <v>250</v>
       </c>
       <c r="N598" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O598" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P598" t="n">
-        <v>13588</v>
+        <v>11000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>679</v>
+        <v>550</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>2530</v>
+        <v>640</v>
       </c>
       <c r="N599" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O599" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P599" t="n">
-        <v>14415</v>
+        <v>11438</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>721</v>
+        <v>572</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>1120</v>
+        <v>2070</v>
       </c>
       <c r="N600" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O600" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P600" t="n">
-        <v>16500</v>
+        <v>12512</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>825</v>
+        <v>626</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>800</v>
+        <v>366</v>
       </c>
       <c r="N601" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O601" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P601" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>925</v>
+        <v>725</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>216</v>
+        <v>1360</v>
       </c>
       <c r="N602" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O602" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P602" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>975</v>
+        <v>675</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="N603" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O603" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P603" t="n">
-        <v>12410</v>
+        <v>13588</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>620</v>
+        <v>679</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>1930</v>
+        <v>2530</v>
       </c>
       <c r="N604" t="n">
         <v>13000</v>
       </c>
       <c r="O604" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P604" t="n">
-        <v>13544</v>
+        <v>14415</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="N605" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O605" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P605" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>525</v>
+        <v>825</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>216</v>
+        <v>800</v>
       </c>
       <c r="N606" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O606" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P606" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>1050</v>
+        <v>925</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,25 +48915,25 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="N607" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O607" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P607" t="n">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>500</v>
+        <v>975</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49004,7 +49004,7 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="N608" t="n">
         <v>12000</v>
@@ -49013,7 +49013,7 @@
         <v>13000</v>
       </c>
       <c r="P608" t="n">
-        <v>12500</v>
+        <v>12410</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49084,16 +49084,16 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>1320</v>
+        <v>1930</v>
       </c>
       <c r="N609" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O609" t="n">
         <v>14000</v>
       </c>
-      <c r="O609" t="n">
-        <v>15000</v>
-      </c>
       <c r="P609" t="n">
-        <v>14424</v>
+        <v>13544</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49247,13 +49247,13 @@
         <v>216</v>
       </c>
       <c r="N611" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O611" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P611" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>675</v>
+        <v>1050</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49324,7 +49324,7 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="N612" t="n">
         <v>10000</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>1230</v>
+        <v>800</v>
       </c>
       <c r="N613" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O613" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P613" t="n">
-        <v>11610</v>
+        <v>12500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>580</v>
+        <v>625</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>1390</v>
+        <v>1320</v>
       </c>
       <c r="N614" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O614" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P614" t="n">
-        <v>13597</v>
+        <v>14424</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>680</v>
+        <v>721</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>1490</v>
+        <v>800</v>
       </c>
       <c r="N615" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O615" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P615" t="n">
-        <v>9638</v>
+        <v>10500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>760</v>
+        <v>216</v>
       </c>
       <c r="N616" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O616" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P616" t="n">
-        <v>11526</v>
+        <v>13500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>576</v>
+        <v>675</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>2470</v>
+        <v>270</v>
       </c>
       <c r="N617" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O617" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P617" t="n">
-        <v>12324</v>
+        <v>10000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>616</v>
+        <v>500</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>1795</v>
+        <v>1230</v>
       </c>
       <c r="N618" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O618" t="n">
         <v>12000</v>
       </c>
       <c r="P618" t="n">
-        <v>11354</v>
+        <v>11610</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>475</v>
+        <v>1390</v>
       </c>
       <c r="N619" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O619" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P619" t="n">
-        <v>12158</v>
+        <v>13597</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1475</v>
+        <v>1490</v>
       </c>
       <c r="N620" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="O620" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P620" t="n">
-        <v>13322</v>
+        <v>9638</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>666</v>
+        <v>482</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="N621" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O621" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P621" t="n">
-        <v>9279</v>
+        <v>11526</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>464</v>
+        <v>576</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>1835</v>
+        <v>2470</v>
       </c>
       <c r="N622" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O622" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P622" t="n">
-        <v>10638</v>
+        <v>12324</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>532</v>
+        <v>616</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>700</v>
+        <v>1795</v>
       </c>
       <c r="N623" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O623" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P623" t="n">
-        <v>10214</v>
+        <v>11354</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>2095</v>
+        <v>475</v>
       </c>
       <c r="N624" t="n">
         <v>11000</v>
       </c>
       <c r="O624" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P624" t="n">
-        <v>11852</v>
+        <v>12158</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>880</v>
+        <v>1475</v>
       </c>
       <c r="N625" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="O625" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P625" t="n">
-        <v>5545</v>
+        <v>13322</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>277</v>
+        <v>666</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="N626" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O626" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P626" t="n">
-        <v>7500</v>
+        <v>9279</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>375</v>
+        <v>464</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>400</v>
+        <v>1835</v>
       </c>
       <c r="N627" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O627" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P627" t="n">
-        <v>8000</v>
+        <v>10638</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>400</v>
+        <v>532</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>2880</v>
+        <v>700</v>
       </c>
       <c r="N628" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O628" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P628" t="n">
-        <v>9083</v>
+        <v>10214</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>1520</v>
+        <v>2095</v>
       </c>
       <c r="N629" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O629" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P629" t="n">
-        <v>11434</v>
+        <v>11852</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>200</v>
+        <v>880</v>
       </c>
       <c r="N630" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O630" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P630" t="n">
-        <v>14000</v>
+        <v>5545</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>700</v>
+        <v>277</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N631" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O631" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P631" t="n">
-        <v>13222</v>
+        <v>7500</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>661</v>
+        <v>375</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>156</v>
+        <v>400</v>
       </c>
       <c r="N632" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O632" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P632" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>1075</v>
+        <v>400</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>560</v>
+        <v>2880</v>
       </c>
       <c r="N633" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O633" t="n">
         <v>10000</v>
       </c>
       <c r="P633" t="n">
-        <v>8929</v>
+        <v>9083</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>1180</v>
+        <v>1520</v>
       </c>
       <c r="N634" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O634" t="n">
         <v>12000</v>
       </c>
       <c r="P634" t="n">
-        <v>10898</v>
+        <v>11434</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="N635" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O635" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P635" t="n">
-        <v>11368</v>
+        <v>14000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>568</v>
+        <v>700</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>350</v>
+        <v>1800</v>
       </c>
       <c r="N636" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O636" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P636" t="n">
-        <v>8000</v>
+        <v>13222</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>400</v>
+        <v>661</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="N637" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O637" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P637" t="n">
-        <v>13000</v>
+        <v>21500</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>650</v>
+        <v>1075</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>216</v>
+        <v>560</v>
       </c>
       <c r="N638" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O638" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P638" t="n">
-        <v>20500</v>
+        <v>8929</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>1025</v>
+        <v>446</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>1360</v>
+        <v>1180</v>
       </c>
       <c r="N639" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O639" t="n">
         <v>12000</v>
       </c>
       <c r="P639" t="n">
-        <v>11500</v>
+        <v>10898</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>3040</v>
+        <v>760</v>
       </c>
       <c r="N640" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O640" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P640" t="n">
-        <v>13882</v>
+        <v>11368</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>694</v>
+        <v>568</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="N641" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O641" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P641" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="N642" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O642" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P642" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,68 +51767,468 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E643" t="n">
+        <v>13</v>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G643" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I643" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>Barraganete</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M643" t="n">
+        <v>216</v>
+      </c>
+      <c r="N643" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O643" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P643" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q643" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S643" t="n">
+        <v>1025</v>
+      </c>
+      <c r="T643" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>6</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D644" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E644" t="n">
+        <v>13</v>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G644" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I644" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M644" t="n">
+        <v>1360</v>
+      </c>
+      <c r="N644" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O644" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P644" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q644" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R644" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S644" t="n">
+        <v>575</v>
+      </c>
+      <c r="T644" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>6</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D645" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E645" t="n">
+        <v>13</v>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G645" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I645" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M645" t="n">
+        <v>3040</v>
+      </c>
+      <c r="N645" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O645" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P645" t="n">
+        <v>13882</v>
+      </c>
+      <c r="Q645" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R645" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S645" t="n">
+        <v>694</v>
+      </c>
+      <c r="T645" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>6</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D646" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E643" t="n">
-        <v>13</v>
-      </c>
-      <c r="F643" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G643" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I643" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J643" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L643" t="inlineStr">
+      <c r="E646" t="n">
+        <v>13</v>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G646" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I646" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M646" t="n">
+        <v>170</v>
+      </c>
+      <c r="N646" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O646" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P646" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q646" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R646" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S646" t="n">
+        <v>550</v>
+      </c>
+      <c r="T646" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>6</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D647" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E647" t="n">
+        <v>13</v>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G647" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I647" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M647" t="n">
+        <v>750</v>
+      </c>
+      <c r="N647" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O647" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P647" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q647" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R647" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S647" t="n">
+        <v>750</v>
+      </c>
+      <c r="T647" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>6</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D648" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E648" t="n">
+        <v>13</v>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G648" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I648" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L648" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M643" t="n">
+      <c r="M648" t="n">
         <v>2740</v>
       </c>
-      <c r="N643" t="n">
+      <c r="N648" t="n">
         <v>15000</v>
       </c>
-      <c r="O643" t="n">
+      <c r="O648" t="n">
         <v>16000</v>
       </c>
-      <c r="P643" t="n">
+      <c r="P648" t="n">
         <v>15474</v>
       </c>
-      <c r="Q643" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R643" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S643" t="n">
+      <c r="Q648" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R648" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S648" t="n">
         <v>774</v>
       </c>
-      <c r="T643" t="n">
+      <c r="T648" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T648"/>
+  <dimension ref="A1:T650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35795,25 +35795,25 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="N443" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O443" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P443" t="n">
-        <v>19667</v>
+        <v>12000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>983</v>
+        <v>600</v>
       </c>
       <c r="T443" t="n">
         <v>20</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>2160</v>
+        <v>258</v>
       </c>
       <c r="N444" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O444" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P444" t="n">
-        <v>9167</v>
+        <v>14000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>458</v>
+        <v>700</v>
       </c>
       <c r="T444" t="n">
         <v>20</v>
@@ -35955,25 +35955,25 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>2520</v>
+        <v>324</v>
       </c>
       <c r="N445" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O445" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P445" t="n">
-        <v>11500</v>
+        <v>19667</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>575</v>
+        <v>983</v>
       </c>
       <c r="T445" t="n">
         <v>20</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36035,25 +36035,25 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>216</v>
+        <v>2160</v>
       </c>
       <c r="N446" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O446" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P446" t="n">
-        <v>13500</v>
+        <v>9167</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>675</v>
+        <v>458</v>
       </c>
       <c r="T446" t="n">
         <v>20</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>350</v>
+        <v>2520</v>
       </c>
       <c r="N447" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O447" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>350</v>
+        <v>575</v>
       </c>
       <c r="T447" t="n">
         <v>20</v>
@@ -36195,25 +36195,25 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>2510</v>
+        <v>216</v>
       </c>
       <c r="N448" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P448" t="n">
-        <v>8821</v>
+        <v>13500</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>441</v>
+        <v>675</v>
       </c>
       <c r="T448" t="n">
         <v>20</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>2270</v>
+        <v>350</v>
       </c>
       <c r="N449" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O449" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P449" t="n">
-        <v>10361</v>
+        <v>7000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>518</v>
+        <v>350</v>
       </c>
       <c r="T449" t="n">
         <v>20</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>1120</v>
+        <v>2510</v>
       </c>
       <c r="N450" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O450" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P450" t="n">
-        <v>11500</v>
+        <v>8821</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>575</v>
+        <v>441</v>
       </c>
       <c r="T450" t="n">
         <v>20</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>1200</v>
+        <v>2270</v>
       </c>
       <c r="N451" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O451" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P451" t="n">
-        <v>13500</v>
+        <v>10361</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>675</v>
+        <v>518</v>
       </c>
       <c r="T451" t="n">
         <v>20</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>1680</v>
+        <v>1120</v>
       </c>
       <c r="N452" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O452" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P452" t="n">
-        <v>9250</v>
+        <v>11500</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>462</v>
+        <v>575</v>
       </c>
       <c r="T452" t="n">
         <v>20</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="N453" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O453" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P453" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>500</v>
+        <v>675</v>
       </c>
       <c r="T453" t="n">
         <v>20</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>1760</v>
+        <v>1680</v>
       </c>
       <c r="N454" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O454" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P454" t="n">
-        <v>11500</v>
+        <v>9250</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>575</v>
+        <v>462</v>
       </c>
       <c r="T454" t="n">
         <v>20</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>2280</v>
+        <v>200</v>
       </c>
       <c r="N455" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O455" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P455" t="n">
-        <v>13439</v>
+        <v>10000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>672</v>
+        <v>500</v>
       </c>
       <c r="T455" t="n">
         <v>20</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>640</v>
+        <v>1760</v>
       </c>
       <c r="N456" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O456" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>14219</v>
+        <v>11500</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>711</v>
+        <v>575</v>
       </c>
       <c r="T456" t="n">
         <v>20</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>2960</v>
+        <v>2280</v>
       </c>
       <c r="N457" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O457" t="n">
         <v>14000</v>
       </c>
-      <c r="O457" t="n">
-        <v>16000</v>
-      </c>
       <c r="P457" t="n">
-        <v>15196</v>
+        <v>13439</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>760</v>
+        <v>672</v>
       </c>
       <c r="T457" t="n">
         <v>20</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="N458" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O458" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="P458" t="n">
-        <v>19500</v>
+        <v>14219</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>975</v>
+        <v>711</v>
       </c>
       <c r="T458" t="n">
         <v>20</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>275</v>
+        <v>2960</v>
       </c>
       <c r="N459" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O459" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P459" t="n">
-        <v>9000</v>
+        <v>15196</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>450</v>
+        <v>760</v>
       </c>
       <c r="T459" t="n">
         <v>20</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>1075</v>
+        <v>216</v>
       </c>
       <c r="N460" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O460" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P460" t="n">
-        <v>11558</v>
+        <v>19500</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>578</v>
+        <v>975</v>
       </c>
       <c r="T460" t="n">
         <v>20</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>2195</v>
+        <v>275</v>
       </c>
       <c r="N461" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O461" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P461" t="n">
-        <v>13656</v>
+        <v>9000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>683</v>
+        <v>450</v>
       </c>
       <c r="T461" t="n">
         <v>20</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37315,25 +37315,25 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>216</v>
+        <v>1075</v>
       </c>
       <c r="N462" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O462" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P462" t="n">
-        <v>20500</v>
+        <v>11558</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1025</v>
+        <v>578</v>
       </c>
       <c r="T462" t="n">
         <v>20</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>1110</v>
+        <v>2195</v>
       </c>
       <c r="N463" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O463" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P463" t="n">
-        <v>17297</v>
+        <v>13656</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>865</v>
+        <v>683</v>
       </c>
       <c r="T463" t="n">
         <v>20</v>
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>1270</v>
+        <v>216</v>
       </c>
       <c r="N464" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O464" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P464" t="n">
-        <v>18882</v>
+        <v>20500</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>944</v>
+        <v>1025</v>
       </c>
       <c r="T464" t="n">
         <v>20</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37555,25 +37555,25 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>216</v>
+        <v>1110</v>
       </c>
       <c r="N465" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O465" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P465" t="n">
-        <v>13750</v>
+        <v>17297</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>688</v>
+        <v>865</v>
       </c>
       <c r="T465" t="n">
         <v>20</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>1360</v>
+        <v>1270</v>
       </c>
       <c r="N466" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O466" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P466" t="n">
-        <v>10647</v>
+        <v>18882</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>532</v>
+        <v>944</v>
       </c>
       <c r="T466" t="n">
         <v>20</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N467" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O467" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P467" t="n">
-        <v>12500</v>
+        <v>13750</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T467" t="n">
         <v>20</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>270</v>
+        <v>1360</v>
       </c>
       <c r="N468" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O468" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P468" t="n">
-        <v>8500</v>
+        <v>10647</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>425</v>
+        <v>532</v>
       </c>
       <c r="T468" t="n">
         <v>20</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1430</v>
+        <v>800</v>
       </c>
       <c r="N469" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O469" t="n">
         <v>13000</v>
       </c>
       <c r="P469" t="n">
-        <v>11629</v>
+        <v>12500</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>581</v>
+        <v>625</v>
       </c>
       <c r="T469" t="n">
         <v>20</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>1630</v>
+        <v>270</v>
       </c>
       <c r="N470" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O470" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P470" t="n">
-        <v>14172</v>
+        <v>8500</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>709</v>
+        <v>425</v>
       </c>
       <c r="T470" t="n">
         <v>20</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>216</v>
+        <v>1430</v>
       </c>
       <c r="N471" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O471" t="n">
         <v>13000</v>
       </c>
-      <c r="O471" t="n">
-        <v>14000</v>
-      </c>
       <c r="P471" t="n">
-        <v>13500</v>
+        <v>11629</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>675</v>
+        <v>581</v>
       </c>
       <c r="T471" t="n">
         <v>20</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>275</v>
+        <v>1630</v>
       </c>
       <c r="N472" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O472" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P472" t="n">
-        <v>10000</v>
+        <v>14172</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>500</v>
+        <v>709</v>
       </c>
       <c r="T472" t="n">
         <v>20</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>1475</v>
+        <v>216</v>
       </c>
       <c r="N473" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O473" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P473" t="n">
-        <v>11593</v>
+        <v>13500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>580</v>
+        <v>675</v>
       </c>
       <c r="T473" t="n">
         <v>20</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>960</v>
+        <v>275</v>
       </c>
       <c r="N474" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="T474" t="n">
         <v>20</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>432</v>
+        <v>1475</v>
       </c>
       <c r="N475" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O475" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P475" t="n">
-        <v>14500</v>
+        <v>11593</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>725</v>
+        <v>580</v>
       </c>
       <c r="T475" t="n">
         <v>20</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>275</v>
+        <v>960</v>
       </c>
       <c r="N476" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O476" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P476" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="T476" t="n">
         <v>20</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>1075</v>
+        <v>432</v>
       </c>
       <c r="N477" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O477" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P477" t="n">
-        <v>10628</v>
+        <v>14500</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>531</v>
+        <v>725</v>
       </c>
       <c r="T477" t="n">
         <v>20</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>1395</v>
+        <v>275</v>
       </c>
       <c r="N478" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O478" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P478" t="n">
-        <v>12401</v>
+        <v>9000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>620</v>
+        <v>450</v>
       </c>
       <c r="T478" t="n">
         <v>20</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>1520</v>
+        <v>1075</v>
       </c>
       <c r="N479" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O479" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P479" t="n">
-        <v>9500</v>
+        <v>10628</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="T479" t="n">
         <v>20</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>3200</v>
+        <v>1395</v>
       </c>
       <c r="N480" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O480" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P480" t="n">
-        <v>10875</v>
+        <v>12401</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="T480" t="n">
         <v>20</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>400</v>
+        <v>1520</v>
       </c>
       <c r="N481" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O481" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P481" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="T481" t="n">
         <v>20</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="N482" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O482" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P482" t="n">
-        <v>8980</v>
+        <v>10875</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>449</v>
+        <v>544</v>
       </c>
       <c r="T482" t="n">
         <v>20</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>1760</v>
+        <v>400</v>
       </c>
       <c r="N483" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="O483" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P483" t="n">
-        <v>11159</v>
+        <v>7500</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>558</v>
+        <v>375</v>
       </c>
       <c r="T483" t="n">
         <v>20</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>216</v>
+        <v>2000</v>
       </c>
       <c r="N484" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O484" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P484" t="n">
-        <v>19500</v>
+        <v>8980</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>975</v>
+        <v>449</v>
       </c>
       <c r="T484" t="n">
         <v>20</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>640</v>
+        <v>1760</v>
       </c>
       <c r="N485" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O485" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P485" t="n">
-        <v>10500</v>
+        <v>11159</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="T485" t="n">
         <v>20</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>480</v>
+        <v>216</v>
       </c>
       <c r="N486" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O486" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P486" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>600</v>
+        <v>975</v>
       </c>
       <c r="T486" t="n">
         <v>20</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>2130</v>
+        <v>640</v>
       </c>
       <c r="N487" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O487" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P487" t="n">
-        <v>12549</v>
+        <v>10500</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>627</v>
+        <v>525</v>
       </c>
       <c r="T487" t="n">
         <v>20</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39395,25 +39395,25 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>216</v>
+        <v>480</v>
       </c>
       <c r="N488" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O488" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P488" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="T488" t="n">
         <v>20</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>1520</v>
+        <v>2130</v>
       </c>
       <c r="N489" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O489" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P489" t="n">
-        <v>9500</v>
+        <v>12549</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>475</v>
+        <v>627</v>
       </c>
       <c r="T489" t="n">
         <v>20</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>1680</v>
+        <v>216</v>
       </c>
       <c r="N490" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O490" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P490" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="T490" t="n">
         <v>20</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39635,25 +39635,25 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>216</v>
+        <v>1520</v>
       </c>
       <c r="N491" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O491" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="T491" t="n">
         <v>20</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>320</v>
+        <v>1680</v>
       </c>
       <c r="N492" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O492" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P492" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="T492" t="n">
         <v>20</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>1200</v>
+        <v>216</v>
       </c>
       <c r="N493" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O493" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P493" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="T493" t="n">
         <v>20</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>720</v>
+        <v>320</v>
       </c>
       <c r="N494" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O494" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="T494" t="n">
         <v>20</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="N495" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O495" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P495" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1025</v>
+        <v>575</v>
       </c>
       <c r="T495" t="n">
         <v>20</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>805</v>
+        <v>720</v>
       </c>
       <c r="N496" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O496" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P496" t="n">
-        <v>11652</v>
+        <v>13500</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>583</v>
+        <v>675</v>
       </c>
       <c r="T496" t="n">
         <v>20</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>850</v>
+        <v>150</v>
       </c>
       <c r="N497" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O497" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P497" t="n">
-        <v>13529</v>
+        <v>20500</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>676</v>
+        <v>1025</v>
       </c>
       <c r="T497" t="n">
         <v>20</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>3135</v>
+        <v>805</v>
       </c>
       <c r="N498" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O498" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P498" t="n">
-        <v>13885</v>
+        <v>11652</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>694</v>
+        <v>583</v>
       </c>
       <c r="T498" t="n">
         <v>20</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="N499" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O499" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P499" t="n">
-        <v>15000</v>
+        <v>13529</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>750</v>
+        <v>676</v>
       </c>
       <c r="T499" t="n">
         <v>20</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>2080</v>
+        <v>3135</v>
       </c>
       <c r="N500" t="n">
         <v>13000</v>
       </c>
       <c r="O500" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P500" t="n">
-        <v>13394</v>
+        <v>13885</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="T500" t="n">
         <v>20</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>1880</v>
+        <v>300</v>
       </c>
       <c r="N501" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O501" t="n">
         <v>15000</v>
       </c>
       <c r="P501" t="n">
-        <v>14340</v>
+        <v>15000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="T501" t="n">
         <v>20</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>475</v>
+        <v>2080</v>
       </c>
       <c r="N502" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O502" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P502" t="n">
-        <v>9000</v>
+        <v>13394</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>450</v>
+        <v>670</v>
       </c>
       <c r="T502" t="n">
         <v>20</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>775</v>
+        <v>1880</v>
       </c>
       <c r="N503" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O503" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P503" t="n">
-        <v>11226</v>
+        <v>14340</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>561</v>
+        <v>717</v>
       </c>
       <c r="T503" t="n">
         <v>20</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>275</v>
+        <v>475</v>
       </c>
       <c r="N504" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O504" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P504" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="T504" t="n">
         <v>20</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>670</v>
+        <v>775</v>
       </c>
       <c r="N505" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O505" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P505" t="n">
-        <v>6896</v>
+        <v>11226</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>345</v>
+        <v>561</v>
       </c>
       <c r="T505" t="n">
         <v>20</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>1070</v>
+        <v>275</v>
       </c>
       <c r="N506" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O506" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P506" t="n">
-        <v>8374</v>
+        <v>13000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>419</v>
+        <v>650</v>
       </c>
       <c r="T506" t="n">
         <v>20</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>1230</v>
+        <v>670</v>
       </c>
       <c r="N507" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O507" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P507" t="n">
-        <v>9610</v>
+        <v>6896</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="T507" t="n">
         <v>20</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>275</v>
+        <v>1070</v>
       </c>
       <c r="N508" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O508" t="n">
         <v>9000</v>
       </c>
       <c r="P508" t="n">
-        <v>9000</v>
+        <v>8374</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="T508" t="n">
         <v>20</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>375</v>
+        <v>1230</v>
       </c>
       <c r="N509" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O509" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P509" t="n">
-        <v>12000</v>
+        <v>9610</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="T509" t="n">
         <v>20</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="N510" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O510" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P510" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="T510" t="n">
         <v>20</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>1170</v>
+        <v>375</v>
       </c>
       <c r="N511" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O511" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P511" t="n">
-        <v>8342</v>
+        <v>12000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>417</v>
+        <v>600</v>
       </c>
       <c r="T511" t="n">
         <v>20</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>1490</v>
+        <v>400</v>
       </c>
       <c r="N512" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O512" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P512" t="n">
-        <v>9872</v>
+        <v>7750</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>494</v>
+        <v>388</v>
       </c>
       <c r="T512" t="n">
         <v>20</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>350</v>
+        <v>1170</v>
       </c>
       <c r="N513" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O513" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P513" t="n">
-        <v>17000</v>
+        <v>8342</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>850</v>
+        <v>417</v>
       </c>
       <c r="T513" t="n">
         <v>20</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>440</v>
+        <v>1490</v>
       </c>
       <c r="N514" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O514" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="P514" t="n">
-        <v>15227</v>
+        <v>9872</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>761</v>
+        <v>494</v>
       </c>
       <c r="T514" t="n">
         <v>20</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>2370</v>
+        <v>350</v>
       </c>
       <c r="N515" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O515" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P515" t="n">
-        <v>16738</v>
+        <v>17000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="T515" t="n">
         <v>20</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>2500</v>
+        <v>440</v>
       </c>
       <c r="N516" t="n">
         <v>15000</v>
       </c>
       <c r="O516" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="P516" t="n">
-        <v>15640</v>
+        <v>15227</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="T516" t="n">
         <v>20</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>1980</v>
+        <v>2370</v>
       </c>
       <c r="N517" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O517" t="n">
         <v>18000</v>
       </c>
       <c r="P517" t="n">
-        <v>17424</v>
+        <v>16738</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="T517" t="n">
         <v>20</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>216</v>
+        <v>2500</v>
       </c>
       <c r="N518" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O518" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P518" t="n">
-        <v>20500</v>
+        <v>15640</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1025</v>
+        <v>782</v>
       </c>
       <c r="T518" t="n">
         <v>20</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>150</v>
+        <v>1980</v>
       </c>
       <c r="N519" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O519" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P519" t="n">
-        <v>8000</v>
+        <v>17424</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>400</v>
+        <v>871</v>
       </c>
       <c r="T519" t="n">
         <v>20</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>950</v>
+        <v>216</v>
       </c>
       <c r="N520" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O520" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P520" t="n">
-        <v>9579</v>
+        <v>20500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>479</v>
+        <v>1025</v>
       </c>
       <c r="T520" t="n">
         <v>20</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>2390</v>
+        <v>150</v>
       </c>
       <c r="N521" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O521" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P521" t="n">
-        <v>11950</v>
+        <v>8000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>598</v>
+        <v>400</v>
       </c>
       <c r="T521" t="n">
         <v>20</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>150</v>
+        <v>950</v>
       </c>
       <c r="N522" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O522" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P522" t="n">
-        <v>12000</v>
+        <v>9579</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>600</v>
+        <v>479</v>
       </c>
       <c r="T522" t="n">
         <v>20</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>296</v>
+        <v>2390</v>
       </c>
       <c r="N523" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O523" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P523" t="n">
-        <v>20365</v>
+        <v>11950</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1018</v>
+        <v>598</v>
       </c>
       <c r="T523" t="n">
         <v>20</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M524" t="n">
         <v>150</v>
       </c>
       <c r="N524" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O524" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P524" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T524" t="n">
         <v>20</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="N525" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O525" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P525" t="n">
-        <v>13000</v>
+        <v>20365</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>650</v>
+        <v>1018</v>
       </c>
       <c r="T525" t="n">
         <v>20</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N526" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O526" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P526" t="n">
-        <v>13750</v>
+        <v>15000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T526" t="n">
         <v>20</v>
@@ -42520,11 +42520,11 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>680</v>
+        <v>360</v>
       </c>
       <c r="N527" t="n">
         <v>13000</v>
@@ -42542,7 +42542,7 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S527" t="n">
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>1330</v>
+        <v>400</v>
       </c>
       <c r="N528" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O528" t="n">
         <v>14000</v>
       </c>
       <c r="P528" t="n">
-        <v>13421</v>
+        <v>13750</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42622,11 +42622,11 @@
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="T528" t="n">
         <v>20</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="N529" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O529" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P529" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42702,11 +42702,11 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="T529" t="n">
         <v>20</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,11 +42760,11 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>1470</v>
+        <v>1330</v>
       </c>
       <c r="N530" t="n">
         <v>13000</v>
@@ -42773,7 +42773,7 @@
         <v>14000</v>
       </c>
       <c r="P530" t="n">
-        <v>13408</v>
+        <v>13421</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42782,11 +42782,11 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>2180</v>
+        <v>960</v>
       </c>
       <c r="N531" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O531" t="n">
         <v>16000</v>
       </c>
       <c r="P531" t="n">
-        <v>15271</v>
+        <v>15500</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>216</v>
+        <v>1470</v>
       </c>
       <c r="N532" t="n">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="O532" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P532" t="n">
-        <v>11500</v>
+        <v>13408</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>575</v>
+        <v>670</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>400</v>
+        <v>2180</v>
       </c>
       <c r="N533" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O533" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P533" t="n">
-        <v>8000</v>
+        <v>15271</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>400</v>
+        <v>764</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>1360</v>
+        <v>216</v>
       </c>
       <c r="N534" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="O534" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P534" t="n">
-        <v>9353</v>
+        <v>11500</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>468</v>
+        <v>575</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="N535" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O535" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P535" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>2760</v>
+        <v>1360</v>
       </c>
       <c r="N536" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O536" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P536" t="n">
-        <v>9681</v>
+        <v>9353</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="T536" t="n">
         <v>20</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>216</v>
+        <v>440</v>
       </c>
       <c r="N537" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O537" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P537" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>725</v>
+        <v>350</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>200</v>
+        <v>2760</v>
       </c>
       <c r="N538" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O538" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P538" t="n">
-        <v>9000</v>
+        <v>9681</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43475,25 +43475,25 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>1930</v>
+        <v>216</v>
       </c>
       <c r="N539" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O539" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P539" t="n">
-        <v>11435</v>
+        <v>14500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>572</v>
+        <v>725</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="N540" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O540" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P540" t="n">
-        <v>13429</v>
+        <v>9000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>671</v>
+        <v>450</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>1075</v>
+        <v>1930</v>
       </c>
       <c r="N541" t="n">
         <v>11000</v>
       </c>
       <c r="O541" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P541" t="n">
-        <v>12116</v>
+        <v>11435</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,7 +43724,7 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="N542" t="n">
         <v>13000</v>
@@ -43733,7 +43733,7 @@
         <v>14000</v>
       </c>
       <c r="P542" t="n">
-        <v>13602</v>
+        <v>13429</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="T542" t="n">
         <v>20</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>218</v>
+        <v>1075</v>
       </c>
       <c r="N543" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O543" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P543" t="n">
-        <v>20491</v>
+        <v>12116</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1025</v>
+        <v>606</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>400</v>
+        <v>1395</v>
       </c>
       <c r="N544" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O544" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P544" t="n">
-        <v>12000</v>
+        <v>13602</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="T544" t="n">
         <v>20</v>
@@ -43955,25 +43955,25 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>1360</v>
+        <v>218</v>
       </c>
       <c r="N545" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O545" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P545" t="n">
-        <v>13500</v>
+        <v>20491</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>675</v>
+        <v>1025</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>1370</v>
+        <v>400</v>
       </c>
       <c r="N546" t="n">
         <v>12000</v>
       </c>
       <c r="O546" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P546" t="n">
-        <v>14861</v>
+        <v>12000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>743</v>
+        <v>600</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>200</v>
+        <v>1360</v>
       </c>
       <c r="N547" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O547" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P547" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>1160</v>
+        <v>1370</v>
       </c>
       <c r="N548" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O548" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P548" t="n">
-        <v>17379</v>
+        <v>14861</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>869</v>
+        <v>743</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="N549" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O549" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P549" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>925</v>
+        <v>750</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>640</v>
+        <v>1160</v>
       </c>
       <c r="N550" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O550" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P550" t="n">
-        <v>12500</v>
+        <v>17379</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>625</v>
+        <v>869</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>1200</v>
+        <v>216</v>
       </c>
       <c r="N551" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O551" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P551" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>675</v>
+        <v>925</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="N552" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O552" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P552" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>2640</v>
+        <v>1200</v>
       </c>
       <c r="N553" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O553" t="n">
         <v>14000</v>
       </c>
       <c r="P553" t="n">
-        <v>12773</v>
+        <v>13500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>639</v>
+        <v>675</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>2320</v>
+        <v>216</v>
       </c>
       <c r="N554" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O554" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P554" t="n">
-        <v>14017</v>
+        <v>18500</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>701</v>
+        <v>925</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>900</v>
+        <v>2640</v>
       </c>
       <c r="N555" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O555" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P555" t="n">
-        <v>10667</v>
+        <v>12773</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>533</v>
+        <v>639</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>2060</v>
+        <v>2320</v>
       </c>
       <c r="N556" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O556" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P556" t="n">
-        <v>12573</v>
+        <v>14017</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="T556" t="n">
         <v>20</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>1760</v>
+        <v>900</v>
       </c>
       <c r="N557" t="n">
         <v>10000</v>
       </c>
       <c r="O557" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P557" t="n">
-        <v>11591</v>
+        <v>10667</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="T557" t="n">
         <v>20</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>1930</v>
+        <v>2060</v>
       </c>
       <c r="N558" t="n">
         <v>12000</v>
       </c>
       <c r="O558" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P558" t="n">
-        <v>13000</v>
+        <v>12573</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45075,25 +45075,25 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>216</v>
+        <v>1760</v>
       </c>
       <c r="N559" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O559" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P559" t="n">
-        <v>20500</v>
+        <v>11591</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1025</v>
+        <v>580</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>480</v>
+        <v>1930</v>
       </c>
       <c r="N560" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O560" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P560" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>375</v>
+        <v>650</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>1760</v>
+        <v>216</v>
       </c>
       <c r="N561" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O561" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P561" t="n">
-        <v>9500</v>
+        <v>20500</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>475</v>
+        <v>1025</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="N562" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O562" t="n">
         <v>8000</v>
       </c>
       <c r="P562" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>3640</v>
+        <v>1760</v>
       </c>
       <c r="N563" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O563" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P563" t="n">
-        <v>9978</v>
+        <v>9500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>108</v>
+        <v>560</v>
       </c>
       <c r="N564" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O564" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P564" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>925</v>
+        <v>400</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>2570</v>
+        <v>3640</v>
       </c>
       <c r="N565" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O565" t="n">
         <v>12000</v>
       </c>
-      <c r="O565" t="n">
-        <v>13000</v>
-      </c>
       <c r="P565" t="n">
-        <v>12451</v>
+        <v>9978</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>623</v>
+        <v>499</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45635,25 +45635,25 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>1450</v>
+        <v>108</v>
       </c>
       <c r="N566" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O566" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P566" t="n">
-        <v>13414</v>
+        <v>18500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>671</v>
+        <v>925</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>200</v>
+        <v>2570</v>
       </c>
       <c r="N567" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O567" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P567" t="n">
-        <v>15000</v>
+        <v>12451</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>750</v>
+        <v>623</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>560</v>
+        <v>1450</v>
       </c>
       <c r="N568" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O568" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P568" t="n">
-        <v>10000</v>
+        <v>13414</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>500</v>
+        <v>671</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>1690</v>
+        <v>200</v>
       </c>
       <c r="N569" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O569" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P569" t="n">
-        <v>10746</v>
+        <v>15000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>537</v>
+        <v>750</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="N570" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O570" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>2310</v>
+        <v>1690</v>
       </c>
       <c r="N571" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O571" t="n">
         <v>12000</v>
       </c>
-      <c r="O571" t="n">
-        <v>13000</v>
-      </c>
       <c r="P571" t="n">
-        <v>12498</v>
+        <v>10746</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>625</v>
+        <v>537</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46115,25 +46115,25 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N572" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O572" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P572" t="n">
-        <v>20500</v>
+        <v>12000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>1025</v>
+        <v>600</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>250</v>
+        <v>2310</v>
       </c>
       <c r="N573" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O573" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P573" t="n">
-        <v>10000</v>
+        <v>12498</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46275,25 +46275,25 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>840</v>
+        <v>150</v>
       </c>
       <c r="N574" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O574" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P574" t="n">
-        <v>11571</v>
+        <v>20500</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>579</v>
+        <v>1025</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>1860</v>
+        <v>250</v>
       </c>
       <c r="N575" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O575" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P575" t="n">
-        <v>12344</v>
+        <v>10000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>1920</v>
+        <v>840</v>
       </c>
       <c r="N576" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O576" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P576" t="n">
-        <v>13729</v>
+        <v>11571</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>686</v>
+        <v>579</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>2720</v>
+        <v>1860</v>
       </c>
       <c r="N577" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O577" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P577" t="n">
-        <v>14882</v>
+        <v>12344</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>744</v>
+        <v>617</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>150</v>
+        <v>1920</v>
       </c>
       <c r="N578" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O578" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P578" t="n">
-        <v>9000</v>
+        <v>13729</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>450</v>
+        <v>686</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>800</v>
+        <v>2720</v>
       </c>
       <c r="N579" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O579" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P579" t="n">
-        <v>9500</v>
+        <v>14882</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>475</v>
+        <v>744</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N580" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O580" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P580" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1270</v>
+        <v>800</v>
       </c>
       <c r="N581" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O581" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P581" t="n">
-        <v>11441</v>
+        <v>9500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>572</v>
+        <v>475</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N582" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O582" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P582" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>825</v>
+        <v>500</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>200</v>
+        <v>1270</v>
       </c>
       <c r="N583" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O583" t="n">
         <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>12000</v>
+        <v>11441</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47075,16 +47075,16 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>2220</v>
+        <v>260</v>
       </c>
       <c r="N584" t="n">
         <v>16000</v>
@@ -47093,7 +47093,7 @@
         <v>17000</v>
       </c>
       <c r="P584" t="n">
-        <v>16428</v>
+        <v>16500</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>1040</v>
+        <v>200</v>
       </c>
       <c r="N585" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O585" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P585" t="n">
-        <v>15731</v>
+        <v>12000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>1200</v>
+        <v>2220</v>
       </c>
       <c r="N586" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O586" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P586" t="n">
-        <v>10500</v>
+        <v>16428</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>525</v>
+        <v>821</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>2160</v>
+        <v>1040</v>
       </c>
       <c r="N587" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O587" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P587" t="n">
-        <v>12389</v>
+        <v>15731</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>619</v>
+        <v>787</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>1370</v>
+        <v>1200</v>
       </c>
       <c r="N588" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O588" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P588" t="n">
-        <v>9796</v>
+        <v>10500</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47484,16 +47484,16 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>1500</v>
+        <v>2160</v>
       </c>
       <c r="N589" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O589" t="n">
         <v>13000</v>
       </c>
       <c r="P589" t="n">
-        <v>11400</v>
+        <v>12389</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>570</v>
+        <v>619</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>2510</v>
+        <v>1370</v>
       </c>
       <c r="N590" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O590" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P590" t="n">
-        <v>11709</v>
+        <v>9796</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="N591" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O591" t="n">
         <v>13000</v>
       </c>
       <c r="P591" t="n">
-        <v>13000</v>
+        <v>11400</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>3390</v>
+        <v>2510</v>
       </c>
       <c r="N592" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O592" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P592" t="n">
-        <v>13298</v>
+        <v>11709</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>665</v>
+        <v>585</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,11 +47800,11 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N593" t="n">
         <v>13000</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>760</v>
+        <v>3390</v>
       </c>
       <c r="N594" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O594" t="n">
         <v>14000</v>
       </c>
       <c r="P594" t="n">
-        <v>13421</v>
+        <v>13298</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>2250</v>
+        <v>250</v>
       </c>
       <c r="N595" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O595" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P595" t="n">
-        <v>14329</v>
+        <v>13000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>716</v>
+        <v>650</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>190</v>
+        <v>760</v>
       </c>
       <c r="N596" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O596" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P596" t="n">
-        <v>20500</v>
+        <v>13421</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>1025</v>
+        <v>671</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>250</v>
+        <v>2250</v>
       </c>
       <c r="N597" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O597" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P597" t="n">
-        <v>9000</v>
+        <v>14329</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>450</v>
+        <v>716</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N598" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O598" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P598" t="n">
-        <v>11000</v>
+        <v>20500</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>550</v>
+        <v>1025</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>640</v>
+        <v>250</v>
       </c>
       <c r="N599" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O599" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P599" t="n">
-        <v>11438</v>
+        <v>9000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>572</v>
+        <v>450</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>2070</v>
+        <v>250</v>
       </c>
       <c r="N600" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O600" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P600" t="n">
-        <v>12512</v>
+        <v>11000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>626</v>
+        <v>550</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>366</v>
+        <v>640</v>
       </c>
       <c r="N601" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O601" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P601" t="n">
-        <v>14500</v>
+        <v>11438</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>1360</v>
+        <v>2070</v>
       </c>
       <c r="N602" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O602" t="n">
         <v>13000</v>
       </c>
-      <c r="O602" t="n">
-        <v>14000</v>
-      </c>
       <c r="P602" t="n">
-        <v>13500</v>
+        <v>12512</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>970</v>
+        <v>366</v>
       </c>
       <c r="N603" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O603" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P603" t="n">
-        <v>13588</v>
+        <v>14500</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>2530</v>
+        <v>1360</v>
       </c>
       <c r="N604" t="n">
         <v>13000</v>
       </c>
       <c r="O604" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P604" t="n">
-        <v>14415</v>
+        <v>13500</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>721</v>
+        <v>675</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>1120</v>
+        <v>970</v>
       </c>
       <c r="N605" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O605" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P605" t="n">
-        <v>16500</v>
+        <v>13588</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>825</v>
+        <v>679</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48844,16 +48844,16 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>800</v>
+        <v>2530</v>
       </c>
       <c r="N606" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O606" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P606" t="n">
-        <v>18500</v>
+        <v>14415</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>925</v>
+        <v>721</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,25 +48915,25 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>216</v>
+        <v>1120</v>
       </c>
       <c r="N607" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O607" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P607" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>975</v>
+        <v>800</v>
       </c>
       <c r="N608" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O608" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P608" t="n">
-        <v>12410</v>
+        <v>18500</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>620</v>
+        <v>925</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>1930</v>
+        <v>216</v>
       </c>
       <c r="N609" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O609" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P609" t="n">
-        <v>13544</v>
+        <v>19500</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>677</v>
+        <v>975</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="N610" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O610" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P610" t="n">
-        <v>10500</v>
+        <v>12410</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>525</v>
+        <v>620</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>216</v>
+        <v>1930</v>
       </c>
       <c r="N611" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O611" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P611" t="n">
-        <v>21000</v>
+        <v>13544</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1050</v>
+        <v>677</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N612" t="n">
         <v>10000</v>
       </c>
       <c r="O612" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P612" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N613" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O613" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P613" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>625</v>
+        <v>1050</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>1320</v>
+        <v>150</v>
       </c>
       <c r="N614" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O614" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P614" t="n">
-        <v>14424</v>
+        <v>10000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>721</v>
+        <v>500</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M615" t="n">
         <v>800</v>
       </c>
       <c r="N615" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O615" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P615" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>216</v>
+        <v>1320</v>
       </c>
       <c r="N616" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O616" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P616" t="n">
-        <v>13500</v>
+        <v>14424</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="N617" t="n">
         <v>10000</v>
       </c>
       <c r="O617" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P617" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>1230</v>
+        <v>216</v>
       </c>
       <c r="N618" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O618" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P618" t="n">
-        <v>11610</v>
+        <v>13500</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>580</v>
+        <v>675</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>1390</v>
+        <v>270</v>
       </c>
       <c r="N619" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O619" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P619" t="n">
-        <v>13597</v>
+        <v>10000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,16 +49964,16 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1490</v>
+        <v>1230</v>
       </c>
       <c r="N620" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O620" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P620" t="n">
-        <v>9638</v>
+        <v>11610</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>482</v>
+        <v>580</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>760</v>
+        <v>1390</v>
       </c>
       <c r="N621" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O621" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P621" t="n">
-        <v>11526</v>
+        <v>13597</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>576</v>
+        <v>680</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>2470</v>
+        <v>1490</v>
       </c>
       <c r="N622" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O622" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P622" t="n">
-        <v>12324</v>
+        <v>9638</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>616</v>
+        <v>482</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>1795</v>
+        <v>760</v>
       </c>
       <c r="N623" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O623" t="n">
         <v>12000</v>
       </c>
       <c r="P623" t="n">
-        <v>11354</v>
+        <v>11526</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>475</v>
+        <v>2470</v>
       </c>
       <c r="N624" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O624" t="n">
         <v>13000</v>
       </c>
       <c r="P624" t="n">
-        <v>12158</v>
+        <v>12324</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>1475</v>
+        <v>1795</v>
       </c>
       <c r="N625" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O625" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P625" t="n">
-        <v>13322</v>
+        <v>11354</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>666</v>
+        <v>568</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>680</v>
+        <v>475</v>
       </c>
       <c r="N626" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O626" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P626" t="n">
-        <v>9279</v>
+        <v>12158</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>464</v>
+        <v>608</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>1835</v>
+        <v>1475</v>
       </c>
       <c r="N627" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O627" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P627" t="n">
-        <v>10638</v>
+        <v>13322</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>532</v>
+        <v>666</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="N628" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O628" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="P628" t="n">
-        <v>10214</v>
+        <v>9279</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>2095</v>
+        <v>1835</v>
       </c>
       <c r="N629" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O629" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P629" t="n">
-        <v>11852</v>
+        <v>10638</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="N630" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O630" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="P630" t="n">
-        <v>5545</v>
+        <v>10214</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>277</v>
+        <v>511</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>2000</v>
+        <v>2095</v>
       </c>
       <c r="N631" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O631" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P631" t="n">
-        <v>7500</v>
+        <v>11852</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>375</v>
+        <v>593</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="N632" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O632" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P632" t="n">
-        <v>8000</v>
+        <v>5545</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>2880</v>
+        <v>2000</v>
       </c>
       <c r="N633" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O633" t="n">
         <v>8000</v>
       </c>
-      <c r="O633" t="n">
-        <v>10000</v>
-      </c>
       <c r="P633" t="n">
-        <v>9083</v>
+        <v>7500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>454</v>
+        <v>375</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>1520</v>
+        <v>400</v>
       </c>
       <c r="N634" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="O634" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P634" t="n">
-        <v>11434</v>
+        <v>8000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>572</v>
+        <v>400</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>200</v>
+        <v>2880</v>
       </c>
       <c r="N635" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O635" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P635" t="n">
-        <v>14000</v>
+        <v>9083</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>700</v>
+        <v>454</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>1800</v>
+        <v>1520</v>
       </c>
       <c r="N636" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O636" t="n">
         <v>12000</v>
       </c>
-      <c r="O636" t="n">
-        <v>14000</v>
-      </c>
       <c r="P636" t="n">
-        <v>13222</v>
+        <v>11434</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>661</v>
+        <v>572</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="N637" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O637" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P637" t="n">
-        <v>21500</v>
+        <v>14000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1075</v>
+        <v>700</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>560</v>
+        <v>1800</v>
       </c>
       <c r="N638" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O638" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P638" t="n">
-        <v>8929</v>
+        <v>13222</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>446</v>
+        <v>661</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>1180</v>
+        <v>156</v>
       </c>
       <c r="N639" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O639" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P639" t="n">
-        <v>10898</v>
+        <v>21500</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>545</v>
+        <v>1075</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="N640" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O640" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P640" t="n">
-        <v>11368</v>
+        <v>8929</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>350</v>
+        <v>1180</v>
       </c>
       <c r="N641" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O641" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P641" t="n">
-        <v>8000</v>
+        <v>10898</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>400</v>
+        <v>545</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>350</v>
+        <v>760</v>
       </c>
       <c r="N642" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O642" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P642" t="n">
-        <v>13000</v>
+        <v>11368</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>216</v>
+        <v>350</v>
       </c>
       <c r="N643" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O643" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P643" t="n">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>1025</v>
+        <v>400</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>1360</v>
+        <v>350</v>
       </c>
       <c r="N644" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O644" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P644" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>3040</v>
+        <v>216</v>
       </c>
       <c r="N645" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O645" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P645" t="n">
-        <v>13882</v>
+        <v>20500</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>694</v>
+        <v>1025</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>170</v>
+        <v>1360</v>
       </c>
       <c r="N646" t="n">
         <v>11000</v>
       </c>
       <c r="O646" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P646" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>750</v>
+        <v>3040</v>
       </c>
       <c r="N647" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O647" t="n">
         <v>15000</v>
       </c>
       <c r="P647" t="n">
-        <v>15000</v>
+        <v>13882</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>750</v>
+        <v>694</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52200,35 +52200,195 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M648" t="n">
+        <v>170</v>
+      </c>
+      <c r="N648" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O648" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P648" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q648" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R648" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S648" t="n">
+        <v>550</v>
+      </c>
+      <c r="T648" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>6</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D649" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E649" t="n">
+        <v>13</v>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G649" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I649" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M649" t="n">
+        <v>750</v>
+      </c>
+      <c r="N649" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O649" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P649" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q649" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R649" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S649" t="n">
+        <v>750</v>
+      </c>
+      <c r="T649" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>6</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D650" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E650" t="n">
+        <v>13</v>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G650" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I650" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M648" t="n">
+      <c r="M650" t="n">
         <v>2740</v>
       </c>
-      <c r="N648" t="n">
+      <c r="N650" t="n">
         <v>15000</v>
       </c>
-      <c r="O648" t="n">
+      <c r="O650" t="n">
         <v>16000</v>
       </c>
-      <c r="P648" t="n">
+      <c r="P650" t="n">
         <v>15474</v>
       </c>
-      <c r="Q648" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R648" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S648" t="n">
+      <c r="Q650" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R650" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S650" t="n">
         <v>774</v>
       </c>
-      <c r="T648" t="n">
+      <c r="T650" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T661"/>
+  <dimension ref="A1:T665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>1760</v>
+        <v>800</v>
       </c>
       <c r="N570" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O570" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P570" t="n">
-        <v>11591</v>
+        <v>17500</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>580</v>
+        <v>875</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>1930</v>
+        <v>380</v>
       </c>
       <c r="N571" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O571" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P571" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46115,25 +46115,25 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>216</v>
+        <v>2160</v>
       </c>
       <c r="N572" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O572" t="n">
         <v>20000</v>
       </c>
-      <c r="O572" t="n">
-        <v>21000</v>
-      </c>
       <c r="P572" t="n">
-        <v>20500</v>
+        <v>19074</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>1025</v>
+        <v>954</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>480</v>
+        <v>1670</v>
       </c>
       <c r="N573" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O573" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P573" t="n">
-        <v>7500</v>
+        <v>19138</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>375</v>
+        <v>957</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46287,13 +46287,13 @@
         <v>1760</v>
       </c>
       <c r="N574" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O574" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P574" t="n">
-        <v>9500</v>
+        <v>11591</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>475</v>
+        <v>580</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>560</v>
+        <v>1930</v>
       </c>
       <c r="N575" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O575" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P575" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>3640</v>
+        <v>216</v>
       </c>
       <c r="N576" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O576" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P576" t="n">
-        <v>9978</v>
+        <v>20500</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>499</v>
+        <v>1025</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,25 +46515,25 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>108</v>
+        <v>480</v>
       </c>
       <c r="N577" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O577" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P577" t="n">
-        <v>18500</v>
+        <v>7500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>925</v>
+        <v>375</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>2570</v>
+        <v>1760</v>
       </c>
       <c r="N578" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O578" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P578" t="n">
-        <v>12451</v>
+        <v>9500</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>623</v>
+        <v>475</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>1450</v>
+        <v>560</v>
       </c>
       <c r="N579" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O579" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P579" t="n">
-        <v>13414</v>
+        <v>8000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>671</v>
+        <v>400</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,25 +46755,25 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>200</v>
+        <v>3640</v>
       </c>
       <c r="N580" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O580" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P580" t="n">
-        <v>15000</v>
+        <v>9978</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>750</v>
+        <v>499</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>560</v>
+        <v>108</v>
       </c>
       <c r="N581" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O581" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P581" t="n">
-        <v>10000</v>
+        <v>18500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>500</v>
+        <v>925</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>1690</v>
+        <v>2570</v>
       </c>
       <c r="N582" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O582" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P582" t="n">
-        <v>10746</v>
+        <v>12451</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>537</v>
+        <v>623</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>480</v>
+        <v>1450</v>
       </c>
       <c r="N583" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O583" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P583" t="n">
-        <v>12000</v>
+        <v>13414</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47075,25 +47075,25 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>2310</v>
+        <v>200</v>
       </c>
       <c r="N584" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O584" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P584" t="n">
-        <v>12498</v>
+        <v>15000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>150</v>
+        <v>560</v>
       </c>
       <c r="N585" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O585" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P585" t="n">
-        <v>20500</v>
+        <v>10000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>1025</v>
+        <v>500</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>250</v>
+        <v>1690</v>
       </c>
       <c r="N586" t="n">
         <v>10000</v>
       </c>
       <c r="O586" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P586" t="n">
-        <v>10000</v>
+        <v>10746</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>840</v>
+        <v>480</v>
       </c>
       <c r="N587" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O587" t="n">
         <v>12000</v>
       </c>
       <c r="P587" t="n">
-        <v>11571</v>
+        <v>12000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,7 +47404,7 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>1860</v>
+        <v>2310</v>
       </c>
       <c r="N588" t="n">
         <v>12000</v>
@@ -47413,7 +47413,7 @@
         <v>13000</v>
       </c>
       <c r="P588" t="n">
-        <v>12344</v>
+        <v>12498</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>1920</v>
+        <v>150</v>
       </c>
       <c r="N589" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O589" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P589" t="n">
-        <v>13729</v>
+        <v>20500</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>686</v>
+        <v>1025</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>2720</v>
+        <v>250</v>
       </c>
       <c r="N590" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O590" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P590" t="n">
-        <v>14882</v>
+        <v>10000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>744</v>
+        <v>500</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>150</v>
+        <v>840</v>
       </c>
       <c r="N591" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O591" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P591" t="n">
-        <v>9000</v>
+        <v>11571</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>450</v>
+        <v>579</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>800</v>
+        <v>1860</v>
       </c>
       <c r="N592" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O592" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P592" t="n">
-        <v>9500</v>
+        <v>12344</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>475</v>
+        <v>617</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>200</v>
+        <v>1920</v>
       </c>
       <c r="N593" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O593" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P593" t="n">
-        <v>10000</v>
+        <v>13729</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>500</v>
+        <v>686</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>1270</v>
+        <v>2720</v>
       </c>
       <c r="N594" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O594" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P594" t="n">
-        <v>11441</v>
+        <v>14882</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>572</v>
+        <v>744</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="N595" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O595" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P595" t="n">
-        <v>16500</v>
+        <v>9000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>825</v>
+        <v>450</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N596" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O596" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P596" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>2220</v>
+        <v>200</v>
       </c>
       <c r="N597" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O597" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P597" t="n">
-        <v>16428</v>
+        <v>10000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>821</v>
+        <v>500</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>1040</v>
+        <v>1270</v>
       </c>
       <c r="N598" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="O598" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P598" t="n">
-        <v>15731</v>
+        <v>11441</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>787</v>
+        <v>572</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>1200</v>
+        <v>260</v>
       </c>
       <c r="N599" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O599" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P599" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>525</v>
+        <v>825</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>2160</v>
+        <v>200</v>
       </c>
       <c r="N600" t="n">
         <v>12000</v>
       </c>
       <c r="O600" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P600" t="n">
-        <v>12389</v>
+        <v>12000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>1370</v>
+        <v>2220</v>
       </c>
       <c r="N601" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="O601" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P601" t="n">
-        <v>9796</v>
+        <v>16428</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>490</v>
+        <v>821</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>1500</v>
+        <v>1040</v>
       </c>
       <c r="N602" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="O602" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P602" t="n">
-        <v>11400</v>
+        <v>15731</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>570</v>
+        <v>787</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48604,16 +48604,16 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>2510</v>
+        <v>1200</v>
       </c>
       <c r="N603" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O603" t="n">
         <v>11000</v>
       </c>
-      <c r="O603" t="n">
-        <v>13000</v>
-      </c>
       <c r="P603" t="n">
-        <v>11709</v>
+        <v>10500</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>350</v>
+        <v>2160</v>
       </c>
       <c r="N604" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O604" t="n">
         <v>13000</v>
       </c>
       <c r="P604" t="n">
-        <v>13000</v>
+        <v>12389</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>3390</v>
+        <v>1370</v>
       </c>
       <c r="N605" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O605" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P605" t="n">
-        <v>13298</v>
+        <v>9796</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>665</v>
+        <v>490</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="N606" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O606" t="n">
         <v>13000</v>
       </c>
       <c r="P606" t="n">
-        <v>13000</v>
+        <v>11400</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>760</v>
+        <v>2510</v>
       </c>
       <c r="N607" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O607" t="n">
         <v>13000</v>
       </c>
-      <c r="O607" t="n">
-        <v>14000</v>
-      </c>
       <c r="P607" t="n">
-        <v>13421</v>
+        <v>11709</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>671</v>
+        <v>585</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>2250</v>
+        <v>350</v>
       </c>
       <c r="N608" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O608" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P608" t="n">
-        <v>14329</v>
+        <v>13000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>716</v>
+        <v>650</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>190</v>
+        <v>3390</v>
       </c>
       <c r="N609" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O609" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P609" t="n">
-        <v>20500</v>
+        <v>13298</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>1025</v>
+        <v>665</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M610" t="n">
         <v>250</v>
       </c>
       <c r="N610" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O610" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P610" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>250</v>
+        <v>760</v>
       </c>
       <c r="N611" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O611" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P611" t="n">
-        <v>11000</v>
+        <v>13421</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>550</v>
+        <v>671</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>640</v>
+        <v>2250</v>
       </c>
       <c r="N612" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O612" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P612" t="n">
-        <v>11438</v>
+        <v>14329</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>572</v>
+        <v>716</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>2070</v>
+        <v>190</v>
       </c>
       <c r="N613" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O613" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P613" t="n">
-        <v>12512</v>
+        <v>20500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>626</v>
+        <v>1025</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="N614" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O614" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P614" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49564,16 +49564,16 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>1360</v>
+        <v>250</v>
       </c>
       <c r="N615" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O615" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P615" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>970</v>
+        <v>640</v>
       </c>
       <c r="N616" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O616" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P616" t="n">
-        <v>13588</v>
+        <v>11438</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>679</v>
+        <v>572</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>2530</v>
+        <v>2070</v>
       </c>
       <c r="N617" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O617" t="n">
         <v>13000</v>
       </c>
-      <c r="O617" t="n">
-        <v>15000</v>
-      </c>
       <c r="P617" t="n">
-        <v>14415</v>
+        <v>12512</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>721</v>
+        <v>626</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>1120</v>
+        <v>366</v>
       </c>
       <c r="N618" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O618" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P618" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>800</v>
+        <v>1360</v>
       </c>
       <c r="N619" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O619" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P619" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>925</v>
+        <v>675</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,25 +49955,25 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>216</v>
+        <v>970</v>
       </c>
       <c r="N620" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O620" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P620" t="n">
-        <v>19500</v>
+        <v>13588</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>975</v>
+        <v>679</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>975</v>
+        <v>2530</v>
       </c>
       <c r="N621" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O621" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P621" t="n">
-        <v>12410</v>
+        <v>14415</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>620</v>
+        <v>721</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>1930</v>
+        <v>1120</v>
       </c>
       <c r="N622" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O622" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P622" t="n">
-        <v>13544</v>
+        <v>16500</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>677</v>
+        <v>825</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M623" t="n">
         <v>800</v>
       </c>
       <c r="N623" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O623" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P623" t="n">
-        <v>10500</v>
+        <v>18500</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>525</v>
+        <v>925</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50287,13 +50287,13 @@
         <v>216</v>
       </c>
       <c r="N624" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O624" t="n">
         <v>20000</v>
       </c>
-      <c r="O624" t="n">
-        <v>22000</v>
-      </c>
       <c r="P624" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>150</v>
+        <v>975</v>
       </c>
       <c r="N625" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O625" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P625" t="n">
-        <v>10000</v>
+        <v>12410</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>500</v>
+        <v>620</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>800</v>
+        <v>1930</v>
       </c>
       <c r="N626" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O626" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P626" t="n">
-        <v>12500</v>
+        <v>13544</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>625</v>
+        <v>677</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>1320</v>
+        <v>800</v>
       </c>
       <c r="N627" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O627" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P627" t="n">
-        <v>14424</v>
+        <v>10500</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>721</v>
+        <v>525</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N628" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O628" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P628" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>525</v>
+        <v>1050</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="N629" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O629" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P629" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="N630" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O630" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P630" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="N631" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O631" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P631" t="n">
-        <v>11610</v>
+        <v>14424</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>580</v>
+        <v>721</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>1390</v>
+        <v>800</v>
       </c>
       <c r="N632" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O632" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P632" t="n">
-        <v>13597</v>
+        <v>10500</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>680</v>
+        <v>525</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>1490</v>
+        <v>216</v>
       </c>
       <c r="N633" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O633" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P633" t="n">
-        <v>9638</v>
+        <v>13500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>482</v>
+        <v>675</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>760</v>
+        <v>270</v>
       </c>
       <c r="N634" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O634" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P634" t="n">
-        <v>11526</v>
+        <v>10000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>576</v>
+        <v>500</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>2470</v>
+        <v>1230</v>
       </c>
       <c r="N635" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O635" t="n">
         <v>12000</v>
       </c>
-      <c r="O635" t="n">
-        <v>13000</v>
-      </c>
       <c r="P635" t="n">
-        <v>12324</v>
+        <v>11610</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>1795</v>
+        <v>1390</v>
       </c>
       <c r="N636" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O636" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P636" t="n">
-        <v>11354</v>
+        <v>13597</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>568</v>
+        <v>680</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>475</v>
+        <v>1490</v>
       </c>
       <c r="N637" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O637" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P637" t="n">
-        <v>12158</v>
+        <v>9638</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>608</v>
+        <v>482</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>1475</v>
+        <v>760</v>
       </c>
       <c r="N638" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O638" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P638" t="n">
-        <v>13322</v>
+        <v>11526</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>666</v>
+        <v>576</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>680</v>
+        <v>2470</v>
       </c>
       <c r="N639" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O639" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P639" t="n">
-        <v>9279</v>
+        <v>12324</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>464</v>
+        <v>616</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>1835</v>
+        <v>1795</v>
       </c>
       <c r="N640" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O640" t="n">
         <v>12000</v>
       </c>
       <c r="P640" t="n">
-        <v>10638</v>
+        <v>11354</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>700</v>
+        <v>475</v>
       </c>
       <c r="N641" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O641" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P641" t="n">
-        <v>10214</v>
+        <v>12158</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>511</v>
+        <v>608</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>2095</v>
+        <v>1475</v>
       </c>
       <c r="N642" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O642" t="n">
         <v>14000</v>
       </c>
       <c r="P642" t="n">
-        <v>11852</v>
+        <v>13322</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>880</v>
+        <v>680</v>
       </c>
       <c r="N643" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O643" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="P643" t="n">
-        <v>5545</v>
+        <v>9279</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>277</v>
+        <v>464</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>2000</v>
+        <v>1835</v>
       </c>
       <c r="N644" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O644" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P644" t="n">
-        <v>7500</v>
+        <v>10638</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N645" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O645" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P645" t="n">
-        <v>8000</v>
+        <v>10214</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>400</v>
+        <v>511</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>2880</v>
+        <v>2095</v>
       </c>
       <c r="N646" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O646" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P646" t="n">
-        <v>9083</v>
+        <v>11852</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>454</v>
+        <v>593</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>1520</v>
+        <v>880</v>
       </c>
       <c r="N647" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="O647" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P647" t="n">
-        <v>11434</v>
+        <v>5545</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>572</v>
+        <v>277</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="N648" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O648" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P648" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="N649" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O649" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P649" t="n">
-        <v>13222</v>
+        <v>8000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>661</v>
+        <v>400</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>156</v>
+        <v>2880</v>
       </c>
       <c r="N650" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O650" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P650" t="n">
-        <v>21500</v>
+        <v>9083</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>1075</v>
+        <v>454</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>560</v>
+        <v>1520</v>
       </c>
       <c r="N651" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="O651" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P651" t="n">
-        <v>8929</v>
+        <v>11434</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>446</v>
+        <v>572</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>1180</v>
+        <v>200</v>
       </c>
       <c r="N652" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O652" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P652" t="n">
-        <v>10898</v>
+        <v>14000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>545</v>
+        <v>700</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>760</v>
+        <v>1800</v>
       </c>
       <c r="N653" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O653" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P653" t="n">
-        <v>11368</v>
+        <v>13222</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>568</v>
+        <v>661</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="N654" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O654" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P654" t="n">
-        <v>8000</v>
+        <v>21500</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>400</v>
+        <v>1075</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>350</v>
+        <v>560</v>
       </c>
       <c r="N655" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O655" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P655" t="n">
-        <v>13000</v>
+        <v>8929</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>650</v>
+        <v>446</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,25 +52835,25 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>216</v>
+        <v>1180</v>
       </c>
       <c r="N656" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O656" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P656" t="n">
-        <v>20500</v>
+        <v>10898</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>1025</v>
+        <v>545</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52920,11 +52920,11 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>1360</v>
+        <v>760</v>
       </c>
       <c r="N657" t="n">
         <v>11000</v>
@@ -52933,7 +52933,7 @@
         <v>12000</v>
       </c>
       <c r="P657" t="n">
-        <v>11500</v>
+        <v>11368</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>3040</v>
+        <v>350</v>
       </c>
       <c r="N658" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O658" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P658" t="n">
-        <v>13882</v>
+        <v>8000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>694</v>
+        <v>400</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="N659" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O659" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P659" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>750</v>
+        <v>216</v>
       </c>
       <c r="N660" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O660" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P660" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>750</v>
+        <v>1025</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,68 +53207,388 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E661" t="n">
+        <v>13</v>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G661" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I661" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M661" t="n">
+        <v>1360</v>
+      </c>
+      <c r="N661" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O661" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P661" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q661" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R661" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S661" t="n">
+        <v>575</v>
+      </c>
+      <c r="T661" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>6</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D662" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E662" t="n">
+        <v>13</v>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G662" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I662" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M662" t="n">
+        <v>3040</v>
+      </c>
+      <c r="N662" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O662" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P662" t="n">
+        <v>13882</v>
+      </c>
+      <c r="Q662" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R662" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S662" t="n">
+        <v>694</v>
+      </c>
+      <c r="T662" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>6</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D663" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E661" t="n">
-        <v>13</v>
-      </c>
-      <c r="F661" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G661" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I661" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J661" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L661" t="inlineStr">
+      <c r="E663" t="n">
+        <v>13</v>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G663" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I663" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M663" t="n">
+        <v>170</v>
+      </c>
+      <c r="N663" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O663" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P663" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q663" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R663" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S663" t="n">
+        <v>550</v>
+      </c>
+      <c r="T663" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>6</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D664" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E664" t="n">
+        <v>13</v>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G664" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I664" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M664" t="n">
+        <v>750</v>
+      </c>
+      <c r="N664" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O664" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P664" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q664" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R664" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S664" t="n">
+        <v>750</v>
+      </c>
+      <c r="T664" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>6</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D665" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E665" t="n">
+        <v>13</v>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G665" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I665" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M661" t="n">
+      <c r="M665" t="n">
         <v>2740</v>
       </c>
-      <c r="N661" t="n">
+      <c r="N665" t="n">
         <v>15000</v>
       </c>
-      <c r="O661" t="n">
+      <c r="O665" t="n">
         <v>16000</v>
       </c>
-      <c r="P661" t="n">
+      <c r="P665" t="n">
         <v>15474</v>
       </c>
-      <c r="Q661" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R661" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S661" t="n">
+      <c r="Q665" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R665" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S665" t="n">
         <v>774</v>
       </c>
-      <c r="T661" t="n">
+      <c r="T665" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T669"/>
+  <dimension ref="A1:T672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45395,16 +45395,16 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>216</v>
+        <v>950</v>
       </c>
       <c r="N563" t="n">
         <v>19000</v>
@@ -45413,7 +45413,7 @@
         <v>20000</v>
       </c>
       <c r="P563" t="n">
-        <v>19500</v>
+        <v>19421</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>640</v>
+        <v>2340</v>
       </c>
       <c r="N564" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O564" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P564" t="n">
-        <v>10500</v>
+        <v>21530</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>525</v>
+        <v>1076</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="N565" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O565" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P565" t="n">
-        <v>12000</v>
+        <v>21583</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>600</v>
+        <v>1079</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45635,25 +45635,25 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>2130</v>
+        <v>216</v>
       </c>
       <c r="N566" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O566" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P566" t="n">
-        <v>12549</v>
+        <v>19500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>627</v>
+        <v>975</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>150</v>
+        <v>640</v>
       </c>
       <c r="N567" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O567" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P567" t="n">
-        <v>18500</v>
+        <v>10500</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>925</v>
+        <v>525</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N568" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O568" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P568" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>920</v>
+        <v>2130</v>
       </c>
       <c r="N569" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O569" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P569" t="n">
-        <v>11391</v>
+        <v>12549</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>570</v>
+        <v>627</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>1170</v>
+        <v>150</v>
       </c>
       <c r="N570" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O570" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P570" t="n">
-        <v>11419</v>
+        <v>18500</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>571</v>
+        <v>925</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>2570</v>
+        <v>400</v>
       </c>
       <c r="N571" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O571" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P571" t="n">
-        <v>12342</v>
+        <v>10000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>275</v>
+        <v>920</v>
       </c>
       <c r="N572" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O572" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P572" t="n">
-        <v>13000</v>
+        <v>11391</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>720</v>
+        <v>1170</v>
       </c>
       <c r="N573" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P573" t="n">
-        <v>13833</v>
+        <v>11419</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>692</v>
+        <v>571</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>2455</v>
+        <v>2570</v>
       </c>
       <c r="N574" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O574" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P574" t="n">
-        <v>14609</v>
+        <v>12342</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>730</v>
+        <v>617</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="N575" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O575" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P575" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>1160</v>
+        <v>720</v>
       </c>
       <c r="N576" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="O576" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P576" t="n">
-        <v>17379</v>
+        <v>13833</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>869</v>
+        <v>692</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>1200</v>
+        <v>2455</v>
       </c>
       <c r="N577" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O577" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P577" t="n">
-        <v>10500</v>
+        <v>14609</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>525</v>
+        <v>730</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>2160</v>
+        <v>200</v>
       </c>
       <c r="N578" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O578" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P578" t="n">
-        <v>12389</v>
+        <v>15000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>619</v>
+        <v>750</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>216</v>
+        <v>1160</v>
       </c>
       <c r="N579" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O579" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P579" t="n">
-        <v>20500</v>
+        <v>17379</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>1025</v>
+        <v>869</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="N580" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O580" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P580" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>950</v>
+        <v>2160</v>
       </c>
       <c r="N581" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O581" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P581" t="n">
-        <v>9579</v>
+        <v>12389</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>479</v>
+        <v>619</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>2390</v>
+        <v>216</v>
       </c>
       <c r="N582" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O582" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P582" t="n">
-        <v>11950</v>
+        <v>20500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>598</v>
+        <v>1025</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>1720</v>
+        <v>150</v>
       </c>
       <c r="N583" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O583" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P583" t="n">
-        <v>14151</v>
+        <v>8000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>708</v>
+        <v>400</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="N584" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O584" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P584" t="n">
-        <v>15500</v>
+        <v>9579</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>775</v>
+        <v>479</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>475</v>
+        <v>2390</v>
       </c>
       <c r="N585" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O585" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P585" t="n">
-        <v>9000</v>
+        <v>11950</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>775</v>
+        <v>1720</v>
       </c>
       <c r="N586" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O586" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P586" t="n">
-        <v>11226</v>
+        <v>14151</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>561</v>
+        <v>708</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>275</v>
+        <v>1200</v>
       </c>
       <c r="N587" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O587" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P587" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>190</v>
+        <v>475</v>
       </c>
       <c r="N588" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O588" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P588" t="n">
-        <v>20500</v>
+        <v>9000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1025</v>
+        <v>450</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>250</v>
+        <v>775</v>
       </c>
       <c r="N589" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O589" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P589" t="n">
-        <v>9000</v>
+        <v>11226</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N590" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O590" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P590" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>640</v>
+        <v>190</v>
       </c>
       <c r="N591" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O591" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P591" t="n">
-        <v>11438</v>
+        <v>20500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>572</v>
+        <v>1025</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>2070</v>
+        <v>250</v>
       </c>
       <c r="N592" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O592" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P592" t="n">
-        <v>12512</v>
+        <v>9000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>626</v>
+        <v>450</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="N593" t="n">
-        <v>19500</v>
+        <v>11000</v>
       </c>
       <c r="O593" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P593" t="n">
-        <v>19750</v>
+        <v>11000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>988</v>
+        <v>550</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,7 +47875,7 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>150</v>
+        <v>640</v>
       </c>
       <c r="N594" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O594" t="n">
         <v>12000</v>
       </c>
       <c r="P594" t="n">
-        <v>12000</v>
+        <v>11438</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47955,7 +47955,7 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
@@ -47964,16 +47964,16 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>170</v>
+        <v>2070</v>
       </c>
       <c r="N595" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O595" t="n">
         <v>13000</v>
       </c>
       <c r="P595" t="n">
-        <v>13000</v>
+        <v>12512</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>1520</v>
+        <v>108</v>
       </c>
       <c r="N596" t="n">
-        <v>11000</v>
+        <v>19500</v>
       </c>
       <c r="O596" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P596" t="n">
-        <v>11500</v>
+        <v>19750</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>575</v>
+        <v>988</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N597" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O597" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P597" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,7 +48195,7 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
@@ -48204,16 +48204,16 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>5320</v>
+        <v>170</v>
       </c>
       <c r="N598" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O598" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P598" t="n">
-        <v>14380</v>
+        <v>13000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>719</v>
+        <v>650</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>150</v>
+        <v>1520</v>
       </c>
       <c r="N599" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O599" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P599" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="N600" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O600" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P600" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>1070</v>
+        <v>5320</v>
       </c>
       <c r="N601" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O601" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P601" t="n">
-        <v>13374</v>
+        <v>14380</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>669</v>
+        <v>719</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>1120</v>
+        <v>150</v>
       </c>
       <c r="N602" t="n">
         <v>15000</v>
       </c>
       <c r="O602" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P602" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48604,16 +48604,16 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N603" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O603" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P603" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>300</v>
+        <v>1070</v>
       </c>
       <c r="N604" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O604" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P604" t="n">
-        <v>11000</v>
+        <v>13374</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>550</v>
+        <v>669</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48764,16 +48764,16 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>300</v>
+        <v>1120</v>
       </c>
       <c r="N605" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O605" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P605" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="N606" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O606" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P606" t="n">
-        <v>20491</v>
+        <v>9000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>1025</v>
+        <v>450</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N607" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O607" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P607" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>1360</v>
+        <v>300</v>
       </c>
       <c r="N608" t="n">
         <v>13000</v>
       </c>
       <c r="O608" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P608" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>1370</v>
+        <v>218</v>
       </c>
       <c r="N609" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O609" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P609" t="n">
-        <v>14861</v>
+        <v>20491</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>743</v>
+        <v>1025</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>216</v>
+        <v>400</v>
       </c>
       <c r="N610" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O610" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P610" t="n">
-        <v>20500</v>
+        <v>12000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>1025</v>
+        <v>600</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49244,16 +49244,16 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>1120</v>
+        <v>1360</v>
       </c>
       <c r="N611" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O611" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P611" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>800</v>
+        <v>1370</v>
       </c>
       <c r="N612" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O612" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P612" t="n">
-        <v>13500</v>
+        <v>14861</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>675</v>
+        <v>743</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>800</v>
+        <v>216</v>
       </c>
       <c r="N613" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O613" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P613" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>525</v>
+        <v>1025</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>200</v>
+        <v>1120</v>
       </c>
       <c r="N614" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O614" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P614" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M615" t="n">
         <v>800</v>
       </c>
       <c r="N615" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O615" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P615" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>488</v>
+        <v>675</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="N616" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="O616" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P616" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>588</v>
+        <v>525</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1370</v>
+        <v>200</v>
       </c>
       <c r="N617" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O617" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P617" t="n">
-        <v>12591</v>
+        <v>10000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N618" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O618" t="n">
         <v>10000</v>
       </c>
-      <c r="O618" t="n">
-        <v>11000</v>
-      </c>
       <c r="P618" t="n">
-        <v>10286</v>
+        <v>9750</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>1100</v>
+        <v>640</v>
       </c>
       <c r="N619" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O619" t="n">
         <v>12000</v>
       </c>
-      <c r="O619" t="n">
-        <v>13000</v>
-      </c>
       <c r="P619" t="n">
-        <v>12636</v>
+        <v>11750</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>480</v>
+        <v>1370</v>
       </c>
       <c r="N620" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O620" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P620" t="n">
-        <v>11500</v>
+        <v>12591</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>1980</v>
+        <v>700</v>
       </c>
       <c r="N621" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O621" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P621" t="n">
-        <v>14000</v>
+        <v>10286</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>700</v>
+        <v>514</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>2080</v>
+        <v>1100</v>
       </c>
       <c r="N622" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O622" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P622" t="n">
-        <v>8731</v>
+        <v>12636</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>437</v>
+        <v>632</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="N623" t="n">
         <v>11000</v>
       </c>
       <c r="O623" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P623" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>3260</v>
+        <v>1980</v>
       </c>
       <c r="N624" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O624" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P624" t="n">
-        <v>10840</v>
+        <v>14000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>542</v>
+        <v>700</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>216</v>
+        <v>2080</v>
       </c>
       <c r="N625" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O625" t="n">
-        <v>21000</v>
+        <v>9500</v>
       </c>
       <c r="P625" t="n">
-        <v>20500</v>
+        <v>8731</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>1025</v>
+        <v>437</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>1360</v>
+        <v>560</v>
       </c>
       <c r="N626" t="n">
         <v>11000</v>
       </c>
       <c r="O626" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P626" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>3040</v>
+        <v>3260</v>
       </c>
       <c r="N627" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O627" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P627" t="n">
-        <v>13882</v>
+        <v>10840</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>694</v>
+        <v>542</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>400</v>
+        <v>216</v>
       </c>
       <c r="N628" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O628" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P628" t="n">
-        <v>7500</v>
+        <v>20500</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>375</v>
+        <v>1025</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50684,16 +50684,16 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>2000</v>
+        <v>1360</v>
       </c>
       <c r="N629" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O629" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P629" t="n">
-        <v>8980</v>
+        <v>11500</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>449</v>
+        <v>575</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>1760</v>
+        <v>3040</v>
       </c>
       <c r="N630" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O630" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P630" t="n">
-        <v>11159</v>
+        <v>13882</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>558</v>
+        <v>694</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1520</v>
+        <v>400</v>
       </c>
       <c r="N631" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O631" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P631" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="N632" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O632" t="n">
         <v>10000</v>
       </c>
-      <c r="O632" t="n">
-        <v>12000</v>
-      </c>
       <c r="P632" t="n">
-        <v>10875</v>
+        <v>8980</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>544</v>
+        <v>449</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>250</v>
+        <v>1760</v>
       </c>
       <c r="N633" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O633" t="n">
         <v>12000</v>
       </c>
       <c r="P633" t="n">
-        <v>12000</v>
+        <v>11159</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>258</v>
+        <v>1520</v>
       </c>
       <c r="N634" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O634" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P634" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>700</v>
+        <v>475</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>216</v>
+        <v>3200</v>
       </c>
       <c r="N635" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O635" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P635" t="n">
-        <v>13750</v>
+        <v>10875</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>688</v>
+        <v>544</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51244,16 +51244,16 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>1360</v>
+        <v>250</v>
       </c>
       <c r="N636" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O636" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P636" t="n">
-        <v>10647</v>
+        <v>12000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>800</v>
+        <v>258</v>
       </c>
       <c r="N637" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O637" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P637" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>350</v>
+        <v>216</v>
       </c>
       <c r="N638" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O638" t="n">
         <v>14000</v>
       </c>
       <c r="P638" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>300</v>
+        <v>1360</v>
       </c>
       <c r="N639" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O639" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P639" t="n">
-        <v>6000</v>
+        <v>10647</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>300</v>
+        <v>532</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>1660</v>
+        <v>800</v>
       </c>
       <c r="N640" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O640" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P640" t="n">
-        <v>7904</v>
+        <v>12500</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>395</v>
+        <v>625</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51635,25 +51635,25 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="N641" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O641" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P641" t="n">
-        <v>9818</v>
+        <v>13500</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>491</v>
+        <v>675</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>1760</v>
+        <v>300</v>
       </c>
       <c r="N642" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O642" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P642" t="n">
-        <v>11591</v>
+        <v>6000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>1930</v>
+        <v>1660</v>
       </c>
       <c r="N643" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O643" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P643" t="n">
-        <v>13000</v>
+        <v>7904</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>650</v>
+        <v>395</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>2280</v>
+        <v>1100</v>
       </c>
       <c r="N644" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O644" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P644" t="n">
-        <v>13439</v>
+        <v>9818</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>672</v>
+        <v>491</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>640</v>
+        <v>1760</v>
       </c>
       <c r="N645" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O645" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P645" t="n">
-        <v>14219</v>
+        <v>11591</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>711</v>
+        <v>580</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>2960</v>
+        <v>1930</v>
       </c>
       <c r="N646" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O646" t="n">
         <v>14000</v>
       </c>
-      <c r="O646" t="n">
-        <v>16000</v>
-      </c>
       <c r="P646" t="n">
-        <v>15196</v>
+        <v>13000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>760</v>
+        <v>650</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>250</v>
+        <v>2280</v>
       </c>
       <c r="N647" t="n">
         <v>13000</v>
       </c>
       <c r="O647" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P647" t="n">
-        <v>13000</v>
+        <v>13439</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>760</v>
+        <v>640</v>
       </c>
       <c r="N648" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O648" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="P648" t="n">
-        <v>13421</v>
+        <v>14219</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52284,16 +52284,16 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>2250</v>
+        <v>2960</v>
       </c>
       <c r="N649" t="n">
         <v>14000</v>
       </c>
       <c r="O649" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P649" t="n">
-        <v>14329</v>
+        <v>15196</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>716</v>
+        <v>760</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>760</v>
+        <v>250</v>
       </c>
       <c r="N650" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O650" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P650" t="n">
-        <v>10789</v>
+        <v>13000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>539</v>
+        <v>650</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>3960</v>
+        <v>760</v>
       </c>
       <c r="N651" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O651" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P651" t="n">
-        <v>10909</v>
+        <v>13421</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>545</v>
+        <v>671</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>480</v>
+        <v>2250</v>
       </c>
       <c r="N652" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O652" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P652" t="n">
-        <v>13000</v>
+        <v>14329</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>650</v>
+        <v>716</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>4340</v>
+        <v>760</v>
       </c>
       <c r="N653" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O653" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P653" t="n">
-        <v>12866</v>
+        <v>10789</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>643</v>
+        <v>539</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>108</v>
+        <v>3960</v>
       </c>
       <c r="N654" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O654" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P654" t="n">
-        <v>18500</v>
+        <v>10909</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>925</v>
+        <v>545</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>2570</v>
+        <v>480</v>
       </c>
       <c r="N655" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O655" t="n">
         <v>13000</v>
       </c>
       <c r="P655" t="n">
-        <v>12451</v>
+        <v>13000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>1450</v>
+        <v>4340</v>
       </c>
       <c r="N656" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O656" t="n">
         <v>14000</v>
       </c>
       <c r="P656" t="n">
-        <v>13414</v>
+        <v>12866</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="N657" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O657" t="n">
         <v>19000</v>
       </c>
-      <c r="O657" t="n">
-        <v>20000</v>
-      </c>
       <c r="P657" t="n">
-        <v>19667</v>
+        <v>18500</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>983</v>
+        <v>925</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>2160</v>
+        <v>2570</v>
       </c>
       <c r="N658" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O658" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P658" t="n">
-        <v>9167</v>
+        <v>12451</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>458</v>
+        <v>623</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>2520</v>
+        <v>1450</v>
       </c>
       <c r="N659" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O659" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P659" t="n">
-        <v>11500</v>
+        <v>13414</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>575</v>
+        <v>671</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53164,16 +53164,16 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>432</v>
+        <v>324</v>
       </c>
       <c r="N660" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O660" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P660" t="n">
-        <v>14500</v>
+        <v>19667</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>725</v>
+        <v>983</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>275</v>
+        <v>2160</v>
       </c>
       <c r="N661" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O661" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P661" t="n">
-        <v>9000</v>
+        <v>9167</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>1075</v>
+        <v>2520</v>
       </c>
       <c r="N662" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O662" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P662" t="n">
-        <v>10628</v>
+        <v>11500</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>1395</v>
+        <v>432</v>
       </c>
       <c r="N663" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O663" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P663" t="n">
-        <v>12401</v>
+        <v>14500</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>620</v>
+        <v>725</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>1120</v>
+        <v>275</v>
       </c>
       <c r="N664" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O664" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P664" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>575</v>
+        <v>450</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>216</v>
+        <v>1075</v>
       </c>
       <c r="N665" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O665" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P665" t="n">
-        <v>14500</v>
+        <v>10628</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>725</v>
+        <v>531</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,11 +53640,11 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>960</v>
+        <v>1395</v>
       </c>
       <c r="N666" t="n">
         <v>12000</v>
@@ -53653,7 +53653,7 @@
         <v>13000</v>
       </c>
       <c r="P666" t="n">
-        <v>12500</v>
+        <v>12401</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>1920</v>
+        <v>1120</v>
       </c>
       <c r="N667" t="n">
         <v>11000</v>
       </c>
       <c r="O667" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P667" t="n">
-        <v>13833</v>
+        <v>11500</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>692</v>
+        <v>575</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>1440</v>
+        <v>216</v>
       </c>
       <c r="N668" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O668" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P668" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,35 +53880,275 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>1680</v>
+        <v>960</v>
       </c>
       <c r="N669" t="n">
         <v>12000</v>
       </c>
       <c r="O669" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P669" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q669" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R669" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S669" t="n">
+        <v>625</v>
+      </c>
+      <c r="T669" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>6</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D670" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E670" t="n">
+        <v>13</v>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G670" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I670" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M670" t="n">
+        <v>1920</v>
+      </c>
+      <c r="N670" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O670" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P670" t="n">
+        <v>13833</v>
+      </c>
+      <c r="Q670" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R670" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S670" t="n">
+        <v>692</v>
+      </c>
+      <c r="T670" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>6</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D671" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E671" t="n">
+        <v>13</v>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G671" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I671" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M671" t="n">
+        <v>1440</v>
+      </c>
+      <c r="N671" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O671" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P671" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q671" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R671" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S671" t="n">
+        <v>575</v>
+      </c>
+      <c r="T671" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>6</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D672" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E672" t="n">
+        <v>13</v>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G672" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I672" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M672" t="n">
+        <v>1680</v>
+      </c>
+      <c r="N672" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O672" t="n">
         <v>14000</v>
       </c>
-      <c r="P669" t="n">
+      <c r="P672" t="n">
         <v>13095</v>
       </c>
-      <c r="Q669" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R669" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S669" t="n">
+      <c r="Q672" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R672" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S672" t="n">
         <v>655</v>
       </c>
-      <c r="T669" t="n">
+      <c r="T672" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T730"/>
+  <dimension ref="A1:T734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N616" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O616" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P616" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>900</v>
+        <v>675</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>880</v>
+        <v>1240</v>
       </c>
       <c r="N617" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="O617" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P617" t="n">
-        <v>17818</v>
+        <v>16468</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>891</v>
+        <v>823</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>1810</v>
+        <v>3640</v>
       </c>
       <c r="N618" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O618" t="n">
         <v>18000</v>
       </c>
-      <c r="O618" t="n">
-        <v>20000</v>
-      </c>
       <c r="P618" t="n">
-        <v>18762</v>
+        <v>16912</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>938</v>
+        <v>846</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N619" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O619" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P619" t="n">
-        <v>18500</v>
+        <v>16560</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>925</v>
+        <v>828</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N620" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O620" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P620" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="N621" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="O621" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P621" t="n">
-        <v>11391</v>
+        <v>17818</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>570</v>
+        <v>891</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>1170</v>
+        <v>1810</v>
       </c>
       <c r="N622" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O622" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P622" t="n">
-        <v>11419</v>
+        <v>18762</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>571</v>
+        <v>938</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>2570</v>
+        <v>150</v>
       </c>
       <c r="N623" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O623" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P623" t="n">
-        <v>12342</v>
+        <v>18500</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>617</v>
+        <v>925</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>970</v>
+        <v>400</v>
       </c>
       <c r="N624" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O624" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P624" t="n">
-        <v>7845</v>
+        <v>10000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50364,16 +50364,16 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>2110</v>
+        <v>920</v>
       </c>
       <c r="N625" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O625" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P625" t="n">
-        <v>9374</v>
+        <v>11391</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>469</v>
+        <v>570</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>480</v>
+        <v>1170</v>
       </c>
       <c r="N626" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O626" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P626" t="n">
-        <v>11000</v>
+        <v>11419</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>2630</v>
+        <v>2570</v>
       </c>
       <c r="N627" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O627" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P627" t="n">
-        <v>11437</v>
+        <v>12342</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>890</v>
+        <v>970</v>
       </c>
       <c r="N628" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="O628" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P628" t="n">
-        <v>23539</v>
+        <v>7845</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>1177</v>
+        <v>392</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>2770</v>
+        <v>2110</v>
       </c>
       <c r="N629" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O629" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="P629" t="n">
-        <v>25549</v>
+        <v>9374</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>1277</v>
+        <v>469</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>216</v>
+        <v>480</v>
       </c>
       <c r="N630" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O630" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P630" t="n">
-        <v>20500</v>
+        <v>11000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>1025</v>
+        <v>550</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,11 +50840,11 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1360</v>
+        <v>2630</v>
       </c>
       <c r="N631" t="n">
         <v>11000</v>
@@ -50853,7 +50853,7 @@
         <v>12000</v>
       </c>
       <c r="P631" t="n">
-        <v>11500</v>
+        <v>11437</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>3040</v>
+        <v>890</v>
       </c>
       <c r="N632" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O632" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P632" t="n">
-        <v>13882</v>
+        <v>23539</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>694</v>
+        <v>1177</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>1680</v>
+        <v>2770</v>
       </c>
       <c r="N633" t="n">
-        <v>8500</v>
+        <v>25000</v>
       </c>
       <c r="O633" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="P633" t="n">
-        <v>9250</v>
+        <v>25549</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>462</v>
+        <v>1277</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="N634" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O634" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P634" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>500</v>
+        <v>1025</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,11 +51160,11 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>1760</v>
+        <v>1360</v>
       </c>
       <c r="N635" t="n">
         <v>11000</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>216</v>
+        <v>3040</v>
       </c>
       <c r="N636" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O636" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P636" t="n">
-        <v>20500</v>
+        <v>13882</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>1025</v>
+        <v>694</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>150</v>
+        <v>1680</v>
       </c>
       <c r="N637" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O637" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P637" t="n">
-        <v>8000</v>
+        <v>9250</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>1190</v>
+        <v>200</v>
       </c>
       <c r="N638" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O638" t="n">
         <v>10000</v>
       </c>
       <c r="P638" t="n">
-        <v>9361</v>
+        <v>10000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="N639" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O639" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P639" t="n">
-        <v>10545</v>
+        <v>11500</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>2710</v>
+        <v>216</v>
       </c>
       <c r="N640" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O640" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P640" t="n">
-        <v>11513</v>
+        <v>20500</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>576</v>
+        <v>1025</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>1270</v>
+        <v>150</v>
       </c>
       <c r="N641" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O641" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P641" t="n">
-        <v>17559</v>
+        <v>8000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>878</v>
+        <v>400</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>950</v>
+        <v>1190</v>
       </c>
       <c r="N642" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="O642" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P642" t="n">
-        <v>19579</v>
+        <v>9361</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>979</v>
+        <v>468</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>2500</v>
+        <v>880</v>
       </c>
       <c r="N643" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O643" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P643" t="n">
-        <v>15640</v>
+        <v>10545</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>782</v>
+        <v>527</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>1980</v>
+        <v>2710</v>
       </c>
       <c r="N644" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O644" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P644" t="n">
-        <v>17424</v>
+        <v>11513</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>871</v>
+        <v>576</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>2510</v>
+        <v>1270</v>
       </c>
       <c r="N645" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O645" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P645" t="n">
-        <v>11709</v>
+        <v>17559</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>585</v>
+        <v>878</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="N646" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O646" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P646" t="n">
-        <v>13000</v>
+        <v>19579</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>650</v>
+        <v>979</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>3390</v>
+        <v>2500</v>
       </c>
       <c r="N647" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O647" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P647" t="n">
-        <v>13298</v>
+        <v>15640</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>665</v>
+        <v>782</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>2080</v>
+        <v>1980</v>
       </c>
       <c r="N648" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O648" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="P648" t="n">
-        <v>8731</v>
+        <v>17424</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>437</v>
+        <v>871</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>560</v>
+        <v>2510</v>
       </c>
       <c r="N649" t="n">
         <v>11000</v>
       </c>
       <c r="O649" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P649" t="n">
-        <v>11000</v>
+        <v>11709</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>3260</v>
+        <v>350</v>
       </c>
       <c r="N650" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O650" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P650" t="n">
-        <v>10840</v>
+        <v>13000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>542</v>
+        <v>650</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,25 +52435,25 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>108</v>
+        <v>3390</v>
       </c>
       <c r="N651" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O651" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P651" t="n">
-        <v>18500</v>
+        <v>13298</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>925</v>
+        <v>665</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>2570</v>
+        <v>2080</v>
       </c>
       <c r="N652" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O652" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P652" t="n">
-        <v>12451</v>
+        <v>8731</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>623</v>
+        <v>437</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>1450</v>
+        <v>560</v>
       </c>
       <c r="N653" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O653" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P653" t="n">
-        <v>13414</v>
+        <v>11000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>671</v>
+        <v>550</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>600</v>
+        <v>3260</v>
       </c>
       <c r="N654" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O654" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P654" t="n">
-        <v>18000</v>
+        <v>10840</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>900</v>
+        <v>542</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,25 +52755,25 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>1320</v>
+        <v>108</v>
       </c>
       <c r="N655" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="O655" t="n">
         <v>19000</v>
       </c>
       <c r="P655" t="n">
-        <v>18788</v>
+        <v>18500</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>800</v>
+        <v>2570</v>
       </c>
       <c r="N656" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O656" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P656" t="n">
-        <v>19500</v>
+        <v>12451</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>975</v>
+        <v>623</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>170</v>
+        <v>1450</v>
       </c>
       <c r="N657" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O657" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P657" t="n">
-        <v>12500</v>
+        <v>13414</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="N658" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O658" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P658" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>1470</v>
+        <v>1320</v>
       </c>
       <c r="N659" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="O659" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P659" t="n">
-        <v>19337</v>
+        <v>18788</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>967</v>
+        <v>939</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="N660" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O660" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P660" t="n">
-        <v>17513</v>
+        <v>19500</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>876</v>
+        <v>975</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>890</v>
+        <v>170</v>
       </c>
       <c r="N661" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O661" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P661" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>1075</v>
+        <v>625</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>1750</v>
+        <v>640</v>
       </c>
       <c r="N662" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O662" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="P662" t="n">
-        <v>22946</v>
+        <v>16500</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>1147</v>
+        <v>825</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>680</v>
+        <v>1470</v>
       </c>
       <c r="N663" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O663" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P663" t="n">
-        <v>22588</v>
+        <v>19337</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>1129</v>
+        <v>967</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>1690</v>
+        <v>780</v>
       </c>
       <c r="N664" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="O664" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P664" t="n">
-        <v>10172</v>
+        <v>17513</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>509</v>
+        <v>876</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>780</v>
+        <v>890</v>
       </c>
       <c r="N665" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O665" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P665" t="n">
-        <v>10615</v>
+        <v>21500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>531</v>
+        <v>1075</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53644,16 +53644,16 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>2420</v>
+        <v>1750</v>
       </c>
       <c r="N666" t="n">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="O666" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P666" t="n">
-        <v>11446</v>
+        <v>22946</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>572</v>
+        <v>1147</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="N667" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O667" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P667" t="n">
-        <v>17500</v>
+        <v>22588</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>875</v>
+        <v>1129</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>4540</v>
+        <v>1690</v>
       </c>
       <c r="N668" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="O668" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P668" t="n">
-        <v>19515</v>
+        <v>10172</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>976</v>
+        <v>509</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>1640</v>
+        <v>780</v>
       </c>
       <c r="N669" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O669" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P669" t="n">
-        <v>20159</v>
+        <v>10615</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>1008</v>
+        <v>531</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>108</v>
+        <v>2420</v>
       </c>
       <c r="N670" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O670" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P670" t="n">
-        <v>21000</v>
+        <v>11446</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>1050</v>
+        <v>572</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="N671" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O671" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P671" t="n">
-        <v>9000</v>
+        <v>17500</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>450</v>
+        <v>875</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>1760</v>
+        <v>4540</v>
       </c>
       <c r="N672" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O672" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P672" t="n">
-        <v>10500</v>
+        <v>19515</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>525</v>
+        <v>976</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>1200</v>
+        <v>1640</v>
       </c>
       <c r="N673" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="O673" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P673" t="n">
-        <v>12250</v>
+        <v>20159</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>612</v>
+        <v>1008</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="N674" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O674" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P674" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N675" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O675" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P675" t="n">
-        <v>18500</v>
+        <v>9000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>925</v>
+        <v>450</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>108</v>
+        <v>1760</v>
       </c>
       <c r="N676" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="O676" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P676" t="n">
-        <v>19750</v>
+        <v>10500</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>988</v>
+        <v>525</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="N677" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O677" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P677" t="n">
-        <v>12000</v>
+        <v>12250</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,25 +54595,25 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N678" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O678" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P678" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>1520</v>
+        <v>350</v>
       </c>
       <c r="N679" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O679" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P679" t="n">
-        <v>11500</v>
+        <v>18500</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>575</v>
+        <v>925</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54755,25 +54755,25 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>800</v>
+        <v>108</v>
       </c>
       <c r="N680" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="O680" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P680" t="n">
-        <v>14500</v>
+        <v>19750</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>725</v>
+        <v>988</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,25 +54835,25 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>475</v>
+        <v>150</v>
       </c>
       <c r="N681" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O681" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P681" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>775</v>
+        <v>170</v>
       </c>
       <c r="N682" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O682" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P682" t="n">
-        <v>11226</v>
+        <v>13000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>561</v>
+        <v>650</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>275</v>
+        <v>1520</v>
       </c>
       <c r="N683" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O683" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P683" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="N684" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O684" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P684" t="n">
-        <v>9545</v>
+        <v>14500</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>477</v>
+        <v>725</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>1150</v>
+        <v>475</v>
       </c>
       <c r="N685" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O685" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P685" t="n">
-        <v>11043</v>
+        <v>9000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>552</v>
+        <v>450</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>1420</v>
+        <v>775</v>
       </c>
       <c r="N686" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O686" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P686" t="n">
-        <v>13394</v>
+        <v>11226</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>670</v>
+        <v>561</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55315,25 +55315,25 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="N687" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O687" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P687" t="n">
-        <v>13750</v>
+        <v>13000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>1360</v>
+        <v>660</v>
       </c>
       <c r="N688" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O688" t="n">
         <v>10000</v>
       </c>
-      <c r="O688" t="n">
-        <v>11000</v>
-      </c>
       <c r="P688" t="n">
-        <v>10647</v>
+        <v>9545</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>532</v>
+        <v>477</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="N689" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O689" t="n">
         <v>12000</v>
       </c>
-      <c r="O689" t="n">
-        <v>13000</v>
-      </c>
       <c r="P689" t="n">
-        <v>12500</v>
+        <v>11043</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>625</v>
+        <v>552</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55555,25 +55555,25 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>108</v>
+        <v>1420</v>
       </c>
       <c r="N690" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O690" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P690" t="n">
-        <v>18500</v>
+        <v>13394</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>925</v>
+        <v>670</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="N691" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O691" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P691" t="n">
-        <v>16000</v>
+        <v>13750</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>800</v>
+        <v>688</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55724,16 +55724,16 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>1200</v>
+        <v>1360</v>
       </c>
       <c r="N692" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O692" t="n">
         <v>11000</v>
       </c>
-      <c r="O692" t="n">
-        <v>12000</v>
-      </c>
       <c r="P692" t="n">
-        <v>11500</v>
+        <v>10647</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>575</v>
+        <v>532</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55804,16 +55804,16 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>1680</v>
+        <v>800</v>
       </c>
       <c r="N693" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O693" t="n">
         <v>13000</v>
       </c>
-      <c r="O693" t="n">
-        <v>14000</v>
-      </c>
       <c r="P693" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,25 +55875,25 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>1440</v>
+        <v>108</v>
       </c>
       <c r="N694" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O694" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P694" t="n">
-        <v>9833</v>
+        <v>18500</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>492</v>
+        <v>925</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,25 +55955,25 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>730</v>
+        <v>200</v>
       </c>
       <c r="N695" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O695" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P695" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56040,20 +56040,20 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>4290</v>
+        <v>1200</v>
       </c>
       <c r="N696" t="n">
         <v>11000</v>
       </c>
       <c r="O696" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P696" t="n">
-        <v>11683</v>
+        <v>11500</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56115,25 +56115,25 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>216</v>
+        <v>1680</v>
       </c>
       <c r="N697" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O697" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P697" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>1025</v>
+        <v>675</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56204,16 +56204,16 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>1280</v>
+        <v>1440</v>
       </c>
       <c r="N698" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O698" t="n">
         <v>11000</v>
       </c>
       <c r="P698" t="n">
-        <v>10688</v>
+        <v>9833</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>534</v>
+        <v>492</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>1840</v>
+        <v>730</v>
       </c>
       <c r="N699" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O699" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P699" t="n">
-        <v>12891</v>
+        <v>11000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>645</v>
+        <v>550</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>200</v>
+        <v>4290</v>
       </c>
       <c r="N700" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O700" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P700" t="n">
-        <v>10000</v>
+        <v>11683</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,25 +56435,25 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>1040</v>
+        <v>216</v>
       </c>
       <c r="N701" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O701" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P701" t="n">
-        <v>10462</v>
+        <v>20500</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>523</v>
+        <v>1025</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>1650</v>
+        <v>1280</v>
       </c>
       <c r="N702" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O702" t="n">
         <v>11000</v>
       </c>
-      <c r="O702" t="n">
-        <v>12000</v>
-      </c>
       <c r="P702" t="n">
-        <v>11527</v>
+        <v>10688</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56600,20 +56600,20 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>1490</v>
+        <v>1840</v>
       </c>
       <c r="N703" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O703" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P703" t="n">
-        <v>9638</v>
+        <v>12891</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>482</v>
+        <v>645</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56680,20 +56680,20 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="N704" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O704" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P704" t="n">
-        <v>11526</v>
+        <v>10000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>576</v>
+        <v>500</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>2470</v>
+        <v>1040</v>
       </c>
       <c r="N705" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O705" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P705" t="n">
-        <v>12324</v>
+        <v>10462</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>616</v>
+        <v>523</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56835,25 +56835,25 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>216</v>
+        <v>1650</v>
       </c>
       <c r="N706" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O706" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P706" t="n">
-        <v>15500</v>
+        <v>11527</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>775</v>
+        <v>576</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56920,20 +56920,20 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>300</v>
+        <v>1490</v>
       </c>
       <c r="N707" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O707" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P707" t="n">
-        <v>8000</v>
+        <v>9638</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>1500</v>
+        <v>760</v>
       </c>
       <c r="N708" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O708" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P708" t="n">
-        <v>10400</v>
+        <v>11526</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57084,7 +57084,7 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>1980</v>
+        <v>2470</v>
       </c>
       <c r="N709" t="n">
         <v>12000</v>
@@ -57093,7 +57093,7 @@
         <v>13000</v>
       </c>
       <c r="P709" t="n">
-        <v>12424</v>
+        <v>12324</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57155,25 +57155,25 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>900</v>
+        <v>216</v>
       </c>
       <c r="N710" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O710" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P710" t="n">
-        <v>10667</v>
+        <v>15500</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>533</v>
+        <v>775</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>2060</v>
+        <v>300</v>
       </c>
       <c r="N711" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O711" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P711" t="n">
-        <v>12573</v>
+        <v>8000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>629</v>
+        <v>400</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57315,25 +57315,25 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="N712" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O712" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P712" t="n">
-        <v>12000</v>
+        <v>10400</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>296</v>
+        <v>1980</v>
       </c>
       <c r="N713" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O713" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P713" t="n">
-        <v>20365</v>
+        <v>12424</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>1018</v>
+        <v>621</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,25 +57475,25 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="N714" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O714" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P714" t="n">
-        <v>15000</v>
+        <v>10667</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>750</v>
+        <v>533</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>360</v>
+        <v>2060</v>
       </c>
       <c r="N715" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O715" t="n">
         <v>13000</v>
       </c>
       <c r="P715" t="n">
-        <v>13000</v>
+        <v>12573</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N716" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O716" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P716" t="n">
-        <v>13750</v>
+        <v>12000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57715,25 +57715,25 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>680</v>
+        <v>296</v>
       </c>
       <c r="N717" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O717" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P717" t="n">
-        <v>13000</v>
+        <v>20365</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57742,11 +57742,11 @@
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>650</v>
+        <v>1018</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57795,7 +57795,7 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
@@ -57804,16 +57804,16 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>1330</v>
+        <v>150</v>
       </c>
       <c r="N718" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O718" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P718" t="n">
-        <v>13421</v>
+        <v>15000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57822,11 +57822,11 @@
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>960</v>
+        <v>360</v>
       </c>
       <c r="N719" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O719" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P719" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="N720" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O720" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P720" t="n">
-        <v>8825</v>
+        <v>13750</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>441</v>
+        <v>688</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="N721" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O721" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P721" t="n">
-        <v>10403</v>
+        <v>13000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58062,11 +58062,11 @@
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58124,16 +58124,16 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>270</v>
+        <v>1330</v>
       </c>
       <c r="N722" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O722" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P722" t="n">
-        <v>12000</v>
+        <v>13421</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58142,11 +58142,11 @@
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="N723" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O723" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P723" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58280,20 +58280,20 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>1340</v>
+        <v>570</v>
       </c>
       <c r="N724" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O724" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="P724" t="n">
-        <v>12209</v>
+        <v>8825</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>610</v>
+        <v>441</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>880</v>
+        <v>670</v>
       </c>
       <c r="N725" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O725" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P725" t="n">
-        <v>12847</v>
+        <v>10403</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>642</v>
+        <v>520</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58444,16 +58444,16 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>1970</v>
+        <v>270</v>
       </c>
       <c r="N726" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O726" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P726" t="n">
-        <v>13533</v>
+        <v>12000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>677</v>
+        <v>600</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58524,16 +58524,16 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>1090</v>
+        <v>360</v>
       </c>
       <c r="N727" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O727" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P727" t="n">
-        <v>15404</v>
+        <v>11000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>770</v>
+        <v>550</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58604,16 +58604,16 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>1520</v>
+        <v>1340</v>
       </c>
       <c r="N728" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O728" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="P728" t="n">
-        <v>18263</v>
+        <v>12209</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>913</v>
+        <v>610</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58684,16 +58684,16 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>1180</v>
+        <v>880</v>
       </c>
       <c r="N729" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O729" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P729" t="n">
-        <v>21492</v>
+        <v>12847</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>1075</v>
+        <v>642</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58727,68 +58727,388 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E730" t="n">
+        <v>13</v>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G730" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I730" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M730" t="n">
+        <v>1970</v>
+      </c>
+      <c r="N730" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O730" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P730" t="n">
+        <v>13533</v>
+      </c>
+      <c r="Q730" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R730" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S730" t="n">
+        <v>677</v>
+      </c>
+      <c r="T730" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>6</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D731" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E730" t="n">
-        <v>13</v>
-      </c>
-      <c r="F730" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G730" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I730" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J730" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L730" t="inlineStr">
+      <c r="E731" t="n">
+        <v>13</v>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G731" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I731" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M731" t="n">
+        <v>1090</v>
+      </c>
+      <c r="N731" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O731" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P731" t="n">
+        <v>15404</v>
+      </c>
+      <c r="Q731" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R731" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S731" t="n">
+        <v>770</v>
+      </c>
+      <c r="T731" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>6</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D732" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E732" t="n">
+        <v>13</v>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G732" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I732" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J732" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M732" t="n">
+        <v>1520</v>
+      </c>
+      <c r="N732" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O732" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P732" t="n">
+        <v>18263</v>
+      </c>
+      <c r="Q732" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R732" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S732" t="n">
+        <v>913</v>
+      </c>
+      <c r="T732" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>6</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D733" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E733" t="n">
+        <v>13</v>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G733" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I733" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J733" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M733" t="n">
+        <v>1180</v>
+      </c>
+      <c r="N733" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O733" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P733" t="n">
+        <v>21492</v>
+      </c>
+      <c r="Q733" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R733" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S733" t="n">
+        <v>1075</v>
+      </c>
+      <c r="T733" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>6</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D734" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E734" t="n">
+        <v>13</v>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G734" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I734" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J734" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L734" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M730" t="n">
+      <c r="M734" t="n">
         <v>3580</v>
       </c>
-      <c r="N730" t="n">
+      <c r="N734" t="n">
         <v>21000</v>
       </c>
-      <c r="O730" t="n">
+      <c r="O734" t="n">
         <v>23000</v>
       </c>
-      <c r="P730" t="n">
+      <c r="P734" t="n">
         <v>22277</v>
       </c>
-      <c r="Q730" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R730" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S730" t="n">
+      <c r="Q734" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R734" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S734" t="n">
         <v>1114</v>
       </c>
-      <c r="T730" t="n">
+      <c r="T734" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T734"/>
+  <dimension ref="A1:T737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="N632" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O632" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P632" t="n">
-        <v>23539</v>
+        <v>15545</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>1177</v>
+        <v>777</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51004,16 +51004,16 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>2770</v>
+        <v>3570</v>
       </c>
       <c r="N633" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O633" t="n">
-        <v>26000</v>
+        <v>170000</v>
       </c>
       <c r="P633" t="n">
-        <v>25549</v>
+        <v>22633</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>1277</v>
+        <v>1132</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>216</v>
+        <v>1060</v>
       </c>
       <c r="N634" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O634" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P634" t="n">
-        <v>20500</v>
+        <v>16585</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>1025</v>
+        <v>829</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>1360</v>
+        <v>890</v>
       </c>
       <c r="N635" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="O635" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P635" t="n">
-        <v>11500</v>
+        <v>23539</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>575</v>
+        <v>1177</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51244,16 +51244,16 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>3040</v>
+        <v>2770</v>
       </c>
       <c r="N636" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O636" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="P636" t="n">
-        <v>13882</v>
+        <v>25549</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>694</v>
+        <v>1277</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>1680</v>
+        <v>216</v>
       </c>
       <c r="N637" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="O637" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P637" t="n">
-        <v>9250</v>
+        <v>20500</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>462</v>
+        <v>1025</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>200</v>
+        <v>1360</v>
       </c>
       <c r="N638" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O638" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P638" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>1760</v>
+        <v>3040</v>
       </c>
       <c r="N639" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O639" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P639" t="n">
-        <v>11500</v>
+        <v>13882</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>575</v>
+        <v>694</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>216</v>
+        <v>1680</v>
       </c>
       <c r="N640" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O640" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P640" t="n">
-        <v>20500</v>
+        <v>9250</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>1025</v>
+        <v>462</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N641" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O641" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P641" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>1190</v>
+        <v>1760</v>
       </c>
       <c r="N642" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O642" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P642" t="n">
-        <v>9361</v>
+        <v>11500</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>468</v>
+        <v>575</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>880</v>
+        <v>216</v>
       </c>
       <c r="N643" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O643" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P643" t="n">
-        <v>10545</v>
+        <v>20500</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>527</v>
+        <v>1025</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>2710</v>
+        <v>150</v>
       </c>
       <c r="N644" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O644" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P644" t="n">
-        <v>11513</v>
+        <v>8000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>576</v>
+        <v>400</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1270</v>
+        <v>1190</v>
       </c>
       <c r="N645" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="O645" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P645" t="n">
-        <v>17559</v>
+        <v>9361</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>878</v>
+        <v>468</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>950</v>
+        <v>880</v>
       </c>
       <c r="N646" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O646" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P646" t="n">
-        <v>19579</v>
+        <v>10545</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>979</v>
+        <v>527</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="N647" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O647" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P647" t="n">
-        <v>15640</v>
+        <v>11513</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>782</v>
+        <v>576</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,11 +52200,11 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>1980</v>
+        <v>1270</v>
       </c>
       <c r="N648" t="n">
         <v>17000</v>
@@ -52213,7 +52213,7 @@
         <v>18000</v>
       </c>
       <c r="P648" t="n">
-        <v>17424</v>
+        <v>17559</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>2510</v>
+        <v>950</v>
       </c>
       <c r="N649" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O649" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P649" t="n">
-        <v>11709</v>
+        <v>19579</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>585</v>
+        <v>979</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>350</v>
+        <v>2500</v>
       </c>
       <c r="N650" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O650" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P650" t="n">
-        <v>13000</v>
+        <v>15640</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>650</v>
+        <v>782</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>3390</v>
+        <v>1980</v>
       </c>
       <c r="N651" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O651" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P651" t="n">
-        <v>13298</v>
+        <v>17424</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>665</v>
+        <v>871</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>2080</v>
+        <v>2510</v>
       </c>
       <c r="N652" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O652" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P652" t="n">
-        <v>8731</v>
+        <v>11709</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>437</v>
+        <v>585</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52604,16 +52604,16 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>560</v>
+        <v>350</v>
       </c>
       <c r="N653" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O653" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P653" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52684,16 +52684,16 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>3260</v>
+        <v>3390</v>
       </c>
       <c r="N654" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O654" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P654" t="n">
-        <v>10840</v>
+        <v>13298</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>542</v>
+        <v>665</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,25 +52755,25 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>108</v>
+        <v>2080</v>
       </c>
       <c r="N655" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O655" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="P655" t="n">
-        <v>18500</v>
+        <v>8731</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>925</v>
+        <v>437</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>2570</v>
+        <v>560</v>
       </c>
       <c r="N656" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O656" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P656" t="n">
-        <v>12451</v>
+        <v>11000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>1450</v>
+        <v>3260</v>
       </c>
       <c r="N657" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O657" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P657" t="n">
-        <v>13414</v>
+        <v>10840</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>671</v>
+        <v>542</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,25 +52995,25 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>600</v>
+        <v>108</v>
       </c>
       <c r="N658" t="n">
         <v>18000</v>
       </c>
       <c r="O658" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P658" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>900</v>
+        <v>925</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>1320</v>
+        <v>2570</v>
       </c>
       <c r="N659" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="O659" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P659" t="n">
-        <v>18788</v>
+        <v>12451</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>939</v>
+        <v>623</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="N660" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O660" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P660" t="n">
-        <v>19500</v>
+        <v>13414</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>975</v>
+        <v>671</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="N661" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O661" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P661" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>625</v>
+        <v>900</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>640</v>
+        <v>1320</v>
       </c>
       <c r="N662" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="O662" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P662" t="n">
-        <v>16500</v>
+        <v>18788</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>825</v>
+        <v>939</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>1470</v>
+        <v>800</v>
       </c>
       <c r="N663" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O663" t="n">
         <v>20000</v>
       </c>
       <c r="P663" t="n">
-        <v>19337</v>
+        <v>19500</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53484,16 +53484,16 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>780</v>
+        <v>170</v>
       </c>
       <c r="N664" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O664" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P664" t="n">
-        <v>17513</v>
+        <v>12500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>876</v>
+        <v>625</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53564,16 +53564,16 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>890</v>
+        <v>640</v>
       </c>
       <c r="N665" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O665" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P665" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53644,16 +53644,16 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>1750</v>
+        <v>1470</v>
       </c>
       <c r="N666" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O666" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P666" t="n">
-        <v>22946</v>
+        <v>19337</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>1147</v>
+        <v>967</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="N667" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O667" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P667" t="n">
-        <v>22588</v>
+        <v>17513</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1129</v>
+        <v>876</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>1690</v>
+        <v>890</v>
       </c>
       <c r="N668" t="n">
-        <v>9500</v>
+        <v>21000</v>
       </c>
       <c r="O668" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P668" t="n">
-        <v>10172</v>
+        <v>21500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>509</v>
+        <v>1075</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>780</v>
+        <v>1750</v>
       </c>
       <c r="N669" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O669" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P669" t="n">
-        <v>10615</v>
+        <v>22946</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>531</v>
+        <v>1147</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>2420</v>
+        <v>680</v>
       </c>
       <c r="N670" t="n">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="O670" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P670" t="n">
-        <v>11446</v>
+        <v>22588</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>572</v>
+        <v>1129</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>640</v>
+        <v>1690</v>
       </c>
       <c r="N671" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="O671" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P671" t="n">
-        <v>17500</v>
+        <v>10172</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>875</v>
+        <v>509</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>4540</v>
+        <v>780</v>
       </c>
       <c r="N672" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O672" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P672" t="n">
-        <v>19515</v>
+        <v>10615</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>976</v>
+        <v>531</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>1640</v>
+        <v>2420</v>
       </c>
       <c r="N673" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O673" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P673" t="n">
-        <v>20159</v>
+        <v>11446</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>1008</v>
+        <v>572</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>108</v>
+        <v>640</v>
       </c>
       <c r="N674" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O674" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P674" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>1050</v>
+        <v>875</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>200</v>
+        <v>4540</v>
       </c>
       <c r="N675" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O675" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P675" t="n">
-        <v>9000</v>
+        <v>19515</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>450</v>
+        <v>976</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>1760</v>
+        <v>1640</v>
       </c>
       <c r="N676" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O676" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P676" t="n">
-        <v>10500</v>
+        <v>20159</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>525</v>
+        <v>1008</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>1200</v>
+        <v>108</v>
       </c>
       <c r="N677" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O677" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P677" t="n">
-        <v>12250</v>
+        <v>21000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>612</v>
+        <v>1050</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M678" t="n">
         <v>200</v>
       </c>
       <c r="N678" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O678" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P678" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>350</v>
+        <v>1760</v>
       </c>
       <c r="N679" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O679" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P679" t="n">
-        <v>18500</v>
+        <v>10500</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>925</v>
+        <v>525</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54755,25 +54755,25 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>108</v>
+        <v>1200</v>
       </c>
       <c r="N680" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="O680" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P680" t="n">
-        <v>19750</v>
+        <v>12250</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>988</v>
+        <v>612</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,25 +54835,25 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N681" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O681" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P681" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,7 +54915,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -54924,16 +54924,16 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="N682" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O682" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P682" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>650</v>
+        <v>925</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54995,25 +54995,25 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>1520</v>
+        <v>108</v>
       </c>
       <c r="N683" t="n">
-        <v>11000</v>
+        <v>19500</v>
       </c>
       <c r="O683" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P683" t="n">
-        <v>11500</v>
+        <v>19750</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>575</v>
+        <v>988</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N684" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O684" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P684" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,25 +55155,25 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>475</v>
+        <v>170</v>
       </c>
       <c r="N685" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O685" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P685" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55244,16 +55244,16 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>775</v>
+        <v>1520</v>
       </c>
       <c r="N686" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O686" t="n">
         <v>12000</v>
       </c>
       <c r="P686" t="n">
-        <v>11226</v>
+        <v>11500</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>275</v>
+        <v>800</v>
       </c>
       <c r="N687" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O687" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P687" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55404,16 +55404,16 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>660</v>
+        <v>475</v>
       </c>
       <c r="N688" t="n">
         <v>9000</v>
       </c>
       <c r="O688" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P688" t="n">
-        <v>9545</v>
+        <v>9000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55484,7 +55484,7 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>1150</v>
+        <v>775</v>
       </c>
       <c r="N689" t="n">
         <v>10000</v>
@@ -55493,7 +55493,7 @@
         <v>12000</v>
       </c>
       <c r="P689" t="n">
-        <v>11043</v>
+        <v>11226</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55564,16 +55564,16 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>1420</v>
+        <v>275</v>
       </c>
       <c r="N690" t="n">
         <v>13000</v>
       </c>
       <c r="O690" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P690" t="n">
-        <v>13394</v>
+        <v>13000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,25 +55635,25 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>216</v>
+        <v>660</v>
       </c>
       <c r="N691" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O691" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P691" t="n">
-        <v>13750</v>
+        <v>9545</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>688</v>
+        <v>477</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55724,16 +55724,16 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>1360</v>
+        <v>1150</v>
       </c>
       <c r="N692" t="n">
         <v>10000</v>
       </c>
       <c r="O692" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P692" t="n">
-        <v>10647</v>
+        <v>11043</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55804,16 +55804,16 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>800</v>
+        <v>1420</v>
       </c>
       <c r="N693" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O693" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P693" t="n">
-        <v>12500</v>
+        <v>13394</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55884,16 +55884,16 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N694" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O694" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P694" t="n">
-        <v>18500</v>
+        <v>13750</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>925</v>
+        <v>688</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,25 +55955,25 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>200</v>
+        <v>1360</v>
       </c>
       <c r="N695" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O695" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P695" t="n">
-        <v>16000</v>
+        <v>10647</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>800</v>
+        <v>532</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56040,20 +56040,20 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N696" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O696" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P696" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56115,25 +56115,25 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>1680</v>
+        <v>108</v>
       </c>
       <c r="N697" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O697" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P697" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>675</v>
+        <v>925</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56195,25 +56195,25 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>1440</v>
+        <v>200</v>
       </c>
       <c r="N698" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O698" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P698" t="n">
-        <v>9833</v>
+        <v>16000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>492</v>
+        <v>800</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>730</v>
+        <v>1200</v>
       </c>
       <c r="N699" t="n">
         <v>11000</v>
       </c>
       <c r="O699" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P699" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56364,16 +56364,16 @@
         </is>
       </c>
       <c r="M700" t="n">
-        <v>4290</v>
+        <v>1680</v>
       </c>
       <c r="N700" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O700" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P700" t="n">
-        <v>11683</v>
+        <v>13500</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>584</v>
+        <v>675</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,25 +56435,25 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>216</v>
+        <v>1440</v>
       </c>
       <c r="N701" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O701" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P701" t="n">
-        <v>20500</v>
+        <v>9833</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>1025</v>
+        <v>492</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>1280</v>
+        <v>730</v>
       </c>
       <c r="N702" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O702" t="n">
         <v>11000</v>
       </c>
       <c r="P702" t="n">
-        <v>10688</v>
+        <v>11000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56604,16 +56604,16 @@
         </is>
       </c>
       <c r="M703" t="n">
-        <v>1840</v>
+        <v>4290</v>
       </c>
       <c r="N703" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O703" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P703" t="n">
-        <v>12891</v>
+        <v>11683</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>645</v>
+        <v>584</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="N704" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O704" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P704" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>500</v>
+        <v>1025</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56760,11 +56760,11 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>1040</v>
+        <v>1280</v>
       </c>
       <c r="N705" t="n">
         <v>10000</v>
@@ -56773,7 +56773,7 @@
         <v>11000</v>
       </c>
       <c r="P705" t="n">
-        <v>10462</v>
+        <v>10688</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56844,16 +56844,16 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>1650</v>
+        <v>1840</v>
       </c>
       <c r="N706" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O706" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P706" t="n">
-        <v>11527</v>
+        <v>12891</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56924,16 +56924,16 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>1490</v>
+        <v>200</v>
       </c>
       <c r="N707" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O707" t="n">
         <v>10000</v>
       </c>
       <c r="P707" t="n">
-        <v>9638</v>
+        <v>10000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57004,16 +57004,16 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>760</v>
+        <v>1040</v>
       </c>
       <c r="N708" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O708" t="n">
         <v>11000</v>
       </c>
-      <c r="O708" t="n">
-        <v>12000</v>
-      </c>
       <c r="P708" t="n">
-        <v>11526</v>
+        <v>10462</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>576</v>
+        <v>523</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57084,16 +57084,16 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>2470</v>
+        <v>1650</v>
       </c>
       <c r="N709" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O709" t="n">
         <v>12000</v>
       </c>
-      <c r="O709" t="n">
-        <v>13000</v>
-      </c>
       <c r="P709" t="n">
-        <v>12324</v>
+        <v>11527</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57155,25 +57155,25 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>216</v>
+        <v>1490</v>
       </c>
       <c r="N710" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O710" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P710" t="n">
-        <v>15500</v>
+        <v>9638</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>775</v>
+        <v>482</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="N711" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O711" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P711" t="n">
-        <v>8000</v>
+        <v>11526</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>1500</v>
+        <v>2470</v>
       </c>
       <c r="N712" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O712" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P712" t="n">
-        <v>10400</v>
+        <v>12324</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>520</v>
+        <v>616</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>1980</v>
+        <v>216</v>
       </c>
       <c r="N713" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O713" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P713" t="n">
-        <v>12424</v>
+        <v>15500</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>621</v>
+        <v>775</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N714" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O714" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P714" t="n">
-        <v>10667</v>
+        <v>8000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>2060</v>
+        <v>1500</v>
       </c>
       <c r="N715" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O715" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P715" t="n">
-        <v>12573</v>
+        <v>10400</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>629</v>
+        <v>520</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>150</v>
+        <v>1980</v>
       </c>
       <c r="N716" t="n">
         <v>12000</v>
       </c>
       <c r="O716" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P716" t="n">
-        <v>12000</v>
+        <v>12424</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57715,25 +57715,25 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>296</v>
+        <v>900</v>
       </c>
       <c r="N717" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O717" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P717" t="n">
-        <v>20365</v>
+        <v>10667</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>1018</v>
+        <v>533</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57795,7 +57795,7 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
@@ -57804,16 +57804,16 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>150</v>
+        <v>2060</v>
       </c>
       <c r="N718" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O718" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P718" t="n">
-        <v>15000</v>
+        <v>12573</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>750</v>
+        <v>629</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57875,7 +57875,7 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
@@ -57884,16 +57884,16 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N719" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O719" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P719" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57955,25 +57955,25 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="N720" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="O720" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P720" t="n">
-        <v>13750</v>
+        <v>20365</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>688</v>
+        <v>1018</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58035,25 +58035,25 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="N721" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O721" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P721" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58062,11 +58062,11 @@
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>1330</v>
+        <v>360</v>
       </c>
       <c r="N722" t="n">
         <v>13000</v>
       </c>
       <c r="O722" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P722" t="n">
-        <v>13421</v>
+        <v>13000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58142,11 +58142,11 @@
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="N723" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O723" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P723" t="n">
-        <v>15500</v>
+        <v>13750</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>775</v>
+        <v>688</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58280,20 +58280,20 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>570</v>
+        <v>680</v>
       </c>
       <c r="N724" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O724" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P724" t="n">
-        <v>8825</v>
+        <v>13000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58302,11 +58302,11 @@
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>441</v>
+        <v>650</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>670</v>
+        <v>1330</v>
       </c>
       <c r="N725" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O725" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P725" t="n">
-        <v>10403</v>
+        <v>13421</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58382,11 +58382,11 @@
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>520</v>
+        <v>671</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58444,16 +58444,16 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>270</v>
+        <v>960</v>
       </c>
       <c r="N726" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O726" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P726" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58524,16 +58524,16 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>360</v>
+        <v>570</v>
       </c>
       <c r="N727" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O727" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P727" t="n">
-        <v>11000</v>
+        <v>8825</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>550</v>
+        <v>441</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58604,16 +58604,16 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>1340</v>
+        <v>670</v>
       </c>
       <c r="N728" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O728" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P728" t="n">
-        <v>12209</v>
+        <v>10403</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>880</v>
+        <v>270</v>
       </c>
       <c r="N729" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O729" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P729" t="n">
-        <v>12847</v>
+        <v>12000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>1970</v>
+        <v>360</v>
       </c>
       <c r="N730" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O730" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P730" t="n">
-        <v>13533</v>
+        <v>11000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>677</v>
+        <v>550</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58840,20 +58840,20 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>1090</v>
+        <v>1340</v>
       </c>
       <c r="N731" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O731" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P731" t="n">
-        <v>15404</v>
+        <v>12209</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>770</v>
+        <v>610</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>1520</v>
+        <v>880</v>
       </c>
       <c r="N732" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O732" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P732" t="n">
-        <v>18263</v>
+        <v>12847</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>913</v>
+        <v>642</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>1180</v>
+        <v>1970</v>
       </c>
       <c r="N733" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O733" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P733" t="n">
-        <v>21492</v>
+        <v>13533</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>1075</v>
+        <v>677</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59080,35 +59080,275 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M734" t="n">
+        <v>1090</v>
+      </c>
+      <c r="N734" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O734" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P734" t="n">
+        <v>15404</v>
+      </c>
+      <c r="Q734" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R734" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S734" t="n">
+        <v>770</v>
+      </c>
+      <c r="T734" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>6</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D735" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E735" t="n">
+        <v>13</v>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G735" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I735" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J735" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M735" t="n">
+        <v>1520</v>
+      </c>
+      <c r="N735" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O735" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P735" t="n">
+        <v>18263</v>
+      </c>
+      <c r="Q735" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R735" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S735" t="n">
+        <v>913</v>
+      </c>
+      <c r="T735" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>6</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D736" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E736" t="n">
+        <v>13</v>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G736" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I736" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J736" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M736" t="n">
+        <v>1180</v>
+      </c>
+      <c r="N736" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O736" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P736" t="n">
+        <v>21492</v>
+      </c>
+      <c r="Q736" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R736" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S736" t="n">
+        <v>1075</v>
+      </c>
+      <c r="T736" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>6</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D737" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E737" t="n">
+        <v>13</v>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G737" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I737" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J737" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M734" t="n">
+      <c r="M737" t="n">
         <v>3580</v>
       </c>
-      <c r="N734" t="n">
+      <c r="N737" t="n">
         <v>21000</v>
       </c>
-      <c r="O734" t="n">
+      <c r="O737" t="n">
         <v>23000</v>
       </c>
-      <c r="P734" t="n">
+      <c r="P737" t="n">
         <v>22277</v>
       </c>
-      <c r="Q734" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R734" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S734" t="n">
+      <c r="Q737" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R737" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S737" t="n">
         <v>1114</v>
       </c>
-      <c r="T734" t="n">
+      <c r="T737" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T737"/>
+  <dimension ref="A1:T740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>200</v>
+        <v>1150</v>
       </c>
       <c r="N589" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O589" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P589" t="n">
-        <v>10000</v>
+        <v>13652</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>500</v>
+        <v>683</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>800</v>
+        <v>4070</v>
       </c>
       <c r="N590" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="O590" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P590" t="n">
-        <v>9750</v>
+        <v>16243</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>488</v>
+        <v>812</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>640</v>
+        <v>1820</v>
       </c>
       <c r="N591" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O591" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P591" t="n">
-        <v>11750</v>
+        <v>16473</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>588</v>
+        <v>824</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>1370</v>
+        <v>200</v>
       </c>
       <c r="N592" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O592" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P592" t="n">
-        <v>12591</v>
+        <v>10000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N593" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O593" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P593" t="n">
-        <v>20500</v>
+        <v>9750</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>1025</v>
+        <v>488</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>250</v>
+        <v>640</v>
       </c>
       <c r="N594" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="O594" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P594" t="n">
-        <v>10000</v>
+        <v>11750</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>500</v>
+        <v>588</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>840</v>
+        <v>1370</v>
       </c>
       <c r="N595" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O595" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P595" t="n">
-        <v>11571</v>
+        <v>12591</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>1860</v>
+        <v>150</v>
       </c>
       <c r="N596" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O596" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P596" t="n">
-        <v>12344</v>
+        <v>20500</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>617</v>
+        <v>1025</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N597" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O597" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P597" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48204,16 +48204,16 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="N598" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O598" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P598" t="n">
-        <v>15000</v>
+        <v>11571</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>750</v>
+        <v>579</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48284,16 +48284,16 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>2740</v>
+        <v>1860</v>
       </c>
       <c r="N599" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O599" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P599" t="n">
-        <v>15474</v>
+        <v>12344</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>774</v>
+        <v>617</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>1200</v>
+        <v>170</v>
       </c>
       <c r="N600" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O600" t="n">
         <v>11000</v>
       </c>
       <c r="P600" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>2160</v>
+        <v>750</v>
       </c>
       <c r="N601" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O601" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P601" t="n">
-        <v>12389</v>
+        <v>15000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>619</v>
+        <v>750</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>350</v>
+        <v>2740</v>
       </c>
       <c r="N602" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O602" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P602" t="n">
-        <v>8000</v>
+        <v>15474</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>400</v>
+        <v>774</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="N603" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O603" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P603" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>620</v>
+        <v>2160</v>
       </c>
       <c r="N604" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O604" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P604" t="n">
-        <v>9548</v>
+        <v>12389</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>477</v>
+        <v>619</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>1390</v>
+        <v>350</v>
       </c>
       <c r="N605" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O605" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P605" t="n">
-        <v>10511</v>
+        <v>8000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>526</v>
+        <v>400</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>960</v>
+        <v>350</v>
       </c>
       <c r="N606" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O606" t="n">
         <v>13000</v>
       </c>
       <c r="P606" t="n">
-        <v>12583</v>
+        <v>13000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>1740</v>
+        <v>620</v>
       </c>
       <c r="N607" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O607" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P607" t="n">
-        <v>13563</v>
+        <v>9548</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>678</v>
+        <v>477</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>1370</v>
+        <v>1390</v>
       </c>
       <c r="N608" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O608" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P608" t="n">
-        <v>9796</v>
+        <v>10511</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>1500</v>
+        <v>960</v>
       </c>
       <c r="N609" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O609" t="n">
         <v>13000</v>
       </c>
       <c r="P609" t="n">
-        <v>11400</v>
+        <v>12583</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>570</v>
+        <v>629</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,11 +49160,11 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>1200</v>
+        <v>1740</v>
       </c>
       <c r="N610" t="n">
         <v>13000</v>
@@ -49173,7 +49173,7 @@
         <v>14000</v>
       </c>
       <c r="P610" t="n">
-        <v>13500</v>
+        <v>13563</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>480</v>
+        <v>1370</v>
       </c>
       <c r="N611" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O611" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P611" t="n">
-        <v>13500</v>
+        <v>9796</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>675</v>
+        <v>490</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>1320</v>
+        <v>1500</v>
       </c>
       <c r="N612" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O612" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P612" t="n">
-        <v>15576</v>
+        <v>11400</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>779</v>
+        <v>570</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N613" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O613" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P613" t="n">
-        <v>8900</v>
+        <v>13500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>445</v>
+        <v>675</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="N614" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O614" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P614" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49564,16 +49564,16 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>2628</v>
+        <v>1320</v>
       </c>
       <c r="N615" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O615" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P615" t="n">
-        <v>11156</v>
+        <v>15576</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>558</v>
+        <v>779</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N616" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O616" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P616" t="n">
-        <v>13500</v>
+        <v>8900</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>675</v>
+        <v>445</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1240</v>
+        <v>800</v>
       </c>
       <c r="N617" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O617" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P617" t="n">
-        <v>16468</v>
+        <v>9500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>823</v>
+        <v>475</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>3640</v>
+        <v>2628</v>
       </c>
       <c r="N618" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O618" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P618" t="n">
-        <v>16912</v>
+        <v>11156</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>846</v>
+        <v>558</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N619" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O619" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P619" t="n">
-        <v>16560</v>
+        <v>13500</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>828</v>
+        <v>675</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>200</v>
+        <v>1240</v>
       </c>
       <c r="N620" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O620" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P620" t="n">
-        <v>18000</v>
+        <v>16468</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>900</v>
+        <v>823</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>880</v>
+        <v>3640</v>
       </c>
       <c r="N621" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="O621" t="n">
         <v>18000</v>
       </c>
       <c r="P621" t="n">
-        <v>17818</v>
+        <v>16912</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>891</v>
+        <v>846</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>1810</v>
+        <v>1000</v>
       </c>
       <c r="N622" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O622" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P622" t="n">
-        <v>18762</v>
+        <v>16560</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>938</v>
+        <v>828</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N623" t="n">
         <v>18000</v>
       </c>
       <c r="O623" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P623" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>925</v>
+        <v>900</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="N624" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="O624" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P624" t="n">
-        <v>10000</v>
+        <v>17818</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>500</v>
+        <v>891</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>920</v>
+        <v>1810</v>
       </c>
       <c r="N625" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O625" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P625" t="n">
-        <v>11391</v>
+        <v>18762</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>570</v>
+        <v>938</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>1170</v>
+        <v>150</v>
       </c>
       <c r="N626" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O626" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P626" t="n">
-        <v>11419</v>
+        <v>18500</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>571</v>
+        <v>925</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>2570</v>
+        <v>400</v>
       </c>
       <c r="N627" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O627" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P627" t="n">
-        <v>12342</v>
+        <v>10000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>970</v>
+        <v>920</v>
       </c>
       <c r="N628" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O628" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P628" t="n">
-        <v>7845</v>
+        <v>11391</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>392</v>
+        <v>570</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>2110</v>
+        <v>1170</v>
       </c>
       <c r="N629" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O629" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P629" t="n">
-        <v>9374</v>
+        <v>11419</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>469</v>
+        <v>571</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>480</v>
+        <v>2570</v>
       </c>
       <c r="N630" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O630" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P630" t="n">
-        <v>11000</v>
+        <v>12342</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>2630</v>
+        <v>970</v>
       </c>
       <c r="N631" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O631" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P631" t="n">
-        <v>11437</v>
+        <v>7845</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>572</v>
+        <v>392</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>880</v>
+        <v>2110</v>
       </c>
       <c r="N632" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O632" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P632" t="n">
-        <v>15545</v>
+        <v>9374</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>777</v>
+        <v>469</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>3570</v>
+        <v>480</v>
       </c>
       <c r="N633" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O633" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="P633" t="n">
-        <v>22633</v>
+        <v>11000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>1132</v>
+        <v>550</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>1060</v>
+        <v>2630</v>
       </c>
       <c r="N634" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O634" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P634" t="n">
-        <v>16585</v>
+        <v>11437</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>829</v>
+        <v>572</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="N635" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O635" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P635" t="n">
-        <v>23539</v>
+        <v>15545</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>1177</v>
+        <v>777</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51244,16 +51244,16 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>2770</v>
+        <v>3570</v>
       </c>
       <c r="N636" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O636" t="n">
-        <v>26000</v>
+        <v>170000</v>
       </c>
       <c r="P636" t="n">
-        <v>25549</v>
+        <v>22633</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>1277</v>
+        <v>1132</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>216</v>
+        <v>1060</v>
       </c>
       <c r="N637" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O637" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P637" t="n">
-        <v>20500</v>
+        <v>16585</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1025</v>
+        <v>829</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>1360</v>
+        <v>890</v>
       </c>
       <c r="N638" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="O638" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P638" t="n">
-        <v>11500</v>
+        <v>23539</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>575</v>
+        <v>1177</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>3040</v>
+        <v>2770</v>
       </c>
       <c r="N639" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O639" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="P639" t="n">
-        <v>13882</v>
+        <v>25549</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>694</v>
+        <v>1277</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>1680</v>
+        <v>216</v>
       </c>
       <c r="N640" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="O640" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P640" t="n">
-        <v>9250</v>
+        <v>20500</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>462</v>
+        <v>1025</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>200</v>
+        <v>1360</v>
       </c>
       <c r="N641" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O641" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P641" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>1760</v>
+        <v>3040</v>
       </c>
       <c r="N642" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O642" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P642" t="n">
-        <v>11500</v>
+        <v>13882</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>575</v>
+        <v>694</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>216</v>
+        <v>1680</v>
       </c>
       <c r="N643" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O643" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P643" t="n">
-        <v>20500</v>
+        <v>9250</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>1025</v>
+        <v>462</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N644" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O644" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P644" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1190</v>
+        <v>1760</v>
       </c>
       <c r="N645" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O645" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P645" t="n">
-        <v>9361</v>
+        <v>11500</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>468</v>
+        <v>575</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>880</v>
+        <v>216</v>
       </c>
       <c r="N646" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O646" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P646" t="n">
-        <v>10545</v>
+        <v>20500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>527</v>
+        <v>1025</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>2710</v>
+        <v>150</v>
       </c>
       <c r="N647" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O647" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P647" t="n">
-        <v>11513</v>
+        <v>8000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>576</v>
+        <v>400</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>1270</v>
+        <v>1190</v>
       </c>
       <c r="N648" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="O648" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P648" t="n">
-        <v>17559</v>
+        <v>9361</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>878</v>
+        <v>468</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>950</v>
+        <v>880</v>
       </c>
       <c r="N649" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O649" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P649" t="n">
-        <v>19579</v>
+        <v>10545</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>979</v>
+        <v>527</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="N650" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O650" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P650" t="n">
-        <v>15640</v>
+        <v>11513</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>782</v>
+        <v>576</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,11 +52440,11 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>1980</v>
+        <v>1270</v>
       </c>
       <c r="N651" t="n">
         <v>17000</v>
@@ -52453,7 +52453,7 @@
         <v>18000</v>
       </c>
       <c r="P651" t="n">
-        <v>17424</v>
+        <v>17559</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>2510</v>
+        <v>950</v>
       </c>
       <c r="N652" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O652" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P652" t="n">
-        <v>11709</v>
+        <v>19579</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>585</v>
+        <v>979</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>350</v>
+        <v>2500</v>
       </c>
       <c r="N653" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O653" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P653" t="n">
-        <v>13000</v>
+        <v>15640</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>650</v>
+        <v>782</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52684,16 +52684,16 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>3390</v>
+        <v>1980</v>
       </c>
       <c r="N654" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O654" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P654" t="n">
-        <v>13298</v>
+        <v>17424</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>665</v>
+        <v>871</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>2080</v>
+        <v>2510</v>
       </c>
       <c r="N655" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O655" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P655" t="n">
-        <v>8731</v>
+        <v>11709</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>437</v>
+        <v>585</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>560</v>
+        <v>350</v>
       </c>
       <c r="N656" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O656" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P656" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>3260</v>
+        <v>3390</v>
       </c>
       <c r="N657" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O657" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P657" t="n">
-        <v>10840</v>
+        <v>13298</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>542</v>
+        <v>665</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,25 +52995,25 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>108</v>
+        <v>2080</v>
       </c>
       <c r="N658" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O658" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="P658" t="n">
-        <v>18500</v>
+        <v>8731</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>925</v>
+        <v>437</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>2570</v>
+        <v>560</v>
       </c>
       <c r="N659" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O659" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P659" t="n">
-        <v>12451</v>
+        <v>11000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53164,16 +53164,16 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>1450</v>
+        <v>3260</v>
       </c>
       <c r="N660" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O660" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>13414</v>
+        <v>10840</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>671</v>
+        <v>542</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>600</v>
+        <v>108</v>
       </c>
       <c r="N661" t="n">
         <v>18000</v>
       </c>
       <c r="O661" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P661" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>900</v>
+        <v>925</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>1320</v>
+        <v>2570</v>
       </c>
       <c r="N662" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="O662" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P662" t="n">
-        <v>18788</v>
+        <v>12451</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>939</v>
+        <v>623</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="N663" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O663" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P663" t="n">
-        <v>19500</v>
+        <v>13414</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>975</v>
+        <v>671</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="N664" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O664" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P664" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>625</v>
+        <v>900</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>640</v>
+        <v>1320</v>
       </c>
       <c r="N665" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="O665" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P665" t="n">
-        <v>16500</v>
+        <v>18788</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>825</v>
+        <v>939</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>1470</v>
+        <v>800</v>
       </c>
       <c r="N666" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O666" t="n">
         <v>20000</v>
       </c>
       <c r="P666" t="n">
-        <v>19337</v>
+        <v>19500</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>780</v>
+        <v>170</v>
       </c>
       <c r="N667" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O667" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P667" t="n">
-        <v>17513</v>
+        <v>12500</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>876</v>
+        <v>625</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>890</v>
+        <v>640</v>
       </c>
       <c r="N668" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O668" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P668" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53884,16 +53884,16 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>1750</v>
+        <v>1470</v>
       </c>
       <c r="N669" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O669" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P669" t="n">
-        <v>22946</v>
+        <v>19337</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>1147</v>
+        <v>967</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="N670" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O670" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P670" t="n">
-        <v>22588</v>
+        <v>17513</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>1129</v>
+        <v>876</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>1690</v>
+        <v>890</v>
       </c>
       <c r="N671" t="n">
-        <v>9500</v>
+        <v>21000</v>
       </c>
       <c r="O671" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P671" t="n">
-        <v>10172</v>
+        <v>21500</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>509</v>
+        <v>1075</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>780</v>
+        <v>1750</v>
       </c>
       <c r="N672" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O672" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P672" t="n">
-        <v>10615</v>
+        <v>22946</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>531</v>
+        <v>1147</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>2420</v>
+        <v>680</v>
       </c>
       <c r="N673" t="n">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="O673" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P673" t="n">
-        <v>11446</v>
+        <v>22588</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>572</v>
+        <v>1129</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>640</v>
+        <v>1690</v>
       </c>
       <c r="N674" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="O674" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P674" t="n">
-        <v>17500</v>
+        <v>10172</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>875</v>
+        <v>509</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>4540</v>
+        <v>780</v>
       </c>
       <c r="N675" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O675" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P675" t="n">
-        <v>19515</v>
+        <v>10615</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>976</v>
+        <v>531</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>1640</v>
+        <v>2420</v>
       </c>
       <c r="N676" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O676" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P676" t="n">
-        <v>20159</v>
+        <v>11446</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>1008</v>
+        <v>572</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>108</v>
+        <v>640</v>
       </c>
       <c r="N677" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O677" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P677" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>1050</v>
+        <v>875</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>200</v>
+        <v>4540</v>
       </c>
       <c r="N678" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O678" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P678" t="n">
-        <v>9000</v>
+        <v>19515</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>450</v>
+        <v>976</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>1760</v>
+        <v>1640</v>
       </c>
       <c r="N679" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O679" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P679" t="n">
-        <v>10500</v>
+        <v>20159</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>525</v>
+        <v>1008</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54755,25 +54755,25 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>1200</v>
+        <v>108</v>
       </c>
       <c r="N680" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O680" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P680" t="n">
-        <v>12250</v>
+        <v>21000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>612</v>
+        <v>1050</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M681" t="n">
         <v>200</v>
       </c>
       <c r="N681" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O681" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P681" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>350</v>
+        <v>1760</v>
       </c>
       <c r="N682" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O682" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P682" t="n">
-        <v>18500</v>
+        <v>10500</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>925</v>
+        <v>525</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -54995,25 +54995,25 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>108</v>
+        <v>1200</v>
       </c>
       <c r="N683" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="O683" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P683" t="n">
-        <v>19750</v>
+        <v>12250</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>988</v>
+        <v>612</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N684" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O684" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P684" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,7 +55155,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -55164,16 +55164,16 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="N685" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O685" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P685" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>650</v>
+        <v>925</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55235,25 +55235,25 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>1520</v>
+        <v>108</v>
       </c>
       <c r="N686" t="n">
-        <v>11000</v>
+        <v>19500</v>
       </c>
       <c r="O686" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P686" t="n">
-        <v>11500</v>
+        <v>19750</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>575</v>
+        <v>988</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55315,25 +55315,25 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N687" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O687" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P687" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,25 +55395,25 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>475</v>
+        <v>170</v>
       </c>
       <c r="N688" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O688" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P688" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55484,16 +55484,16 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>775</v>
+        <v>1520</v>
       </c>
       <c r="N689" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O689" t="n">
         <v>12000</v>
       </c>
       <c r="P689" t="n">
-        <v>11226</v>
+        <v>11500</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55564,16 +55564,16 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>275</v>
+        <v>800</v>
       </c>
       <c r="N690" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O690" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P690" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55644,16 +55644,16 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>660</v>
+        <v>475</v>
       </c>
       <c r="N691" t="n">
         <v>9000</v>
       </c>
       <c r="O691" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P691" t="n">
-        <v>9545</v>
+        <v>9000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55724,7 +55724,7 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>1150</v>
+        <v>775</v>
       </c>
       <c r="N692" t="n">
         <v>10000</v>
@@ -55733,7 +55733,7 @@
         <v>12000</v>
       </c>
       <c r="P692" t="n">
-        <v>11043</v>
+        <v>11226</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55804,16 +55804,16 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>1420</v>
+        <v>275</v>
       </c>
       <c r="N693" t="n">
         <v>13000</v>
       </c>
       <c r="O693" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P693" t="n">
-        <v>13394</v>
+        <v>13000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,25 +55875,25 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>216</v>
+        <v>660</v>
       </c>
       <c r="N694" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O694" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P694" t="n">
-        <v>13750</v>
+        <v>9545</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>688</v>
+        <v>477</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>1360</v>
+        <v>1150</v>
       </c>
       <c r="N695" t="n">
         <v>10000</v>
       </c>
       <c r="O695" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P695" t="n">
-        <v>10647</v>
+        <v>11043</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56044,16 +56044,16 @@
         </is>
       </c>
       <c r="M696" t="n">
-        <v>800</v>
+        <v>1420</v>
       </c>
       <c r="N696" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O696" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P696" t="n">
-        <v>12500</v>
+        <v>13394</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56124,16 +56124,16 @@
         </is>
       </c>
       <c r="M697" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N697" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O697" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P697" t="n">
-        <v>18500</v>
+        <v>13750</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>925</v>
+        <v>688</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56195,25 +56195,25 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>200</v>
+        <v>1360</v>
       </c>
       <c r="N698" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O698" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P698" t="n">
-        <v>16000</v>
+        <v>10647</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>800</v>
+        <v>532</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N699" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O699" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P699" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56355,25 +56355,25 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>1680</v>
+        <v>108</v>
       </c>
       <c r="N700" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O700" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P700" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>675</v>
+        <v>925</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,25 +56435,25 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>1440</v>
+        <v>200</v>
       </c>
       <c r="N701" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O701" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P701" t="n">
-        <v>9833</v>
+        <v>16000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>492</v>
+        <v>800</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>730</v>
+        <v>1200</v>
       </c>
       <c r="N702" t="n">
         <v>11000</v>
       </c>
       <c r="O702" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P702" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56604,16 +56604,16 @@
         </is>
       </c>
       <c r="M703" t="n">
-        <v>4290</v>
+        <v>1680</v>
       </c>
       <c r="N703" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O703" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P703" t="n">
-        <v>11683</v>
+        <v>13500</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>584</v>
+        <v>675</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>216</v>
+        <v>1440</v>
       </c>
       <c r="N704" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O704" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P704" t="n">
-        <v>20500</v>
+        <v>9833</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>1025</v>
+        <v>492</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>1280</v>
+        <v>730</v>
       </c>
       <c r="N705" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O705" t="n">
         <v>11000</v>
       </c>
       <c r="P705" t="n">
-        <v>10688</v>
+        <v>11000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56844,16 +56844,16 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>1840</v>
+        <v>4290</v>
       </c>
       <c r="N706" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O706" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P706" t="n">
-        <v>12891</v>
+        <v>11683</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>645</v>
+        <v>584</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56915,25 +56915,25 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="N707" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O707" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P707" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>500</v>
+        <v>1025</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57000,11 +57000,11 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>1040</v>
+        <v>1280</v>
       </c>
       <c r="N708" t="n">
         <v>10000</v>
@@ -57013,7 +57013,7 @@
         <v>11000</v>
       </c>
       <c r="P708" t="n">
-        <v>10462</v>
+        <v>10688</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57084,16 +57084,16 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>1650</v>
+        <v>1840</v>
       </c>
       <c r="N709" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O709" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P709" t="n">
-        <v>11527</v>
+        <v>12891</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57164,16 +57164,16 @@
         </is>
       </c>
       <c r="M710" t="n">
-        <v>1490</v>
+        <v>200</v>
       </c>
       <c r="N710" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O710" t="n">
         <v>10000</v>
       </c>
       <c r="P710" t="n">
-        <v>9638</v>
+        <v>10000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57244,16 +57244,16 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>760</v>
+        <v>1040</v>
       </c>
       <c r="N711" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O711" t="n">
         <v>11000</v>
       </c>
-      <c r="O711" t="n">
-        <v>12000</v>
-      </c>
       <c r="P711" t="n">
-        <v>11526</v>
+        <v>10462</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>576</v>
+        <v>523</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57324,16 +57324,16 @@
         </is>
       </c>
       <c r="M712" t="n">
-        <v>2470</v>
+        <v>1650</v>
       </c>
       <c r="N712" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O712" t="n">
         <v>12000</v>
       </c>
-      <c r="O712" t="n">
-        <v>13000</v>
-      </c>
       <c r="P712" t="n">
-        <v>12324</v>
+        <v>11527</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>216</v>
+        <v>1490</v>
       </c>
       <c r="N713" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O713" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P713" t="n">
-        <v>15500</v>
+        <v>9638</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>775</v>
+        <v>482</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="N714" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O714" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P714" t="n">
-        <v>8000</v>
+        <v>11526</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>1500</v>
+        <v>2470</v>
       </c>
       <c r="N715" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O715" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P715" t="n">
-        <v>10400</v>
+        <v>12324</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>520</v>
+        <v>616</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>1980</v>
+        <v>216</v>
       </c>
       <c r="N716" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O716" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P716" t="n">
-        <v>12424</v>
+        <v>15500</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>621</v>
+        <v>775</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57720,20 +57720,20 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N717" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O717" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P717" t="n">
-        <v>10667</v>
+        <v>8000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>2060</v>
+        <v>1500</v>
       </c>
       <c r="N718" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O718" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P718" t="n">
-        <v>12573</v>
+        <v>10400</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>629</v>
+        <v>520</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,25 +57875,25 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>150</v>
+        <v>1980</v>
       </c>
       <c r="N719" t="n">
         <v>12000</v>
       </c>
       <c r="O719" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P719" t="n">
-        <v>12000</v>
+        <v>12424</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,25 +57955,25 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>296</v>
+        <v>900</v>
       </c>
       <c r="N720" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O720" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P720" t="n">
-        <v>20365</v>
+        <v>10667</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>1018</v>
+        <v>533</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,7 +58035,7 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
@@ -58044,16 +58044,16 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>150</v>
+        <v>2060</v>
       </c>
       <c r="N721" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O721" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P721" t="n">
-        <v>15000</v>
+        <v>12573</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>750</v>
+        <v>629</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58115,7 +58115,7 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
@@ -58124,16 +58124,16 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N722" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O722" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P722" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58195,25 +58195,25 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="N723" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="O723" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P723" t="n">
-        <v>13750</v>
+        <v>20365</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>688</v>
+        <v>1018</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58275,25 +58275,25 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="N724" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O724" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P724" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58302,11 +58302,11 @@
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>1330</v>
+        <v>360</v>
       </c>
       <c r="N725" t="n">
         <v>13000</v>
       </c>
       <c r="O725" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P725" t="n">
-        <v>13421</v>
+        <v>13000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58382,11 +58382,11 @@
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="N726" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O726" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P726" t="n">
-        <v>15500</v>
+        <v>13750</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>775</v>
+        <v>688</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>570</v>
+        <v>680</v>
       </c>
       <c r="N727" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O727" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P727" t="n">
-        <v>8825</v>
+        <v>13000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58542,11 +58542,11 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>441</v>
+        <v>650</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>670</v>
+        <v>1330</v>
       </c>
       <c r="N728" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O728" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P728" t="n">
-        <v>10403</v>
+        <v>13421</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58622,11 +58622,11 @@
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>520</v>
+        <v>671</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58684,16 +58684,16 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>270</v>
+        <v>960</v>
       </c>
       <c r="N729" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O729" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P729" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58764,16 +58764,16 @@
         </is>
       </c>
       <c r="M730" t="n">
-        <v>360</v>
+        <v>570</v>
       </c>
       <c r="N730" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O730" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P730" t="n">
-        <v>11000</v>
+        <v>8825</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>550</v>
+        <v>441</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58844,16 +58844,16 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>1340</v>
+        <v>670</v>
       </c>
       <c r="N731" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O731" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P731" t="n">
-        <v>12209</v>
+        <v>10403</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>880</v>
+        <v>270</v>
       </c>
       <c r="N732" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O732" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P732" t="n">
-        <v>12847</v>
+        <v>12000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>1970</v>
+        <v>360</v>
       </c>
       <c r="N733" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O733" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P733" t="n">
-        <v>13533</v>
+        <v>11000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>677</v>
+        <v>550</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59080,20 +59080,20 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>1090</v>
+        <v>1340</v>
       </c>
       <c r="N734" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O734" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P734" t="n">
-        <v>15404</v>
+        <v>12209</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>770</v>
+        <v>610</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59160,20 +59160,20 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>1520</v>
+        <v>880</v>
       </c>
       <c r="N735" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O735" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P735" t="n">
-        <v>18263</v>
+        <v>12847</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>913</v>
+        <v>642</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>1180</v>
+        <v>1970</v>
       </c>
       <c r="N736" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O736" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P736" t="n">
-        <v>21492</v>
+        <v>13533</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>1075</v>
+        <v>677</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59320,35 +59320,275 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M737" t="n">
+        <v>1090</v>
+      </c>
+      <c r="N737" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O737" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P737" t="n">
+        <v>15404</v>
+      </c>
+      <c r="Q737" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R737" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S737" t="n">
+        <v>770</v>
+      </c>
+      <c r="T737" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>6</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D738" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E738" t="n">
+        <v>13</v>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G738" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I738" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J738" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M738" t="n">
+        <v>1520</v>
+      </c>
+      <c r="N738" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O738" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P738" t="n">
+        <v>18263</v>
+      </c>
+      <c r="Q738" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R738" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S738" t="n">
+        <v>913</v>
+      </c>
+      <c r="T738" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>6</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D739" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E739" t="n">
+        <v>13</v>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G739" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I739" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M739" t="n">
+        <v>1180</v>
+      </c>
+      <c r="N739" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O739" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P739" t="n">
+        <v>21492</v>
+      </c>
+      <c r="Q739" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R739" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S739" t="n">
+        <v>1075</v>
+      </c>
+      <c r="T739" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>6</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D740" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E740" t="n">
+        <v>13</v>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G740" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I740" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J740" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M737" t="n">
+      <c r="M740" t="n">
         <v>3580</v>
       </c>
-      <c r="N737" t="n">
+      <c r="N740" t="n">
         <v>21000</v>
       </c>
-      <c r="O737" t="n">
+      <c r="O740" t="n">
         <v>23000</v>
       </c>
-      <c r="P737" t="n">
+      <c r="P740" t="n">
         <v>22277</v>
       </c>
-      <c r="Q737" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R737" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S737" t="n">
+      <c r="Q740" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R740" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S740" t="n">
         <v>1114</v>
       </c>
-      <c r="T737" t="n">
+      <c r="T740" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T740"/>
+  <dimension ref="A1:T744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56915,25 +56915,25 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>216</v>
+        <v>1000</v>
       </c>
       <c r="N707" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O707" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P707" t="n">
-        <v>20500</v>
+        <v>13600</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>1025</v>
+        <v>680</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>1280</v>
+        <v>840</v>
       </c>
       <c r="N708" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O708" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P708" t="n">
-        <v>10688</v>
+        <v>17524</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>534</v>
+        <v>876</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57084,16 +57084,16 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>1840</v>
+        <v>3720</v>
       </c>
       <c r="N709" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O709" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P709" t="n">
-        <v>12891</v>
+        <v>16409</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>645</v>
+        <v>820</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N710" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O710" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P710" t="n">
-        <v>10000</v>
+        <v>15560</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57235,25 +57235,25 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>1040</v>
+        <v>216</v>
       </c>
       <c r="N711" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O711" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P711" t="n">
-        <v>10462</v>
+        <v>20500</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>523</v>
+        <v>1025</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>1650</v>
+        <v>1280</v>
       </c>
       <c r="N712" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O712" t="n">
         <v>11000</v>
       </c>
-      <c r="O712" t="n">
-        <v>12000</v>
-      </c>
       <c r="P712" t="n">
-        <v>11527</v>
+        <v>10688</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57400,20 +57400,20 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>1490</v>
+        <v>1840</v>
       </c>
       <c r="N713" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O713" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P713" t="n">
-        <v>9638</v>
+        <v>12891</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>482</v>
+        <v>645</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="N714" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O714" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P714" t="n">
-        <v>11526</v>
+        <v>10000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>576</v>
+        <v>500</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>2470</v>
+        <v>1040</v>
       </c>
       <c r="N715" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O715" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P715" t="n">
-        <v>12324</v>
+        <v>10462</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>616</v>
+        <v>523</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>216</v>
+        <v>1650</v>
       </c>
       <c r="N716" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O716" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P716" t="n">
-        <v>15500</v>
+        <v>11527</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>775</v>
+        <v>576</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57720,20 +57720,20 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>300</v>
+        <v>1490</v>
       </c>
       <c r="N717" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O717" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P717" t="n">
-        <v>8000</v>
+        <v>9638</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>1500</v>
+        <v>760</v>
       </c>
       <c r="N718" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O718" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P718" t="n">
-        <v>10400</v>
+        <v>11526</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57884,7 +57884,7 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>1980</v>
+        <v>2470</v>
       </c>
       <c r="N719" t="n">
         <v>12000</v>
@@ -57893,7 +57893,7 @@
         <v>13000</v>
       </c>
       <c r="P719" t="n">
-        <v>12424</v>
+        <v>12324</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,25 +57955,25 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>900</v>
+        <v>216</v>
       </c>
       <c r="N720" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O720" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P720" t="n">
-        <v>10667</v>
+        <v>15500</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>533</v>
+        <v>775</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>2060</v>
+        <v>300</v>
       </c>
       <c r="N721" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O721" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P721" t="n">
-        <v>12573</v>
+        <v>8000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>629</v>
+        <v>400</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,25 +58115,25 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="N722" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O722" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P722" t="n">
-        <v>12000</v>
+        <v>10400</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58195,25 +58195,25 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>296</v>
+        <v>1980</v>
       </c>
       <c r="N723" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O723" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P723" t="n">
-        <v>20365</v>
+        <v>12424</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>1018</v>
+        <v>621</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,25 +58275,25 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="N724" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O724" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P724" t="n">
-        <v>15000</v>
+        <v>10667</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>750</v>
+        <v>533</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>360</v>
+        <v>2060</v>
       </c>
       <c r="N725" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O725" t="n">
         <v>13000</v>
       </c>
       <c r="P725" t="n">
-        <v>13000</v>
+        <v>12573</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58435,25 +58435,25 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N726" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O726" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P726" t="n">
-        <v>13750</v>
+        <v>12000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58515,25 +58515,25 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>680</v>
+        <v>296</v>
       </c>
       <c r="N727" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O727" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P727" t="n">
-        <v>13000</v>
+        <v>20365</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58542,11 +58542,11 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>650</v>
+        <v>1018</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58595,7 +58595,7 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -58604,16 +58604,16 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>1330</v>
+        <v>150</v>
       </c>
       <c r="N728" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O728" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P728" t="n">
-        <v>13421</v>
+        <v>15000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58622,11 +58622,11 @@
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>960</v>
+        <v>360</v>
       </c>
       <c r="N729" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O729" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P729" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="N730" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O730" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P730" t="n">
-        <v>8825</v>
+        <v>13750</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>441</v>
+        <v>688</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58840,20 +58840,20 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="N731" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O731" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P731" t="n">
-        <v>10403</v>
+        <v>13000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58862,11 +58862,11 @@
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58924,16 +58924,16 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>270</v>
+        <v>1330</v>
       </c>
       <c r="N732" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O732" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P732" t="n">
-        <v>12000</v>
+        <v>13421</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58942,11 +58942,11 @@
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S732" t="n">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="N733" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O733" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P733" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59080,20 +59080,20 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>1340</v>
+        <v>570</v>
       </c>
       <c r="N734" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O734" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="P734" t="n">
-        <v>12209</v>
+        <v>8825</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>610</v>
+        <v>441</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59160,20 +59160,20 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>880</v>
+        <v>670</v>
       </c>
       <c r="N735" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O735" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P735" t="n">
-        <v>12847</v>
+        <v>10403</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>642</v>
+        <v>520</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59244,16 +59244,16 @@
         </is>
       </c>
       <c r="M736" t="n">
-        <v>1970</v>
+        <v>270</v>
       </c>
       <c r="N736" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O736" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P736" t="n">
-        <v>13533</v>
+        <v>12000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>677</v>
+        <v>600</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59324,16 +59324,16 @@
         </is>
       </c>
       <c r="M737" t="n">
-        <v>1090</v>
+        <v>360</v>
       </c>
       <c r="N737" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O737" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P737" t="n">
-        <v>15404</v>
+        <v>11000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>770</v>
+        <v>550</v>
       </c>
       <c r="T737" t="n">
         <v>20</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59404,16 +59404,16 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>1520</v>
+        <v>1340</v>
       </c>
       <c r="N738" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O738" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="P738" t="n">
-        <v>18263</v>
+        <v>12209</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>913</v>
+        <v>610</v>
       </c>
       <c r="T738" t="n">
         <v>20</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59484,16 +59484,16 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>1180</v>
+        <v>880</v>
       </c>
       <c r="N739" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O739" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P739" t="n">
-        <v>21492</v>
+        <v>12847</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>1075</v>
+        <v>642</v>
       </c>
       <c r="T739" t="n">
         <v>20</v>
@@ -59527,68 +59527,388 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E740" t="n">
+        <v>13</v>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G740" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I740" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J740" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M740" t="n">
+        <v>1970</v>
+      </c>
+      <c r="N740" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O740" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P740" t="n">
+        <v>13533</v>
+      </c>
+      <c r="Q740" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R740" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S740" t="n">
+        <v>677</v>
+      </c>
+      <c r="T740" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>6</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D741" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E740" t="n">
-        <v>13</v>
-      </c>
-      <c r="F740" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G740" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I740" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J740" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L740" t="inlineStr">
+      <c r="E741" t="n">
+        <v>13</v>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G741" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I741" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J741" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M741" t="n">
+        <v>1090</v>
+      </c>
+      <c r="N741" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O741" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P741" t="n">
+        <v>15404</v>
+      </c>
+      <c r="Q741" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R741" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S741" t="n">
+        <v>770</v>
+      </c>
+      <c r="T741" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>6</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D742" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E742" t="n">
+        <v>13</v>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G742" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I742" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J742" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M742" t="n">
+        <v>1520</v>
+      </c>
+      <c r="N742" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O742" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P742" t="n">
+        <v>18263</v>
+      </c>
+      <c r="Q742" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R742" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S742" t="n">
+        <v>913</v>
+      </c>
+      <c r="T742" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>6</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D743" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E743" t="n">
+        <v>13</v>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G743" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I743" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J743" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M743" t="n">
+        <v>1180</v>
+      </c>
+      <c r="N743" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O743" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P743" t="n">
+        <v>21492</v>
+      </c>
+      <c r="Q743" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R743" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S743" t="n">
+        <v>1075</v>
+      </c>
+      <c r="T743" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>6</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D744" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E744" t="n">
+        <v>13</v>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G744" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I744" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L744" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M740" t="n">
+      <c r="M744" t="n">
         <v>3580</v>
       </c>
-      <c r="N740" t="n">
+      <c r="N744" t="n">
         <v>21000</v>
       </c>
-      <c r="O740" t="n">
+      <c r="O744" t="n">
         <v>23000</v>
       </c>
-      <c r="P740" t="n">
+      <c r="P744" t="n">
         <v>22277</v>
       </c>
-      <c r="Q740" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R740" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S740" t="n">
+      <c r="Q744" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R744" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S744" t="n">
         <v>1114</v>
       </c>
-      <c r="T740" t="n">
+      <c r="T744" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T748"/>
+  <dimension ref="A1:T752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>1200</v>
+        <v>1140</v>
       </c>
       <c r="N607" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O607" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P607" t="n">
-        <v>10500</v>
+        <v>13509</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>2160</v>
+        <v>800</v>
       </c>
       <c r="N608" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O608" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P608" t="n">
-        <v>12389</v>
+        <v>14500</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>619</v>
+        <v>725</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>350</v>
+        <v>1040</v>
       </c>
       <c r="N609" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O609" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P609" t="n">
-        <v>8000</v>
+        <v>15538</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>400</v>
+        <v>777</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>350</v>
+        <v>3380</v>
       </c>
       <c r="N610" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O610" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P610" t="n">
-        <v>13000</v>
+        <v>16491</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>650</v>
+        <v>825</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>620</v>
+        <v>1200</v>
       </c>
       <c r="N611" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O611" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P611" t="n">
-        <v>9548</v>
+        <v>10500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>1390</v>
+        <v>2160</v>
       </c>
       <c r="N612" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O612" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P612" t="n">
-        <v>10511</v>
+        <v>12389</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>526</v>
+        <v>619</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>960</v>
+        <v>350</v>
       </c>
       <c r="N613" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O613" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P613" t="n">
-        <v>12583</v>
+        <v>8000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>629</v>
+        <v>400</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>1740</v>
+        <v>350</v>
       </c>
       <c r="N614" t="n">
         <v>13000</v>
       </c>
       <c r="O614" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P614" t="n">
-        <v>13563</v>
+        <v>13000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>1370</v>
+        <v>620</v>
       </c>
       <c r="N615" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O615" t="n">
         <v>10000</v>
       </c>
       <c r="P615" t="n">
-        <v>9796</v>
+        <v>9548</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>1500</v>
+        <v>1390</v>
       </c>
       <c r="N616" t="n">
         <v>10000</v>
       </c>
       <c r="O616" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P616" t="n">
-        <v>11400</v>
+        <v>10511</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>570</v>
+        <v>526</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="N617" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O617" t="n">
         <v>13000</v>
       </c>
-      <c r="O617" t="n">
-        <v>14000</v>
-      </c>
       <c r="P617" t="n">
-        <v>13500</v>
+        <v>12583</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>675</v>
+        <v>629</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,11 +49800,11 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>480</v>
+        <v>1740</v>
       </c>
       <c r="N618" t="n">
         <v>13000</v>
@@ -49813,7 +49813,7 @@
         <v>14000</v>
       </c>
       <c r="P618" t="n">
-        <v>13500</v>
+        <v>13563</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>1320</v>
+        <v>1370</v>
       </c>
       <c r="N619" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="O619" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P619" t="n">
-        <v>15576</v>
+        <v>9796</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>779</v>
+        <v>490</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N620" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O620" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P620" t="n">
-        <v>8900</v>
+        <v>11400</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>445</v>
+        <v>570</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N621" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O621" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P621" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>2628</v>
+        <v>480</v>
       </c>
       <c r="N622" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O622" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P622" t="n">
-        <v>11156</v>
+        <v>13500</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>558</v>
+        <v>675</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>800</v>
+        <v>1320</v>
       </c>
       <c r="N623" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O623" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P623" t="n">
-        <v>13500</v>
+        <v>15576</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>675</v>
+        <v>779</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>1240</v>
+        <v>500</v>
       </c>
       <c r="N624" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O624" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P624" t="n">
-        <v>16468</v>
+        <v>8900</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>823</v>
+        <v>445</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>3640</v>
+        <v>800</v>
       </c>
       <c r="N625" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O625" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P625" t="n">
-        <v>16912</v>
+        <v>9500</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>846</v>
+        <v>475</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>1000</v>
+        <v>2628</v>
       </c>
       <c r="N626" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O626" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P626" t="n">
-        <v>16560</v>
+        <v>11156</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>828</v>
+        <v>558</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N627" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O627" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P627" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>900</v>
+        <v>675</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>880</v>
+        <v>1240</v>
       </c>
       <c r="N628" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="O628" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P628" t="n">
-        <v>17818</v>
+        <v>16468</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>891</v>
+        <v>823</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50684,16 +50684,16 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>1810</v>
+        <v>3640</v>
       </c>
       <c r="N629" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O629" t="n">
         <v>18000</v>
       </c>
-      <c r="O629" t="n">
-        <v>20000</v>
-      </c>
       <c r="P629" t="n">
-        <v>18762</v>
+        <v>16912</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>938</v>
+        <v>846</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N630" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O630" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P630" t="n">
-        <v>18500</v>
+        <v>16560</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>925</v>
+        <v>828</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N631" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O631" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P631" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="N632" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="O632" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P632" t="n">
-        <v>11391</v>
+        <v>17818</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>570</v>
+        <v>891</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>1170</v>
+        <v>1810</v>
       </c>
       <c r="N633" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O633" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P633" t="n">
-        <v>11419</v>
+        <v>18762</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>571</v>
+        <v>938</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>2570</v>
+        <v>150</v>
       </c>
       <c r="N634" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O634" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P634" t="n">
-        <v>12342</v>
+        <v>18500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>617</v>
+        <v>925</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>970</v>
+        <v>400</v>
       </c>
       <c r="N635" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O635" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P635" t="n">
-        <v>7845</v>
+        <v>10000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51244,16 +51244,16 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>2110</v>
+        <v>920</v>
       </c>
       <c r="N636" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O636" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P636" t="n">
-        <v>9374</v>
+        <v>11391</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>469</v>
+        <v>570</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>480</v>
+        <v>1170</v>
       </c>
       <c r="N637" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O637" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P637" t="n">
-        <v>11000</v>
+        <v>11419</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>2630</v>
+        <v>2570</v>
       </c>
       <c r="N638" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O638" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P638" t="n">
-        <v>11437</v>
+        <v>12342</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>880</v>
+        <v>970</v>
       </c>
       <c r="N639" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O639" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P639" t="n">
-        <v>15545</v>
+        <v>7845</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>777</v>
+        <v>392</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>3570</v>
+        <v>2110</v>
       </c>
       <c r="N640" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O640" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="P640" t="n">
-        <v>22633</v>
+        <v>9374</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>1132</v>
+        <v>469</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>1060</v>
+        <v>480</v>
       </c>
       <c r="N641" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O641" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P641" t="n">
-        <v>16585</v>
+        <v>11000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>829</v>
+        <v>550</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>890</v>
+        <v>2630</v>
       </c>
       <c r="N642" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="O642" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P642" t="n">
-        <v>23539</v>
+        <v>11437</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>1177</v>
+        <v>572</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>2770</v>
+        <v>880</v>
       </c>
       <c r="N643" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O643" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="P643" t="n">
-        <v>25549</v>
+        <v>15545</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>1277</v>
+        <v>777</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,25 +51875,25 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>216</v>
+        <v>3570</v>
       </c>
       <c r="N644" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O644" t="n">
-        <v>21000</v>
+        <v>170000</v>
       </c>
       <c r="P644" t="n">
-        <v>20500</v>
+        <v>22633</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>1025</v>
+        <v>1132</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1360</v>
+        <v>1060</v>
       </c>
       <c r="N645" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O645" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P645" t="n">
-        <v>11500</v>
+        <v>16585</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>575</v>
+        <v>829</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>3040</v>
+        <v>890</v>
       </c>
       <c r="N646" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O646" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P646" t="n">
-        <v>13882</v>
+        <v>23539</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>694</v>
+        <v>1177</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>1680</v>
+        <v>2770</v>
       </c>
       <c r="N647" t="n">
-        <v>8500</v>
+        <v>25000</v>
       </c>
       <c r="O647" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="P647" t="n">
-        <v>9250</v>
+        <v>25549</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>462</v>
+        <v>1277</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="N648" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O648" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P648" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>500</v>
+        <v>1025</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,11 +52280,11 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>1760</v>
+        <v>1360</v>
       </c>
       <c r="N649" t="n">
         <v>11000</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>216</v>
+        <v>3040</v>
       </c>
       <c r="N650" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O650" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P650" t="n">
-        <v>20500</v>
+        <v>13882</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>1025</v>
+        <v>694</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>150</v>
+        <v>1680</v>
       </c>
       <c r="N651" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O651" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P651" t="n">
-        <v>8000</v>
+        <v>9250</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>1190</v>
+        <v>200</v>
       </c>
       <c r="N652" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O652" t="n">
         <v>10000</v>
       </c>
       <c r="P652" t="n">
-        <v>9361</v>
+        <v>10000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="N653" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O653" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P653" t="n">
-        <v>10545</v>
+        <v>11500</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>2710</v>
+        <v>216</v>
       </c>
       <c r="N654" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O654" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P654" t="n">
-        <v>11513</v>
+        <v>20500</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>576</v>
+        <v>1025</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>1270</v>
+        <v>150</v>
       </c>
       <c r="N655" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O655" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P655" t="n">
-        <v>17559</v>
+        <v>8000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>878</v>
+        <v>400</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>950</v>
+        <v>1190</v>
       </c>
       <c r="N656" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="O656" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P656" t="n">
-        <v>19579</v>
+        <v>9361</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>979</v>
+        <v>468</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>2500</v>
+        <v>880</v>
       </c>
       <c r="N657" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O657" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P657" t="n">
-        <v>15640</v>
+        <v>10545</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>782</v>
+        <v>527</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>1980</v>
+        <v>2710</v>
       </c>
       <c r="N658" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O658" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P658" t="n">
-        <v>17424</v>
+        <v>11513</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>871</v>
+        <v>576</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>2510</v>
+        <v>1270</v>
       </c>
       <c r="N659" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O659" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P659" t="n">
-        <v>11709</v>
+        <v>17559</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>585</v>
+        <v>878</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="N660" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O660" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P660" t="n">
-        <v>13000</v>
+        <v>19579</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>650</v>
+        <v>979</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>3390</v>
+        <v>2500</v>
       </c>
       <c r="N661" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O661" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P661" t="n">
-        <v>13298</v>
+        <v>15640</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>665</v>
+        <v>782</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>2080</v>
+        <v>1980</v>
       </c>
       <c r="N662" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O662" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="P662" t="n">
-        <v>8731</v>
+        <v>17424</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>437</v>
+        <v>871</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>560</v>
+        <v>2510</v>
       </c>
       <c r="N663" t="n">
         <v>11000</v>
       </c>
       <c r="O663" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P663" t="n">
-        <v>11000</v>
+        <v>11709</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>3260</v>
+        <v>350</v>
       </c>
       <c r="N664" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O664" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P664" t="n">
-        <v>10840</v>
+        <v>13000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>542</v>
+        <v>650</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>108</v>
+        <v>3390</v>
       </c>
       <c r="N665" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O665" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P665" t="n">
-        <v>18500</v>
+        <v>13298</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>925</v>
+        <v>665</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53644,16 +53644,16 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>2570</v>
+        <v>2080</v>
       </c>
       <c r="N666" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O666" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P666" t="n">
-        <v>12451</v>
+        <v>8731</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>623</v>
+        <v>437</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>1450</v>
+        <v>560</v>
       </c>
       <c r="N667" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O667" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P667" t="n">
-        <v>13414</v>
+        <v>11000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>671</v>
+        <v>550</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>600</v>
+        <v>3260</v>
       </c>
       <c r="N668" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O668" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P668" t="n">
-        <v>18000</v>
+        <v>10840</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>900</v>
+        <v>542</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>1320</v>
+        <v>108</v>
       </c>
       <c r="N669" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="O669" t="n">
         <v>19000</v>
       </c>
       <c r="P669" t="n">
-        <v>18788</v>
+        <v>18500</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>800</v>
+        <v>2570</v>
       </c>
       <c r="N670" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O670" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P670" t="n">
-        <v>19500</v>
+        <v>12451</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>975</v>
+        <v>623</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>170</v>
+        <v>1450</v>
       </c>
       <c r="N671" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O671" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P671" t="n">
-        <v>12500</v>
+        <v>13414</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54124,16 +54124,16 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="N672" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O672" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P672" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>1470</v>
+        <v>1320</v>
       </c>
       <c r="N673" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="O673" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P673" t="n">
-        <v>19337</v>
+        <v>18788</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>967</v>
+        <v>939</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="N674" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O674" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P674" t="n">
-        <v>17513</v>
+        <v>19500</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>876</v>
+        <v>975</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>890</v>
+        <v>170</v>
       </c>
       <c r="N675" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O675" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P675" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>1075</v>
+        <v>625</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>1750</v>
+        <v>640</v>
       </c>
       <c r="N676" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O676" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="P676" t="n">
-        <v>22946</v>
+        <v>16500</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>1147</v>
+        <v>825</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>680</v>
+        <v>1470</v>
       </c>
       <c r="N677" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O677" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P677" t="n">
-        <v>22588</v>
+        <v>19337</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>1129</v>
+        <v>967</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>1690</v>
+        <v>780</v>
       </c>
       <c r="N678" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="O678" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P678" t="n">
-        <v>10172</v>
+        <v>17513</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>509</v>
+        <v>876</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>780</v>
+        <v>890</v>
       </c>
       <c r="N679" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O679" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P679" t="n">
-        <v>10615</v>
+        <v>21500</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>531</v>
+        <v>1075</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>2420</v>
+        <v>1750</v>
       </c>
       <c r="N680" t="n">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="O680" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P680" t="n">
-        <v>11446</v>
+        <v>22946</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>572</v>
+        <v>1147</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="N681" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O681" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P681" t="n">
-        <v>17500</v>
+        <v>22588</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>875</v>
+        <v>1129</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>4540</v>
+        <v>1690</v>
       </c>
       <c r="N682" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="O682" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P682" t="n">
-        <v>19515</v>
+        <v>10172</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>976</v>
+        <v>509</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>1640</v>
+        <v>780</v>
       </c>
       <c r="N683" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O683" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P683" t="n">
-        <v>20159</v>
+        <v>10615</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>1008</v>
+        <v>531</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>108</v>
+        <v>2420</v>
       </c>
       <c r="N684" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O684" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P684" t="n">
-        <v>21000</v>
+        <v>11446</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>1050</v>
+        <v>572</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="N685" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O685" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P685" t="n">
-        <v>9000</v>
+        <v>17500</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>450</v>
+        <v>875</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>1760</v>
+        <v>4540</v>
       </c>
       <c r="N686" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O686" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P686" t="n">
-        <v>10500</v>
+        <v>19515</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>525</v>
+        <v>976</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>1200</v>
+        <v>1640</v>
       </c>
       <c r="N687" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="O687" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P687" t="n">
-        <v>12250</v>
+        <v>20159</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>612</v>
+        <v>1008</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,25 +55395,25 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="N688" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O688" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P688" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N689" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O689" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P689" t="n">
-        <v>18500</v>
+        <v>9000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>925</v>
+        <v>450</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55555,25 +55555,25 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>108</v>
+        <v>1760</v>
       </c>
       <c r="N690" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="O690" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P690" t="n">
-        <v>19750</v>
+        <v>10500</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>988</v>
+        <v>525</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,25 +55635,25 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="N691" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O691" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P691" t="n">
-        <v>12000</v>
+        <v>12250</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,25 +55715,25 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N692" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O692" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P692" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>1520</v>
+        <v>350</v>
       </c>
       <c r="N693" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O693" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P693" t="n">
-        <v>11500</v>
+        <v>18500</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>575</v>
+        <v>925</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55875,25 +55875,25 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>800</v>
+        <v>108</v>
       </c>
       <c r="N694" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="O694" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P694" t="n">
-        <v>14500</v>
+        <v>19750</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>725</v>
+        <v>988</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,25 +55955,25 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>475</v>
+        <v>150</v>
       </c>
       <c r="N695" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O695" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P695" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>775</v>
+        <v>170</v>
       </c>
       <c r="N696" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O696" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P696" t="n">
-        <v>11226</v>
+        <v>13000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>561</v>
+        <v>650</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,20 +56120,20 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>275</v>
+        <v>1520</v>
       </c>
       <c r="N697" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O697" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P697" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="N698" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O698" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P698" t="n">
-        <v>9545</v>
+        <v>14500</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>477</v>
+        <v>725</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>1150</v>
+        <v>475</v>
       </c>
       <c r="N699" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O699" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P699" t="n">
-        <v>11043</v>
+        <v>9000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>552</v>
+        <v>450</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>1420</v>
+        <v>775</v>
       </c>
       <c r="N700" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O700" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P700" t="n">
-        <v>13394</v>
+        <v>11226</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>670</v>
+        <v>561</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,25 +56435,25 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="N701" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O701" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P701" t="n">
-        <v>13750</v>
+        <v>13000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>1360</v>
+        <v>660</v>
       </c>
       <c r="N702" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O702" t="n">
         <v>10000</v>
       </c>
-      <c r="O702" t="n">
-        <v>11000</v>
-      </c>
       <c r="P702" t="n">
-        <v>10647</v>
+        <v>9545</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>532</v>
+        <v>477</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56600,20 +56600,20 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="N703" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O703" t="n">
         <v>12000</v>
       </c>
-      <c r="O703" t="n">
-        <v>13000</v>
-      </c>
       <c r="P703" t="n">
-        <v>12500</v>
+        <v>11043</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>625</v>
+        <v>552</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>108</v>
+        <v>1420</v>
       </c>
       <c r="N704" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O704" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P704" t="n">
-        <v>18500</v>
+        <v>13394</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>925</v>
+        <v>670</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="N705" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O705" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P705" t="n">
-        <v>16000</v>
+        <v>13750</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>800</v>
+        <v>688</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56844,16 +56844,16 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>1200</v>
+        <v>1360</v>
       </c>
       <c r="N706" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O706" t="n">
         <v>11000</v>
       </c>
-      <c r="O706" t="n">
-        <v>12000</v>
-      </c>
       <c r="P706" t="n">
-        <v>11500</v>
+        <v>10647</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>575</v>
+        <v>532</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56924,16 +56924,16 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>1680</v>
+        <v>800</v>
       </c>
       <c r="N707" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O707" t="n">
         <v>13000</v>
       </c>
-      <c r="O707" t="n">
-        <v>14000</v>
-      </c>
       <c r="P707" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -56995,25 +56995,25 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>1440</v>
+        <v>108</v>
       </c>
       <c r="N708" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O708" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P708" t="n">
-        <v>9833</v>
+        <v>18500</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>492</v>
+        <v>925</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,25 +57075,25 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>730</v>
+        <v>200</v>
       </c>
       <c r="N709" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O709" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P709" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>4290</v>
+        <v>1200</v>
       </c>
       <c r="N710" t="n">
         <v>11000</v>
       </c>
       <c r="O710" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P710" t="n">
-        <v>11683</v>
+        <v>11500</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,11 +57240,11 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>1000</v>
+        <v>1680</v>
       </c>
       <c r="N711" t="n">
         <v>13000</v>
@@ -57253,7 +57253,7 @@
         <v>14000</v>
       </c>
       <c r="P711" t="n">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="N712" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O712" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P712" t="n">
-        <v>17524</v>
+        <v>9833</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>876</v>
+        <v>492</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57400,20 +57400,20 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>3720</v>
+        <v>730</v>
       </c>
       <c r="N713" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O713" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P713" t="n">
-        <v>16409</v>
+        <v>11000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>820</v>
+        <v>550</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>1000</v>
+        <v>4290</v>
       </c>
       <c r="N714" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O714" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P714" t="n">
-        <v>15560</v>
+        <v>11683</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>778</v>
+        <v>584</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57555,25 +57555,25 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>216</v>
+        <v>1000</v>
       </c>
       <c r="N715" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O715" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P715" t="n">
-        <v>20500</v>
+        <v>13600</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>1025</v>
+        <v>680</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57640,20 +57640,20 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>1280</v>
+        <v>840</v>
       </c>
       <c r="N716" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O716" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P716" t="n">
-        <v>10688</v>
+        <v>17524</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>534</v>
+        <v>876</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57724,16 +57724,16 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>1840</v>
+        <v>3720</v>
       </c>
       <c r="N717" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O717" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P717" t="n">
-        <v>12891</v>
+        <v>16409</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>645</v>
+        <v>820</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N718" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O718" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P718" t="n">
-        <v>10000</v>
+        <v>15560</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,25 +57875,25 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>1040</v>
+        <v>216</v>
       </c>
       <c r="N719" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O719" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P719" t="n">
-        <v>10462</v>
+        <v>20500</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>523</v>
+        <v>1025</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>1650</v>
+        <v>1280</v>
       </c>
       <c r="N720" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O720" t="n">
         <v>11000</v>
       </c>
-      <c r="O720" t="n">
-        <v>12000</v>
-      </c>
       <c r="P720" t="n">
-        <v>11527</v>
+        <v>10688</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>1490</v>
+        <v>1840</v>
       </c>
       <c r="N721" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O721" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P721" t="n">
-        <v>9638</v>
+        <v>12891</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>482</v>
+        <v>645</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="N722" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O722" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P722" t="n">
-        <v>11526</v>
+        <v>10000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>576</v>
+        <v>500</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>2470</v>
+        <v>1040</v>
       </c>
       <c r="N723" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O723" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P723" t="n">
-        <v>12324</v>
+        <v>10462</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>616</v>
+        <v>523</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,25 +58275,25 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>216</v>
+        <v>1650</v>
       </c>
       <c r="N724" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O724" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P724" t="n">
-        <v>15500</v>
+        <v>11527</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>775</v>
+        <v>576</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>300</v>
+        <v>1490</v>
       </c>
       <c r="N725" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O725" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P725" t="n">
-        <v>8000</v>
+        <v>9638</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>1500</v>
+        <v>760</v>
       </c>
       <c r="N726" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O726" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P726" t="n">
-        <v>10400</v>
+        <v>11526</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58524,7 +58524,7 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>1980</v>
+        <v>2470</v>
       </c>
       <c r="N727" t="n">
         <v>12000</v>
@@ -58533,7 +58533,7 @@
         <v>13000</v>
       </c>
       <c r="P727" t="n">
-        <v>12424</v>
+        <v>12324</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,25 +58595,25 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>900</v>
+        <v>216</v>
       </c>
       <c r="N728" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O728" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P728" t="n">
-        <v>10667</v>
+        <v>15500</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>533</v>
+        <v>775</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>2060</v>
+        <v>300</v>
       </c>
       <c r="N729" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O729" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P729" t="n">
-        <v>12573</v>
+        <v>8000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>629</v>
+        <v>400</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58755,25 +58755,25 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="N730" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O730" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P730" t="n">
-        <v>12000</v>
+        <v>10400</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,25 +58835,25 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>296</v>
+        <v>1980</v>
       </c>
       <c r="N731" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O731" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P731" t="n">
-        <v>20365</v>
+        <v>12424</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>1018</v>
+        <v>621</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,25 +58915,25 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="N732" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O732" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P732" t="n">
-        <v>15000</v>
+        <v>10667</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>750</v>
+        <v>533</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>360</v>
+        <v>2060</v>
       </c>
       <c r="N733" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O733" t="n">
         <v>13000</v>
       </c>
       <c r="P733" t="n">
-        <v>13000</v>
+        <v>12573</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N734" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O734" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P734" t="n">
-        <v>13750</v>
+        <v>12000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59155,25 +59155,25 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>680</v>
+        <v>296</v>
       </c>
       <c r="N735" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O735" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P735" t="n">
-        <v>13000</v>
+        <v>20365</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59182,11 +59182,11 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>650</v>
+        <v>1018</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59235,7 +59235,7 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
@@ -59244,16 +59244,16 @@
         </is>
       </c>
       <c r="M736" t="n">
-        <v>1330</v>
+        <v>150</v>
       </c>
       <c r="N736" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O736" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P736" t="n">
-        <v>13421</v>
+        <v>15000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59262,11 +59262,11 @@
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59320,20 +59320,20 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>960</v>
+        <v>360</v>
       </c>
       <c r="N737" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O737" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P737" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="T737" t="n">
         <v>20</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="N738" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O738" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P738" t="n">
-        <v>8825</v>
+        <v>13750</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>441</v>
+        <v>688</v>
       </c>
       <c r="T738" t="n">
         <v>20</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59480,20 +59480,20 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="N739" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O739" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P739" t="n">
-        <v>10403</v>
+        <v>13000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59502,11 +59502,11 @@
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="T739" t="n">
         <v>20</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59564,16 +59564,16 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>270</v>
+        <v>1330</v>
       </c>
       <c r="N740" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O740" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P740" t="n">
-        <v>12000</v>
+        <v>13421</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59582,11 +59582,11 @@
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="T740" t="n">
         <v>20</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="N741" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O741" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P741" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T741" t="n">
         <v>20</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59720,20 +59720,20 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>1340</v>
+        <v>570</v>
       </c>
       <c r="N742" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O742" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="P742" t="n">
-        <v>12209</v>
+        <v>8825</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>610</v>
+        <v>441</v>
       </c>
       <c r="T742" t="n">
         <v>20</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59800,20 +59800,20 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>880</v>
+        <v>670</v>
       </c>
       <c r="N743" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O743" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P743" t="n">
-        <v>12847</v>
+        <v>10403</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>642</v>
+        <v>520</v>
       </c>
       <c r="T743" t="n">
         <v>20</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59884,16 +59884,16 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>1970</v>
+        <v>270</v>
       </c>
       <c r="N744" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O744" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P744" t="n">
-        <v>13533</v>
+        <v>12000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>677</v>
+        <v>600</v>
       </c>
       <c r="T744" t="n">
         <v>20</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59964,16 +59964,16 @@
         </is>
       </c>
       <c r="M745" t="n">
-        <v>1090</v>
+        <v>360</v>
       </c>
       <c r="N745" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O745" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P745" t="n">
-        <v>15404</v>
+        <v>11000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>770</v>
+        <v>550</v>
       </c>
       <c r="T745" t="n">
         <v>20</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60044,16 +60044,16 @@
         </is>
       </c>
       <c r="M746" t="n">
-        <v>1520</v>
+        <v>1340</v>
       </c>
       <c r="N746" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O746" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="P746" t="n">
-        <v>18263</v>
+        <v>12209</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>913</v>
+        <v>610</v>
       </c>
       <c r="T746" t="n">
         <v>20</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60124,16 +60124,16 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>1180</v>
+        <v>880</v>
       </c>
       <c r="N747" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O747" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P747" t="n">
-        <v>21492</v>
+        <v>12847</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>1075</v>
+        <v>642</v>
       </c>
       <c r="T747" t="n">
         <v>20</v>
@@ -60167,68 +60167,388 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E748" t="n">
+        <v>13</v>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G748" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I748" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J748" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M748" t="n">
+        <v>1970</v>
+      </c>
+      <c r="N748" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O748" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P748" t="n">
+        <v>13533</v>
+      </c>
+      <c r="Q748" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R748" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S748" t="n">
+        <v>677</v>
+      </c>
+      <c r="T748" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>6</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D749" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E748" t="n">
-        <v>13</v>
-      </c>
-      <c r="F748" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G748" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I748" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J748" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L748" t="inlineStr">
+      <c r="E749" t="n">
+        <v>13</v>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G749" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I749" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J749" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M749" t="n">
+        <v>1090</v>
+      </c>
+      <c r="N749" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O749" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P749" t="n">
+        <v>15404</v>
+      </c>
+      <c r="Q749" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R749" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S749" t="n">
+        <v>770</v>
+      </c>
+      <c r="T749" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>6</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D750" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E750" t="n">
+        <v>13</v>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G750" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I750" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J750" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M750" t="n">
+        <v>1520</v>
+      </c>
+      <c r="N750" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O750" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P750" t="n">
+        <v>18263</v>
+      </c>
+      <c r="Q750" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R750" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S750" t="n">
+        <v>913</v>
+      </c>
+      <c r="T750" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>6</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D751" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E751" t="n">
+        <v>13</v>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G751" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I751" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J751" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M751" t="n">
+        <v>1180</v>
+      </c>
+      <c r="N751" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O751" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P751" t="n">
+        <v>21492</v>
+      </c>
+      <c r="Q751" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R751" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S751" t="n">
+        <v>1075</v>
+      </c>
+      <c r="T751" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>6</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D752" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E752" t="n">
+        <v>13</v>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G752" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I752" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J752" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L752" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M748" t="n">
+      <c r="M752" t="n">
         <v>3580</v>
       </c>
-      <c r="N748" t="n">
+      <c r="N752" t="n">
         <v>21000</v>
       </c>
-      <c r="O748" t="n">
+      <c r="O752" t="n">
         <v>23000</v>
       </c>
-      <c r="P748" t="n">
+      <c r="P752" t="n">
         <v>22277</v>
       </c>
-      <c r="Q748" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R748" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S748" t="n">
+      <c r="Q752" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R752" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S752" t="n">
         <v>1114</v>
       </c>
-      <c r="T748" t="n">
+      <c r="T752" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T761"/>
+  <dimension ref="A1:T765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,25 +57475,25 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>216</v>
+        <v>1040</v>
       </c>
       <c r="N714" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O714" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P714" t="n">
-        <v>13750</v>
+        <v>10538</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>688</v>
+        <v>527</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57564,16 +57564,16 @@
         </is>
       </c>
       <c r="M715" t="n">
-        <v>1360</v>
+        <v>1140</v>
       </c>
       <c r="N715" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O715" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P715" t="n">
-        <v>10647</v>
+        <v>12579</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>532</v>
+        <v>629</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57640,11 +57640,11 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>800</v>
+        <v>1640</v>
       </c>
       <c r="N716" t="n">
         <v>12000</v>
@@ -57653,7 +57653,7 @@
         <v>13000</v>
       </c>
       <c r="P716" t="n">
-        <v>12500</v>
+        <v>12341</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57715,25 +57715,25 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>108</v>
+        <v>3200</v>
       </c>
       <c r="N717" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O717" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P717" t="n">
-        <v>18500</v>
+        <v>14188</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>925</v>
+        <v>709</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="N718" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O718" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P718" t="n">
-        <v>16000</v>
+        <v>13750</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>800</v>
+        <v>688</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57884,16 +57884,16 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>1200</v>
+        <v>1360</v>
       </c>
       <c r="N719" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O719" t="n">
         <v>11000</v>
       </c>
-      <c r="O719" t="n">
-        <v>12000</v>
-      </c>
       <c r="P719" t="n">
-        <v>11500</v>
+        <v>10647</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>575</v>
+        <v>532</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57964,16 +57964,16 @@
         </is>
       </c>
       <c r="M720" t="n">
-        <v>1680</v>
+        <v>800</v>
       </c>
       <c r="N720" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O720" t="n">
         <v>13000</v>
       </c>
-      <c r="O720" t="n">
-        <v>14000</v>
-      </c>
       <c r="P720" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,25 +58035,25 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>1440</v>
+        <v>108</v>
       </c>
       <c r="N721" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O721" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P721" t="n">
-        <v>9833</v>
+        <v>18500</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>492</v>
+        <v>925</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,25 +58115,25 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>730</v>
+        <v>200</v>
       </c>
       <c r="N722" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O722" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P722" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>4290</v>
+        <v>1200</v>
       </c>
       <c r="N723" t="n">
         <v>11000</v>
       </c>
       <c r="O723" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P723" t="n">
-        <v>11683</v>
+        <v>11500</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58280,11 +58280,11 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>1000</v>
+        <v>1680</v>
       </c>
       <c r="N724" t="n">
         <v>13000</v>
@@ -58293,7 +58293,7 @@
         <v>14000</v>
       </c>
       <c r="P724" t="n">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="N725" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O725" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P725" t="n">
-        <v>17524</v>
+        <v>9833</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>876</v>
+        <v>492</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>3720</v>
+        <v>730</v>
       </c>
       <c r="N726" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O726" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P726" t="n">
-        <v>16409</v>
+        <v>11000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>820</v>
+        <v>550</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>1000</v>
+        <v>4290</v>
       </c>
       <c r="N727" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O727" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P727" t="n">
-        <v>15560</v>
+        <v>11683</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>778</v>
+        <v>584</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,25 +58595,25 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>216</v>
+        <v>1000</v>
       </c>
       <c r="N728" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O728" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P728" t="n">
-        <v>20500</v>
+        <v>13600</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>1025</v>
+        <v>680</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>1280</v>
+        <v>840</v>
       </c>
       <c r="N729" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O729" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P729" t="n">
-        <v>10688</v>
+        <v>17524</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>534</v>
+        <v>876</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58764,16 +58764,16 @@
         </is>
       </c>
       <c r="M730" t="n">
-        <v>1840</v>
+        <v>3720</v>
       </c>
       <c r="N730" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O730" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P730" t="n">
-        <v>12891</v>
+        <v>16409</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>645</v>
+        <v>820</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58840,20 +58840,20 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N731" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O731" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P731" t="n">
-        <v>10000</v>
+        <v>15560</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,25 +58915,25 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>1040</v>
+        <v>216</v>
       </c>
       <c r="N732" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O732" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P732" t="n">
-        <v>10462</v>
+        <v>20500</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>523</v>
+        <v>1025</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>1650</v>
+        <v>1280</v>
       </c>
       <c r="N733" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O733" t="n">
         <v>11000</v>
       </c>
-      <c r="O733" t="n">
-        <v>12000</v>
-      </c>
       <c r="P733" t="n">
-        <v>11527</v>
+        <v>10688</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59080,20 +59080,20 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>1490</v>
+        <v>1840</v>
       </c>
       <c r="N734" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O734" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P734" t="n">
-        <v>9638</v>
+        <v>12891</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>482</v>
+        <v>645</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59160,20 +59160,20 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="N735" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O735" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P735" t="n">
-        <v>11526</v>
+        <v>10000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>576</v>
+        <v>500</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>2470</v>
+        <v>1040</v>
       </c>
       <c r="N736" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O736" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P736" t="n">
-        <v>12324</v>
+        <v>10462</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>616</v>
+        <v>523</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>216</v>
+        <v>1650</v>
       </c>
       <c r="N737" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O737" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P737" t="n">
-        <v>15500</v>
+        <v>11527</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>775</v>
+        <v>576</v>
       </c>
       <c r="T737" t="n">
         <v>20</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>300</v>
+        <v>1490</v>
       </c>
       <c r="N738" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O738" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P738" t="n">
-        <v>8000</v>
+        <v>9638</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="T738" t="n">
         <v>20</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59480,20 +59480,20 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>1500</v>
+        <v>760</v>
       </c>
       <c r="N739" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O739" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P739" t="n">
-        <v>10400</v>
+        <v>11526</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="T739" t="n">
         <v>20</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59564,7 +59564,7 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>1980</v>
+        <v>2470</v>
       </c>
       <c r="N740" t="n">
         <v>12000</v>
@@ -59573,7 +59573,7 @@
         <v>13000</v>
       </c>
       <c r="P740" t="n">
-        <v>12424</v>
+        <v>12324</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="T740" t="n">
         <v>20</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59635,25 +59635,25 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>900</v>
+        <v>216</v>
       </c>
       <c r="N741" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O741" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P741" t="n">
-        <v>10667</v>
+        <v>15500</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>533</v>
+        <v>775</v>
       </c>
       <c r="T741" t="n">
         <v>20</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59720,20 +59720,20 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>2060</v>
+        <v>300</v>
       </c>
       <c r="N742" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O742" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P742" t="n">
-        <v>12573</v>
+        <v>8000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>629</v>
+        <v>400</v>
       </c>
       <c r="T742" t="n">
         <v>20</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,25 +59795,25 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="N743" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O743" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P743" t="n">
-        <v>12000</v>
+        <v>10400</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="T743" t="n">
         <v>20</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59875,25 +59875,25 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>296</v>
+        <v>1980</v>
       </c>
       <c r="N744" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O744" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P744" t="n">
-        <v>20365</v>
+        <v>12424</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>1018</v>
+        <v>621</v>
       </c>
       <c r="T744" t="n">
         <v>20</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59955,25 +59955,25 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="N745" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O745" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P745" t="n">
-        <v>15000</v>
+        <v>10667</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>750</v>
+        <v>533</v>
       </c>
       <c r="T745" t="n">
         <v>20</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>360</v>
+        <v>2060</v>
       </c>
       <c r="N746" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O746" t="n">
         <v>13000</v>
       </c>
       <c r="P746" t="n">
-        <v>13000</v>
+        <v>12573</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="T746" t="n">
         <v>20</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N747" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O747" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P747" t="n">
-        <v>13750</v>
+        <v>12000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="T747" t="n">
         <v>20</v>
@@ -60195,25 +60195,25 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>680</v>
+        <v>296</v>
       </c>
       <c r="N748" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O748" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P748" t="n">
-        <v>13000</v>
+        <v>20365</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>650</v>
+        <v>1018</v>
       </c>
       <c r="T748" t="n">
         <v>20</v>
@@ -60275,7 +60275,7 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
@@ -60284,16 +60284,16 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>1330</v>
+        <v>150</v>
       </c>
       <c r="N749" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O749" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P749" t="n">
-        <v>13421</v>
+        <v>15000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60302,11 +60302,11 @@
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="T749" t="n">
         <v>20</v>
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>960</v>
+        <v>360</v>
       </c>
       <c r="N750" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O750" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P750" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="T750" t="n">
         <v>20</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="N751" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O751" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P751" t="n">
-        <v>8825</v>
+        <v>13750</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>441</v>
+        <v>688</v>
       </c>
       <c r="T751" t="n">
         <v>20</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60520,20 +60520,20 @@
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="N752" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O752" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P752" t="n">
-        <v>10403</v>
+        <v>13000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="T752" t="n">
         <v>20</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60604,16 +60604,16 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>270</v>
+        <v>1330</v>
       </c>
       <c r="N753" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O753" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P753" t="n">
-        <v>12000</v>
+        <v>13421</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60622,11 +60622,11 @@
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="T753" t="n">
         <v>20</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60680,20 +60680,20 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="N754" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O754" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P754" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T754" t="n">
         <v>20</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60760,20 +60760,20 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>1340</v>
+        <v>570</v>
       </c>
       <c r="N755" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O755" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="P755" t="n">
-        <v>12209</v>
+        <v>8825</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>610</v>
+        <v>441</v>
       </c>
       <c r="T755" t="n">
         <v>20</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60840,20 +60840,20 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>880</v>
+        <v>670</v>
       </c>
       <c r="N756" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O756" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P756" t="n">
-        <v>12847</v>
+        <v>10403</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>642</v>
+        <v>520</v>
       </c>
       <c r="T756" t="n">
         <v>20</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60924,16 +60924,16 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>1970</v>
+        <v>270</v>
       </c>
       <c r="N757" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O757" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P757" t="n">
-        <v>13533</v>
+        <v>12000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>677</v>
+        <v>600</v>
       </c>
       <c r="T757" t="n">
         <v>20</v>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -61004,16 +61004,16 @@
         </is>
       </c>
       <c r="M758" t="n">
-        <v>1090</v>
+        <v>360</v>
       </c>
       <c r="N758" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O758" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P758" t="n">
-        <v>15404</v>
+        <v>11000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>770</v>
+        <v>550</v>
       </c>
       <c r="T758" t="n">
         <v>20</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61084,16 +61084,16 @@
         </is>
       </c>
       <c r="M759" t="n">
-        <v>1520</v>
+        <v>1340</v>
       </c>
       <c r="N759" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O759" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="P759" t="n">
-        <v>18263</v>
+        <v>12209</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>913</v>
+        <v>610</v>
       </c>
       <c r="T759" t="n">
         <v>20</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61164,16 +61164,16 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>1180</v>
+        <v>880</v>
       </c>
       <c r="N760" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O760" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P760" t="n">
-        <v>21492</v>
+        <v>12847</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61186,7 +61186,7 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1075</v>
+        <v>642</v>
       </c>
       <c r="T760" t="n">
         <v>20</v>
@@ -61207,68 +61207,388 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E761" t="n">
+        <v>13</v>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G761" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I761" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M761" t="n">
+        <v>1970</v>
+      </c>
+      <c r="N761" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O761" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P761" t="n">
+        <v>13533</v>
+      </c>
+      <c r="Q761" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R761" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S761" t="n">
+        <v>677</v>
+      </c>
+      <c r="T761" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>6</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D762" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E761" t="n">
-        <v>13</v>
-      </c>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G761" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I761" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J761" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L761" t="inlineStr">
+      <c r="E762" t="n">
+        <v>13</v>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G762" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I762" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M762" t="n">
+        <v>1090</v>
+      </c>
+      <c r="N762" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O762" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P762" t="n">
+        <v>15404</v>
+      </c>
+      <c r="Q762" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R762" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S762" t="n">
+        <v>770</v>
+      </c>
+      <c r="T762" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>6</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D763" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E763" t="n">
+        <v>13</v>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G763" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I763" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M763" t="n">
+        <v>1520</v>
+      </c>
+      <c r="N763" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O763" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P763" t="n">
+        <v>18263</v>
+      </c>
+      <c r="Q763" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S763" t="n">
+        <v>913</v>
+      </c>
+      <c r="T763" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>6</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D764" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E764" t="n">
+        <v>13</v>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G764" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I764" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J764" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M764" t="n">
+        <v>1180</v>
+      </c>
+      <c r="N764" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O764" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P764" t="n">
+        <v>21492</v>
+      </c>
+      <c r="Q764" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R764" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S764" t="n">
+        <v>1075</v>
+      </c>
+      <c r="T764" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>6</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D765" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E765" t="n">
+        <v>13</v>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G765" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I765" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J765" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L765" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M761" t="n">
+      <c r="M765" t="n">
         <v>3580</v>
       </c>
-      <c r="N761" t="n">
+      <c r="N765" t="n">
         <v>21000</v>
       </c>
-      <c r="O761" t="n">
+      <c r="O765" t="n">
         <v>23000</v>
       </c>
-      <c r="P761" t="n">
+      <c r="P765" t="n">
         <v>22277</v>
       </c>
-      <c r="Q761" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R761" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S761" t="n">
+      <c r="Q765" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R765" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S765" t="n">
         <v>1114</v>
       </c>
-      <c r="T761" t="n">
+      <c r="T765" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T776"/>
+  <dimension ref="A1:T778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>970</v>
+        <v>760</v>
       </c>
       <c r="N664" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="O664" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P664" t="n">
-        <v>7845</v>
+        <v>19737</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>392</v>
+        <v>987</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>2110</v>
+        <v>1000</v>
       </c>
       <c r="N665" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O665" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P665" t="n">
-        <v>9374</v>
+        <v>21400</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>469</v>
+        <v>1070</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>480</v>
+        <v>970</v>
       </c>
       <c r="N666" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O666" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P666" t="n">
-        <v>11000</v>
+        <v>7845</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>550</v>
+        <v>392</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>2630</v>
+        <v>2110</v>
       </c>
       <c r="N667" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O667" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P667" t="n">
-        <v>11437</v>
+        <v>9374</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>572</v>
+        <v>469</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>1090</v>
+        <v>480</v>
       </c>
       <c r="N668" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O668" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P668" t="n">
-        <v>15404</v>
+        <v>11000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>770</v>
+        <v>550</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>1520</v>
+        <v>2630</v>
       </c>
       <c r="N669" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O669" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P669" t="n">
-        <v>18263</v>
+        <v>11437</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>913</v>
+        <v>572</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>1180</v>
+        <v>1090</v>
       </c>
       <c r="N670" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O670" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P670" t="n">
-        <v>21492</v>
+        <v>15404</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" 